--- a/グループ開発スケジュール.xlsx
+++ b/グループ開発スケジュール.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\グループ開発ローカルリポジトリー\groupA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\グループ開発ローカルリポジトリー\groupA_master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{100B6B25-08F1-4431-9306-A5AFF8912D38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC694054-000E-4E19-88F2-6464CF701317}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="560" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マイルストーン" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="139">
   <si>
     <t>No.</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>プログラミング</t>
-  </si>
-  <si>
-    <t>全員</t>
   </si>
   <si>
     <t>レビュー</t>
@@ -282,10 +279,6 @@
     <rPh sb="5" eb="7">
       <t>さくせい</t>
     </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -628,9 +621,65 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.登録完了画面</t>
+    <t>4.アカウント登録確認画面</t>
+    <rPh sb="7" eb="9">
+      <t>とうろく</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>かくにん</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>がめん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.アカウント登録完了画面</t>
+    <rPh sb="7" eb="9">
+      <t>とうろく</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>かんりょう</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>がめん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.メニュー画面</t>
+    <rPh sb="6" eb="8">
+      <t>がめん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.入力画面</t>
     <rPh sb="2" eb="4">
-      <t>とうろく</t>
+      <t>にゅうりょく</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>がめん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.入力確認画面</t>
+    <rPh sb="2" eb="4">
+      <t>にゅうりょく</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>かくにん</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>がめん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.入力完了画面</t>
+    <rPh sb="2" eb="4">
+      <t>にゅうりょく</t>
     </rPh>
     <rPh sb="4" eb="6">
       <t>かんりょう</t>
@@ -641,48 +690,80 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5.メニュー画面</t>
-    <rPh sb="6" eb="8">
+    <t>10.閲覧画面（年）</t>
+    <rPh sb="3" eb="5">
+      <t>えつらん</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>がめん</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ねん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.閲覧画面（月）</t>
+    <rPh sb="3" eb="5">
+      <t>えつらん</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>がめん</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>つき</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.閲覧画面（カレンダー）</t>
+    <rPh sb="3" eb="5">
+      <t>えつらん</t>
+    </rPh>
+    <rPh sb="5" eb="7">
       <t>がめん</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.記入画面</t>
-    <rPh sb="2" eb="4">
-      <t>きにゅう</t>
+    <t>13.閲覧画面（日）</t>
+    <rPh sb="3" eb="5">
+      <t>えつらん</t>
     </rPh>
-    <rPh sb="4" eb="6">
+    <rPh sb="5" eb="7">
+      <t>がめん</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ひ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.設定画面</t>
+    <rPh sb="3" eb="5">
+      <t>せってい</t>
+    </rPh>
+    <rPh sb="5" eb="7">
       <t>がめん</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.確認画面</t>
-    <rPh sb="2" eb="4">
-      <t>かくにん</t>
+    <t>15.修正画面</t>
+    <rPh sb="3" eb="5">
+      <t>しゅうせい</t>
     </rPh>
-    <rPh sb="4" eb="6">
+    <rPh sb="5" eb="7">
       <t>がめん</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.閲覧画面</t>
-    <rPh sb="2" eb="4">
-      <t>えつらん</t>
+    <t>16.削除画面</t>
+    <rPh sb="3" eb="5">
+      <t>さくじょ</t>
     </rPh>
-    <rPh sb="4" eb="6">
-      <t>がめん</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.設定画面</t>
-    <rPh sb="2" eb="4">
-      <t>せってい</t>
-    </rPh>
-    <rPh sb="4" eb="6">
+    <rPh sb="5" eb="7">
       <t>がめん</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2342,6 +2423,87 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2378,6 +2540,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2396,9 +2561,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2417,21 +2579,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2440,87 +2602,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2658,15 +2739,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>14606</xdr:colOff>
+      <xdr:colOff>14605</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>14506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>300404</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>161191</xdr:rowOff>
+      <xdr:rowOff>161192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2683,8 +2764,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4322837" y="1472564"/>
-          <a:ext cx="285798" cy="146685"/>
+          <a:off x="4322836" y="1472564"/>
+          <a:ext cx="483625" cy="146686"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2740,16 +2821,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>7327</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>14653</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
+      <xdr:rowOff>7328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>300404</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2766,8 +2847,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4931019" y="1802423"/>
-          <a:ext cx="600808" cy="168519"/>
+          <a:off x="4630615" y="1802424"/>
+          <a:ext cx="901212" cy="161192"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2907,15 +2988,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>7326</xdr:colOff>
+      <xdr:colOff>7325</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>7523</xdr:rowOff>
+      <xdr:rowOff>7522</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>307730</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>153866</xdr:rowOff>
+      <xdr:rowOff>168519</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2932,8 +3013,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6469672" y="1971138"/>
-          <a:ext cx="608136" cy="146343"/>
+          <a:off x="6469671" y="1971137"/>
+          <a:ext cx="915867" cy="160997"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2995,8 +3076,8 @@
       <xdr:rowOff>21981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>300403</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3016,7 +3097,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4322886" y="1648558"/>
-          <a:ext cx="593479" cy="146538"/>
+          <a:ext cx="908537" cy="146538"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3156,15 +3237,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>27</xdr:col>
-      <xdr:colOff>14653</xdr:colOff>
+      <xdr:colOff>7326</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
+      <xdr:rowOff>7327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>293126</xdr:colOff>
+      <xdr:colOff>300403</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>139309</xdr:rowOff>
+      <xdr:rowOff>153865</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3181,8 +3262,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8323384" y="2329962"/>
-          <a:ext cx="586204" cy="110001"/>
+          <a:off x="8316057" y="2307981"/>
+          <a:ext cx="600808" cy="146538"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3244,10 +3325,10 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>300404</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3265,7 +3346,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6161942" y="1795097"/>
-          <a:ext cx="1524000" cy="168518"/>
+          <a:ext cx="915866" cy="161191"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3352,7 +3433,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s2266"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s2269"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3874,7 +3955,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s4319"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s4323"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4126,22 +4207,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>224119</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>267594</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>38895</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>24850</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10">
+        <xdr:cNvPr id="3" name="図 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A99D31FA-13BE-4402-BCE9-F3A6DFB88187}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4157,8 +4238,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="8695314" cy="2491740"/>
+          <a:off x="224119" y="179294"/>
+          <a:ext cx="11580952" cy="2904762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4200,7 +4281,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s5328"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s5331"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4850,7 +4931,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s7446"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s7452"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4967,7 +5048,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s7447"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s7453"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5242,7 +5323,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s9455"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s9461"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5359,7 +5440,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s9456"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s9462"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5634,7 +5715,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s10432"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s10438"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5751,7 +5832,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s10433"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s10439"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6261,8 +6342,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AC16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11:AE12"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="X19" sqref="X19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -6273,7 +6354,7 @@
   <sheetData>
     <row r="2" spans="2:29" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B2" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.15">
@@ -6288,27 +6369,27 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="173">
+      <c r="K4" s="200">
         <v>2020</v>
       </c>
-      <c r="L4" s="173"/>
-      <c r="M4" s="173"/>
-      <c r="N4" s="173"/>
-      <c r="O4" s="173"/>
-      <c r="P4" s="173"/>
-      <c r="Q4" s="173"/>
-      <c r="R4" s="173"/>
-      <c r="S4" s="173"/>
-      <c r="T4" s="173"/>
-      <c r="U4" s="173"/>
-      <c r="V4" s="173"/>
-      <c r="W4" s="173"/>
-      <c r="X4" s="173"/>
-      <c r="Y4" s="173"/>
-      <c r="Z4" s="173"/>
-      <c r="AA4" s="173"/>
-      <c r="AB4" s="173"/>
-      <c r="AC4" s="174"/>
+      <c r="L4" s="200"/>
+      <c r="M4" s="200"/>
+      <c r="N4" s="200"/>
+      <c r="O4" s="200"/>
+      <c r="P4" s="200"/>
+      <c r="Q4" s="200"/>
+      <c r="R4" s="200"/>
+      <c r="S4" s="200"/>
+      <c r="T4" s="200"/>
+      <c r="U4" s="200"/>
+      <c r="V4" s="200"/>
+      <c r="W4" s="200"/>
+      <c r="X4" s="200"/>
+      <c r="Y4" s="200"/>
+      <c r="Z4" s="200"/>
+      <c r="AA4" s="200"/>
+      <c r="AB4" s="200"/>
+      <c r="AC4" s="201"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B5" s="10"/>
@@ -6320,27 +6401,27 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="173">
+      <c r="K5" s="200">
         <v>6</v>
       </c>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="173"/>
-      <c r="T5" s="173"/>
-      <c r="U5" s="173"/>
-      <c r="V5" s="173"/>
-      <c r="W5" s="173"/>
-      <c r="X5" s="173"/>
-      <c r="Y5" s="173"/>
-      <c r="Z5" s="173"/>
-      <c r="AA5" s="173"/>
-      <c r="AB5" s="173"/>
-      <c r="AC5" s="174"/>
+      <c r="L5" s="200"/>
+      <c r="M5" s="200"/>
+      <c r="N5" s="200"/>
+      <c r="O5" s="200"/>
+      <c r="P5" s="200"/>
+      <c r="Q5" s="200"/>
+      <c r="R5" s="200"/>
+      <c r="S5" s="200"/>
+      <c r="T5" s="200"/>
+      <c r="U5" s="200"/>
+      <c r="V5" s="200"/>
+      <c r="W5" s="200"/>
+      <c r="X5" s="200"/>
+      <c r="Y5" s="200"/>
+      <c r="Z5" s="200"/>
+      <c r="AA5" s="200"/>
+      <c r="AB5" s="200"/>
+      <c r="AC5" s="201"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B6" s="10"/>
@@ -6411,10 +6492,10 @@
       </c>
     </row>
     <row r="7" spans="2:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="225">
+      <c r="B7" s="192">
         <v>1</v>
       </c>
-      <c r="C7" s="223" t="s">
+      <c r="C7" s="190" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="19"/>
@@ -6425,28 +6506,28 @@
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
       <c r="K7" s="85"/>
-      <c r="L7" s="219"/>
-      <c r="M7" s="220"/>
-      <c r="N7" s="217"/>
-      <c r="O7" s="218"/>
-      <c r="P7" s="217"/>
-      <c r="Q7" s="218"/>
-      <c r="R7" s="218"/>
-      <c r="S7" s="221"/>
-      <c r="T7" s="222"/>
-      <c r="U7" s="217"/>
-      <c r="V7" s="218"/>
-      <c r="W7" s="218"/>
-      <c r="X7" s="218"/>
-      <c r="Y7" s="218"/>
-      <c r="Z7" s="221"/>
-      <c r="AA7" s="222"/>
-      <c r="AB7" s="217"/>
-      <c r="AC7" s="217"/>
+      <c r="L7" s="186"/>
+      <c r="M7" s="187"/>
+      <c r="N7" s="184"/>
+      <c r="O7" s="185"/>
+      <c r="P7" s="184"/>
+      <c r="Q7" s="185"/>
+      <c r="R7" s="185"/>
+      <c r="S7" s="188"/>
+      <c r="T7" s="189"/>
+      <c r="U7" s="184"/>
+      <c r="V7" s="185"/>
+      <c r="W7" s="185"/>
+      <c r="X7" s="185"/>
+      <c r="Y7" s="185"/>
+      <c r="Z7" s="188"/>
+      <c r="AA7" s="189"/>
+      <c r="AB7" s="184"/>
+      <c r="AC7" s="184"/>
     </row>
     <row r="8" spans="2:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="152"/>
-      <c r="C8" s="224" t="s">
+      <c r="C8" s="191" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="27" t="s">
@@ -6459,32 +6540,32 @@
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
       <c r="K8" s="85"/>
-      <c r="L8" s="219"/>
-      <c r="M8" s="220"/>
-      <c r="N8" s="217"/>
-      <c r="O8" s="218"/>
-      <c r="P8" s="217"/>
-      <c r="Q8" s="218"/>
-      <c r="R8" s="218"/>
-      <c r="S8" s="221"/>
-      <c r="T8" s="222"/>
-      <c r="U8" s="217"/>
-      <c r="V8" s="218"/>
-      <c r="W8" s="218"/>
-      <c r="X8" s="218"/>
-      <c r="Y8" s="218"/>
-      <c r="Z8" s="221"/>
-      <c r="AA8" s="222"/>
-      <c r="AB8" s="217"/>
-      <c r="AC8" s="217"/>
+      <c r="L8" s="186"/>
+      <c r="M8" s="187"/>
+      <c r="N8" s="184"/>
+      <c r="O8" s="185"/>
+      <c r="P8" s="184"/>
+      <c r="Q8" s="185"/>
+      <c r="R8" s="185"/>
+      <c r="S8" s="188"/>
+      <c r="T8" s="189"/>
+      <c r="U8" s="184"/>
+      <c r="V8" s="185"/>
+      <c r="W8" s="185"/>
+      <c r="X8" s="185"/>
+      <c r="Y8" s="185"/>
+      <c r="Z8" s="188"/>
+      <c r="AA8" s="189"/>
+      <c r="AB8" s="184"/>
+      <c r="AC8" s="184"/>
     </row>
     <row r="9" spans="2:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="152"/>
-      <c r="C9" s="224" t="s">
-        <v>124</v>
+      <c r="C9" s="191" t="s">
+        <v>122</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="27"/>
@@ -6493,32 +6574,32 @@
       <c r="I9" s="27"/>
       <c r="J9" s="27"/>
       <c r="K9" s="85"/>
-      <c r="L9" s="219"/>
-      <c r="M9" s="220"/>
-      <c r="N9" s="217"/>
-      <c r="O9" s="218"/>
-      <c r="P9" s="217"/>
-      <c r="Q9" s="218"/>
-      <c r="R9" s="218"/>
-      <c r="S9" s="221"/>
-      <c r="T9" s="222"/>
-      <c r="U9" s="217"/>
-      <c r="V9" s="218"/>
-      <c r="W9" s="218"/>
-      <c r="X9" s="218"/>
-      <c r="Y9" s="218"/>
-      <c r="Z9" s="221"/>
-      <c r="AA9" s="222"/>
-      <c r="AB9" s="217"/>
-      <c r="AC9" s="217"/>
+      <c r="L9" s="186"/>
+      <c r="M9" s="187"/>
+      <c r="N9" s="184"/>
+      <c r="O9" s="185"/>
+      <c r="P9" s="184"/>
+      <c r="Q9" s="185"/>
+      <c r="R9" s="185"/>
+      <c r="S9" s="188"/>
+      <c r="T9" s="189"/>
+      <c r="U9" s="184"/>
+      <c r="V9" s="185"/>
+      <c r="W9" s="185"/>
+      <c r="X9" s="185"/>
+      <c r="Y9" s="185"/>
+      <c r="Z9" s="188"/>
+      <c r="AA9" s="189"/>
+      <c r="AB9" s="184"/>
+      <c r="AC9" s="184"/>
     </row>
     <row r="10" spans="2:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="152"/>
-      <c r="C10" s="224" t="s">
+      <c r="C10" s="191" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="27"/>
@@ -6527,32 +6608,32 @@
       <c r="I10" s="27"/>
       <c r="J10" s="27"/>
       <c r="K10" s="85"/>
-      <c r="L10" s="219"/>
-      <c r="M10" s="220"/>
-      <c r="N10" s="217"/>
-      <c r="O10" s="218"/>
-      <c r="P10" s="217"/>
-      <c r="Q10" s="218"/>
-      <c r="R10" s="218"/>
-      <c r="S10" s="221"/>
-      <c r="T10" s="222"/>
-      <c r="U10" s="217"/>
-      <c r="V10" s="218"/>
-      <c r="W10" s="218"/>
-      <c r="X10" s="218"/>
-      <c r="Y10" s="218"/>
-      <c r="Z10" s="221"/>
-      <c r="AA10" s="222"/>
-      <c r="AB10" s="217"/>
-      <c r="AC10" s="217"/>
+      <c r="L10" s="186"/>
+      <c r="M10" s="187"/>
+      <c r="N10" s="184"/>
+      <c r="O10" s="185"/>
+      <c r="P10" s="184"/>
+      <c r="Q10" s="185"/>
+      <c r="R10" s="185"/>
+      <c r="S10" s="188"/>
+      <c r="T10" s="189"/>
+      <c r="U10" s="184"/>
+      <c r="V10" s="185"/>
+      <c r="W10" s="185"/>
+      <c r="X10" s="185"/>
+      <c r="Y10" s="185"/>
+      <c r="Z10" s="188"/>
+      <c r="AA10" s="189"/>
+      <c r="AB10" s="184"/>
+      <c r="AC10" s="184"/>
     </row>
     <row r="11" spans="2:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="152"/>
-      <c r="C11" s="224" t="s">
+      <c r="C11" s="191" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
@@ -6561,28 +6642,28 @@
       <c r="I11" s="27"/>
       <c r="J11" s="27"/>
       <c r="K11" s="85"/>
-      <c r="L11" s="219"/>
-      <c r="M11" s="220"/>
-      <c r="N11" s="217"/>
-      <c r="O11" s="218"/>
-      <c r="P11" s="217"/>
-      <c r="Q11" s="218"/>
-      <c r="R11" s="218"/>
-      <c r="S11" s="221"/>
-      <c r="T11" s="222"/>
-      <c r="U11" s="217"/>
-      <c r="V11" s="218"/>
-      <c r="W11" s="218"/>
-      <c r="X11" s="218"/>
-      <c r="Y11" s="218"/>
-      <c r="Z11" s="221"/>
-      <c r="AA11" s="222"/>
-      <c r="AB11" s="217"/>
-      <c r="AC11" s="217"/>
+      <c r="L11" s="186"/>
+      <c r="M11" s="187"/>
+      <c r="N11" s="184"/>
+      <c r="O11" s="185"/>
+      <c r="P11" s="184"/>
+      <c r="Q11" s="185"/>
+      <c r="R11" s="185"/>
+      <c r="S11" s="188"/>
+      <c r="T11" s="189"/>
+      <c r="U11" s="184"/>
+      <c r="V11" s="185"/>
+      <c r="W11" s="185"/>
+      <c r="X11" s="185"/>
+      <c r="Y11" s="185"/>
+      <c r="Z11" s="188"/>
+      <c r="AA11" s="189"/>
+      <c r="AB11" s="184"/>
+      <c r="AC11" s="184"/>
     </row>
     <row r="12" spans="2:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="152"/>
-      <c r="C12" s="224" t="s">
+      <c r="C12" s="191" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="28" t="s">
@@ -6595,28 +6676,28 @@
       <c r="I12" s="27"/>
       <c r="J12" s="27"/>
       <c r="K12" s="85"/>
-      <c r="L12" s="219"/>
-      <c r="M12" s="220"/>
-      <c r="N12" s="217"/>
-      <c r="O12" s="218"/>
-      <c r="P12" s="217"/>
-      <c r="Q12" s="218"/>
-      <c r="R12" s="218"/>
-      <c r="S12" s="221"/>
-      <c r="T12" s="222"/>
-      <c r="U12" s="217"/>
-      <c r="V12" s="218"/>
-      <c r="W12" s="218"/>
-      <c r="X12" s="218"/>
-      <c r="Y12" s="218"/>
-      <c r="Z12" s="221"/>
-      <c r="AA12" s="222"/>
-      <c r="AB12" s="217"/>
-      <c r="AC12" s="217"/>
+      <c r="L12" s="186"/>
+      <c r="M12" s="187"/>
+      <c r="N12" s="184"/>
+      <c r="O12" s="185"/>
+      <c r="P12" s="184"/>
+      <c r="Q12" s="185"/>
+      <c r="R12" s="185"/>
+      <c r="S12" s="188"/>
+      <c r="T12" s="189"/>
+      <c r="U12" s="184"/>
+      <c r="V12" s="185"/>
+      <c r="W12" s="185"/>
+      <c r="X12" s="185"/>
+      <c r="Y12" s="185"/>
+      <c r="Z12" s="188"/>
+      <c r="AA12" s="189"/>
+      <c r="AB12" s="184"/>
+      <c r="AC12" s="184"/>
     </row>
     <row r="13" spans="2:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="152"/>
-      <c r="C13" s="224" t="s">
+      <c r="C13" s="191" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="28" t="s">
@@ -6629,32 +6710,32 @@
       <c r="I13" s="27"/>
       <c r="J13" s="27"/>
       <c r="K13" s="85"/>
-      <c r="L13" s="219"/>
-      <c r="M13" s="220"/>
-      <c r="N13" s="217"/>
-      <c r="O13" s="218"/>
-      <c r="P13" s="217"/>
-      <c r="Q13" s="218"/>
-      <c r="R13" s="218"/>
-      <c r="S13" s="221"/>
-      <c r="T13" s="222"/>
-      <c r="U13" s="217"/>
-      <c r="V13" s="218"/>
-      <c r="W13" s="218"/>
-      <c r="X13" s="218"/>
-      <c r="Y13" s="218"/>
-      <c r="Z13" s="221"/>
-      <c r="AA13" s="222"/>
-      <c r="AB13" s="217"/>
-      <c r="AC13" s="217"/>
+      <c r="L13" s="186"/>
+      <c r="M13" s="187"/>
+      <c r="N13" s="184"/>
+      <c r="O13" s="185"/>
+      <c r="P13" s="184"/>
+      <c r="Q13" s="185"/>
+      <c r="R13" s="185"/>
+      <c r="S13" s="188"/>
+      <c r="T13" s="189"/>
+      <c r="U13" s="184"/>
+      <c r="V13" s="185"/>
+      <c r="W13" s="185"/>
+      <c r="X13" s="185"/>
+      <c r="Y13" s="185"/>
+      <c r="Z13" s="188"/>
+      <c r="AA13" s="189"/>
+      <c r="AB13" s="184"/>
+      <c r="AC13" s="184"/>
     </row>
     <row r="14" spans="2:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="152"/>
-      <c r="C14" s="224" t="s">
+      <c r="C14" s="191" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
@@ -6663,32 +6744,32 @@
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="85"/>
-      <c r="L14" s="219"/>
-      <c r="M14" s="220"/>
-      <c r="N14" s="217"/>
-      <c r="O14" s="218"/>
-      <c r="P14" s="217"/>
-      <c r="Q14" s="218"/>
-      <c r="R14" s="218"/>
-      <c r="S14" s="221"/>
-      <c r="T14" s="222"/>
-      <c r="U14" s="217"/>
-      <c r="V14" s="218"/>
-      <c r="W14" s="218"/>
-      <c r="X14" s="218"/>
-      <c r="Y14" s="218"/>
-      <c r="Z14" s="221"/>
-      <c r="AA14" s="222"/>
-      <c r="AB14" s="217"/>
-      <c r="AC14" s="217"/>
+      <c r="L14" s="186"/>
+      <c r="M14" s="187"/>
+      <c r="N14" s="184"/>
+      <c r="O14" s="185"/>
+      <c r="P14" s="184"/>
+      <c r="Q14" s="185"/>
+      <c r="R14" s="185"/>
+      <c r="S14" s="188"/>
+      <c r="T14" s="189"/>
+      <c r="U14" s="184"/>
+      <c r="V14" s="185"/>
+      <c r="W14" s="185"/>
+      <c r="X14" s="185"/>
+      <c r="Y14" s="185"/>
+      <c r="Z14" s="188"/>
+      <c r="AA14" s="189"/>
+      <c r="AB14" s="184"/>
+      <c r="AC14" s="184"/>
     </row>
     <row r="15" spans="2:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="153"/>
-      <c r="C15" s="226" t="s">
-        <v>125</v>
+      <c r="C15" s="193" t="s">
+        <v>123</v>
       </c>
       <c r="D15" s="29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
@@ -6697,24 +6778,24 @@
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
       <c r="K15" s="85"/>
-      <c r="L15" s="219"/>
-      <c r="M15" s="220"/>
-      <c r="N15" s="217"/>
-      <c r="O15" s="218"/>
-      <c r="P15" s="217"/>
-      <c r="Q15" s="218"/>
-      <c r="R15" s="218"/>
-      <c r="S15" s="221"/>
-      <c r="T15" s="222"/>
-      <c r="U15" s="217"/>
-      <c r="V15" s="218"/>
-      <c r="W15" s="218"/>
-      <c r="X15" s="218"/>
-      <c r="Y15" s="218"/>
-      <c r="Z15" s="221"/>
-      <c r="AA15" s="222"/>
-      <c r="AB15" s="217"/>
-      <c r="AC15" s="217"/>
+      <c r="L15" s="186"/>
+      <c r="M15" s="187"/>
+      <c r="N15" s="184"/>
+      <c r="O15" s="185"/>
+      <c r="P15" s="184"/>
+      <c r="Q15" s="185"/>
+      <c r="R15" s="185"/>
+      <c r="S15" s="188"/>
+      <c r="T15" s="189"/>
+      <c r="U15" s="184"/>
+      <c r="V15" s="185"/>
+      <c r="W15" s="185"/>
+      <c r="X15" s="185"/>
+      <c r="Y15" s="185"/>
+      <c r="Z15" s="188"/>
+      <c r="AA15" s="189"/>
+      <c r="AB15" s="184"/>
+      <c r="AC15" s="184"/>
     </row>
     <row r="16" spans="2:29" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
@@ -6753,11 +6834,11 @@
     <row r="24" spans="2:26" x14ac:dyDescent="0.15">
       <c r="N24" s="47"/>
       <c r="O24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P24" s="48"/>
       <c r="Q24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:26" x14ac:dyDescent="0.15">
@@ -6789,7 +6870,7 @@
       <c r="W25" s="7"/>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
-      <c r="Z25" s="212"/>
+      <c r="Z25" s="179"/>
     </row>
     <row r="26" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B26" s="10"/>
@@ -6808,10 +6889,10 @@
         <v>37</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N26" s="114" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
@@ -6824,7 +6905,7 @@
       <c r="W26" s="13"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
-      <c r="Z26" s="213"/>
+      <c r="Z26" s="180"/>
     </row>
     <row r="27" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B27" s="15"/>
@@ -6875,7 +6956,7 @@
       <c r="Y27" s="116">
         <v>29</v>
       </c>
-      <c r="Z27" s="214">
+      <c r="Z27" s="181">
         <v>30</v>
       </c>
     </row>
@@ -6908,31 +6989,31 @@
       <c r="W28" s="35"/>
       <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
-      <c r="Z28" s="215"/>
+      <c r="Z28" s="182"/>
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="175" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" s="176"/>
-      <c r="E29" s="176"/>
-      <c r="F29" s="176"/>
-      <c r="G29" s="176"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="177"/>
-      <c r="K29" s="181" t="s">
+      <c r="C29" s="202" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="203"/>
+      <c r="E29" s="203"/>
+      <c r="F29" s="203"/>
+      <c r="G29" s="203"/>
+      <c r="H29" s="203"/>
+      <c r="I29" s="203"/>
+      <c r="J29" s="204"/>
+      <c r="K29" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="183">
+      <c r="L29" s="210">
         <v>1</v>
       </c>
       <c r="M29" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="N29" s="206"/>
-      <c r="O29" s="207"/>
+        <v>46</v>
+      </c>
+      <c r="N29" s="173"/>
+      <c r="O29" s="174"/>
       <c r="P29" s="22"/>
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
@@ -6947,25 +7028,25 @@
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="178"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="180"/>
-      <c r="K30" s="182" t="s">
+      <c r="C30" s="205"/>
+      <c r="D30" s="206"/>
+      <c r="E30" s="206"/>
+      <c r="F30" s="206"/>
+      <c r="G30" s="206"/>
+      <c r="H30" s="206"/>
+      <c r="I30" s="206"/>
+      <c r="J30" s="207"/>
+      <c r="K30" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="184" t="s">
+      <c r="L30" s="211" t="s">
         <v>39</v>
       </c>
       <c r="M30" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="N30" s="208"/>
-      <c r="O30" s="209"/>
+        <v>47</v>
+      </c>
+      <c r="N30" s="175"/>
+      <c r="O30" s="176"/>
       <c r="P30" s="26"/>
       <c r="Q30" s="26"/>
       <c r="R30" s="26"/>
@@ -6980,27 +7061,27 @@
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="175" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="181" t="s">
+      <c r="C31" s="202" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="203"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="203"/>
+      <c r="G31" s="203"/>
+      <c r="H31" s="203"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="204"/>
+      <c r="K31" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="183">
+      <c r="L31" s="210">
         <v>1</v>
       </c>
       <c r="M31" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="N31" s="206"/>
-      <c r="O31" s="207"/>
+        <v>46</v>
+      </c>
+      <c r="N31" s="173"/>
+      <c r="O31" s="174"/>
       <c r="P31" s="22"/>
       <c r="Q31" s="22"/>
       <c r="R31" s="22"/>
@@ -7015,25 +7096,25 @@
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="178"/>
-      <c r="D32" s="179"/>
-      <c r="E32" s="179"/>
-      <c r="F32" s="179"/>
-      <c r="G32" s="179"/>
-      <c r="H32" s="179"/>
-      <c r="I32" s="179"/>
-      <c r="J32" s="180"/>
-      <c r="K32" s="182" t="s">
+      <c r="C32" s="205"/>
+      <c r="D32" s="206"/>
+      <c r="E32" s="206"/>
+      <c r="F32" s="206"/>
+      <c r="G32" s="206"/>
+      <c r="H32" s="206"/>
+      <c r="I32" s="206"/>
+      <c r="J32" s="207"/>
+      <c r="K32" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="184" t="s">
+      <c r="L32" s="211" t="s">
         <v>39</v>
       </c>
       <c r="M32" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="N32" s="208"/>
-      <c r="O32" s="209"/>
+        <v>47</v>
+      </c>
+      <c r="N32" s="175"/>
+      <c r="O32" s="176"/>
       <c r="P32" s="26"/>
       <c r="Q32" s="26"/>
       <c r="R32" s="26"/>
@@ -7048,27 +7129,27 @@
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="175" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="176"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="181" t="s">
+      <c r="C33" s="202" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="203"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="203"/>
+      <c r="G33" s="203"/>
+      <c r="H33" s="203"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="204"/>
+      <c r="K33" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="183">
+      <c r="L33" s="210">
         <v>1</v>
       </c>
       <c r="M33" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="N33" s="210"/>
-      <c r="O33" s="206"/>
+        <v>46</v>
+      </c>
+      <c r="N33" s="177"/>
+      <c r="O33" s="173"/>
       <c r="P33" s="22"/>
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
@@ -7083,25 +7164,25 @@
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="178"/>
-      <c r="D34" s="179"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="179"/>
-      <c r="G34" s="179"/>
-      <c r="H34" s="179"/>
-      <c r="I34" s="179"/>
-      <c r="J34" s="180"/>
-      <c r="K34" s="182" t="s">
+      <c r="C34" s="205"/>
+      <c r="D34" s="206"/>
+      <c r="E34" s="206"/>
+      <c r="F34" s="206"/>
+      <c r="G34" s="206"/>
+      <c r="H34" s="206"/>
+      <c r="I34" s="206"/>
+      <c r="J34" s="207"/>
+      <c r="K34" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="184" t="s">
+      <c r="L34" s="211" t="s">
         <v>38</v>
       </c>
       <c r="M34" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="N34" s="211"/>
-      <c r="O34" s="208"/>
+        <v>47</v>
+      </c>
+      <c r="N34" s="178"/>
+      <c r="O34" s="175"/>
       <c r="P34" s="26"/>
       <c r="Q34" s="26"/>
       <c r="R34" s="26"/>
@@ -7139,7 +7220,7 @@
       <c r="W35" s="39"/>
       <c r="X35" s="39"/>
       <c r="Y35" s="39"/>
-      <c r="Z35" s="216"/>
+      <c r="Z35" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -7168,10 +7249,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B23:AB58"/>
+  <dimension ref="B23:AB72"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42:J43"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z40" sqref="Z40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7184,17 +7265,17 @@
   <sheetData>
     <row r="23" spans="2:28" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B23" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.15">
       <c r="N24" s="47"/>
       <c r="O24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P24" s="48"/>
       <c r="Q24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.15">
@@ -7244,13 +7325,13 @@
         <v>3</v>
       </c>
       <c r="L26" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M26" s="31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N26" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
@@ -7331,7 +7412,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="54" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D28" s="55"/>
       <c r="E28" s="55"/>
@@ -7362,10 +7443,10 @@
     <row r="29" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
       <c r="C29" s="66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D29" s="67" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E29" s="67"/>
       <c r="F29" s="67"/>
@@ -7394,27 +7475,25 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="185" t="s">
-        <v>127</v>
-      </c>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186"/>
-      <c r="F30" s="186"/>
-      <c r="G30" s="186"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="187"/>
-      <c r="K30" s="181"/>
-      <c r="L30" s="191">
-        <v>1</v>
-      </c>
+      <c r="C30" s="213" t="s">
+        <v>125</v>
+      </c>
+      <c r="D30" s="214"/>
+      <c r="E30" s="214"/>
+      <c r="F30" s="214"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="214"/>
+      <c r="I30" s="214"/>
+      <c r="J30" s="215"/>
+      <c r="K30" s="208"/>
+      <c r="L30" s="212"/>
       <c r="M30" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N30" s="227"/>
-      <c r="O30" s="207"/>
-      <c r="P30" s="232"/>
-      <c r="Q30" s="232"/>
+        <v>46</v>
+      </c>
+      <c r="N30" s="194"/>
+      <c r="O30" s="174"/>
+      <c r="P30" s="199"/>
+      <c r="Q30" s="199"/>
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
       <c r="T30" s="22"/>
@@ -7429,21 +7508,21 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="188"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="189"/>
-      <c r="J31" s="190"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="217"/>
+      <c r="E31" s="217"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="218"/>
+      <c r="K31" s="209"/>
+      <c r="L31" s="209"/>
       <c r="M31" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N31" s="228"/>
-      <c r="O31" s="228"/>
+        <v>47</v>
+      </c>
+      <c r="N31" s="195"/>
+      <c r="O31" s="195"/>
       <c r="P31" s="26"/>
       <c r="Q31" s="26"/>
       <c r="R31" s="26"/>
@@ -7460,27 +7539,25 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="185" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186"/>
-      <c r="F32" s="186"/>
-      <c r="G32" s="186"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="187"/>
-      <c r="K32" s="181"/>
-      <c r="L32" s="191">
-        <v>1</v>
-      </c>
+      <c r="C32" s="213" t="s">
+        <v>74</v>
+      </c>
+      <c r="D32" s="214"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="214"/>
+      <c r="G32" s="214"/>
+      <c r="H32" s="214"/>
+      <c r="I32" s="214"/>
+      <c r="J32" s="215"/>
+      <c r="K32" s="208"/>
+      <c r="L32" s="212"/>
       <c r="M32" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N32" s="227"/>
-      <c r="O32" s="207"/>
-      <c r="P32" s="232"/>
-      <c r="Q32" s="232"/>
+        <v>46</v>
+      </c>
+      <c r="N32" s="194"/>
+      <c r="O32" s="174"/>
+      <c r="P32" s="199"/>
+      <c r="Q32" s="199"/>
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
       <c r="T32" s="22"/>
@@ -7495,21 +7572,21 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="188"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="189"/>
-      <c r="I33" s="189"/>
-      <c r="J33" s="190"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="182"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="217"/>
+      <c r="E33" s="217"/>
+      <c r="F33" s="217"/>
+      <c r="G33" s="217"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="217"/>
+      <c r="J33" s="218"/>
+      <c r="K33" s="209"/>
+      <c r="L33" s="209"/>
       <c r="M33" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N33" s="229"/>
-      <c r="O33" s="209"/>
+        <v>47</v>
+      </c>
+      <c r="N33" s="196"/>
+      <c r="O33" s="176"/>
       <c r="P33" s="26"/>
       <c r="Q33" s="26"/>
       <c r="R33" s="26"/>
@@ -7526,27 +7603,25 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="185" t="s">
-        <v>77</v>
-      </c>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186"/>
-      <c r="F34" s="186"/>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="187"/>
-      <c r="K34" s="181"/>
-      <c r="L34" s="191">
-        <v>1</v>
-      </c>
+      <c r="C34" s="213" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="214"/>
+      <c r="E34" s="214"/>
+      <c r="F34" s="214"/>
+      <c r="G34" s="214"/>
+      <c r="H34" s="214"/>
+      <c r="I34" s="214"/>
+      <c r="J34" s="215"/>
+      <c r="K34" s="208"/>
+      <c r="L34" s="212"/>
       <c r="M34" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N34" s="227"/>
-      <c r="O34" s="207"/>
-      <c r="P34" s="232"/>
-      <c r="Q34" s="232"/>
+        <v>46</v>
+      </c>
+      <c r="N34" s="194"/>
+      <c r="O34" s="174"/>
+      <c r="P34" s="199"/>
+      <c r="Q34" s="199"/>
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
@@ -7561,21 +7636,21 @@
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="188"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="190"/>
-      <c r="K35" s="182"/>
-      <c r="L35" s="182"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="217"/>
+      <c r="E35" s="217"/>
+      <c r="F35" s="217"/>
+      <c r="G35" s="217"/>
+      <c r="H35" s="217"/>
+      <c r="I35" s="217"/>
+      <c r="J35" s="218"/>
+      <c r="K35" s="209"/>
+      <c r="L35" s="209"/>
       <c r="M35" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N35" s="229"/>
-      <c r="O35" s="209"/>
+        <v>47</v>
+      </c>
+      <c r="N35" s="196"/>
+      <c r="O35" s="176"/>
       <c r="P35" s="26"/>
       <c r="Q35" s="26"/>
       <c r="R35" s="26"/>
@@ -7592,27 +7667,25 @@
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="185" t="s">
-        <v>128</v>
-      </c>
-      <c r="D36" s="186"/>
-      <c r="E36" s="186"/>
-      <c r="F36" s="186"/>
-      <c r="G36" s="186"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="186"/>
-      <c r="J36" s="187"/>
-      <c r="K36" s="181"/>
-      <c r="L36" s="191">
-        <v>1</v>
-      </c>
+      <c r="C36" s="213" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="214"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="214"/>
+      <c r="J36" s="215"/>
+      <c r="K36" s="208"/>
+      <c r="L36" s="212"/>
       <c r="M36" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N36" s="227"/>
-      <c r="O36" s="207"/>
-      <c r="P36" s="232"/>
-      <c r="Q36" s="232"/>
+        <v>46</v>
+      </c>
+      <c r="N36" s="194"/>
+      <c r="O36" s="174"/>
+      <c r="P36" s="199"/>
+      <c r="Q36" s="199"/>
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
@@ -7627,21 +7700,21 @@
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="188"/>
-      <c r="D37" s="189"/>
-      <c r="E37" s="189"/>
-      <c r="F37" s="189"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="189"/>
-      <c r="J37" s="190"/>
-      <c r="K37" s="182"/>
-      <c r="L37" s="182"/>
+      <c r="C37" s="216"/>
+      <c r="D37" s="217"/>
+      <c r="E37" s="217"/>
+      <c r="F37" s="217"/>
+      <c r="G37" s="217"/>
+      <c r="H37" s="217"/>
+      <c r="I37" s="217"/>
+      <c r="J37" s="218"/>
+      <c r="K37" s="209"/>
+      <c r="L37" s="209"/>
       <c r="M37" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N37" s="229"/>
-      <c r="O37" s="209"/>
+        <v>47</v>
+      </c>
+      <c r="N37" s="196"/>
+      <c r="O37" s="176"/>
       <c r="P37" s="26"/>
       <c r="Q37" s="26"/>
       <c r="R37" s="26"/>
@@ -7658,27 +7731,25 @@
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="185" t="s">
-        <v>129</v>
-      </c>
-      <c r="D38" s="186"/>
-      <c r="E38" s="186"/>
-      <c r="F38" s="186"/>
-      <c r="G38" s="186"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="187"/>
-      <c r="K38" s="181"/>
-      <c r="L38" s="191">
-        <v>1</v>
-      </c>
+      <c r="C38" s="213" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="214"/>
+      <c r="E38" s="214"/>
+      <c r="F38" s="214"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="214"/>
+      <c r="I38" s="214"/>
+      <c r="J38" s="215"/>
+      <c r="K38" s="208"/>
+      <c r="L38" s="212"/>
       <c r="M38" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N38" s="227"/>
-      <c r="O38" s="207"/>
-      <c r="P38" s="232"/>
-      <c r="Q38" s="232"/>
+        <v>46</v>
+      </c>
+      <c r="N38" s="194"/>
+      <c r="O38" s="174"/>
+      <c r="P38" s="199"/>
+      <c r="Q38" s="199"/>
       <c r="R38" s="22"/>
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
@@ -7693,21 +7764,21 @@
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="188"/>
-      <c r="D39" s="189"/>
-      <c r="E39" s="189"/>
-      <c r="F39" s="189"/>
-      <c r="G39" s="189"/>
-      <c r="H39" s="189"/>
-      <c r="I39" s="189"/>
-      <c r="J39" s="190"/>
-      <c r="K39" s="182"/>
-      <c r="L39" s="182"/>
+      <c r="C39" s="216"/>
+      <c r="D39" s="217"/>
+      <c r="E39" s="217"/>
+      <c r="F39" s="217"/>
+      <c r="G39" s="217"/>
+      <c r="H39" s="217"/>
+      <c r="I39" s="217"/>
+      <c r="J39" s="218"/>
+      <c r="K39" s="209"/>
+      <c r="L39" s="209"/>
       <c r="M39" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N39" s="229"/>
-      <c r="O39" s="209"/>
+        <v>47</v>
+      </c>
+      <c r="N39" s="196"/>
+      <c r="O39" s="176"/>
       <c r="P39" s="26"/>
       <c r="Q39" s="26"/>
       <c r="R39" s="26"/>
@@ -7724,27 +7795,25 @@
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="185" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="186"/>
-      <c r="E40" s="186"/>
-      <c r="F40" s="186"/>
-      <c r="G40" s="186"/>
-      <c r="H40" s="186"/>
-      <c r="I40" s="186"/>
-      <c r="J40" s="187"/>
-      <c r="K40" s="181"/>
-      <c r="L40" s="191">
-        <v>1</v>
-      </c>
+      <c r="C40" s="213" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" s="214"/>
+      <c r="E40" s="214"/>
+      <c r="F40" s="214"/>
+      <c r="G40" s="214"/>
+      <c r="H40" s="214"/>
+      <c r="I40" s="214"/>
+      <c r="J40" s="215"/>
+      <c r="K40" s="208"/>
+      <c r="L40" s="212"/>
       <c r="M40" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N40" s="227"/>
-      <c r="O40" s="207"/>
-      <c r="P40" s="232"/>
-      <c r="Q40" s="232"/>
+        <v>46</v>
+      </c>
+      <c r="N40" s="194"/>
+      <c r="O40" s="174"/>
+      <c r="P40" s="199"/>
+      <c r="Q40" s="199"/>
       <c r="R40" s="22"/>
       <c r="S40" s="22"/>
       <c r="T40" s="22"/>
@@ -7759,21 +7828,21 @@
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="189"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="189"/>
-      <c r="H41" s="189"/>
-      <c r="I41" s="189"/>
-      <c r="J41" s="190"/>
-      <c r="K41" s="182"/>
-      <c r="L41" s="182"/>
+      <c r="C41" s="216"/>
+      <c r="D41" s="217"/>
+      <c r="E41" s="217"/>
+      <c r="F41" s="217"/>
+      <c r="G41" s="217"/>
+      <c r="H41" s="217"/>
+      <c r="I41" s="217"/>
+      <c r="J41" s="218"/>
+      <c r="K41" s="209"/>
+      <c r="L41" s="209"/>
       <c r="M41" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N41" s="229"/>
-      <c r="O41" s="228"/>
+        <v>47</v>
+      </c>
+      <c r="N41" s="196"/>
+      <c r="O41" s="176"/>
       <c r="P41" s="26"/>
       <c r="Q41" s="26"/>
       <c r="R41" s="26"/>
@@ -7790,27 +7859,25 @@
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="185" t="s">
-        <v>131</v>
-      </c>
-      <c r="D42" s="186"/>
-      <c r="E42" s="186"/>
-      <c r="F42" s="186"/>
-      <c r="G42" s="186"/>
-      <c r="H42" s="186"/>
-      <c r="I42" s="186"/>
-      <c r="J42" s="187"/>
-      <c r="K42" s="181"/>
-      <c r="L42" s="191">
-        <v>1</v>
-      </c>
+      <c r="C42" s="213" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" s="214"/>
+      <c r="E42" s="214"/>
+      <c r="F42" s="214"/>
+      <c r="G42" s="214"/>
+      <c r="H42" s="214"/>
+      <c r="I42" s="214"/>
+      <c r="J42" s="215"/>
+      <c r="K42" s="208"/>
+      <c r="L42" s="212"/>
       <c r="M42" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N42" s="227"/>
-      <c r="O42" s="207"/>
-      <c r="P42" s="232"/>
-      <c r="Q42" s="232"/>
+        <v>46</v>
+      </c>
+      <c r="N42" s="194"/>
+      <c r="O42" s="174"/>
+      <c r="P42" s="199"/>
+      <c r="Q42" s="199"/>
       <c r="R42" s="22"/>
       <c r="S42" s="22"/>
       <c r="T42" s="22"/>
@@ -7825,21 +7892,21 @@
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
-      <c r="C43" s="188"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="189"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="189"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="190"/>
-      <c r="K43" s="182"/>
-      <c r="L43" s="182"/>
+      <c r="C43" s="216"/>
+      <c r="D43" s="217"/>
+      <c r="E43" s="217"/>
+      <c r="F43" s="217"/>
+      <c r="G43" s="217"/>
+      <c r="H43" s="217"/>
+      <c r="I43" s="217"/>
+      <c r="J43" s="218"/>
+      <c r="K43" s="209"/>
+      <c r="L43" s="209"/>
       <c r="M43" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N43" s="229"/>
-      <c r="O43" s="228"/>
+        <v>47</v>
+      </c>
+      <c r="N43" s="196"/>
+      <c r="O43" s="195"/>
       <c r="P43" s="26"/>
       <c r="Q43" s="26"/>
       <c r="R43" s="26"/>
@@ -7856,27 +7923,25 @@
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
-      <c r="C44" s="185" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="186"/>
-      <c r="E44" s="186"/>
-      <c r="F44" s="186"/>
-      <c r="G44" s="186"/>
-      <c r="H44" s="186"/>
-      <c r="I44" s="186"/>
-      <c r="J44" s="187"/>
-      <c r="K44" s="181"/>
-      <c r="L44" s="191">
-        <v>1</v>
-      </c>
+      <c r="C44" s="213" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="214"/>
+      <c r="E44" s="214"/>
+      <c r="F44" s="214"/>
+      <c r="G44" s="214"/>
+      <c r="H44" s="214"/>
+      <c r="I44" s="214"/>
+      <c r="J44" s="215"/>
+      <c r="K44" s="208"/>
+      <c r="L44" s="212"/>
       <c r="M44" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N44" s="227"/>
-      <c r="O44" s="207"/>
-      <c r="P44" s="232"/>
-      <c r="Q44" s="232"/>
+        <v>46</v>
+      </c>
+      <c r="N44" s="194"/>
+      <c r="O44" s="174"/>
+      <c r="P44" s="199"/>
+      <c r="Q44" s="199"/>
       <c r="R44" s="22"/>
       <c r="S44" s="22"/>
       <c r="T44" s="22"/>
@@ -7891,21 +7956,21 @@
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
-      <c r="C45" s="188"/>
-      <c r="D45" s="189"/>
-      <c r="E45" s="189"/>
-      <c r="F45" s="189"/>
-      <c r="G45" s="189"/>
-      <c r="H45" s="189"/>
-      <c r="I45" s="189"/>
-      <c r="J45" s="190"/>
-      <c r="K45" s="182"/>
-      <c r="L45" s="182"/>
+      <c r="C45" s="216"/>
+      <c r="D45" s="217"/>
+      <c r="E45" s="217"/>
+      <c r="F45" s="217"/>
+      <c r="G45" s="217"/>
+      <c r="H45" s="217"/>
+      <c r="I45" s="217"/>
+      <c r="J45" s="218"/>
+      <c r="K45" s="209"/>
+      <c r="L45" s="209"/>
       <c r="M45" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N45" s="229"/>
-      <c r="O45" s="228"/>
+        <v>47</v>
+      </c>
+      <c r="N45" s="196"/>
+      <c r="O45" s="195"/>
       <c r="P45" s="26"/>
       <c r="Q45" s="26"/>
       <c r="R45" s="26"/>
@@ -7922,27 +7987,25 @@
     </row>
     <row r="46" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B46" s="3"/>
-      <c r="C46" s="185" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="186"/>
-      <c r="E46" s="186"/>
-      <c r="F46" s="186"/>
-      <c r="G46" s="186"/>
-      <c r="H46" s="186"/>
-      <c r="I46" s="186"/>
-      <c r="J46" s="187"/>
-      <c r="K46" s="181"/>
-      <c r="L46" s="191">
-        <v>1</v>
-      </c>
+      <c r="C46" s="213" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="214"/>
+      <c r="E46" s="214"/>
+      <c r="F46" s="214"/>
+      <c r="G46" s="214"/>
+      <c r="H46" s="214"/>
+      <c r="I46" s="214"/>
+      <c r="J46" s="215"/>
+      <c r="K46" s="208"/>
+      <c r="L46" s="212"/>
       <c r="M46" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N46" s="227"/>
-      <c r="O46" s="207"/>
-      <c r="P46" s="232"/>
-      <c r="Q46" s="232"/>
+        <v>46</v>
+      </c>
+      <c r="N46" s="194"/>
+      <c r="O46" s="174"/>
+      <c r="P46" s="199"/>
+      <c r="Q46" s="199"/>
       <c r="R46" s="22"/>
       <c r="S46" s="22"/>
       <c r="T46" s="22"/>
@@ -7957,21 +8020,21 @@
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B47" s="3"/>
-      <c r="C47" s="188"/>
-      <c r="D47" s="189"/>
-      <c r="E47" s="189"/>
-      <c r="F47" s="189"/>
-      <c r="G47" s="189"/>
-      <c r="H47" s="189"/>
-      <c r="I47" s="189"/>
-      <c r="J47" s="190"/>
-      <c r="K47" s="182"/>
-      <c r="L47" s="182"/>
+      <c r="C47" s="216"/>
+      <c r="D47" s="217"/>
+      <c r="E47" s="217"/>
+      <c r="F47" s="217"/>
+      <c r="G47" s="217"/>
+      <c r="H47" s="217"/>
+      <c r="I47" s="217"/>
+      <c r="J47" s="218"/>
+      <c r="K47" s="209"/>
+      <c r="L47" s="209"/>
       <c r="M47" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N47" s="229"/>
-      <c r="O47" s="228"/>
+        <v>47</v>
+      </c>
+      <c r="N47" s="196"/>
+      <c r="O47" s="195"/>
       <c r="P47" s="26"/>
       <c r="Q47" s="26"/>
       <c r="R47" s="26"/>
@@ -7988,91 +8051,89 @@
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B48" s="3"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="75"/>
-      <c r="E48" s="67"/>
-      <c r="F48" s="67"/>
-      <c r="G48" s="67"/>
-      <c r="H48" s="67"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="67"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="68"/>
-      <c r="N48" s="230"/>
-      <c r="O48" s="231"/>
-      <c r="P48" s="70"/>
-      <c r="Q48" s="70"/>
-      <c r="R48" s="70"/>
-      <c r="S48" s="70"/>
-      <c r="T48" s="70"/>
-      <c r="U48" s="70"/>
-      <c r="V48" s="70"/>
-      <c r="W48" s="70"/>
-      <c r="X48" s="70"/>
-      <c r="Y48" s="70"/>
-      <c r="Z48" s="70"/>
-      <c r="AA48" s="70"/>
-      <c r="AB48" s="123"/>
+      <c r="C48" s="213" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="214"/>
+      <c r="E48" s="214"/>
+      <c r="F48" s="214"/>
+      <c r="G48" s="214"/>
+      <c r="H48" s="214"/>
+      <c r="I48" s="214"/>
+      <c r="J48" s="215"/>
+      <c r="K48" s="208"/>
+      <c r="L48" s="212"/>
+      <c r="M48" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N48" s="194"/>
+      <c r="O48" s="174"/>
+      <c r="P48" s="199"/>
+      <c r="Q48" s="199"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
+      <c r="W48" s="22"/>
+      <c r="X48" s="22"/>
+      <c r="Y48" s="22"/>
+      <c r="Z48" s="22"/>
+      <c r="AA48" s="22"/>
+      <c r="AB48" s="110"/>
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
-      <c r="C49" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="D49" s="76" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="68"/>
-      <c r="M49" s="68"/>
-      <c r="N49" s="230"/>
-      <c r="O49" s="231"/>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="70"/>
-      <c r="R49" s="70"/>
-      <c r="S49" s="70"/>
-      <c r="T49" s="70"/>
-      <c r="U49" s="70"/>
-      <c r="V49" s="70"/>
-      <c r="W49" s="70"/>
-      <c r="X49" s="70"/>
-      <c r="Y49" s="70"/>
-      <c r="Z49" s="70"/>
-      <c r="AA49" s="70"/>
-      <c r="AB49" s="123"/>
+      <c r="C49" s="216"/>
+      <c r="D49" s="217"/>
+      <c r="E49" s="217"/>
+      <c r="F49" s="217"/>
+      <c r="G49" s="217"/>
+      <c r="H49" s="217"/>
+      <c r="I49" s="217"/>
+      <c r="J49" s="218"/>
+      <c r="K49" s="209"/>
+      <c r="L49" s="209"/>
+      <c r="M49" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="N49" s="196"/>
+      <c r="O49" s="195"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="26"/>
+      <c r="V49" s="26"/>
+      <c r="W49" s="26"/>
+      <c r="X49" s="26"/>
+      <c r="Y49" s="26"/>
+      <c r="Z49" s="26"/>
+      <c r="AA49" s="26"/>
+      <c r="AB49" s="111"/>
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
-      <c r="C50" s="185" t="s">
-        <v>79</v>
-      </c>
-      <c r="D50" s="186"/>
-      <c r="E50" s="186"/>
-      <c r="F50" s="186"/>
-      <c r="G50" s="186"/>
-      <c r="H50" s="186"/>
-      <c r="I50" s="186"/>
-      <c r="J50" s="187"/>
-      <c r="K50" s="181" t="s">
-        <v>41</v>
-      </c>
-      <c r="L50" s="191">
-        <v>1</v>
-      </c>
+      <c r="C50" s="213" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="214"/>
+      <c r="E50" s="214"/>
+      <c r="F50" s="214"/>
+      <c r="G50" s="214"/>
+      <c r="H50" s="214"/>
+      <c r="I50" s="214"/>
+      <c r="J50" s="215"/>
+      <c r="K50" s="208"/>
+      <c r="L50" s="212"/>
       <c r="M50" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N50" s="227"/>
-      <c r="O50" s="207"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="232"/>
+        <v>46</v>
+      </c>
+      <c r="N50" s="194"/>
+      <c r="O50" s="174"/>
+      <c r="P50" s="199"/>
+      <c r="Q50" s="199"/>
       <c r="R50" s="22"/>
       <c r="S50" s="22"/>
       <c r="T50" s="22"/>
@@ -8087,21 +8148,21 @@
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
-      <c r="C51" s="188"/>
-      <c r="D51" s="189"/>
-      <c r="E51" s="189"/>
-      <c r="F51" s="189"/>
-      <c r="G51" s="189"/>
-      <c r="H51" s="189"/>
-      <c r="I51" s="189"/>
-      <c r="J51" s="190"/>
-      <c r="K51" s="182"/>
-      <c r="L51" s="182"/>
+      <c r="C51" s="216"/>
+      <c r="D51" s="217"/>
+      <c r="E51" s="217"/>
+      <c r="F51" s="217"/>
+      <c r="G51" s="217"/>
+      <c r="H51" s="217"/>
+      <c r="I51" s="217"/>
+      <c r="J51" s="218"/>
+      <c r="K51" s="209"/>
+      <c r="L51" s="209"/>
       <c r="M51" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N51" s="211"/>
-      <c r="O51" s="229"/>
+        <v>47</v>
+      </c>
+      <c r="N51" s="196"/>
+      <c r="O51" s="195"/>
       <c r="P51" s="26"/>
       <c r="Q51" s="26"/>
       <c r="R51" s="26"/>
@@ -8118,29 +8179,25 @@
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B52" s="4"/>
-      <c r="C52" s="185" t="s">
-        <v>80</v>
-      </c>
-      <c r="D52" s="186"/>
-      <c r="E52" s="186"/>
-      <c r="F52" s="186"/>
-      <c r="G52" s="186"/>
-      <c r="H52" s="186"/>
-      <c r="I52" s="186"/>
-      <c r="J52" s="187"/>
-      <c r="K52" s="181" t="s">
-        <v>20</v>
-      </c>
-      <c r="L52" s="191">
-        <v>1</v>
-      </c>
+      <c r="C52" s="213" t="s">
+        <v>134</v>
+      </c>
+      <c r="D52" s="214"/>
+      <c r="E52" s="214"/>
+      <c r="F52" s="214"/>
+      <c r="G52" s="214"/>
+      <c r="H52" s="214"/>
+      <c r="I52" s="214"/>
+      <c r="J52" s="215"/>
+      <c r="K52" s="208"/>
+      <c r="L52" s="212"/>
       <c r="M52" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N52" s="227"/>
-      <c r="O52" s="207"/>
-      <c r="P52" s="22"/>
-      <c r="Q52" s="232"/>
+        <v>46</v>
+      </c>
+      <c r="N52" s="194"/>
+      <c r="O52" s="174"/>
+      <c r="P52" s="199"/>
+      <c r="Q52" s="199"/>
       <c r="R52" s="22"/>
       <c r="S52" s="22"/>
       <c r="T52" s="22"/>
@@ -8154,21 +8211,21 @@
       <c r="AB52" s="110"/>
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="C53" s="188"/>
-      <c r="D53" s="189"/>
-      <c r="E53" s="189"/>
-      <c r="F53" s="189"/>
-      <c r="G53" s="189"/>
-      <c r="H53" s="189"/>
-      <c r="I53" s="189"/>
-      <c r="J53" s="190"/>
-      <c r="K53" s="182"/>
-      <c r="L53" s="182"/>
+      <c r="C53" s="216"/>
+      <c r="D53" s="217"/>
+      <c r="E53" s="217"/>
+      <c r="F53" s="217"/>
+      <c r="G53" s="217"/>
+      <c r="H53" s="217"/>
+      <c r="I53" s="217"/>
+      <c r="J53" s="218"/>
+      <c r="K53" s="209"/>
+      <c r="L53" s="209"/>
       <c r="M53" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N53" s="211"/>
-      <c r="O53" s="229"/>
+        <v>47</v>
+      </c>
+      <c r="N53" s="196"/>
+      <c r="O53" s="195"/>
       <c r="P53" s="26"/>
       <c r="Q53" s="26"/>
       <c r="R53" s="26"/>
@@ -8184,29 +8241,25 @@
       <c r="AB53" s="111"/>
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="C54" s="185" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" s="186"/>
-      <c r="E54" s="186"/>
-      <c r="F54" s="186"/>
-      <c r="G54" s="186"/>
-      <c r="H54" s="186"/>
-      <c r="I54" s="186"/>
-      <c r="J54" s="187"/>
-      <c r="K54" s="181" t="s">
-        <v>20</v>
-      </c>
-      <c r="L54" s="181" t="s">
-        <v>69</v>
-      </c>
+      <c r="C54" s="213" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" s="214"/>
+      <c r="E54" s="214"/>
+      <c r="F54" s="214"/>
+      <c r="G54" s="214"/>
+      <c r="H54" s="214"/>
+      <c r="I54" s="214"/>
+      <c r="J54" s="215"/>
+      <c r="K54" s="208"/>
+      <c r="L54" s="212"/>
       <c r="M54" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N54" s="227"/>
-      <c r="O54" s="207"/>
-      <c r="P54" s="22"/>
-      <c r="Q54" s="232"/>
+        <v>46</v>
+      </c>
+      <c r="N54" s="194"/>
+      <c r="O54" s="174"/>
+      <c r="P54" s="199"/>
+      <c r="Q54" s="199"/>
       <c r="R54" s="22"/>
       <c r="S54" s="22"/>
       <c r="T54" s="22"/>
@@ -8220,23 +8273,21 @@
       <c r="AB54" s="110"/>
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="C55" s="188"/>
-      <c r="D55" s="189"/>
-      <c r="E55" s="189"/>
-      <c r="F55" s="189"/>
-      <c r="G55" s="189"/>
-      <c r="H55" s="189"/>
-      <c r="I55" s="189"/>
-      <c r="J55" s="190"/>
-      <c r="K55" s="182"/>
-      <c r="L55" s="182" t="s">
-        <v>39</v>
-      </c>
+      <c r="C55" s="216"/>
+      <c r="D55" s="217"/>
+      <c r="E55" s="217"/>
+      <c r="F55" s="217"/>
+      <c r="G55" s="217"/>
+      <c r="H55" s="217"/>
+      <c r="I55" s="217"/>
+      <c r="J55" s="218"/>
+      <c r="K55" s="209"/>
+      <c r="L55" s="209"/>
       <c r="M55" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N55" s="211"/>
-      <c r="O55" s="209"/>
+        <v>47</v>
+      </c>
+      <c r="N55" s="196"/>
+      <c r="O55" s="195"/>
       <c r="P55" s="26"/>
       <c r="Q55" s="26"/>
       <c r="R55" s="26"/>
@@ -8252,29 +8303,25 @@
       <c r="AB55" s="111"/>
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="C56" s="185" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="186"/>
-      <c r="E56" s="186"/>
-      <c r="F56" s="186"/>
-      <c r="G56" s="186"/>
-      <c r="H56" s="186"/>
-      <c r="I56" s="186"/>
-      <c r="J56" s="187"/>
-      <c r="K56" s="181" t="s">
-        <v>20</v>
-      </c>
-      <c r="L56" s="181" t="s">
-        <v>69</v>
-      </c>
+      <c r="C56" s="213" t="s">
+        <v>136</v>
+      </c>
+      <c r="D56" s="214"/>
+      <c r="E56" s="214"/>
+      <c r="F56" s="214"/>
+      <c r="G56" s="214"/>
+      <c r="H56" s="214"/>
+      <c r="I56" s="214"/>
+      <c r="J56" s="215"/>
+      <c r="K56" s="208"/>
+      <c r="L56" s="212"/>
       <c r="M56" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="N56" s="227"/>
-      <c r="O56" s="207"/>
-      <c r="P56" s="22"/>
-      <c r="Q56" s="232"/>
+        <v>46</v>
+      </c>
+      <c r="N56" s="194"/>
+      <c r="O56" s="174"/>
+      <c r="P56" s="199"/>
+      <c r="Q56" s="199"/>
       <c r="R56" s="22"/>
       <c r="S56" s="22"/>
       <c r="T56" s="22"/>
@@ -8288,23 +8335,21 @@
       <c r="AB56" s="110"/>
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="C57" s="188"/>
-      <c r="D57" s="189"/>
-      <c r="E57" s="189"/>
-      <c r="F57" s="189"/>
-      <c r="G57" s="189"/>
-      <c r="H57" s="189"/>
-      <c r="I57" s="189"/>
-      <c r="J57" s="190"/>
-      <c r="K57" s="182"/>
-      <c r="L57" s="182" t="s">
-        <v>39</v>
-      </c>
+      <c r="C57" s="216"/>
+      <c r="D57" s="217"/>
+      <c r="E57" s="217"/>
+      <c r="F57" s="217"/>
+      <c r="G57" s="217"/>
+      <c r="H57" s="217"/>
+      <c r="I57" s="217"/>
+      <c r="J57" s="218"/>
+      <c r="K57" s="209"/>
+      <c r="L57" s="209"/>
       <c r="M57" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="N57" s="211"/>
-      <c r="O57" s="209"/>
+        <v>47</v>
+      </c>
+      <c r="N57" s="196"/>
+      <c r="O57" s="195"/>
       <c r="P57" s="26"/>
       <c r="Q57" s="26"/>
       <c r="R57" s="26"/>
@@ -8320,38 +8365,514 @@
       <c r="AB57" s="111"/>
     </row>
     <row r="58" spans="2:28" x14ac:dyDescent="0.15">
-      <c r="C58" s="60"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="61"/>
-      <c r="F58" s="61"/>
-      <c r="G58" s="61"/>
-      <c r="H58" s="61"/>
-      <c r="I58" s="61"/>
-      <c r="J58" s="61"/>
-      <c r="K58" s="62"/>
-      <c r="L58" s="77"/>
-      <c r="M58" s="62"/>
-      <c r="N58" s="63"/>
-      <c r="O58" s="39"/>
-      <c r="P58" s="39"/>
-      <c r="Q58" s="39"/>
-      <c r="R58" s="39"/>
-      <c r="S58" s="39"/>
-      <c r="T58" s="39"/>
-      <c r="U58" s="39"/>
-      <c r="V58" s="39"/>
-      <c r="W58" s="39"/>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="39"/>
-      <c r="Z58" s="39"/>
-      <c r="AA58" s="39"/>
-      <c r="AB58" s="112"/>
+      <c r="C58" s="213" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="214"/>
+      <c r="E58" s="214"/>
+      <c r="F58" s="214"/>
+      <c r="G58" s="214"/>
+      <c r="H58" s="214"/>
+      <c r="I58" s="214"/>
+      <c r="J58" s="215"/>
+      <c r="K58" s="208"/>
+      <c r="L58" s="212"/>
+      <c r="M58" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N58" s="194"/>
+      <c r="O58" s="174"/>
+      <c r="P58" s="199"/>
+      <c r="Q58" s="199"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
+      <c r="V58" s="22"/>
+      <c r="W58" s="22"/>
+      <c r="X58" s="22"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="110"/>
+    </row>
+    <row r="59" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C59" s="216"/>
+      <c r="D59" s="217"/>
+      <c r="E59" s="217"/>
+      <c r="F59" s="217"/>
+      <c r="G59" s="217"/>
+      <c r="H59" s="217"/>
+      <c r="I59" s="217"/>
+      <c r="J59" s="218"/>
+      <c r="K59" s="209"/>
+      <c r="L59" s="209"/>
+      <c r="M59" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="N59" s="196"/>
+      <c r="O59" s="195"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="26"/>
+      <c r="R59" s="26"/>
+      <c r="S59" s="26"/>
+      <c r="T59" s="26"/>
+      <c r="U59" s="26"/>
+      <c r="V59" s="26"/>
+      <c r="W59" s="26"/>
+      <c r="X59" s="26"/>
+      <c r="Y59" s="26"/>
+      <c r="Z59" s="26"/>
+      <c r="AA59" s="26"/>
+      <c r="AB59" s="111"/>
+    </row>
+    <row r="60" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C60" s="213" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="214"/>
+      <c r="E60" s="214"/>
+      <c r="F60" s="214"/>
+      <c r="G60" s="214"/>
+      <c r="H60" s="214"/>
+      <c r="I60" s="214"/>
+      <c r="J60" s="215"/>
+      <c r="K60" s="208"/>
+      <c r="L60" s="212"/>
+      <c r="M60" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N60" s="194"/>
+      <c r="O60" s="174"/>
+      <c r="P60" s="199"/>
+      <c r="Q60" s="199"/>
+      <c r="R60" s="22"/>
+      <c r="S60" s="22"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="22"/>
+      <c r="V60" s="22"/>
+      <c r="W60" s="22"/>
+      <c r="X60" s="22"/>
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="22"/>
+      <c r="AB60" s="110"/>
+    </row>
+    <row r="61" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C61" s="216"/>
+      <c r="D61" s="217"/>
+      <c r="E61" s="217"/>
+      <c r="F61" s="217"/>
+      <c r="G61" s="217"/>
+      <c r="H61" s="217"/>
+      <c r="I61" s="217"/>
+      <c r="J61" s="218"/>
+      <c r="K61" s="209"/>
+      <c r="L61" s="209"/>
+      <c r="M61" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="N61" s="196"/>
+      <c r="O61" s="195"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="26"/>
+      <c r="S61" s="26"/>
+      <c r="T61" s="26"/>
+      <c r="U61" s="26"/>
+      <c r="V61" s="26"/>
+      <c r="W61" s="26"/>
+      <c r="X61" s="26"/>
+      <c r="Y61" s="26"/>
+      <c r="Z61" s="26"/>
+      <c r="AA61" s="26"/>
+      <c r="AB61" s="111"/>
+    </row>
+    <row r="62" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C62" s="66"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="67"/>
+      <c r="G62" s="67"/>
+      <c r="H62" s="67"/>
+      <c r="I62" s="67"/>
+      <c r="J62" s="67"/>
+      <c r="K62" s="68"/>
+      <c r="L62" s="68"/>
+      <c r="M62" s="68"/>
+      <c r="N62" s="197"/>
+      <c r="O62" s="198"/>
+      <c r="P62" s="70"/>
+      <c r="Q62" s="70"/>
+      <c r="R62" s="70"/>
+      <c r="S62" s="70"/>
+      <c r="T62" s="70"/>
+      <c r="U62" s="70"/>
+      <c r="V62" s="70"/>
+      <c r="W62" s="70"/>
+      <c r="X62" s="70"/>
+      <c r="Y62" s="70"/>
+      <c r="Z62" s="70"/>
+      <c r="AA62" s="70"/>
+      <c r="AB62" s="123"/>
+    </row>
+    <row r="63" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C63" s="66" t="s">
+        <v>76</v>
+      </c>
+      <c r="D63" s="76" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
+      <c r="I63" s="67"/>
+      <c r="J63" s="67"/>
+      <c r="K63" s="68"/>
+      <c r="L63" s="68"/>
+      <c r="M63" s="68"/>
+      <c r="N63" s="197"/>
+      <c r="O63" s="198"/>
+      <c r="P63" s="70"/>
+      <c r="Q63" s="70"/>
+      <c r="R63" s="70"/>
+      <c r="S63" s="70"/>
+      <c r="T63" s="70"/>
+      <c r="U63" s="70"/>
+      <c r="V63" s="70"/>
+      <c r="W63" s="70"/>
+      <c r="X63" s="70"/>
+      <c r="Y63" s="70"/>
+      <c r="Z63" s="70"/>
+      <c r="AA63" s="70"/>
+      <c r="AB63" s="123"/>
+    </row>
+    <row r="64" spans="2:28" x14ac:dyDescent="0.15">
+      <c r="C64" s="213" t="s">
+        <v>77</v>
+      </c>
+      <c r="D64" s="214"/>
+      <c r="E64" s="214"/>
+      <c r="F64" s="214"/>
+      <c r="G64" s="214"/>
+      <c r="H64" s="214"/>
+      <c r="I64" s="214"/>
+      <c r="J64" s="215"/>
+      <c r="K64" s="208"/>
+      <c r="L64" s="212"/>
+      <c r="M64" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N64" s="194"/>
+      <c r="O64" s="174"/>
+      <c r="P64" s="22"/>
+      <c r="Q64" s="199"/>
+      <c r="R64" s="22"/>
+      <c r="S64" s="22"/>
+      <c r="T64" s="22"/>
+      <c r="U64" s="22"/>
+      <c r="V64" s="22"/>
+      <c r="W64" s="22"/>
+      <c r="X64" s="22"/>
+      <c r="Y64" s="22"/>
+      <c r="Z64" s="22"/>
+      <c r="AA64" s="22"/>
+      <c r="AB64" s="110"/>
+    </row>
+    <row r="65" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C65" s="216"/>
+      <c r="D65" s="217"/>
+      <c r="E65" s="217"/>
+      <c r="F65" s="217"/>
+      <c r="G65" s="217"/>
+      <c r="H65" s="217"/>
+      <c r="I65" s="217"/>
+      <c r="J65" s="218"/>
+      <c r="K65" s="209"/>
+      <c r="L65" s="209"/>
+      <c r="M65" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="N65" s="178"/>
+      <c r="O65" s="196"/>
+      <c r="P65" s="26"/>
+      <c r="Q65" s="26"/>
+      <c r="R65" s="26"/>
+      <c r="S65" s="26"/>
+      <c r="T65" s="26"/>
+      <c r="U65" s="26"/>
+      <c r="V65" s="26"/>
+      <c r="W65" s="26"/>
+      <c r="X65" s="26"/>
+      <c r="Y65" s="26"/>
+      <c r="Z65" s="26"/>
+      <c r="AA65" s="26"/>
+      <c r="AB65" s="111"/>
+    </row>
+    <row r="66" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C66" s="213" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="214"/>
+      <c r="E66" s="214"/>
+      <c r="F66" s="214"/>
+      <c r="G66" s="214"/>
+      <c r="H66" s="214"/>
+      <c r="I66" s="214"/>
+      <c r="J66" s="215"/>
+      <c r="K66" s="208"/>
+      <c r="L66" s="212"/>
+      <c r="M66" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N66" s="194"/>
+      <c r="O66" s="174"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="199"/>
+      <c r="R66" s="22"/>
+      <c r="S66" s="22"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="22"/>
+      <c r="V66" s="22"/>
+      <c r="W66" s="22"/>
+      <c r="X66" s="22"/>
+      <c r="Y66" s="22"/>
+      <c r="Z66" s="22"/>
+      <c r="AA66" s="22"/>
+      <c r="AB66" s="110"/>
+    </row>
+    <row r="67" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C67" s="216"/>
+      <c r="D67" s="217"/>
+      <c r="E67" s="217"/>
+      <c r="F67" s="217"/>
+      <c r="G67" s="217"/>
+      <c r="H67" s="217"/>
+      <c r="I67" s="217"/>
+      <c r="J67" s="218"/>
+      <c r="K67" s="209"/>
+      <c r="L67" s="209"/>
+      <c r="M67" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="N67" s="178"/>
+      <c r="O67" s="196"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="26"/>
+      <c r="R67" s="26"/>
+      <c r="S67" s="26"/>
+      <c r="T67" s="26"/>
+      <c r="U67" s="26"/>
+      <c r="V67" s="26"/>
+      <c r="W67" s="26"/>
+      <c r="X67" s="26"/>
+      <c r="Y67" s="26"/>
+      <c r="Z67" s="26"/>
+      <c r="AA67" s="26"/>
+      <c r="AB67" s="111"/>
+    </row>
+    <row r="68" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C68" s="213" t="s">
+        <v>79</v>
+      </c>
+      <c r="D68" s="214"/>
+      <c r="E68" s="214"/>
+      <c r="F68" s="214"/>
+      <c r="G68" s="214"/>
+      <c r="H68" s="214"/>
+      <c r="I68" s="214"/>
+      <c r="J68" s="215"/>
+      <c r="K68" s="208"/>
+      <c r="L68" s="208"/>
+      <c r="M68" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N68" s="194"/>
+      <c r="O68" s="174"/>
+      <c r="P68" s="22"/>
+      <c r="Q68" s="199"/>
+      <c r="R68" s="22"/>
+      <c r="S68" s="22"/>
+      <c r="T68" s="22"/>
+      <c r="U68" s="22"/>
+      <c r="V68" s="22"/>
+      <c r="W68" s="22"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="22"/>
+      <c r="Z68" s="22"/>
+      <c r="AA68" s="22"/>
+      <c r="AB68" s="110"/>
+    </row>
+    <row r="69" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C69" s="216"/>
+      <c r="D69" s="217"/>
+      <c r="E69" s="217"/>
+      <c r="F69" s="217"/>
+      <c r="G69" s="217"/>
+      <c r="H69" s="217"/>
+      <c r="I69" s="217"/>
+      <c r="J69" s="218"/>
+      <c r="K69" s="209"/>
+      <c r="L69" s="209"/>
+      <c r="M69" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="N69" s="178"/>
+      <c r="O69" s="176"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="26"/>
+      <c r="R69" s="26"/>
+      <c r="S69" s="26"/>
+      <c r="T69" s="26"/>
+      <c r="U69" s="26"/>
+      <c r="V69" s="26"/>
+      <c r="W69" s="26"/>
+      <c r="X69" s="26"/>
+      <c r="Y69" s="26"/>
+      <c r="Z69" s="26"/>
+      <c r="AA69" s="26"/>
+      <c r="AB69" s="111"/>
+    </row>
+    <row r="70" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C70" s="213" t="s">
+        <v>80</v>
+      </c>
+      <c r="D70" s="214"/>
+      <c r="E70" s="214"/>
+      <c r="F70" s="214"/>
+      <c r="G70" s="214"/>
+      <c r="H70" s="214"/>
+      <c r="I70" s="214"/>
+      <c r="J70" s="215"/>
+      <c r="K70" s="208"/>
+      <c r="L70" s="208"/>
+      <c r="M70" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N70" s="194"/>
+      <c r="O70" s="174"/>
+      <c r="P70" s="22"/>
+      <c r="Q70" s="199"/>
+      <c r="R70" s="22"/>
+      <c r="S70" s="22"/>
+      <c r="T70" s="22"/>
+      <c r="U70" s="22"/>
+      <c r="V70" s="22"/>
+      <c r="W70" s="22"/>
+      <c r="X70" s="22"/>
+      <c r="Y70" s="22"/>
+      <c r="Z70" s="22"/>
+      <c r="AA70" s="22"/>
+      <c r="AB70" s="110"/>
+    </row>
+    <row r="71" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C71" s="216"/>
+      <c r="D71" s="217"/>
+      <c r="E71" s="217"/>
+      <c r="F71" s="217"/>
+      <c r="G71" s="217"/>
+      <c r="H71" s="217"/>
+      <c r="I71" s="217"/>
+      <c r="J71" s="218"/>
+      <c r="K71" s="209"/>
+      <c r="L71" s="209"/>
+      <c r="M71" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="N71" s="178"/>
+      <c r="O71" s="176"/>
+      <c r="P71" s="26"/>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="26"/>
+      <c r="S71" s="26"/>
+      <c r="T71" s="26"/>
+      <c r="U71" s="26"/>
+      <c r="V71" s="26"/>
+      <c r="W71" s="26"/>
+      <c r="X71" s="26"/>
+      <c r="Y71" s="26"/>
+      <c r="Z71" s="26"/>
+      <c r="AA71" s="26"/>
+      <c r="AB71" s="111"/>
+    </row>
+    <row r="72" spans="3:28" x14ac:dyDescent="0.15">
+      <c r="C72" s="60"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="62"/>
+      <c r="L72" s="77"/>
+      <c r="M72" s="62"/>
+      <c r="N72" s="63"/>
+      <c r="O72" s="39"/>
+      <c r="P72" s="39"/>
+      <c r="Q72" s="39"/>
+      <c r="R72" s="39"/>
+      <c r="S72" s="39"/>
+      <c r="T72" s="39"/>
+      <c r="U72" s="39"/>
+      <c r="V72" s="39"/>
+      <c r="W72" s="39"/>
+      <c r="X72" s="39"/>
+      <c r="Y72" s="39"/>
+      <c r="Z72" s="39"/>
+      <c r="AA72" s="39"/>
+      <c r="AB72" s="112"/>
     </row>
   </sheetData>
   <autoFilter ref="K27:L27" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <mergeCells count="39">
+  <mergeCells count="60">
+    <mergeCell ref="C56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="C58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="C52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="C54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="C46:J47"/>
     <mergeCell ref="K46:K47"/>
     <mergeCell ref="L46:L47"/>
+    <mergeCell ref="C50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="C70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="C66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="C68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="C64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="C40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="C44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="C48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="C60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
     <mergeCell ref="C30:J31"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="L30:L31"/>
@@ -8364,31 +8885,8 @@
     <mergeCell ref="C36:J37"/>
     <mergeCell ref="K36:K37"/>
     <mergeCell ref="L36:L37"/>
-    <mergeCell ref="C50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
     <mergeCell ref="C38:J39"/>
     <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="C40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="C42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="C44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="C46:J47"/>
-    <mergeCell ref="C56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="C52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="C54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -8408,7 +8906,7 @@
   <dimension ref="B23:AC40"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="K29" sqref="K29:L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -8421,17 +8919,17 @@
   <sheetData>
     <row r="23" spans="2:29" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B23" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="2:29" x14ac:dyDescent="0.15">
       <c r="N24" s="47"/>
       <c r="O24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P24" s="48"/>
       <c r="Q24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:29" x14ac:dyDescent="0.15">
@@ -8481,13 +8979,13 @@
         <v>3</v>
       </c>
       <c r="L26" s="44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M26" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N26" s="121" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
@@ -8568,7 +9066,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="79"/>
       <c r="E28" s="79"/>
@@ -8599,24 +9097,20 @@
     </row>
     <row r="29" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="192" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="193"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="181" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="183">
-        <v>1</v>
-      </c>
+      <c r="C29" s="219" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="220"/>
+      <c r="E29" s="220"/>
+      <c r="F29" s="220"/>
+      <c r="G29" s="220"/>
+      <c r="H29" s="220"/>
+      <c r="I29" s="220"/>
+      <c r="J29" s="221"/>
+      <c r="K29" s="208"/>
+      <c r="L29" s="210"/>
       <c r="M29" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N29" s="47"/>
       <c r="O29" s="37"/>
@@ -8637,18 +9131,18 @@
     </row>
     <row r="30" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="195"/>
-      <c r="D30" s="196"/>
-      <c r="E30" s="196"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="196"/>
-      <c r="J30" s="197"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="184"/>
+      <c r="C30" s="222"/>
+      <c r="D30" s="223"/>
+      <c r="E30" s="223"/>
+      <c r="F30" s="223"/>
+      <c r="G30" s="223"/>
+      <c r="H30" s="223"/>
+      <c r="I30" s="223"/>
+      <c r="J30" s="224"/>
+      <c r="K30" s="209"/>
+      <c r="L30" s="211"/>
       <c r="M30" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N30" s="48"/>
       <c r="O30" s="38"/>
@@ -8669,24 +9163,20 @@
     </row>
     <row r="31" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="192" t="s">
-        <v>73</v>
-      </c>
-      <c r="D31" s="193"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="181" t="s">
-        <v>20</v>
-      </c>
-      <c r="L31" s="183">
-        <v>1</v>
-      </c>
+      <c r="C31" s="219" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" s="220"/>
+      <c r="E31" s="220"/>
+      <c r="F31" s="220"/>
+      <c r="G31" s="220"/>
+      <c r="H31" s="220"/>
+      <c r="I31" s="220"/>
+      <c r="J31" s="221"/>
+      <c r="K31" s="208"/>
+      <c r="L31" s="210"/>
       <c r="M31" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N31" s="47"/>
       <c r="O31" s="37"/>
@@ -8707,20 +9197,18 @@
     </row>
     <row r="32" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="195"/>
-      <c r="D32" s="196"/>
-      <c r="E32" s="196"/>
-      <c r="F32" s="196"/>
-      <c r="G32" s="196"/>
-      <c r="H32" s="196"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="182" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="184"/>
+      <c r="C32" s="222"/>
+      <c r="D32" s="223"/>
+      <c r="E32" s="223"/>
+      <c r="F32" s="223"/>
+      <c r="G32" s="223"/>
+      <c r="H32" s="223"/>
+      <c r="I32" s="223"/>
+      <c r="J32" s="224"/>
+      <c r="K32" s="209"/>
+      <c r="L32" s="211"/>
       <c r="M32" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N32" s="48"/>
       <c r="O32" s="38"/>
@@ -8741,24 +9229,20 @@
     </row>
     <row r="33" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="192" t="s">
-        <v>84</v>
-      </c>
-      <c r="D33" s="193"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="181" t="s">
-        <v>20</v>
-      </c>
-      <c r="L33" s="183">
-        <v>1</v>
-      </c>
+      <c r="C33" s="219" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="220"/>
+      <c r="E33" s="220"/>
+      <c r="F33" s="220"/>
+      <c r="G33" s="220"/>
+      <c r="H33" s="220"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="221"/>
+      <c r="K33" s="208"/>
+      <c r="L33" s="210"/>
       <c r="M33" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N33" s="47"/>
       <c r="O33" s="37"/>
@@ -8779,20 +9263,18 @@
     </row>
     <row r="34" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="195"/>
-      <c r="D34" s="196"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="196"/>
-      <c r="G34" s="196"/>
-      <c r="H34" s="196"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="197"/>
-      <c r="K34" s="182" t="s">
-        <v>20</v>
-      </c>
-      <c r="L34" s="184"/>
+      <c r="C34" s="222"/>
+      <c r="D34" s="223"/>
+      <c r="E34" s="223"/>
+      <c r="F34" s="223"/>
+      <c r="G34" s="223"/>
+      <c r="H34" s="223"/>
+      <c r="I34" s="223"/>
+      <c r="J34" s="224"/>
+      <c r="K34" s="209"/>
+      <c r="L34" s="211"/>
       <c r="M34" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N34" s="48"/>
       <c r="O34" s="38"/>
@@ -8813,24 +9295,20 @@
     </row>
     <row r="35" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="192" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="193"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="193"/>
-      <c r="G35" s="193"/>
-      <c r="H35" s="193"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="181" t="s">
-        <v>20</v>
-      </c>
-      <c r="L35" s="183">
-        <v>1</v>
-      </c>
+      <c r="C35" s="219" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="220"/>
+      <c r="E35" s="220"/>
+      <c r="F35" s="220"/>
+      <c r="G35" s="220"/>
+      <c r="H35" s="220"/>
+      <c r="I35" s="220"/>
+      <c r="J35" s="221"/>
+      <c r="K35" s="208"/>
+      <c r="L35" s="210"/>
       <c r="M35" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N35" s="47"/>
       <c r="O35" s="37"/>
@@ -8851,20 +9329,18 @@
     </row>
     <row r="36" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="195"/>
-      <c r="D36" s="196"/>
-      <c r="E36" s="196"/>
-      <c r="F36" s="196"/>
-      <c r="G36" s="196"/>
-      <c r="H36" s="196"/>
-      <c r="I36" s="196"/>
-      <c r="J36" s="197"/>
-      <c r="K36" s="182" t="s">
-        <v>20</v>
-      </c>
-      <c r="L36" s="184"/>
+      <c r="C36" s="222"/>
+      <c r="D36" s="223"/>
+      <c r="E36" s="223"/>
+      <c r="F36" s="223"/>
+      <c r="G36" s="223"/>
+      <c r="H36" s="223"/>
+      <c r="I36" s="223"/>
+      <c r="J36" s="224"/>
+      <c r="K36" s="209"/>
+      <c r="L36" s="211"/>
       <c r="M36" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N36" s="25"/>
       <c r="O36" s="38"/>
@@ -8885,24 +9361,20 @@
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="192" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="193"/>
-      <c r="E37" s="193"/>
-      <c r="F37" s="193"/>
-      <c r="G37" s="193"/>
-      <c r="H37" s="193"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="194"/>
-      <c r="K37" s="181" t="s">
-        <v>20</v>
-      </c>
-      <c r="L37" s="183">
-        <v>1</v>
-      </c>
+      <c r="C37" s="219" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="220"/>
+      <c r="E37" s="220"/>
+      <c r="F37" s="220"/>
+      <c r="G37" s="220"/>
+      <c r="H37" s="220"/>
+      <c r="I37" s="220"/>
+      <c r="J37" s="221"/>
+      <c r="K37" s="208"/>
+      <c r="L37" s="210"/>
       <c r="M37" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N37" s="47"/>
       <c r="O37" s="37"/>
@@ -8923,20 +9395,18 @@
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="195"/>
-      <c r="D38" s="196"/>
-      <c r="E38" s="196"/>
-      <c r="F38" s="196"/>
-      <c r="G38" s="196"/>
-      <c r="H38" s="196"/>
-      <c r="I38" s="196"/>
-      <c r="J38" s="197"/>
-      <c r="K38" s="182" t="s">
-        <v>20</v>
-      </c>
-      <c r="L38" s="184"/>
+      <c r="C38" s="222"/>
+      <c r="D38" s="223"/>
+      <c r="E38" s="223"/>
+      <c r="F38" s="223"/>
+      <c r="G38" s="223"/>
+      <c r="H38" s="223"/>
+      <c r="I38" s="223"/>
+      <c r="J38" s="224"/>
+      <c r="K38" s="209"/>
+      <c r="L38" s="211"/>
       <c r="M38" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N38" s="25"/>
       <c r="O38" s="38"/>
@@ -9001,12 +9471,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
     <mergeCell ref="C37:J38"/>
     <mergeCell ref="K37:K38"/>
     <mergeCell ref="L37:L38"/>
@@ -9016,6 +9480,12 @@
     <mergeCell ref="C35:J36"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:L36"/>
+    <mergeCell ref="C29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -9048,7 +9518,7 @@
   <sheetData>
     <row r="23" spans="2:89" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B23" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="W23" s="101"/>
       <c r="X23" s="101"/>
@@ -9121,11 +9591,11 @@
     <row r="24" spans="2:89" x14ac:dyDescent="0.15">
       <c r="N24" s="47"/>
       <c r="O24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P24" s="48"/>
       <c r="Q24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W24" s="101"/>
       <c r="X24" s="101"/>
@@ -9205,14 +9675,14 @@
       <c r="H25" s="104"/>
       <c r="I25" s="104"/>
       <c r="J25" s="104"/>
-      <c r="K25" s="199" t="s">
+      <c r="K25" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="201" t="s">
+      <c r="L25" s="227" t="s">
         <v>37</v>
       </c>
-      <c r="M25" s="201" t="s">
-        <v>46</v>
+      <c r="M25" s="227" t="s">
+        <v>45</v>
       </c>
       <c r="N25" s="105">
         <v>2020</v>
@@ -9303,9 +9773,9 @@
       <c r="H26" s="92"/>
       <c r="I26" s="92"/>
       <c r="J26" s="92"/>
-      <c r="K26" s="200"/>
-      <c r="L26" s="202"/>
-      <c r="M26" s="202"/>
+      <c r="K26" s="226"/>
+      <c r="L26" s="228"/>
+      <c r="M26" s="228"/>
       <c r="N26" s="129">
         <v>43873</v>
       </c>
@@ -9406,7 +9876,7 @@
         <v>6</v>
       </c>
       <c r="C27" s="156" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D27" s="93"/>
       <c r="E27" s="93"/>
@@ -9498,7 +9968,7 @@
     <row r="28" spans="2:89" s="87" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B28" s="159"/>
       <c r="C28" s="156" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D28" s="93"/>
       <c r="E28" s="93"/>
@@ -9589,24 +10059,24 @@
     </row>
     <row r="29" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B29" s="152"/>
-      <c r="C29" s="198" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="193"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="181" t="s">
-        <v>58</v>
-      </c>
-      <c r="L29" s="191">
+      <c r="C29" s="229" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="220"/>
+      <c r="E29" s="220"/>
+      <c r="F29" s="220"/>
+      <c r="G29" s="220"/>
+      <c r="H29" s="220"/>
+      <c r="I29" s="220"/>
+      <c r="J29" s="221"/>
+      <c r="K29" s="208" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="212">
         <v>1</v>
       </c>
       <c r="M29" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N29" s="124"/>
       <c r="O29" s="22"/>
@@ -9687,20 +10157,20 @@
     </row>
     <row r="30" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B30" s="152"/>
-      <c r="C30" s="196"/>
-      <c r="D30" s="196"/>
-      <c r="E30" s="196"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="196"/>
-      <c r="J30" s="197"/>
-      <c r="K30" s="182" t="s">
+      <c r="C30" s="223"/>
+      <c r="D30" s="223"/>
+      <c r="E30" s="223"/>
+      <c r="F30" s="223"/>
+      <c r="G30" s="223"/>
+      <c r="H30" s="223"/>
+      <c r="I30" s="223"/>
+      <c r="J30" s="224"/>
+      <c r="K30" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="182"/>
+      <c r="L30" s="209"/>
       <c r="M30" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N30" s="134"/>
       <c r="O30" s="26"/>
@@ -9781,24 +10251,24 @@
     </row>
     <row r="31" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B31" s="152"/>
-      <c r="C31" s="198" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="193"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="181" t="s">
-        <v>58</v>
-      </c>
-      <c r="L31" s="191">
+      <c r="C31" s="229" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="220"/>
+      <c r="E31" s="220"/>
+      <c r="F31" s="220"/>
+      <c r="G31" s="220"/>
+      <c r="H31" s="220"/>
+      <c r="I31" s="220"/>
+      <c r="J31" s="221"/>
+      <c r="K31" s="208" t="s">
+        <v>57</v>
+      </c>
+      <c r="L31" s="212">
         <v>1</v>
       </c>
       <c r="M31" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N31" s="126"/>
       <c r="O31" s="22"/>
@@ -9879,20 +10349,20 @@
     </row>
     <row r="32" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B32" s="152"/>
-      <c r="C32" s="196"/>
-      <c r="D32" s="196"/>
-      <c r="E32" s="196"/>
-      <c r="F32" s="196"/>
-      <c r="G32" s="196"/>
-      <c r="H32" s="196"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="182" t="s">
+      <c r="C32" s="223"/>
+      <c r="D32" s="223"/>
+      <c r="E32" s="223"/>
+      <c r="F32" s="223"/>
+      <c r="G32" s="223"/>
+      <c r="H32" s="223"/>
+      <c r="I32" s="223"/>
+      <c r="J32" s="224"/>
+      <c r="K32" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="182"/>
+      <c r="L32" s="209"/>
       <c r="M32" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N32" s="134"/>
       <c r="O32" s="26"/>
@@ -9973,24 +10443,24 @@
     </row>
     <row r="33" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B33" s="152"/>
-      <c r="C33" s="198" t="s">
-        <v>94</v>
-      </c>
-      <c r="D33" s="193"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="181" t="s">
-        <v>58</v>
-      </c>
-      <c r="L33" s="191">
+      <c r="C33" s="229" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="220"/>
+      <c r="E33" s="220"/>
+      <c r="F33" s="220"/>
+      <c r="G33" s="220"/>
+      <c r="H33" s="220"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="221"/>
+      <c r="K33" s="208" t="s">
+        <v>57</v>
+      </c>
+      <c r="L33" s="212">
         <v>1</v>
       </c>
       <c r="M33" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N33" s="127"/>
       <c r="O33" s="136"/>
@@ -10071,20 +10541,20 @@
     </row>
     <row r="34" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B34" s="152"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="196"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="196"/>
-      <c r="G34" s="196"/>
-      <c r="H34" s="196"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="197"/>
-      <c r="K34" s="182" t="s">
+      <c r="C34" s="223"/>
+      <c r="D34" s="223"/>
+      <c r="E34" s="223"/>
+      <c r="F34" s="223"/>
+      <c r="G34" s="223"/>
+      <c r="H34" s="223"/>
+      <c r="I34" s="223"/>
+      <c r="J34" s="224"/>
+      <c r="K34" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="L34" s="182"/>
+      <c r="L34" s="209"/>
       <c r="M34" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N34" s="125"/>
       <c r="O34" s="137"/>
@@ -10165,24 +10635,24 @@
     </row>
     <row r="35" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B35" s="152"/>
-      <c r="C35" s="198" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="193"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="193"/>
-      <c r="G35" s="193"/>
-      <c r="H35" s="193"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="194"/>
-      <c r="K35" s="181" t="s">
-        <v>58</v>
-      </c>
-      <c r="L35" s="191">
+      <c r="C35" s="229" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="220"/>
+      <c r="E35" s="220"/>
+      <c r="F35" s="220"/>
+      <c r="G35" s="220"/>
+      <c r="H35" s="220"/>
+      <c r="I35" s="220"/>
+      <c r="J35" s="221"/>
+      <c r="K35" s="208" t="s">
+        <v>57</v>
+      </c>
+      <c r="L35" s="212">
         <v>1</v>
       </c>
       <c r="M35" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N35" s="127"/>
       <c r="O35" s="136"/>
@@ -10263,20 +10733,20 @@
     </row>
     <row r="36" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B36" s="152"/>
-      <c r="C36" s="196"/>
-      <c r="D36" s="196"/>
-      <c r="E36" s="196"/>
-      <c r="F36" s="196"/>
-      <c r="G36" s="196"/>
-      <c r="H36" s="196"/>
-      <c r="I36" s="196"/>
-      <c r="J36" s="197"/>
-      <c r="K36" s="182" t="s">
+      <c r="C36" s="223"/>
+      <c r="D36" s="223"/>
+      <c r="E36" s="223"/>
+      <c r="F36" s="223"/>
+      <c r="G36" s="223"/>
+      <c r="H36" s="223"/>
+      <c r="I36" s="223"/>
+      <c r="J36" s="224"/>
+      <c r="K36" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="L36" s="182"/>
+      <c r="L36" s="209"/>
       <c r="M36" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N36" s="125"/>
       <c r="O36" s="137"/>
@@ -10357,24 +10827,24 @@
     </row>
     <row r="37" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B37" s="152"/>
-      <c r="C37" s="198" t="s">
-        <v>96</v>
-      </c>
-      <c r="D37" s="193"/>
-      <c r="E37" s="193"/>
-      <c r="F37" s="193"/>
-      <c r="G37" s="193"/>
-      <c r="H37" s="193"/>
-      <c r="I37" s="193"/>
-      <c r="J37" s="194"/>
-      <c r="K37" s="181" t="s">
-        <v>70</v>
-      </c>
-      <c r="L37" s="191">
+      <c r="C37" s="229" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37" s="220"/>
+      <c r="E37" s="220"/>
+      <c r="F37" s="220"/>
+      <c r="G37" s="220"/>
+      <c r="H37" s="220"/>
+      <c r="I37" s="220"/>
+      <c r="J37" s="221"/>
+      <c r="K37" s="208" t="s">
+        <v>68</v>
+      </c>
+      <c r="L37" s="212">
         <v>1</v>
       </c>
       <c r="M37" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N37" s="126"/>
       <c r="O37" s="22"/>
@@ -10455,20 +10925,20 @@
     </row>
     <row r="38" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B38" s="152"/>
-      <c r="C38" s="196"/>
-      <c r="D38" s="196"/>
-      <c r="E38" s="196"/>
-      <c r="F38" s="196"/>
-      <c r="G38" s="196"/>
-      <c r="H38" s="196"/>
-      <c r="I38" s="196"/>
-      <c r="J38" s="197"/>
-      <c r="K38" s="182" t="s">
+      <c r="C38" s="223"/>
+      <c r="D38" s="223"/>
+      <c r="E38" s="223"/>
+      <c r="F38" s="223"/>
+      <c r="G38" s="223"/>
+      <c r="H38" s="223"/>
+      <c r="I38" s="223"/>
+      <c r="J38" s="224"/>
+      <c r="K38" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="L38" s="182"/>
+      <c r="L38" s="209"/>
       <c r="M38" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N38" s="134"/>
       <c r="O38" s="26"/>
@@ -10549,24 +11019,24 @@
     </row>
     <row r="39" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B39" s="152"/>
-      <c r="C39" s="198" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="193"/>
-      <c r="E39" s="193"/>
-      <c r="F39" s="193"/>
-      <c r="G39" s="193"/>
-      <c r="H39" s="193"/>
-      <c r="I39" s="193"/>
-      <c r="J39" s="194"/>
-      <c r="K39" s="181" t="s">
-        <v>70</v>
-      </c>
-      <c r="L39" s="191">
+      <c r="C39" s="229" t="s">
+        <v>95</v>
+      </c>
+      <c r="D39" s="220"/>
+      <c r="E39" s="220"/>
+      <c r="F39" s="220"/>
+      <c r="G39" s="220"/>
+      <c r="H39" s="220"/>
+      <c r="I39" s="220"/>
+      <c r="J39" s="221"/>
+      <c r="K39" s="208" t="s">
+        <v>68</v>
+      </c>
+      <c r="L39" s="212">
         <v>1</v>
       </c>
       <c r="M39" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N39" s="126"/>
       <c r="O39" s="22"/>
@@ -10647,20 +11117,20 @@
     </row>
     <row r="40" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B40" s="152"/>
-      <c r="C40" s="196"/>
-      <c r="D40" s="196"/>
-      <c r="E40" s="196"/>
-      <c r="F40" s="196"/>
-      <c r="G40" s="196"/>
-      <c r="H40" s="196"/>
-      <c r="I40" s="196"/>
-      <c r="J40" s="197"/>
-      <c r="K40" s="182" t="s">
+      <c r="C40" s="223"/>
+      <c r="D40" s="223"/>
+      <c r="E40" s="223"/>
+      <c r="F40" s="223"/>
+      <c r="G40" s="223"/>
+      <c r="H40" s="223"/>
+      <c r="I40" s="223"/>
+      <c r="J40" s="224"/>
+      <c r="K40" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="L40" s="182"/>
+      <c r="L40" s="209"/>
       <c r="M40" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N40" s="134"/>
       <c r="O40" s="26"/>
@@ -10741,24 +11211,24 @@
     </row>
     <row r="41" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B41" s="152"/>
-      <c r="C41" s="198" t="s">
-        <v>98</v>
-      </c>
-      <c r="D41" s="193"/>
-      <c r="E41" s="193"/>
-      <c r="F41" s="193"/>
-      <c r="G41" s="193"/>
-      <c r="H41" s="193"/>
-      <c r="I41" s="193"/>
-      <c r="J41" s="194"/>
-      <c r="K41" s="181" t="s">
-        <v>70</v>
-      </c>
-      <c r="L41" s="191">
+      <c r="C41" s="229" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="220"/>
+      <c r="E41" s="220"/>
+      <c r="F41" s="220"/>
+      <c r="G41" s="220"/>
+      <c r="H41" s="220"/>
+      <c r="I41" s="220"/>
+      <c r="J41" s="221"/>
+      <c r="K41" s="208" t="s">
+        <v>68</v>
+      </c>
+      <c r="L41" s="212">
         <v>1</v>
       </c>
       <c r="M41" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N41" s="126"/>
       <c r="O41" s="22"/>
@@ -10839,20 +11309,20 @@
     </row>
     <row r="42" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B42" s="152"/>
-      <c r="C42" s="196"/>
-      <c r="D42" s="196"/>
-      <c r="E42" s="196"/>
-      <c r="F42" s="196"/>
-      <c r="G42" s="196"/>
-      <c r="H42" s="196"/>
-      <c r="I42" s="196"/>
-      <c r="J42" s="197"/>
-      <c r="K42" s="182" t="s">
+      <c r="C42" s="223"/>
+      <c r="D42" s="223"/>
+      <c r="E42" s="223"/>
+      <c r="F42" s="223"/>
+      <c r="G42" s="223"/>
+      <c r="H42" s="223"/>
+      <c r="I42" s="223"/>
+      <c r="J42" s="224"/>
+      <c r="K42" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="L42" s="182"/>
+      <c r="L42" s="209"/>
       <c r="M42" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N42" s="134"/>
       <c r="O42" s="26"/>
@@ -10933,24 +11403,24 @@
     </row>
     <row r="43" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B43" s="152"/>
-      <c r="C43" s="198" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="193"/>
-      <c r="E43" s="193"/>
-      <c r="F43" s="193"/>
-      <c r="G43" s="193"/>
-      <c r="H43" s="193"/>
-      <c r="I43" s="193"/>
-      <c r="J43" s="194"/>
-      <c r="K43" s="181" t="s">
-        <v>70</v>
-      </c>
-      <c r="L43" s="191">
+      <c r="C43" s="229" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="220"/>
+      <c r="E43" s="220"/>
+      <c r="F43" s="220"/>
+      <c r="G43" s="220"/>
+      <c r="H43" s="220"/>
+      <c r="I43" s="220"/>
+      <c r="J43" s="221"/>
+      <c r="K43" s="208" t="s">
+        <v>68</v>
+      </c>
+      <c r="L43" s="212">
         <v>1</v>
       </c>
       <c r="M43" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N43" s="127"/>
       <c r="O43" s="136"/>
@@ -11031,20 +11501,20 @@
     </row>
     <row r="44" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B44" s="152"/>
-      <c r="C44" s="196"/>
-      <c r="D44" s="196"/>
-      <c r="E44" s="196"/>
-      <c r="F44" s="196"/>
-      <c r="G44" s="196"/>
-      <c r="H44" s="196"/>
-      <c r="I44" s="196"/>
-      <c r="J44" s="197"/>
-      <c r="K44" s="182" t="s">
+      <c r="C44" s="223"/>
+      <c r="D44" s="223"/>
+      <c r="E44" s="223"/>
+      <c r="F44" s="223"/>
+      <c r="G44" s="223"/>
+      <c r="H44" s="223"/>
+      <c r="I44" s="223"/>
+      <c r="J44" s="224"/>
+      <c r="K44" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="L44" s="182"/>
+      <c r="L44" s="209"/>
       <c r="M44" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N44" s="138"/>
       <c r="O44" s="139"/>
@@ -11216,7 +11686,7 @@
     <row r="46" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B46" s="152"/>
       <c r="C46" s="154" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D46" s="145"/>
       <c r="E46" s="145"/>
@@ -11307,24 +11777,24 @@
     </row>
     <row r="47" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B47" s="152"/>
-      <c r="C47" s="198" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="193"/>
-      <c r="E47" s="193"/>
-      <c r="F47" s="193"/>
-      <c r="G47" s="193"/>
-      <c r="H47" s="193"/>
-      <c r="I47" s="193"/>
-      <c r="J47" s="194"/>
-      <c r="K47" s="181" t="s">
-        <v>100</v>
-      </c>
-      <c r="L47" s="191">
+      <c r="C47" s="229" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="220"/>
+      <c r="E47" s="220"/>
+      <c r="F47" s="220"/>
+      <c r="G47" s="220"/>
+      <c r="H47" s="220"/>
+      <c r="I47" s="220"/>
+      <c r="J47" s="221"/>
+      <c r="K47" s="208" t="s">
+        <v>98</v>
+      </c>
+      <c r="L47" s="212">
         <v>1</v>
       </c>
       <c r="M47" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N47" s="127"/>
       <c r="O47" s="136"/>
@@ -11405,20 +11875,20 @@
     </row>
     <row r="48" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B48" s="152"/>
-      <c r="C48" s="196"/>
-      <c r="D48" s="196"/>
-      <c r="E48" s="196"/>
-      <c r="F48" s="196"/>
-      <c r="G48" s="196"/>
-      <c r="H48" s="196"/>
-      <c r="I48" s="196"/>
-      <c r="J48" s="197"/>
-      <c r="K48" s="182" t="s">
+      <c r="C48" s="223"/>
+      <c r="D48" s="223"/>
+      <c r="E48" s="223"/>
+      <c r="F48" s="223"/>
+      <c r="G48" s="223"/>
+      <c r="H48" s="223"/>
+      <c r="I48" s="223"/>
+      <c r="J48" s="224"/>
+      <c r="K48" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="L48" s="182"/>
+      <c r="L48" s="209"/>
       <c r="M48" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N48" s="160"/>
       <c r="O48" s="139"/>
@@ -11499,24 +11969,24 @@
     </row>
     <row r="49" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B49" s="152"/>
-      <c r="C49" s="198" t="s">
-        <v>91</v>
-      </c>
-      <c r="D49" s="193"/>
-      <c r="E49" s="193"/>
-      <c r="F49" s="193"/>
-      <c r="G49" s="193"/>
-      <c r="H49" s="193"/>
-      <c r="I49" s="193"/>
-      <c r="J49" s="194"/>
-      <c r="K49" s="181" t="s">
-        <v>100</v>
-      </c>
-      <c r="L49" s="191">
+      <c r="C49" s="229" t="s">
+        <v>89</v>
+      </c>
+      <c r="D49" s="220"/>
+      <c r="E49" s="220"/>
+      <c r="F49" s="220"/>
+      <c r="G49" s="220"/>
+      <c r="H49" s="220"/>
+      <c r="I49" s="220"/>
+      <c r="J49" s="221"/>
+      <c r="K49" s="208" t="s">
+        <v>98</v>
+      </c>
+      <c r="L49" s="212">
         <v>1</v>
       </c>
       <c r="M49" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N49" s="127"/>
       <c r="O49" s="136"/>
@@ -11597,20 +12067,20 @@
     </row>
     <row r="50" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B50" s="153"/>
-      <c r="C50" s="196"/>
-      <c r="D50" s="196"/>
-      <c r="E50" s="196"/>
-      <c r="F50" s="196"/>
-      <c r="G50" s="196"/>
-      <c r="H50" s="196"/>
-      <c r="I50" s="196"/>
-      <c r="J50" s="197"/>
-      <c r="K50" s="182" t="s">
+      <c r="C50" s="223"/>
+      <c r="D50" s="223"/>
+      <c r="E50" s="223"/>
+      <c r="F50" s="223"/>
+      <c r="G50" s="223"/>
+      <c r="H50" s="223"/>
+      <c r="I50" s="223"/>
+      <c r="J50" s="224"/>
+      <c r="K50" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="L50" s="182"/>
+      <c r="L50" s="209"/>
       <c r="M50" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N50" s="138"/>
       <c r="O50" s="139"/>
@@ -11691,24 +12161,12 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="C29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="C33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="C35:J36"/>
-    <mergeCell ref="K35:K36"/>
-    <mergeCell ref="L35:L36"/>
-    <mergeCell ref="C37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="C47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="L47:L48"/>
+    <mergeCell ref="C49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
     <mergeCell ref="C43:J44"/>
     <mergeCell ref="K43:K44"/>
     <mergeCell ref="L43:L44"/>
@@ -11718,12 +12176,24 @@
     <mergeCell ref="C41:J42"/>
     <mergeCell ref="K41:K42"/>
     <mergeCell ref="L41:L42"/>
-    <mergeCell ref="C47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="L47:L48"/>
-    <mergeCell ref="C49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="C35:J36"/>
+    <mergeCell ref="K35:K36"/>
+    <mergeCell ref="L35:L36"/>
+    <mergeCell ref="C37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="C33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="C29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -11755,7 +12225,7 @@
   <sheetData>
     <row r="23" spans="2:89" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B23" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="W23" s="101"/>
       <c r="X23" s="101"/>
@@ -11828,11 +12298,11 @@
     <row r="24" spans="2:89" x14ac:dyDescent="0.15">
       <c r="N24" s="47"/>
       <c r="O24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P24" s="48"/>
       <c r="Q24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W24" s="101"/>
       <c r="X24" s="101"/>
@@ -11912,14 +12382,14 @@
       <c r="H25" s="104"/>
       <c r="I25" s="104"/>
       <c r="J25" s="104"/>
-      <c r="K25" s="199" t="s">
+      <c r="K25" s="225" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="201" t="s">
-        <v>51</v>
-      </c>
-      <c r="M25" s="201" t="s">
-        <v>46</v>
+      <c r="L25" s="227" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="227" t="s">
+        <v>45</v>
       </c>
       <c r="N25" s="105">
         <v>2020</v>
@@ -12010,9 +12480,9 @@
       <c r="H26" s="92"/>
       <c r="I26" s="92"/>
       <c r="J26" s="92"/>
-      <c r="K26" s="200"/>
-      <c r="L26" s="202"/>
-      <c r="M26" s="202"/>
+      <c r="K26" s="226"/>
+      <c r="L26" s="228"/>
+      <c r="M26" s="228"/>
       <c r="N26" s="99">
         <v>43875</v>
       </c>
@@ -12113,7 +12583,7 @@
         <v>7</v>
       </c>
       <c r="C27" s="91" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D27" s="93"/>
       <c r="E27" s="93"/>
@@ -12204,24 +12674,24 @@
     </row>
     <row r="28" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
-      <c r="C28" s="203" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="193"/>
-      <c r="E28" s="193"/>
-      <c r="F28" s="193"/>
-      <c r="G28" s="193"/>
-      <c r="H28" s="193"/>
-      <c r="I28" s="193"/>
-      <c r="J28" s="194"/>
-      <c r="K28" s="181" t="s">
-        <v>57</v>
-      </c>
-      <c r="L28" s="191">
+      <c r="C28" s="230" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="220"/>
+      <c r="E28" s="220"/>
+      <c r="F28" s="220"/>
+      <c r="G28" s="220"/>
+      <c r="H28" s="220"/>
+      <c r="I28" s="220"/>
+      <c r="J28" s="221"/>
+      <c r="K28" s="208" t="s">
+        <v>56</v>
+      </c>
+      <c r="L28" s="212">
         <v>1</v>
       </c>
       <c r="M28" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N28" s="73"/>
       <c r="O28" s="37"/>
@@ -12302,18 +12772,18 @@
     </row>
     <row r="29" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="195"/>
-      <c r="D29" s="196"/>
-      <c r="E29" s="196"/>
-      <c r="F29" s="196"/>
-      <c r="G29" s="196"/>
-      <c r="H29" s="196"/>
-      <c r="I29" s="196"/>
-      <c r="J29" s="197"/>
-      <c r="K29" s="182"/>
-      <c r="L29" s="182"/>
+      <c r="C29" s="222"/>
+      <c r="D29" s="223"/>
+      <c r="E29" s="223"/>
+      <c r="F29" s="223"/>
+      <c r="G29" s="223"/>
+      <c r="H29" s="223"/>
+      <c r="I29" s="223"/>
+      <c r="J29" s="224"/>
+      <c r="K29" s="209"/>
+      <c r="L29" s="209"/>
       <c r="M29" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N29" s="48"/>
       <c r="O29" s="38"/>
@@ -12394,24 +12864,24 @@
     </row>
     <row r="30" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="203" t="s">
-        <v>102</v>
-      </c>
-      <c r="D30" s="193"/>
-      <c r="E30" s="193"/>
-      <c r="F30" s="193"/>
-      <c r="G30" s="193"/>
-      <c r="H30" s="193"/>
-      <c r="I30" s="193"/>
-      <c r="J30" s="194"/>
-      <c r="K30" s="181" t="s">
-        <v>57</v>
-      </c>
-      <c r="L30" s="191">
+      <c r="C30" s="230" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="220"/>
+      <c r="E30" s="220"/>
+      <c r="F30" s="220"/>
+      <c r="G30" s="220"/>
+      <c r="H30" s="220"/>
+      <c r="I30" s="220"/>
+      <c r="J30" s="221"/>
+      <c r="K30" s="208" t="s">
+        <v>56</v>
+      </c>
+      <c r="L30" s="212">
         <v>1</v>
       </c>
       <c r="M30" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N30" s="20"/>
       <c r="O30" s="37"/>
@@ -12492,20 +12962,20 @@
     </row>
     <row r="31" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="195"/>
-      <c r="D31" s="196"/>
-      <c r="E31" s="196"/>
-      <c r="F31" s="196"/>
-      <c r="G31" s="196"/>
-      <c r="H31" s="196"/>
-      <c r="I31" s="196"/>
-      <c r="J31" s="197"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182" t="s">
+      <c r="C31" s="222"/>
+      <c r="D31" s="223"/>
+      <c r="E31" s="223"/>
+      <c r="F31" s="223"/>
+      <c r="G31" s="223"/>
+      <c r="H31" s="223"/>
+      <c r="I31" s="223"/>
+      <c r="J31" s="224"/>
+      <c r="K31" s="209"/>
+      <c r="L31" s="209" t="s">
         <v>38</v>
       </c>
       <c r="M31" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N31" s="24"/>
       <c r="O31" s="38"/>
@@ -12586,24 +13056,24 @@
     </row>
     <row r="32" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="203" t="s">
-        <v>104</v>
-      </c>
-      <c r="D32" s="193"/>
-      <c r="E32" s="193"/>
-      <c r="F32" s="193"/>
-      <c r="G32" s="193"/>
-      <c r="H32" s="193"/>
-      <c r="I32" s="193"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="181" t="s">
-        <v>57</v>
-      </c>
-      <c r="L32" s="191">
+      <c r="C32" s="230" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="220"/>
+      <c r="E32" s="220"/>
+      <c r="F32" s="220"/>
+      <c r="G32" s="220"/>
+      <c r="H32" s="220"/>
+      <c r="I32" s="220"/>
+      <c r="J32" s="221"/>
+      <c r="K32" s="208" t="s">
+        <v>56</v>
+      </c>
+      <c r="L32" s="212">
         <v>1</v>
       </c>
       <c r="M32" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N32" s="20"/>
       <c r="O32" s="37"/>
@@ -12684,20 +13154,20 @@
     </row>
     <row r="33" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="195"/>
-      <c r="D33" s="196"/>
-      <c r="E33" s="196"/>
-      <c r="F33" s="196"/>
-      <c r="G33" s="196"/>
-      <c r="H33" s="196"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="197"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="182" t="s">
+      <c r="C33" s="222"/>
+      <c r="D33" s="223"/>
+      <c r="E33" s="223"/>
+      <c r="F33" s="223"/>
+      <c r="G33" s="223"/>
+      <c r="H33" s="223"/>
+      <c r="I33" s="223"/>
+      <c r="J33" s="224"/>
+      <c r="K33" s="209"/>
+      <c r="L33" s="209" t="s">
         <v>38</v>
       </c>
       <c r="M33" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N33" s="24"/>
       <c r="O33" s="38"/>
@@ -12778,24 +13248,24 @@
     </row>
     <row r="34" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="203" t="s">
-        <v>105</v>
-      </c>
-      <c r="D34" s="193"/>
-      <c r="E34" s="193"/>
-      <c r="F34" s="193"/>
-      <c r="G34" s="193"/>
-      <c r="H34" s="193"/>
-      <c r="I34" s="193"/>
-      <c r="J34" s="194"/>
-      <c r="K34" s="181" t="s">
-        <v>57</v>
-      </c>
-      <c r="L34" s="191">
+      <c r="C34" s="230" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="220"/>
+      <c r="E34" s="220"/>
+      <c r="F34" s="220"/>
+      <c r="G34" s="220"/>
+      <c r="H34" s="220"/>
+      <c r="I34" s="220"/>
+      <c r="J34" s="221"/>
+      <c r="K34" s="208" t="s">
+        <v>56</v>
+      </c>
+      <c r="L34" s="212">
         <v>1</v>
       </c>
       <c r="M34" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N34" s="20"/>
       <c r="O34" s="37"/>
@@ -12876,20 +13346,20 @@
     </row>
     <row r="35" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="195"/>
-      <c r="D35" s="196"/>
-      <c r="E35" s="196"/>
-      <c r="F35" s="196"/>
-      <c r="G35" s="196"/>
-      <c r="H35" s="196"/>
-      <c r="I35" s="196"/>
-      <c r="J35" s="197"/>
-      <c r="K35" s="182"/>
-      <c r="L35" s="182" t="s">
+      <c r="C35" s="222"/>
+      <c r="D35" s="223"/>
+      <c r="E35" s="223"/>
+      <c r="F35" s="223"/>
+      <c r="G35" s="223"/>
+      <c r="H35" s="223"/>
+      <c r="I35" s="223"/>
+      <c r="J35" s="224"/>
+      <c r="K35" s="209"/>
+      <c r="L35" s="209" t="s">
         <v>38</v>
       </c>
       <c r="M35" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N35" s="24"/>
       <c r="O35" s="38"/>
@@ -12970,24 +13440,24 @@
     </row>
     <row r="36" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="203" t="s">
-        <v>106</v>
-      </c>
-      <c r="D36" s="193"/>
-      <c r="E36" s="193"/>
-      <c r="F36" s="193"/>
-      <c r="G36" s="193"/>
-      <c r="H36" s="193"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="194"/>
-      <c r="K36" s="181" t="s">
-        <v>58</v>
-      </c>
-      <c r="L36" s="191">
+      <c r="C36" s="230" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="220"/>
+      <c r="E36" s="220"/>
+      <c r="F36" s="220"/>
+      <c r="G36" s="220"/>
+      <c r="H36" s="220"/>
+      <c r="I36" s="220"/>
+      <c r="J36" s="221"/>
+      <c r="K36" s="208" t="s">
+        <v>57</v>
+      </c>
+      <c r="L36" s="212">
         <v>0.7</v>
       </c>
       <c r="M36" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N36" s="73"/>
       <c r="O36" s="37"/>
@@ -13068,22 +13538,22 @@
     </row>
     <row r="37" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="195"/>
-      <c r="D37" s="196"/>
-      <c r="E37" s="196"/>
-      <c r="F37" s="196"/>
-      <c r="G37" s="196"/>
-      <c r="H37" s="196"/>
-      <c r="I37" s="196"/>
-      <c r="J37" s="197"/>
-      <c r="K37" s="182" t="s">
+      <c r="C37" s="222"/>
+      <c r="D37" s="223"/>
+      <c r="E37" s="223"/>
+      <c r="F37" s="223"/>
+      <c r="G37" s="223"/>
+      <c r="H37" s="223"/>
+      <c r="I37" s="223"/>
+      <c r="J37" s="224"/>
+      <c r="K37" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="182" t="s">
+      <c r="L37" s="209" t="s">
         <v>38</v>
       </c>
       <c r="M37" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N37" s="48"/>
       <c r="O37" s="38"/>
@@ -13164,24 +13634,24 @@
     </row>
     <row r="38" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="203" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" s="193"/>
-      <c r="E38" s="193"/>
-      <c r="F38" s="193"/>
-      <c r="G38" s="193"/>
-      <c r="H38" s="193"/>
-      <c r="I38" s="193"/>
-      <c r="J38" s="194"/>
-      <c r="K38" s="181" t="s">
-        <v>58</v>
-      </c>
-      <c r="L38" s="191">
+      <c r="C38" s="230" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="220"/>
+      <c r="E38" s="220"/>
+      <c r="F38" s="220"/>
+      <c r="G38" s="220"/>
+      <c r="H38" s="220"/>
+      <c r="I38" s="220"/>
+      <c r="J38" s="221"/>
+      <c r="K38" s="208" t="s">
+        <v>57</v>
+      </c>
+      <c r="L38" s="212">
         <v>1</v>
       </c>
       <c r="M38" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N38" s="20"/>
       <c r="O38" s="37"/>
@@ -13262,22 +13732,22 @@
     </row>
     <row r="39" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="195"/>
-      <c r="D39" s="196"/>
-      <c r="E39" s="196"/>
-      <c r="F39" s="196"/>
-      <c r="G39" s="196"/>
-      <c r="H39" s="196"/>
-      <c r="I39" s="196"/>
-      <c r="J39" s="197"/>
-      <c r="K39" s="182" t="s">
+      <c r="C39" s="222"/>
+      <c r="D39" s="223"/>
+      <c r="E39" s="223"/>
+      <c r="F39" s="223"/>
+      <c r="G39" s="223"/>
+      <c r="H39" s="223"/>
+      <c r="I39" s="223"/>
+      <c r="J39" s="224"/>
+      <c r="K39" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="L39" s="182" t="s">
+      <c r="L39" s="209" t="s">
         <v>38</v>
       </c>
       <c r="M39" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N39" s="24"/>
       <c r="O39" s="38"/>
@@ -13358,24 +13828,24 @@
     </row>
     <row r="40" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="203" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="193"/>
-      <c r="E40" s="193"/>
-      <c r="F40" s="193"/>
-      <c r="G40" s="193"/>
-      <c r="H40" s="193"/>
-      <c r="I40" s="193"/>
-      <c r="J40" s="194"/>
-      <c r="K40" s="181" t="s">
-        <v>58</v>
-      </c>
-      <c r="L40" s="191">
+      <c r="C40" s="230" t="s">
+        <v>106</v>
+      </c>
+      <c r="D40" s="220"/>
+      <c r="E40" s="220"/>
+      <c r="F40" s="220"/>
+      <c r="G40" s="220"/>
+      <c r="H40" s="220"/>
+      <c r="I40" s="220"/>
+      <c r="J40" s="221"/>
+      <c r="K40" s="208" t="s">
+        <v>57</v>
+      </c>
+      <c r="L40" s="212">
         <v>1</v>
       </c>
       <c r="M40" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N40" s="20"/>
       <c r="O40" s="37"/>
@@ -13456,22 +13926,22 @@
     </row>
     <row r="41" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="195"/>
-      <c r="D41" s="196"/>
-      <c r="E41" s="196"/>
-      <c r="F41" s="196"/>
-      <c r="G41" s="196"/>
-      <c r="H41" s="196"/>
-      <c r="I41" s="196"/>
-      <c r="J41" s="197"/>
-      <c r="K41" s="182" t="s">
+      <c r="C41" s="222"/>
+      <c r="D41" s="223"/>
+      <c r="E41" s="223"/>
+      <c r="F41" s="223"/>
+      <c r="G41" s="223"/>
+      <c r="H41" s="223"/>
+      <c r="I41" s="223"/>
+      <c r="J41" s="224"/>
+      <c r="K41" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="L41" s="182" t="s">
+      <c r="L41" s="209" t="s">
         <v>38</v>
       </c>
       <c r="M41" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N41" s="24"/>
       <c r="O41" s="38"/>
@@ -13552,24 +14022,24 @@
     </row>
     <row r="42" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="203" t="s">
-        <v>109</v>
-      </c>
-      <c r="D42" s="193"/>
-      <c r="E42" s="193"/>
-      <c r="F42" s="193"/>
-      <c r="G42" s="193"/>
-      <c r="H42" s="193"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="194"/>
-      <c r="K42" s="181" t="s">
-        <v>58</v>
-      </c>
-      <c r="L42" s="191">
+      <c r="C42" s="230" t="s">
+        <v>107</v>
+      </c>
+      <c r="D42" s="220"/>
+      <c r="E42" s="220"/>
+      <c r="F42" s="220"/>
+      <c r="G42" s="220"/>
+      <c r="H42" s="220"/>
+      <c r="I42" s="220"/>
+      <c r="J42" s="221"/>
+      <c r="K42" s="208" t="s">
+        <v>57</v>
+      </c>
+      <c r="L42" s="212">
         <v>1</v>
       </c>
       <c r="M42" s="82" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N42" s="20"/>
       <c r="O42" s="37"/>
@@ -13650,22 +14120,22 @@
     </row>
     <row r="43" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
-      <c r="C43" s="195"/>
-      <c r="D43" s="196"/>
-      <c r="E43" s="196"/>
-      <c r="F43" s="196"/>
-      <c r="G43" s="196"/>
-      <c r="H43" s="196"/>
-      <c r="I43" s="196"/>
-      <c r="J43" s="197"/>
-      <c r="K43" s="182" t="s">
+      <c r="C43" s="222"/>
+      <c r="D43" s="223"/>
+      <c r="E43" s="223"/>
+      <c r="F43" s="223"/>
+      <c r="G43" s="223"/>
+      <c r="H43" s="223"/>
+      <c r="I43" s="223"/>
+      <c r="J43" s="224"/>
+      <c r="K43" s="209" t="s">
         <v>14</v>
       </c>
-      <c r="L43" s="182" t="s">
+      <c r="L43" s="209" t="s">
         <v>38</v>
       </c>
       <c r="M43" s="83" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N43" s="24"/>
       <c r="O43" s="38"/>
@@ -13974,24 +14444,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="C28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="C34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="C36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
     <mergeCell ref="C42:J43"/>
     <mergeCell ref="K42:K43"/>
     <mergeCell ref="L42:L43"/>
@@ -14001,6 +14453,24 @@
     <mergeCell ref="C40:J41"/>
     <mergeCell ref="K40:K41"/>
     <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="C36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="C28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -14038,11 +14508,11 @@
     <row r="24" spans="2:28" x14ac:dyDescent="0.15">
       <c r="N24" s="47"/>
       <c r="O24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P24" s="48"/>
       <c r="Q24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.15">
@@ -14092,13 +14562,13 @@
         <v>3</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M26" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N26" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
@@ -14202,10 +14672,10 @@
     <row r="29" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
       <c r="C29" s="66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D29" s="67" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E29" s="67"/>
       <c r="F29" s="67"/>
@@ -14234,28 +14704,28 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="185" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186" t="s">
+      <c r="C30" s="213" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="214"/>
+      <c r="E30" s="214" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="186" t="s">
+      <c r="F30" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="186"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="187"/>
-      <c r="K30" s="181" t="s">
+      <c r="G30" s="214"/>
+      <c r="H30" s="214"/>
+      <c r="I30" s="214"/>
+      <c r="J30" s="215"/>
+      <c r="K30" s="208" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="183">
+      <c r="L30" s="210">
         <v>0</v>
       </c>
       <c r="M30" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N30" s="20"/>
       <c r="O30" s="22"/>
@@ -14275,18 +14745,18 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="188"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="189"/>
-      <c r="J31" s="190"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="184"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="217"/>
+      <c r="E31" s="217"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="218"/>
+      <c r="K31" s="209"/>
+      <c r="L31" s="211"/>
       <c r="M31" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N31" s="24"/>
       <c r="O31" s="26"/>
@@ -14306,28 +14776,28 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="185" t="s">
-        <v>116</v>
-      </c>
-      <c r="D32" s="186"/>
-      <c r="E32" s="186" t="s">
+      <c r="C32" s="213" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" s="214"/>
+      <c r="E32" s="214" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="186" t="s">
+      <c r="F32" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="186"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="186"/>
-      <c r="J32" s="187"/>
-      <c r="K32" s="181" t="s">
+      <c r="G32" s="214"/>
+      <c r="H32" s="214"/>
+      <c r="I32" s="214"/>
+      <c r="J32" s="215"/>
+      <c r="K32" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="183">
+      <c r="L32" s="210">
         <v>0</v>
       </c>
       <c r="M32" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N32" s="20"/>
       <c r="O32" s="22"/>
@@ -14347,18 +14817,18 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="188"/>
-      <c r="D33" s="189"/>
-      <c r="E33" s="189"/>
-      <c r="F33" s="189"/>
-      <c r="G33" s="189"/>
-      <c r="H33" s="189"/>
-      <c r="I33" s="189"/>
-      <c r="J33" s="190"/>
-      <c r="K33" s="182"/>
-      <c r="L33" s="184"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="217"/>
+      <c r="E33" s="217"/>
+      <c r="F33" s="217"/>
+      <c r="G33" s="217"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="217"/>
+      <c r="J33" s="218"/>
+      <c r="K33" s="209"/>
+      <c r="L33" s="211"/>
       <c r="M33" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N33" s="24"/>
       <c r="O33" s="26"/>
@@ -14378,28 +14848,28 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="185" t="s">
-        <v>115</v>
-      </c>
-      <c r="D34" s="186"/>
-      <c r="E34" s="186" t="s">
+      <c r="C34" s="213" t="s">
+        <v>113</v>
+      </c>
+      <c r="D34" s="214"/>
+      <c r="E34" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="186" t="s">
+      <c r="F34" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="186"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="186"/>
-      <c r="J34" s="187"/>
-      <c r="K34" s="181" t="s">
+      <c r="G34" s="214"/>
+      <c r="H34" s="214"/>
+      <c r="I34" s="214"/>
+      <c r="J34" s="215"/>
+      <c r="K34" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="L34" s="183">
+      <c r="L34" s="210">
         <v>0</v>
       </c>
       <c r="M34" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N34" s="20"/>
       <c r="O34" s="22"/>
@@ -14419,18 +14889,18 @@
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="188"/>
-      <c r="D35" s="189"/>
-      <c r="E35" s="189"/>
-      <c r="F35" s="189"/>
-      <c r="G35" s="189"/>
-      <c r="H35" s="189"/>
-      <c r="I35" s="189"/>
-      <c r="J35" s="190"/>
-      <c r="K35" s="182"/>
-      <c r="L35" s="184"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="217"/>
+      <c r="E35" s="217"/>
+      <c r="F35" s="217"/>
+      <c r="G35" s="217"/>
+      <c r="H35" s="217"/>
+      <c r="I35" s="217"/>
+      <c r="J35" s="218"/>
+      <c r="K35" s="209"/>
+      <c r="L35" s="211"/>
       <c r="M35" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N35" s="24"/>
       <c r="O35" s="26"/>
@@ -14450,28 +14920,28 @@
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="204" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="186"/>
-      <c r="E36" s="186" t="s">
+      <c r="C36" s="231" t="s">
+        <v>112</v>
+      </c>
+      <c r="D36" s="214"/>
+      <c r="E36" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="186" t="s">
+      <c r="F36" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="186"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="186"/>
-      <c r="J36" s="187"/>
-      <c r="K36" s="181" t="s">
+      <c r="G36" s="214"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="214"/>
+      <c r="J36" s="215"/>
+      <c r="K36" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="L36" s="183">
+      <c r="L36" s="210">
         <v>0</v>
       </c>
       <c r="M36" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N36" s="20"/>
       <c r="O36" s="22"/>
@@ -14491,18 +14961,18 @@
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="188"/>
-      <c r="D37" s="189"/>
-      <c r="E37" s="189"/>
-      <c r="F37" s="189"/>
-      <c r="G37" s="189"/>
-      <c r="H37" s="189"/>
-      <c r="I37" s="189"/>
-      <c r="J37" s="190"/>
-      <c r="K37" s="182"/>
-      <c r="L37" s="184"/>
+      <c r="C37" s="216"/>
+      <c r="D37" s="217"/>
+      <c r="E37" s="217"/>
+      <c r="F37" s="217"/>
+      <c r="G37" s="217"/>
+      <c r="H37" s="217"/>
+      <c r="I37" s="217"/>
+      <c r="J37" s="218"/>
+      <c r="K37" s="209"/>
+      <c r="L37" s="211"/>
       <c r="M37" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N37" s="24"/>
       <c r="O37" s="26"/>
@@ -14522,28 +14992,28 @@
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="185" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="186"/>
-      <c r="E38" s="186" t="s">
+      <c r="C38" s="213" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" s="214"/>
+      <c r="E38" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="186" t="s">
+      <c r="F38" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="186"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="186"/>
-      <c r="J38" s="187"/>
-      <c r="K38" s="181" t="s">
+      <c r="G38" s="214"/>
+      <c r="H38" s="214"/>
+      <c r="I38" s="214"/>
+      <c r="J38" s="215"/>
+      <c r="K38" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="L38" s="183">
+      <c r="L38" s="210">
         <v>0</v>
       </c>
       <c r="M38" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N38" s="20"/>
       <c r="O38" s="22"/>
@@ -14563,18 +15033,18 @@
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="188"/>
-      <c r="D39" s="189"/>
-      <c r="E39" s="189"/>
-      <c r="F39" s="189"/>
-      <c r="G39" s="189"/>
-      <c r="H39" s="189"/>
-      <c r="I39" s="189"/>
-      <c r="J39" s="190"/>
-      <c r="K39" s="182"/>
-      <c r="L39" s="184"/>
+      <c r="C39" s="216"/>
+      <c r="D39" s="217"/>
+      <c r="E39" s="217"/>
+      <c r="F39" s="217"/>
+      <c r="G39" s="217"/>
+      <c r="H39" s="217"/>
+      <c r="I39" s="217"/>
+      <c r="J39" s="218"/>
+      <c r="K39" s="209"/>
+      <c r="L39" s="211"/>
       <c r="M39" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N39" s="24"/>
       <c r="O39" s="26"/>
@@ -14594,28 +15064,28 @@
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="185" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="186"/>
-      <c r="E40" s="186" t="s">
+      <c r="C40" s="213" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="214"/>
+      <c r="E40" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="186" t="s">
+      <c r="F40" s="214" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="186"/>
-      <c r="H40" s="186"/>
-      <c r="I40" s="186"/>
-      <c r="J40" s="187"/>
-      <c r="K40" s="181" t="s">
+      <c r="G40" s="214"/>
+      <c r="H40" s="214"/>
+      <c r="I40" s="214"/>
+      <c r="J40" s="215"/>
+      <c r="K40" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="L40" s="183">
+      <c r="L40" s="210">
         <v>0</v>
       </c>
       <c r="M40" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N40" s="20"/>
       <c r="O40" s="22"/>
@@ -14635,18 +15105,18 @@
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="189"/>
-      <c r="E41" s="189"/>
-      <c r="F41" s="189"/>
-      <c r="G41" s="189"/>
-      <c r="H41" s="189"/>
-      <c r="I41" s="189"/>
-      <c r="J41" s="190"/>
-      <c r="K41" s="182"/>
-      <c r="L41" s="184"/>
+      <c r="C41" s="216"/>
+      <c r="D41" s="217"/>
+      <c r="E41" s="217"/>
+      <c r="F41" s="217"/>
+      <c r="G41" s="217"/>
+      <c r="H41" s="217"/>
+      <c r="I41" s="217"/>
+      <c r="J41" s="218"/>
+      <c r="K41" s="209"/>
+      <c r="L41" s="211"/>
       <c r="M41" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N41" s="24"/>
       <c r="O41" s="26"/>
@@ -14666,28 +15136,28 @@
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="185" t="s">
-        <v>111</v>
-      </c>
-      <c r="D42" s="186"/>
-      <c r="E42" s="186" t="s">
+      <c r="C42" s="213" t="s">
+        <v>109</v>
+      </c>
+      <c r="D42" s="214"/>
+      <c r="E42" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="186" t="s">
+      <c r="F42" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="G42" s="186"/>
-      <c r="H42" s="186"/>
-      <c r="I42" s="186"/>
-      <c r="J42" s="187"/>
-      <c r="K42" s="181" t="s">
+      <c r="G42" s="214"/>
+      <c r="H42" s="214"/>
+      <c r="I42" s="214"/>
+      <c r="J42" s="215"/>
+      <c r="K42" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="183">
+      <c r="L42" s="210">
         <v>0</v>
       </c>
       <c r="M42" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N42" s="20"/>
       <c r="O42" s="22"/>
@@ -14707,18 +15177,18 @@
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
-      <c r="C43" s="188"/>
-      <c r="D43" s="189"/>
-      <c r="E43" s="189"/>
-      <c r="F43" s="189"/>
-      <c r="G43" s="189"/>
-      <c r="H43" s="189"/>
-      <c r="I43" s="189"/>
-      <c r="J43" s="190"/>
-      <c r="K43" s="182"/>
-      <c r="L43" s="184"/>
+      <c r="C43" s="216"/>
+      <c r="D43" s="217"/>
+      <c r="E43" s="217"/>
+      <c r="F43" s="217"/>
+      <c r="G43" s="217"/>
+      <c r="H43" s="217"/>
+      <c r="I43" s="217"/>
+      <c r="J43" s="218"/>
+      <c r="K43" s="209"/>
+      <c r="L43" s="211"/>
       <c r="M43" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N43" s="24"/>
       <c r="O43" s="26"/>
@@ -14738,28 +15208,28 @@
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
-      <c r="C44" s="185" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="186"/>
-      <c r="E44" s="186" t="s">
+      <c r="C44" s="213" t="s">
+        <v>108</v>
+      </c>
+      <c r="D44" s="214"/>
+      <c r="E44" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="186" t="s">
+      <c r="F44" s="214" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="186"/>
-      <c r="H44" s="186"/>
-      <c r="I44" s="186"/>
-      <c r="J44" s="187"/>
-      <c r="K44" s="181" t="s">
+      <c r="G44" s="214"/>
+      <c r="H44" s="214"/>
+      <c r="I44" s="214"/>
+      <c r="J44" s="215"/>
+      <c r="K44" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="L44" s="183">
+      <c r="L44" s="210">
         <v>0</v>
       </c>
       <c r="M44" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N44" s="20"/>
       <c r="O44" s="22"/>
@@ -14779,18 +15249,18 @@
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
-      <c r="C45" s="188"/>
-      <c r="D45" s="189"/>
-      <c r="E45" s="189"/>
-      <c r="F45" s="189"/>
-      <c r="G45" s="189"/>
-      <c r="H45" s="189"/>
-      <c r="I45" s="189"/>
-      <c r="J45" s="190"/>
-      <c r="K45" s="182"/>
-      <c r="L45" s="184"/>
+      <c r="C45" s="216"/>
+      <c r="D45" s="217"/>
+      <c r="E45" s="217"/>
+      <c r="F45" s="217"/>
+      <c r="G45" s="217"/>
+      <c r="H45" s="217"/>
+      <c r="I45" s="217"/>
+      <c r="J45" s="218"/>
+      <c r="K45" s="209"/>
+      <c r="L45" s="211"/>
       <c r="M45" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N45" s="24"/>
       <c r="O45" s="26"/>
@@ -14811,7 +15281,7 @@
     <row r="46" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B46" s="3"/>
       <c r="C46" s="66" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D46" s="76" t="s">
         <v>27</v>
@@ -14843,28 +15313,28 @@
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B47" s="3"/>
-      <c r="C47" s="185" t="s">
-        <v>101</v>
-      </c>
-      <c r="D47" s="186"/>
-      <c r="E47" s="186" t="s">
+      <c r="C47" s="213" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="214"/>
+      <c r="E47" s="214" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="186" t="s">
+      <c r="F47" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="186"/>
-      <c r="H47" s="186"/>
-      <c r="I47" s="186"/>
-      <c r="J47" s="187"/>
-      <c r="K47" s="181" t="s">
+      <c r="G47" s="214"/>
+      <c r="H47" s="214"/>
+      <c r="I47" s="214"/>
+      <c r="J47" s="215"/>
+      <c r="K47" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="L47" s="183">
+      <c r="L47" s="210">
         <v>0</v>
       </c>
       <c r="M47" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N47" s="20"/>
       <c r="O47" s="22"/>
@@ -14884,18 +15354,18 @@
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B48" s="3"/>
-      <c r="C48" s="188"/>
-      <c r="D48" s="189"/>
-      <c r="E48" s="189"/>
-      <c r="F48" s="189"/>
-      <c r="G48" s="189"/>
-      <c r="H48" s="189"/>
-      <c r="I48" s="189"/>
-      <c r="J48" s="190"/>
-      <c r="K48" s="182"/>
-      <c r="L48" s="184"/>
+      <c r="C48" s="216"/>
+      <c r="D48" s="217"/>
+      <c r="E48" s="217"/>
+      <c r="F48" s="217"/>
+      <c r="G48" s="217"/>
+      <c r="H48" s="217"/>
+      <c r="I48" s="217"/>
+      <c r="J48" s="218"/>
+      <c r="K48" s="209"/>
+      <c r="L48" s="211"/>
       <c r="M48" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N48" s="24"/>
       <c r="O48" s="26"/>
@@ -14915,28 +15385,28 @@
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
-      <c r="C49" s="185" t="s">
-        <v>116</v>
-      </c>
-      <c r="D49" s="186"/>
-      <c r="E49" s="186" t="s">
+      <c r="C49" s="213" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="214"/>
+      <c r="E49" s="214" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="186" t="s">
+      <c r="F49" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="186"/>
-      <c r="H49" s="186"/>
-      <c r="I49" s="186"/>
-      <c r="J49" s="187"/>
-      <c r="K49" s="181" t="s">
+      <c r="G49" s="214"/>
+      <c r="H49" s="214"/>
+      <c r="I49" s="214"/>
+      <c r="J49" s="215"/>
+      <c r="K49" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="L49" s="183">
+      <c r="L49" s="210">
         <v>0</v>
       </c>
       <c r="M49" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N49" s="20"/>
       <c r="O49" s="22"/>
@@ -14956,18 +15426,18 @@
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
-      <c r="C50" s="188"/>
-      <c r="D50" s="189"/>
-      <c r="E50" s="189"/>
-      <c r="F50" s="189"/>
-      <c r="G50" s="189"/>
-      <c r="H50" s="189"/>
-      <c r="I50" s="189"/>
-      <c r="J50" s="190"/>
-      <c r="K50" s="182"/>
-      <c r="L50" s="184"/>
+      <c r="C50" s="216"/>
+      <c r="D50" s="217"/>
+      <c r="E50" s="217"/>
+      <c r="F50" s="217"/>
+      <c r="G50" s="217"/>
+      <c r="H50" s="217"/>
+      <c r="I50" s="217"/>
+      <c r="J50" s="218"/>
+      <c r="K50" s="209"/>
+      <c r="L50" s="211"/>
       <c r="M50" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N50" s="24"/>
       <c r="O50" s="26"/>
@@ -14987,28 +15457,28 @@
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
-      <c r="C51" s="185" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="186"/>
-      <c r="E51" s="186" t="s">
+      <c r="C51" s="213" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="214"/>
+      <c r="E51" s="214" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="186" t="s">
+      <c r="F51" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="G51" s="186"/>
-      <c r="H51" s="186"/>
-      <c r="I51" s="186"/>
-      <c r="J51" s="187"/>
-      <c r="K51" s="181" t="s">
+      <c r="G51" s="214"/>
+      <c r="H51" s="214"/>
+      <c r="I51" s="214"/>
+      <c r="J51" s="215"/>
+      <c r="K51" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="L51" s="183">
+      <c r="L51" s="210">
         <v>0</v>
       </c>
       <c r="M51" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N51" s="20"/>
       <c r="O51" s="22"/>
@@ -15028,18 +15498,18 @@
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
-      <c r="C52" s="188"/>
-      <c r="D52" s="189"/>
-      <c r="E52" s="189"/>
-      <c r="F52" s="189"/>
-      <c r="G52" s="189"/>
-      <c r="H52" s="189"/>
-      <c r="I52" s="189"/>
-      <c r="J52" s="190"/>
-      <c r="K52" s="182"/>
-      <c r="L52" s="184"/>
+      <c r="C52" s="216"/>
+      <c r="D52" s="217"/>
+      <c r="E52" s="217"/>
+      <c r="F52" s="217"/>
+      <c r="G52" s="217"/>
+      <c r="H52" s="217"/>
+      <c r="I52" s="217"/>
+      <c r="J52" s="218"/>
+      <c r="K52" s="209"/>
+      <c r="L52" s="211"/>
       <c r="M52" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N52" s="24"/>
       <c r="O52" s="26"/>
@@ -15059,28 +15529,28 @@
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B53" s="3"/>
-      <c r="C53" s="204" t="s">
-        <v>114</v>
-      </c>
-      <c r="D53" s="186"/>
-      <c r="E53" s="186" t="s">
+      <c r="C53" s="231" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="214"/>
+      <c r="E53" s="214" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="186" t="s">
+      <c r="F53" s="214" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="186"/>
-      <c r="H53" s="186"/>
-      <c r="I53" s="186"/>
-      <c r="J53" s="187"/>
-      <c r="K53" s="181" t="s">
+      <c r="G53" s="214"/>
+      <c r="H53" s="214"/>
+      <c r="I53" s="214"/>
+      <c r="J53" s="215"/>
+      <c r="K53" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="L53" s="183">
+      <c r="L53" s="210">
         <v>0</v>
       </c>
       <c r="M53" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N53" s="20"/>
       <c r="O53" s="22"/>
@@ -15100,18 +15570,18 @@
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B54" s="3"/>
-      <c r="C54" s="188"/>
-      <c r="D54" s="189"/>
-      <c r="E54" s="189"/>
-      <c r="F54" s="189"/>
-      <c r="G54" s="189"/>
-      <c r="H54" s="189"/>
-      <c r="I54" s="189"/>
-      <c r="J54" s="190"/>
-      <c r="K54" s="182"/>
-      <c r="L54" s="184"/>
+      <c r="C54" s="216"/>
+      <c r="D54" s="217"/>
+      <c r="E54" s="217"/>
+      <c r="F54" s="217"/>
+      <c r="G54" s="217"/>
+      <c r="H54" s="217"/>
+      <c r="I54" s="217"/>
+      <c r="J54" s="218"/>
+      <c r="K54" s="209"/>
+      <c r="L54" s="211"/>
       <c r="M54" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N54" s="24"/>
       <c r="O54" s="26"/>
@@ -15131,28 +15601,28 @@
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B55" s="3"/>
-      <c r="C55" s="185" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" s="186"/>
-      <c r="E55" s="186" t="s">
+      <c r="C55" s="213" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" s="214"/>
+      <c r="E55" s="214" t="s">
         <v>33</v>
       </c>
-      <c r="F55" s="186" t="s">
+      <c r="F55" s="214" t="s">
         <v>23</v>
       </c>
-      <c r="G55" s="186"/>
-      <c r="H55" s="186"/>
-      <c r="I55" s="186"/>
-      <c r="J55" s="187"/>
-      <c r="K55" s="181" t="s">
+      <c r="G55" s="214"/>
+      <c r="H55" s="214"/>
+      <c r="I55" s="214"/>
+      <c r="J55" s="215"/>
+      <c r="K55" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="L55" s="183">
+      <c r="L55" s="210">
         <v>0</v>
       </c>
       <c r="M55" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N55" s="20"/>
       <c r="O55" s="22"/>
@@ -15172,18 +15642,18 @@
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B56" s="3"/>
-      <c r="C56" s="188"/>
-      <c r="D56" s="189"/>
-      <c r="E56" s="189"/>
-      <c r="F56" s="189"/>
-      <c r="G56" s="189"/>
-      <c r="H56" s="189"/>
-      <c r="I56" s="189"/>
-      <c r="J56" s="190"/>
-      <c r="K56" s="182"/>
-      <c r="L56" s="184"/>
+      <c r="C56" s="216"/>
+      <c r="D56" s="217"/>
+      <c r="E56" s="217"/>
+      <c r="F56" s="217"/>
+      <c r="G56" s="217"/>
+      <c r="H56" s="217"/>
+      <c r="I56" s="217"/>
+      <c r="J56" s="218"/>
+      <c r="K56" s="209"/>
+      <c r="L56" s="211"/>
       <c r="M56" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N56" s="24"/>
       <c r="O56" s="26"/>
@@ -15203,28 +15673,28 @@
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B57" s="3"/>
-      <c r="C57" s="185" t="s">
-        <v>112</v>
-      </c>
-      <c r="D57" s="186"/>
-      <c r="E57" s="186" t="s">
+      <c r="C57" s="213" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="214"/>
+      <c r="E57" s="214" t="s">
         <v>34</v>
       </c>
-      <c r="F57" s="186" t="s">
+      <c r="F57" s="214" t="s">
         <v>24</v>
       </c>
-      <c r="G57" s="186"/>
-      <c r="H57" s="186"/>
-      <c r="I57" s="186"/>
-      <c r="J57" s="187"/>
-      <c r="K57" s="181" t="s">
+      <c r="G57" s="214"/>
+      <c r="H57" s="214"/>
+      <c r="I57" s="214"/>
+      <c r="J57" s="215"/>
+      <c r="K57" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="L57" s="183">
+      <c r="L57" s="210">
         <v>0</v>
       </c>
       <c r="M57" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N57" s="20"/>
       <c r="O57" s="22"/>
@@ -15244,18 +15714,18 @@
     </row>
     <row r="58" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B58" s="3"/>
-      <c r="C58" s="188"/>
-      <c r="D58" s="189"/>
-      <c r="E58" s="189"/>
-      <c r="F58" s="189"/>
-      <c r="G58" s="189"/>
-      <c r="H58" s="189"/>
-      <c r="I58" s="189"/>
-      <c r="J58" s="190"/>
-      <c r="K58" s="182"/>
-      <c r="L58" s="184"/>
+      <c r="C58" s="216"/>
+      <c r="D58" s="217"/>
+      <c r="E58" s="217"/>
+      <c r="F58" s="217"/>
+      <c r="G58" s="217"/>
+      <c r="H58" s="217"/>
+      <c r="I58" s="217"/>
+      <c r="J58" s="218"/>
+      <c r="K58" s="209"/>
+      <c r="L58" s="211"/>
       <c r="M58" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N58" s="24"/>
       <c r="O58" s="26"/>
@@ -15275,28 +15745,28 @@
     </row>
     <row r="59" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B59" s="3"/>
-      <c r="C59" s="185" t="s">
-        <v>111</v>
-      </c>
-      <c r="D59" s="186"/>
-      <c r="E59" s="186" t="s">
+      <c r="C59" s="213" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" s="214"/>
+      <c r="E59" s="214" t="s">
         <v>35</v>
       </c>
-      <c r="F59" s="186" t="s">
+      <c r="F59" s="214" t="s">
         <v>25</v>
       </c>
-      <c r="G59" s="186"/>
-      <c r="H59" s="186"/>
-      <c r="I59" s="186"/>
-      <c r="J59" s="187"/>
-      <c r="K59" s="181" t="s">
+      <c r="G59" s="214"/>
+      <c r="H59" s="214"/>
+      <c r="I59" s="214"/>
+      <c r="J59" s="215"/>
+      <c r="K59" s="208" t="s">
         <v>21</v>
       </c>
-      <c r="L59" s="183">
+      <c r="L59" s="210">
         <v>0</v>
       </c>
       <c r="M59" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N59" s="20"/>
       <c r="O59" s="22"/>
@@ -15316,18 +15786,18 @@
     </row>
     <row r="60" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B60" s="3"/>
-      <c r="C60" s="188"/>
-      <c r="D60" s="189"/>
-      <c r="E60" s="189"/>
-      <c r="F60" s="189"/>
-      <c r="G60" s="189"/>
-      <c r="H60" s="189"/>
-      <c r="I60" s="189"/>
-      <c r="J60" s="190"/>
-      <c r="K60" s="182"/>
-      <c r="L60" s="184"/>
+      <c r="C60" s="216"/>
+      <c r="D60" s="217"/>
+      <c r="E60" s="217"/>
+      <c r="F60" s="217"/>
+      <c r="G60" s="217"/>
+      <c r="H60" s="217"/>
+      <c r="I60" s="217"/>
+      <c r="J60" s="218"/>
+      <c r="K60" s="209"/>
+      <c r="L60" s="211"/>
       <c r="M60" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N60" s="24"/>
       <c r="O60" s="26"/>
@@ -15347,28 +15817,28 @@
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B61" s="3"/>
-      <c r="C61" s="185" t="s">
-        <v>110</v>
-      </c>
-      <c r="D61" s="186"/>
-      <c r="E61" s="186" t="s">
+      <c r="C61" s="213" t="s">
+        <v>108</v>
+      </c>
+      <c r="D61" s="214"/>
+      <c r="E61" s="214" t="s">
         <v>36</v>
       </c>
-      <c r="F61" s="186" t="s">
+      <c r="F61" s="214" t="s">
         <v>26</v>
       </c>
-      <c r="G61" s="186"/>
-      <c r="H61" s="186"/>
-      <c r="I61" s="186"/>
-      <c r="J61" s="187"/>
-      <c r="K61" s="181" t="s">
+      <c r="G61" s="214"/>
+      <c r="H61" s="214"/>
+      <c r="I61" s="214"/>
+      <c r="J61" s="215"/>
+      <c r="K61" s="208" t="s">
         <v>22</v>
       </c>
-      <c r="L61" s="183">
+      <c r="L61" s="210">
         <v>0</v>
       </c>
       <c r="M61" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N61" s="20"/>
       <c r="O61" s="22"/>
@@ -15388,18 +15858,18 @@
     </row>
     <row r="62" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B62" s="3"/>
-      <c r="C62" s="188"/>
-      <c r="D62" s="189"/>
-      <c r="E62" s="189"/>
-      <c r="F62" s="189"/>
-      <c r="G62" s="189"/>
-      <c r="H62" s="189"/>
-      <c r="I62" s="189"/>
-      <c r="J62" s="190"/>
-      <c r="K62" s="182"/>
-      <c r="L62" s="184"/>
+      <c r="C62" s="216"/>
+      <c r="D62" s="217"/>
+      <c r="E62" s="217"/>
+      <c r="F62" s="217"/>
+      <c r="G62" s="217"/>
+      <c r="H62" s="217"/>
+      <c r="I62" s="217"/>
+      <c r="J62" s="218"/>
+      <c r="K62" s="209"/>
+      <c r="L62" s="211"/>
       <c r="M62" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N62" s="24"/>
       <c r="O62" s="26"/>
@@ -15448,38 +15918,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="C34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="C40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="C36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="C38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="C44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="C61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="C55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="C57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
     <mergeCell ref="L42:L43"/>
     <mergeCell ref="K42:K43"/>
     <mergeCell ref="C42:J43"/>
@@ -15496,6 +15934,38 @@
     <mergeCell ref="K47:K48"/>
     <mergeCell ref="L47:L48"/>
     <mergeCell ref="C49:J50"/>
+    <mergeCell ref="C61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="C55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="C57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="C44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="C34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="C40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="C38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -15526,17 +15996,17 @@
   <sheetData>
     <row r="23" spans="2:28" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B23" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.15">
       <c r="N24" s="47"/>
       <c r="O24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P24" s="48"/>
       <c r="Q24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.15">
@@ -15555,7 +16025,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="5"/>
       <c r="N25" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -15586,13 +16056,13 @@
         <v>3</v>
       </c>
       <c r="L26" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M26" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N26" s="114" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
@@ -15661,7 +16131,7 @@
         <v>9</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="79"/>
       <c r="E28" s="79"/>
@@ -15692,10 +16162,10 @@
     <row r="29" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
       <c r="C29" s="66" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D29" s="76" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E29" s="67"/>
       <c r="F29" s="67"/>
@@ -15724,24 +16194,24 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="204" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="186"/>
-      <c r="E30" s="186"/>
-      <c r="F30" s="186"/>
-      <c r="G30" s="186"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="186"/>
-      <c r="J30" s="187"/>
-      <c r="K30" s="181" t="s">
+      <c r="C30" s="231" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="214"/>
+      <c r="E30" s="214"/>
+      <c r="F30" s="214"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="214"/>
+      <c r="I30" s="214"/>
+      <c r="J30" s="215"/>
+      <c r="K30" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="191">
+      <c r="L30" s="212">
         <v>0</v>
       </c>
       <c r="M30" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N30" s="20"/>
       <c r="O30" s="22"/>
@@ -15761,18 +16231,18 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="188"/>
-      <c r="D31" s="189"/>
-      <c r="E31" s="189"/>
-      <c r="F31" s="189"/>
-      <c r="G31" s="189"/>
-      <c r="H31" s="189"/>
-      <c r="I31" s="189"/>
-      <c r="J31" s="190"/>
-      <c r="K31" s="182"/>
-      <c r="L31" s="182"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="217"/>
+      <c r="E31" s="217"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="218"/>
+      <c r="K31" s="209"/>
+      <c r="L31" s="209"/>
       <c r="M31" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N31" s="24"/>
       <c r="O31" s="26"/>
@@ -15793,7 +16263,7 @@
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
       <c r="C32" s="66" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D32" s="76" t="s">
         <v>27</v>
@@ -15825,24 +16295,24 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="204" t="s">
-        <v>119</v>
-      </c>
-      <c r="D33" s="186"/>
-      <c r="E33" s="186"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="186"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="186"/>
-      <c r="J33" s="187"/>
-      <c r="K33" s="181" t="s">
+      <c r="C33" s="231" t="s">
+        <v>117</v>
+      </c>
+      <c r="D33" s="214"/>
+      <c r="E33" s="214"/>
+      <c r="F33" s="214"/>
+      <c r="G33" s="214"/>
+      <c r="H33" s="214"/>
+      <c r="I33" s="214"/>
+      <c r="J33" s="215"/>
+      <c r="K33" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="191">
+      <c r="L33" s="212">
         <v>0</v>
       </c>
       <c r="M33" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N33" s="20"/>
       <c r="O33" s="22"/>
@@ -15862,18 +16332,18 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="188"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="189"/>
-      <c r="J34" s="190"/>
-      <c r="K34" s="182"/>
-      <c r="L34" s="182"/>
+      <c r="C34" s="216"/>
+      <c r="D34" s="217"/>
+      <c r="E34" s="217"/>
+      <c r="F34" s="217"/>
+      <c r="G34" s="217"/>
+      <c r="H34" s="217"/>
+      <c r="I34" s="217"/>
+      <c r="J34" s="218"/>
+      <c r="K34" s="209"/>
+      <c r="L34" s="209"/>
       <c r="M34" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N34" s="24"/>
       <c r="O34" s="26"/>
@@ -15893,24 +16363,24 @@
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="185" t="s">
-        <v>120</v>
-      </c>
-      <c r="D35" s="186"/>
-      <c r="E35" s="186"/>
-      <c r="F35" s="186"/>
-      <c r="G35" s="186"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="186"/>
-      <c r="J35" s="187"/>
-      <c r="K35" s="181" t="s">
+      <c r="C35" s="213" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="214"/>
+      <c r="E35" s="214"/>
+      <c r="F35" s="214"/>
+      <c r="G35" s="214"/>
+      <c r="H35" s="214"/>
+      <c r="I35" s="214"/>
+      <c r="J35" s="215"/>
+      <c r="K35" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="L35" s="191">
+      <c r="L35" s="212">
         <v>0</v>
       </c>
       <c r="M35" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N35" s="20"/>
       <c r="O35" s="22"/>
@@ -15930,18 +16400,18 @@
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="188"/>
-      <c r="D36" s="189"/>
-      <c r="E36" s="189"/>
-      <c r="F36" s="189"/>
-      <c r="G36" s="189"/>
-      <c r="H36" s="189"/>
-      <c r="I36" s="189"/>
-      <c r="J36" s="190"/>
-      <c r="K36" s="182"/>
-      <c r="L36" s="182"/>
+      <c r="C36" s="216"/>
+      <c r="D36" s="217"/>
+      <c r="E36" s="217"/>
+      <c r="F36" s="217"/>
+      <c r="G36" s="217"/>
+      <c r="H36" s="217"/>
+      <c r="I36" s="217"/>
+      <c r="J36" s="218"/>
+      <c r="K36" s="209"/>
+      <c r="L36" s="209"/>
       <c r="M36" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N36" s="24"/>
       <c r="O36" s="26"/>
@@ -16034,17 +16504,17 @@
   <sheetData>
     <row r="23" spans="2:28" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B23" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="2:28" x14ac:dyDescent="0.15">
       <c r="N24" s="47"/>
       <c r="O24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P24" s="48"/>
       <c r="Q24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:28" x14ac:dyDescent="0.15">
@@ -16063,7 +16533,7 @@
       <c r="L25" s="6"/>
       <c r="M25" s="5"/>
       <c r="N25" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O25" s="7"/>
       <c r="P25" s="7"/>
@@ -16097,10 +16567,10 @@
         <v>37</v>
       </c>
       <c r="M26" s="44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="N26" s="114" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="O26" s="13"/>
       <c r="P26" s="13"/>
@@ -16169,7 +16639,7 @@
         <v>10</v>
       </c>
       <c r="C28" s="78" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D28" s="79"/>
       <c r="E28" s="79"/>
@@ -16199,24 +16669,24 @@
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="205" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="193"/>
-      <c r="E29" s="193"/>
-      <c r="F29" s="193"/>
-      <c r="G29" s="193"/>
-      <c r="H29" s="193"/>
-      <c r="I29" s="193"/>
-      <c r="J29" s="194"/>
-      <c r="K29" s="181" t="s">
+      <c r="C29" s="232" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="220"/>
+      <c r="E29" s="220"/>
+      <c r="F29" s="220"/>
+      <c r="G29" s="220"/>
+      <c r="H29" s="220"/>
+      <c r="I29" s="220"/>
+      <c r="J29" s="221"/>
+      <c r="K29" s="208" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="191">
+      <c r="L29" s="212">
         <v>0</v>
       </c>
       <c r="M29" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N29" s="20"/>
       <c r="O29" s="22"/>
@@ -16236,18 +16706,18 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="195"/>
-      <c r="D30" s="196"/>
-      <c r="E30" s="196"/>
-      <c r="F30" s="196"/>
-      <c r="G30" s="196"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="196"/>
-      <c r="J30" s="197"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="182"/>
+      <c r="C30" s="222"/>
+      <c r="D30" s="223"/>
+      <c r="E30" s="223"/>
+      <c r="F30" s="223"/>
+      <c r="G30" s="223"/>
+      <c r="H30" s="223"/>
+      <c r="I30" s="223"/>
+      <c r="J30" s="224"/>
+      <c r="K30" s="209"/>
+      <c r="L30" s="209"/>
       <c r="M30" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N30" s="24"/>
       <c r="O30" s="26"/>
@@ -16267,24 +16737,24 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="192" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="193"/>
-      <c r="E31" s="193"/>
-      <c r="F31" s="193"/>
-      <c r="G31" s="193"/>
-      <c r="H31" s="193"/>
-      <c r="I31" s="193"/>
-      <c r="J31" s="194"/>
-      <c r="K31" s="181" t="s">
+      <c r="C31" s="219" t="s">
+        <v>53</v>
+      </c>
+      <c r="D31" s="220"/>
+      <c r="E31" s="220"/>
+      <c r="F31" s="220"/>
+      <c r="G31" s="220"/>
+      <c r="H31" s="220"/>
+      <c r="I31" s="220"/>
+      <c r="J31" s="221"/>
+      <c r="K31" s="208" t="s">
         <v>15</v>
       </c>
-      <c r="L31" s="191">
+      <c r="L31" s="212">
         <v>0</v>
       </c>
       <c r="M31" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N31" s="20"/>
       <c r="O31" s="22"/>
@@ -16304,18 +16774,18 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="195"/>
-      <c r="D32" s="196"/>
-      <c r="E32" s="196"/>
-      <c r="F32" s="196"/>
-      <c r="G32" s="196"/>
-      <c r="H32" s="196"/>
-      <c r="I32" s="196"/>
-      <c r="J32" s="197"/>
-      <c r="K32" s="182"/>
-      <c r="L32" s="182"/>
+      <c r="C32" s="222"/>
+      <c r="D32" s="223"/>
+      <c r="E32" s="223"/>
+      <c r="F32" s="223"/>
+      <c r="G32" s="223"/>
+      <c r="H32" s="223"/>
+      <c r="I32" s="223"/>
+      <c r="J32" s="224"/>
+      <c r="K32" s="209"/>
+      <c r="L32" s="209"/>
       <c r="M32" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N32" s="24"/>
       <c r="O32" s="26"/>
@@ -16335,24 +16805,24 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="192" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="193"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="194"/>
-      <c r="K33" s="181" t="s">
+      <c r="C33" s="219" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="220"/>
+      <c r="E33" s="220"/>
+      <c r="F33" s="220"/>
+      <c r="G33" s="220"/>
+      <c r="H33" s="220"/>
+      <c r="I33" s="220"/>
+      <c r="J33" s="221"/>
+      <c r="K33" s="208" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="191">
+      <c r="L33" s="212">
         <v>0</v>
       </c>
       <c r="M33" s="46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N33" s="20"/>
       <c r="O33" s="22"/>
@@ -16372,18 +16842,18 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="195"/>
-      <c r="D34" s="196"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="196"/>
-      <c r="G34" s="196"/>
-      <c r="H34" s="196"/>
-      <c r="I34" s="196"/>
-      <c r="J34" s="197"/>
-      <c r="K34" s="182"/>
-      <c r="L34" s="182"/>
+      <c r="C34" s="222"/>
+      <c r="D34" s="223"/>
+      <c r="E34" s="223"/>
+      <c r="F34" s="223"/>
+      <c r="G34" s="223"/>
+      <c r="H34" s="223"/>
+      <c r="I34" s="223"/>
+      <c r="J34" s="224"/>
+      <c r="K34" s="209"/>
+      <c r="L34" s="209"/>
       <c r="M34" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N34" s="24"/>
       <c r="O34" s="26"/>

--- a/グループ開発スケジュール.xlsx
+++ b/グループ開発スケジュール.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\グループ開発ローカルリポジトリー\groupA_master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B1A348-ECB2-479F-A2B3-F3E2EA79E2FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FC5DB6-3B64-45EE-B249-FA70BA989CB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="560" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3675" yWindow="855" windowWidth="14940" windowHeight="10410" tabRatio="560" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="マイルストーン" sheetId="7" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="135">
   <si>
     <t>No.</t>
   </si>
@@ -675,6 +675,113 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>がめん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.通知画面</t>
+    <rPh sb="3" eb="5">
+      <t>つうち</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>がめん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.ユーザー情報修正入力画面</t>
+    <rPh sb="7" eb="9">
+      <t>じょうほう</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>しゅうせい</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>にゅうりょく</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>がめん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.ユーザー情報修正確認画面</t>
+    <rPh sb="7" eb="9">
+      <t>じょうほう</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>しゅうせい</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>かくにん</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>がめん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18ユーザー.削除画面</t>
+    <rPh sb="7" eb="9">
+      <t>さくじょ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>がめん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.ユーザー削除確認画面</t>
+    <rPh sb="7" eb="9">
+      <t>さくじょ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>かくにん</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>がめん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山本</t>
+    <rPh sb="0" eb="2">
+      <t>やまもと</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大城</t>
+    <rPh sb="0" eb="2">
+      <t>おおしろ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石川</t>
+    <rPh sb="0" eb="2">
+      <t>いしかわ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神谷</t>
+    <rPh sb="0" eb="2">
+      <t>かみや</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>池原</t>
+    <rPh sb="0" eb="2">
+      <t>いけはら</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金城</t>
+    <rPh sb="0" eb="2">
+      <t>きんじょう</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2314,6 +2421,87 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2389,9 +2577,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2404,110 +2610,11 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="73" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3339,7 +3446,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s2272"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s2275"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3861,7 +3968,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s4326"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s4329"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4187,7 +4294,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s5334"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s5337"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4837,7 +4944,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s7456"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s7459"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5215,7 +5322,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s9465"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s9468"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5593,7 +5700,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s10442"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s10445"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -6233,27 +6340,27 @@
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
-      <c r="K4" s="160">
+      <c r="K4" s="187">
         <v>2020</v>
       </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="160"/>
-      <c r="P4" s="160"/>
-      <c r="Q4" s="160"/>
-      <c r="R4" s="160"/>
-      <c r="S4" s="160"/>
-      <c r="T4" s="160"/>
-      <c r="U4" s="160"/>
-      <c r="V4" s="160"/>
-      <c r="W4" s="160"/>
-      <c r="X4" s="160"/>
-      <c r="Y4" s="160"/>
-      <c r="Z4" s="160"/>
-      <c r="AA4" s="160"/>
-      <c r="AB4" s="160"/>
-      <c r="AC4" s="161"/>
+      <c r="L4" s="187"/>
+      <c r="M4" s="187"/>
+      <c r="N4" s="187"/>
+      <c r="O4" s="187"/>
+      <c r="P4" s="187"/>
+      <c r="Q4" s="187"/>
+      <c r="R4" s="187"/>
+      <c r="S4" s="187"/>
+      <c r="T4" s="187"/>
+      <c r="U4" s="187"/>
+      <c r="V4" s="187"/>
+      <c r="W4" s="187"/>
+      <c r="X4" s="187"/>
+      <c r="Y4" s="187"/>
+      <c r="Z4" s="187"/>
+      <c r="AA4" s="187"/>
+      <c r="AB4" s="187"/>
+      <c r="AC4" s="188"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B5" s="10"/>
@@ -6265,27 +6372,27 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="160">
+      <c r="K5" s="187">
         <v>6</v>
       </c>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160"/>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="160"/>
-      <c r="S5" s="160"/>
-      <c r="T5" s="160"/>
-      <c r="U5" s="160"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160"/>
-      <c r="X5" s="160"/>
-      <c r="Y5" s="160"/>
-      <c r="Z5" s="160"/>
-      <c r="AA5" s="160"/>
-      <c r="AB5" s="160"/>
-      <c r="AC5" s="161"/>
+      <c r="L5" s="187"/>
+      <c r="M5" s="187"/>
+      <c r="N5" s="187"/>
+      <c r="O5" s="187"/>
+      <c r="P5" s="187"/>
+      <c r="Q5" s="187"/>
+      <c r="R5" s="187"/>
+      <c r="S5" s="187"/>
+      <c r="T5" s="187"/>
+      <c r="U5" s="187"/>
+      <c r="V5" s="187"/>
+      <c r="W5" s="187"/>
+      <c r="X5" s="187"/>
+      <c r="Y5" s="187"/>
+      <c r="Z5" s="187"/>
+      <c r="AA5" s="187"/>
+      <c r="AB5" s="187"/>
+      <c r="AC5" s="188"/>
     </row>
     <row r="6" spans="2:29" x14ac:dyDescent="0.15">
       <c r="B6" s="10"/>
@@ -6857,20 +6964,20 @@
     </row>
     <row r="29" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="162" t="s">
+      <c r="C29" s="189" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="163"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="163"/>
-      <c r="G29" s="163"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="163"/>
-      <c r="J29" s="164"/>
-      <c r="K29" s="168" t="s">
+      <c r="D29" s="190"/>
+      <c r="E29" s="190"/>
+      <c r="F29" s="190"/>
+      <c r="G29" s="190"/>
+      <c r="H29" s="190"/>
+      <c r="I29" s="190"/>
+      <c r="J29" s="191"/>
+      <c r="K29" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="L29" s="170">
+      <c r="L29" s="197">
         <v>1</v>
       </c>
       <c r="M29" s="45" t="s">
@@ -6892,18 +6999,18 @@
     </row>
     <row r="30" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="165"/>
-      <c r="D30" s="166"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="167"/>
-      <c r="K30" s="169" t="s">
+      <c r="C30" s="192"/>
+      <c r="D30" s="193"/>
+      <c r="E30" s="193"/>
+      <c r="F30" s="193"/>
+      <c r="G30" s="193"/>
+      <c r="H30" s="193"/>
+      <c r="I30" s="193"/>
+      <c r="J30" s="194"/>
+      <c r="K30" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="L30" s="171" t="s">
+      <c r="L30" s="198" t="s">
         <v>39</v>
       </c>
       <c r="M30" s="44" t="s">
@@ -6925,20 +7032,20 @@
     </row>
     <row r="31" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="162" t="s">
+      <c r="C31" s="189" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="163"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="163"/>
-      <c r="G31" s="163"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="163"/>
-      <c r="J31" s="164"/>
-      <c r="K31" s="168" t="s">
+      <c r="D31" s="190"/>
+      <c r="E31" s="190"/>
+      <c r="F31" s="190"/>
+      <c r="G31" s="190"/>
+      <c r="H31" s="190"/>
+      <c r="I31" s="190"/>
+      <c r="J31" s="191"/>
+      <c r="K31" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="L31" s="170">
+      <c r="L31" s="197">
         <v>1</v>
       </c>
       <c r="M31" s="45" t="s">
@@ -6960,18 +7067,18 @@
     </row>
     <row r="32" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="165"/>
-      <c r="D32" s="166"/>
-      <c r="E32" s="166"/>
-      <c r="F32" s="166"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="166"/>
-      <c r="I32" s="166"/>
-      <c r="J32" s="167"/>
-      <c r="K32" s="169" t="s">
+      <c r="C32" s="192"/>
+      <c r="D32" s="193"/>
+      <c r="E32" s="193"/>
+      <c r="F32" s="193"/>
+      <c r="G32" s="193"/>
+      <c r="H32" s="193"/>
+      <c r="I32" s="193"/>
+      <c r="J32" s="194"/>
+      <c r="K32" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="L32" s="171" t="s">
+      <c r="L32" s="198" t="s">
         <v>39</v>
       </c>
       <c r="M32" s="44" t="s">
@@ -6993,20 +7100,20 @@
     </row>
     <row r="33" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="162" t="s">
+      <c r="C33" s="189" t="s">
         <v>71</v>
       </c>
-      <c r="D33" s="163"/>
-      <c r="E33" s="163"/>
-      <c r="F33" s="163"/>
-      <c r="G33" s="163"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="163"/>
-      <c r="J33" s="164"/>
-      <c r="K33" s="168" t="s">
+      <c r="D33" s="190"/>
+      <c r="E33" s="190"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="190"/>
+      <c r="H33" s="190"/>
+      <c r="I33" s="190"/>
+      <c r="J33" s="191"/>
+      <c r="K33" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="170">
+      <c r="L33" s="197">
         <v>1</v>
       </c>
       <c r="M33" s="45" t="s">
@@ -7028,18 +7135,18 @@
     </row>
     <row r="34" spans="2:26" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="165"/>
-      <c r="D34" s="166"/>
-      <c r="E34" s="166"/>
-      <c r="F34" s="166"/>
-      <c r="G34" s="166"/>
-      <c r="H34" s="166"/>
-      <c r="I34" s="166"/>
-      <c r="J34" s="167"/>
-      <c r="K34" s="169" t="s">
+      <c r="C34" s="192"/>
+      <c r="D34" s="193"/>
+      <c r="E34" s="193"/>
+      <c r="F34" s="193"/>
+      <c r="G34" s="193"/>
+      <c r="H34" s="193"/>
+      <c r="I34" s="193"/>
+      <c r="J34" s="194"/>
+      <c r="K34" s="196" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="171" t="s">
+      <c r="L34" s="198" t="s">
         <v>38</v>
       </c>
       <c r="M34" s="44" t="s">
@@ -7113,9 +7220,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B23:AF72"/>
+  <dimension ref="B23:AF78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AH42" sqref="AH42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
@@ -7231,61 +7340,61 @@
       <c r="K27" s="16"/>
       <c r="L27" s="15"/>
       <c r="M27" s="16"/>
-      <c r="N27" s="194">
+      <c r="N27" s="161">
         <v>12</v>
       </c>
-      <c r="O27" s="195">
+      <c r="O27" s="162">
         <v>13</v>
       </c>
-      <c r="P27" s="194">
+      <c r="P27" s="161">
         <v>14</v>
       </c>
-      <c r="Q27" s="195">
+      <c r="Q27" s="162">
         <v>15</v>
       </c>
-      <c r="R27" s="194">
+      <c r="R27" s="161">
         <v>16</v>
       </c>
-      <c r="S27" s="195">
+      <c r="S27" s="162">
         <v>17</v>
       </c>
-      <c r="T27" s="194">
+      <c r="T27" s="161">
         <v>18</v>
       </c>
-      <c r="U27" s="195">
+      <c r="U27" s="162">
         <v>19</v>
       </c>
-      <c r="V27" s="194">
+      <c r="V27" s="161">
         <v>20</v>
       </c>
-      <c r="W27" s="195">
+      <c r="W27" s="162">
         <v>21</v>
       </c>
-      <c r="X27" s="194">
+      <c r="X27" s="161">
         <v>22</v>
       </c>
-      <c r="Y27" s="195">
+      <c r="Y27" s="162">
         <v>23</v>
       </c>
-      <c r="Z27" s="194">
+      <c r="Z27" s="161">
         <v>24</v>
       </c>
-      <c r="AA27" s="195">
+      <c r="AA27" s="162">
         <v>25</v>
       </c>
-      <c r="AB27" s="196">
+      <c r="AB27" s="163">
         <v>26</v>
       </c>
-      <c r="AC27" s="197">
+      <c r="AC27" s="164">
         <v>27</v>
       </c>
-      <c r="AD27" s="195">
+      <c r="AD27" s="162">
         <v>28</v>
       </c>
-      <c r="AE27" s="194">
+      <c r="AE27" s="161">
         <v>29</v>
       </c>
-      <c r="AF27" s="198">
+      <c r="AF27" s="165">
         <v>30</v>
       </c>
     </row>
@@ -7365,1530 +7474,1778 @@
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="172" t="s">
+      <c r="C30" s="199" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="168"/>
-      <c r="L30" s="178"/>
+      <c r="D30" s="200"/>
+      <c r="E30" s="200"/>
+      <c r="F30" s="200"/>
+      <c r="G30" s="200"/>
+      <c r="H30" s="200"/>
+      <c r="I30" s="200"/>
+      <c r="J30" s="201"/>
+      <c r="K30" s="195" t="s">
+        <v>129</v>
+      </c>
+      <c r="L30" s="205"/>
       <c r="M30" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N30" s="199"/>
-      <c r="O30" s="219"/>
-      <c r="P30" s="219"/>
-      <c r="Q30" s="200"/>
-      <c r="R30" s="200"/>
-      <c r="S30" s="201"/>
-      <c r="T30" s="201"/>
-      <c r="U30" s="201"/>
-      <c r="V30" s="219"/>
-      <c r="W30" s="219"/>
-      <c r="X30" s="201"/>
-      <c r="Y30" s="201"/>
-      <c r="Z30" s="201"/>
-      <c r="AA30" s="201"/>
-      <c r="AB30" s="201"/>
-      <c r="AC30" s="219"/>
-      <c r="AD30" s="219"/>
-      <c r="AE30" s="201"/>
-      <c r="AF30" s="202"/>
+      <c r="N30" s="166"/>
+      <c r="O30" s="185"/>
+      <c r="P30" s="185"/>
+      <c r="Q30" s="167"/>
+      <c r="R30" s="167"/>
+      <c r="S30" s="168"/>
+      <c r="T30" s="168"/>
+      <c r="U30" s="168"/>
+      <c r="V30" s="185"/>
+      <c r="W30" s="185"/>
+      <c r="X30" s="168"/>
+      <c r="Y30" s="168"/>
+      <c r="Z30" s="168"/>
+      <c r="AA30" s="168"/>
+      <c r="AB30" s="168"/>
+      <c r="AC30" s="185"/>
+      <c r="AD30" s="185"/>
+      <c r="AE30" s="168"/>
+      <c r="AF30" s="169"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="169"/>
-      <c r="L31" s="169"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="203"/>
+      <c r="G31" s="203"/>
+      <c r="H31" s="203"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="204"/>
+      <c r="K31" s="196"/>
+      <c r="L31" s="196"/>
       <c r="M31" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N31" s="203"/>
-      <c r="O31" s="214"/>
-      <c r="P31" s="215"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="180"/>
+      <c r="P31" s="181"/>
       <c r="Q31" s="26"/>
       <c r="R31" s="26"/>
       <c r="S31" s="26"/>
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
-      <c r="V31" s="215"/>
-      <c r="W31" s="215"/>
+      <c r="V31" s="181"/>
+      <c r="W31" s="181"/>
       <c r="X31" s="26"/>
       <c r="Y31" s="26"/>
       <c r="Z31" s="26"/>
       <c r="AA31" s="26"/>
       <c r="AB31" s="26"/>
-      <c r="AC31" s="215"/>
-      <c r="AD31" s="215"/>
+      <c r="AC31" s="181"/>
+      <c r="AD31" s="181"/>
       <c r="AE31" s="26"/>
       <c r="AF31" s="118"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="172" t="s">
+      <c r="C32" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="174"/>
-      <c r="K32" s="168"/>
-      <c r="L32" s="178"/>
+      <c r="D32" s="200"/>
+      <c r="E32" s="200"/>
+      <c r="F32" s="200"/>
+      <c r="G32" s="200"/>
+      <c r="H32" s="200"/>
+      <c r="I32" s="200"/>
+      <c r="J32" s="201"/>
+      <c r="K32" s="195" t="s">
+        <v>129</v>
+      </c>
+      <c r="L32" s="205"/>
       <c r="M32" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N32" s="193"/>
-      <c r="O32" s="213"/>
-      <c r="P32" s="213"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="179"/>
+      <c r="P32" s="179"/>
       <c r="Q32" s="154"/>
       <c r="R32" s="154"/>
       <c r="S32" s="22"/>
       <c r="T32" s="22"/>
       <c r="U32" s="22"/>
-      <c r="V32" s="213"/>
-      <c r="W32" s="213"/>
+      <c r="V32" s="179"/>
+      <c r="W32" s="179"/>
       <c r="X32" s="22"/>
       <c r="Y32" s="22"/>
       <c r="Z32" s="22"/>
       <c r="AA32" s="22"/>
       <c r="AB32" s="22"/>
-      <c r="AC32" s="213"/>
-      <c r="AD32" s="213"/>
+      <c r="AC32" s="179"/>
+      <c r="AD32" s="179"/>
       <c r="AE32" s="22"/>
       <c r="AF32" s="117"/>
     </row>
     <row r="33" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="169"/>
-      <c r="L33" s="169"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="203"/>
+      <c r="G33" s="203"/>
+      <c r="H33" s="203"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="204"/>
+      <c r="K33" s="196"/>
+      <c r="L33" s="196"/>
       <c r="M33" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N33" s="203"/>
-      <c r="O33" s="215"/>
-      <c r="P33" s="215"/>
+      <c r="N33" s="170"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="181"/>
       <c r="Q33" s="26"/>
       <c r="R33" s="26"/>
       <c r="S33" s="26"/>
       <c r="T33" s="26"/>
       <c r="U33" s="26"/>
-      <c r="V33" s="215"/>
-      <c r="W33" s="215"/>
+      <c r="V33" s="181"/>
+      <c r="W33" s="181"/>
       <c r="X33" s="26"/>
       <c r="Y33" s="26"/>
       <c r="Z33" s="26"/>
       <c r="AA33" s="26"/>
       <c r="AB33" s="26"/>
-      <c r="AC33" s="215"/>
-      <c r="AD33" s="215"/>
+      <c r="AC33" s="181"/>
+      <c r="AD33" s="181"/>
       <c r="AE33" s="26"/>
       <c r="AF33" s="118"/>
     </row>
     <row r="34" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="172" t="s">
+      <c r="C34" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="173"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="174"/>
-      <c r="K34" s="168"/>
-      <c r="L34" s="178"/>
+      <c r="D34" s="200"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="200"/>
+      <c r="G34" s="200"/>
+      <c r="H34" s="200"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="201"/>
+      <c r="K34" s="195" t="s">
+        <v>129</v>
+      </c>
+      <c r="L34" s="205"/>
       <c r="M34" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N34" s="193"/>
-      <c r="O34" s="213"/>
-      <c r="P34" s="213"/>
+      <c r="N34" s="160"/>
+      <c r="O34" s="179"/>
+      <c r="P34" s="179"/>
       <c r="Q34" s="154"/>
       <c r="R34" s="154"/>
       <c r="S34" s="22"/>
       <c r="T34" s="22"/>
       <c r="U34" s="22"/>
-      <c r="V34" s="213"/>
-      <c r="W34" s="213"/>
+      <c r="V34" s="179"/>
+      <c r="W34" s="179"/>
       <c r="X34" s="22"/>
       <c r="Y34" s="22"/>
       <c r="Z34" s="22"/>
       <c r="AA34" s="22"/>
       <c r="AB34" s="22"/>
-      <c r="AC34" s="213"/>
-      <c r="AD34" s="213"/>
+      <c r="AC34" s="179"/>
+      <c r="AD34" s="179"/>
       <c r="AE34" s="22"/>
       <c r="AF34" s="117"/>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="176"/>
-      <c r="F35" s="176"/>
-      <c r="G35" s="176"/>
-      <c r="H35" s="176"/>
-      <c r="I35" s="176"/>
-      <c r="J35" s="177"/>
-      <c r="K35" s="169"/>
-      <c r="L35" s="169"/>
+      <c r="C35" s="202"/>
+      <c r="D35" s="203"/>
+      <c r="E35" s="203"/>
+      <c r="F35" s="203"/>
+      <c r="G35" s="203"/>
+      <c r="H35" s="203"/>
+      <c r="I35" s="203"/>
+      <c r="J35" s="204"/>
+      <c r="K35" s="196"/>
+      <c r="L35" s="196"/>
       <c r="M35" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N35" s="203"/>
-      <c r="O35" s="215"/>
-      <c r="P35" s="215"/>
+      <c r="N35" s="170"/>
+      <c r="O35" s="181"/>
+      <c r="P35" s="181"/>
       <c r="Q35" s="26"/>
       <c r="R35" s="26"/>
       <c r="S35" s="26"/>
       <c r="T35" s="26"/>
       <c r="U35" s="26"/>
-      <c r="V35" s="215"/>
-      <c r="W35" s="215"/>
+      <c r="V35" s="181"/>
+      <c r="W35" s="181"/>
       <c r="X35" s="26"/>
       <c r="Y35" s="26"/>
       <c r="Z35" s="26"/>
       <c r="AA35" s="26"/>
       <c r="AB35" s="26"/>
-      <c r="AC35" s="215"/>
-      <c r="AD35" s="215"/>
+      <c r="AC35" s="181"/>
+      <c r="AD35" s="181"/>
       <c r="AE35" s="26"/>
       <c r="AF35" s="118"/>
     </row>
     <row r="36" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="172" t="s">
+      <c r="C36" s="199" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="173"/>
-      <c r="E36" s="173"/>
-      <c r="F36" s="173"/>
-      <c r="G36" s="173"/>
-      <c r="H36" s="173"/>
-      <c r="I36" s="173"/>
-      <c r="J36" s="174"/>
-      <c r="K36" s="168"/>
-      <c r="L36" s="178"/>
+      <c r="D36" s="200"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="200"/>
+      <c r="G36" s="200"/>
+      <c r="H36" s="200"/>
+      <c r="I36" s="200"/>
+      <c r="J36" s="201"/>
+      <c r="K36" s="195" t="s">
+        <v>129</v>
+      </c>
+      <c r="L36" s="205"/>
       <c r="M36" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N36" s="193"/>
-      <c r="O36" s="213"/>
-      <c r="P36" s="213"/>
+      <c r="N36" s="160"/>
+      <c r="O36" s="179"/>
+      <c r="P36" s="179"/>
       <c r="Q36" s="154"/>
       <c r="R36" s="154"/>
       <c r="S36" s="22"/>
       <c r="T36" s="22"/>
       <c r="U36" s="22"/>
-      <c r="V36" s="213"/>
-      <c r="W36" s="213"/>
+      <c r="V36" s="179"/>
+      <c r="W36" s="179"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="22"/>
       <c r="Z36" s="22"/>
       <c r="AA36" s="22"/>
       <c r="AB36" s="22"/>
-      <c r="AC36" s="213"/>
-      <c r="AD36" s="213"/>
+      <c r="AC36" s="179"/>
+      <c r="AD36" s="179"/>
       <c r="AE36" s="22"/>
       <c r="AF36" s="117"/>
     </row>
     <row r="37" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="175"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="176"/>
-      <c r="F37" s="176"/>
-      <c r="G37" s="176"/>
-      <c r="H37" s="176"/>
-      <c r="I37" s="176"/>
-      <c r="J37" s="177"/>
-      <c r="K37" s="169"/>
-      <c r="L37" s="169"/>
+      <c r="C37" s="202"/>
+      <c r="D37" s="203"/>
+      <c r="E37" s="203"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="203"/>
+      <c r="H37" s="203"/>
+      <c r="I37" s="203"/>
+      <c r="J37" s="204"/>
+      <c r="K37" s="196"/>
+      <c r="L37" s="196"/>
       <c r="M37" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N37" s="203"/>
-      <c r="O37" s="215"/>
-      <c r="P37" s="215"/>
+      <c r="N37" s="170"/>
+      <c r="O37" s="181"/>
+      <c r="P37" s="181"/>
       <c r="Q37" s="26"/>
       <c r="R37" s="26"/>
       <c r="S37" s="26"/>
       <c r="T37" s="26"/>
       <c r="U37" s="26"/>
-      <c r="V37" s="215"/>
-      <c r="W37" s="215"/>
+      <c r="V37" s="181"/>
+      <c r="W37" s="181"/>
       <c r="X37" s="26"/>
       <c r="Y37" s="26"/>
       <c r="Z37" s="26"/>
       <c r="AA37" s="26"/>
       <c r="AB37" s="26"/>
-      <c r="AC37" s="215"/>
-      <c r="AD37" s="215"/>
+      <c r="AC37" s="181"/>
+      <c r="AD37" s="181"/>
       <c r="AE37" s="26"/>
       <c r="AF37" s="118"/>
     </row>
     <row r="38" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="172" t="s">
+      <c r="C38" s="199" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="173"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="173"/>
-      <c r="G38" s="173"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="173"/>
-      <c r="J38" s="174"/>
-      <c r="K38" s="168"/>
-      <c r="L38" s="178"/>
+      <c r="D38" s="200"/>
+      <c r="E38" s="200"/>
+      <c r="F38" s="200"/>
+      <c r="G38" s="200"/>
+      <c r="H38" s="200"/>
+      <c r="I38" s="200"/>
+      <c r="J38" s="201"/>
+      <c r="K38" s="195" t="s">
+        <v>130</v>
+      </c>
+      <c r="L38" s="205"/>
       <c r="M38" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N38" s="193"/>
-      <c r="O38" s="213"/>
-      <c r="P38" s="213"/>
+      <c r="N38" s="160"/>
+      <c r="O38" s="179"/>
+      <c r="P38" s="179"/>
       <c r="Q38" s="154"/>
       <c r="R38" s="154"/>
       <c r="S38" s="22"/>
       <c r="T38" s="22"/>
       <c r="U38" s="22"/>
-      <c r="V38" s="213"/>
-      <c r="W38" s="213"/>
+      <c r="V38" s="179"/>
+      <c r="W38" s="179"/>
       <c r="X38" s="22"/>
       <c r="Y38" s="22"/>
       <c r="Z38" s="22"/>
       <c r="AA38" s="22"/>
       <c r="AB38" s="22"/>
-      <c r="AC38" s="213"/>
-      <c r="AD38" s="213"/>
+      <c r="AC38" s="179"/>
+      <c r="AD38" s="179"/>
       <c r="AE38" s="22"/>
       <c r="AF38" s="117"/>
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="175"/>
-      <c r="D39" s="176"/>
-      <c r="E39" s="176"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
-      <c r="H39" s="176"/>
-      <c r="I39" s="176"/>
-      <c r="J39" s="177"/>
-      <c r="K39" s="169"/>
-      <c r="L39" s="169"/>
+      <c r="C39" s="202"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="203"/>
+      <c r="G39" s="203"/>
+      <c r="H39" s="203"/>
+      <c r="I39" s="203"/>
+      <c r="J39" s="204"/>
+      <c r="K39" s="196"/>
+      <c r="L39" s="196"/>
       <c r="M39" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N39" s="203"/>
-      <c r="O39" s="215"/>
-      <c r="P39" s="215"/>
+      <c r="N39" s="170"/>
+      <c r="O39" s="181"/>
+      <c r="P39" s="181"/>
       <c r="Q39" s="26"/>
       <c r="R39" s="26"/>
       <c r="S39" s="26"/>
       <c r="T39" s="26"/>
       <c r="U39" s="26"/>
-      <c r="V39" s="215"/>
-      <c r="W39" s="215"/>
+      <c r="V39" s="181"/>
+      <c r="W39" s="181"/>
       <c r="X39" s="26"/>
       <c r="Y39" s="26"/>
       <c r="Z39" s="26"/>
       <c r="AA39" s="26"/>
       <c r="AB39" s="26"/>
-      <c r="AC39" s="215"/>
-      <c r="AD39" s="215"/>
+      <c r="AC39" s="181"/>
+      <c r="AD39" s="181"/>
       <c r="AE39" s="26"/>
       <c r="AF39" s="118"/>
     </row>
     <row r="40" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="172" t="s">
+      <c r="C40" s="199" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="173"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="173"/>
-      <c r="G40" s="173"/>
-      <c r="H40" s="173"/>
-      <c r="I40" s="173"/>
-      <c r="J40" s="174"/>
-      <c r="K40" s="168"/>
-      <c r="L40" s="178"/>
+      <c r="D40" s="200"/>
+      <c r="E40" s="200"/>
+      <c r="F40" s="200"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="201"/>
+      <c r="K40" s="195" t="s">
+        <v>130</v>
+      </c>
+      <c r="L40" s="205"/>
       <c r="M40" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N40" s="193"/>
-      <c r="O40" s="213"/>
-      <c r="P40" s="213"/>
+      <c r="N40" s="160"/>
+      <c r="O40" s="179"/>
+      <c r="P40" s="179"/>
       <c r="Q40" s="154"/>
       <c r="R40" s="154"/>
       <c r="S40" s="22"/>
       <c r="T40" s="22"/>
       <c r="U40" s="22"/>
-      <c r="V40" s="213"/>
-      <c r="W40" s="213"/>
+      <c r="V40" s="179"/>
+      <c r="W40" s="179"/>
       <c r="X40" s="22"/>
       <c r="Y40" s="22"/>
       <c r="Z40" s="22"/>
       <c r="AA40" s="22"/>
       <c r="AB40" s="22"/>
-      <c r="AC40" s="213"/>
-      <c r="AD40" s="213"/>
+      <c r="AC40" s="179"/>
+      <c r="AD40" s="179"/>
       <c r="AE40" s="22"/>
       <c r="AF40" s="117"/>
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="175"/>
-      <c r="D41" s="176"/>
-      <c r="E41" s="176"/>
-      <c r="F41" s="176"/>
-      <c r="G41" s="176"/>
-      <c r="H41" s="176"/>
-      <c r="I41" s="176"/>
-      <c r="J41" s="177"/>
-      <c r="K41" s="169"/>
-      <c r="L41" s="169"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="203"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="203"/>
+      <c r="G41" s="203"/>
+      <c r="H41" s="203"/>
+      <c r="I41" s="203"/>
+      <c r="J41" s="204"/>
+      <c r="K41" s="196"/>
+      <c r="L41" s="196"/>
       <c r="M41" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N41" s="203"/>
-      <c r="O41" s="215"/>
-      <c r="P41" s="215"/>
+      <c r="N41" s="170"/>
+      <c r="O41" s="181"/>
+      <c r="P41" s="181"/>
       <c r="Q41" s="26"/>
       <c r="R41" s="26"/>
       <c r="S41" s="26"/>
       <c r="T41" s="26"/>
       <c r="U41" s="26"/>
-      <c r="V41" s="215"/>
-      <c r="W41" s="215"/>
+      <c r="V41" s="181"/>
+      <c r="W41" s="181"/>
       <c r="X41" s="26"/>
       <c r="Y41" s="26"/>
       <c r="Z41" s="26"/>
       <c r="AA41" s="26"/>
       <c r="AB41" s="26"/>
-      <c r="AC41" s="215"/>
-      <c r="AD41" s="215"/>
+      <c r="AC41" s="181"/>
+      <c r="AD41" s="181"/>
       <c r="AE41" s="26"/>
       <c r="AF41" s="118"/>
     </row>
     <row r="42" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="172" t="s">
+      <c r="C42" s="199" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="173"/>
-      <c r="E42" s="173"/>
-      <c r="F42" s="173"/>
-      <c r="G42" s="173"/>
-      <c r="H42" s="173"/>
-      <c r="I42" s="173"/>
-      <c r="J42" s="174"/>
-      <c r="K42" s="168"/>
-      <c r="L42" s="178"/>
+      <c r="D42" s="200"/>
+      <c r="E42" s="200"/>
+      <c r="F42" s="200"/>
+      <c r="G42" s="200"/>
+      <c r="H42" s="200"/>
+      <c r="I42" s="200"/>
+      <c r="J42" s="201"/>
+      <c r="K42" s="195" t="s">
+        <v>130</v>
+      </c>
+      <c r="L42" s="205"/>
       <c r="M42" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N42" s="193"/>
-      <c r="O42" s="213"/>
-      <c r="P42" s="213"/>
+      <c r="N42" s="160"/>
+      <c r="O42" s="179"/>
+      <c r="P42" s="179"/>
       <c r="Q42" s="154"/>
       <c r="R42" s="154"/>
       <c r="S42" s="22"/>
       <c r="T42" s="22"/>
       <c r="U42" s="22"/>
-      <c r="V42" s="213"/>
-      <c r="W42" s="213"/>
+      <c r="V42" s="179"/>
+      <c r="W42" s="179"/>
       <c r="X42" s="22"/>
       <c r="Y42" s="22"/>
       <c r="Z42" s="22"/>
       <c r="AA42" s="22"/>
       <c r="AB42" s="22"/>
-      <c r="AC42" s="213"/>
-      <c r="AD42" s="213"/>
+      <c r="AC42" s="179"/>
+      <c r="AD42" s="179"/>
       <c r="AE42" s="22"/>
       <c r="AF42" s="117"/>
     </row>
     <row r="43" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
-      <c r="C43" s="175"/>
-      <c r="D43" s="176"/>
-      <c r="E43" s="176"/>
-      <c r="F43" s="176"/>
-      <c r="G43" s="176"/>
-      <c r="H43" s="176"/>
-      <c r="I43" s="176"/>
-      <c r="J43" s="177"/>
-      <c r="K43" s="169"/>
-      <c r="L43" s="169"/>
+      <c r="C43" s="202"/>
+      <c r="D43" s="203"/>
+      <c r="E43" s="203"/>
+      <c r="F43" s="203"/>
+      <c r="G43" s="203"/>
+      <c r="H43" s="203"/>
+      <c r="I43" s="203"/>
+      <c r="J43" s="204"/>
+      <c r="K43" s="196"/>
+      <c r="L43" s="196"/>
       <c r="M43" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N43" s="203"/>
-      <c r="O43" s="214"/>
-      <c r="P43" s="215"/>
+      <c r="N43" s="170"/>
+      <c r="O43" s="180"/>
+      <c r="P43" s="181"/>
       <c r="Q43" s="26"/>
       <c r="R43" s="26"/>
       <c r="S43" s="26"/>
       <c r="T43" s="26"/>
       <c r="U43" s="26"/>
-      <c r="V43" s="215"/>
-      <c r="W43" s="215"/>
+      <c r="V43" s="181"/>
+      <c r="W43" s="181"/>
       <c r="X43" s="26"/>
       <c r="Y43" s="26"/>
       <c r="Z43" s="26"/>
       <c r="AA43" s="26"/>
       <c r="AB43" s="26"/>
-      <c r="AC43" s="215"/>
-      <c r="AD43" s="215"/>
+      <c r="AC43" s="181"/>
+      <c r="AD43" s="181"/>
       <c r="AE43" s="26"/>
       <c r="AF43" s="118"/>
     </row>
     <row r="44" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
-      <c r="C44" s="172" t="s">
+      <c r="C44" s="199" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="173"/>
-      <c r="E44" s="173"/>
-      <c r="F44" s="173"/>
-      <c r="G44" s="173"/>
-      <c r="H44" s="173"/>
-      <c r="I44" s="173"/>
-      <c r="J44" s="174"/>
-      <c r="K44" s="168"/>
-      <c r="L44" s="178"/>
+      <c r="D44" s="200"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="200"/>
+      <c r="G44" s="200"/>
+      <c r="H44" s="200"/>
+      <c r="I44" s="200"/>
+      <c r="J44" s="201"/>
+      <c r="K44" s="195" t="s">
+        <v>131</v>
+      </c>
+      <c r="L44" s="205"/>
       <c r="M44" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N44" s="193"/>
-      <c r="O44" s="213"/>
-      <c r="P44" s="213"/>
+      <c r="N44" s="160"/>
+      <c r="O44" s="179"/>
+      <c r="P44" s="179"/>
       <c r="Q44" s="154"/>
       <c r="R44" s="154"/>
       <c r="S44" s="22"/>
       <c r="T44" s="22"/>
       <c r="U44" s="22"/>
-      <c r="V44" s="213"/>
-      <c r="W44" s="213"/>
+      <c r="V44" s="179"/>
+      <c r="W44" s="179"/>
       <c r="X44" s="22"/>
       <c r="Y44" s="22"/>
       <c r="Z44" s="22"/>
       <c r="AA44" s="22"/>
       <c r="AB44" s="22"/>
-      <c r="AC44" s="213"/>
-      <c r="AD44" s="213"/>
+      <c r="AC44" s="179"/>
+      <c r="AD44" s="179"/>
       <c r="AE44" s="22"/>
       <c r="AF44" s="117"/>
     </row>
     <row r="45" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="176"/>
-      <c r="E45" s="176"/>
-      <c r="F45" s="176"/>
-      <c r="G45" s="176"/>
-      <c r="H45" s="176"/>
-      <c r="I45" s="176"/>
-      <c r="J45" s="177"/>
-      <c r="K45" s="169"/>
-      <c r="L45" s="169"/>
+      <c r="C45" s="202"/>
+      <c r="D45" s="203"/>
+      <c r="E45" s="203"/>
+      <c r="F45" s="203"/>
+      <c r="G45" s="203"/>
+      <c r="H45" s="203"/>
+      <c r="I45" s="203"/>
+      <c r="J45" s="204"/>
+      <c r="K45" s="196"/>
+      <c r="L45" s="196"/>
       <c r="M45" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N45" s="203"/>
-      <c r="O45" s="214"/>
-      <c r="P45" s="215"/>
+      <c r="N45" s="170"/>
+      <c r="O45" s="180"/>
+      <c r="P45" s="181"/>
       <c r="Q45" s="26"/>
       <c r="R45" s="26"/>
       <c r="S45" s="26"/>
       <c r="T45" s="26"/>
       <c r="U45" s="26"/>
-      <c r="V45" s="215"/>
-      <c r="W45" s="215"/>
+      <c r="V45" s="181"/>
+      <c r="W45" s="181"/>
       <c r="X45" s="26"/>
       <c r="Y45" s="26"/>
       <c r="Z45" s="26"/>
       <c r="AA45" s="26"/>
       <c r="AB45" s="26"/>
-      <c r="AC45" s="215"/>
-      <c r="AD45" s="215"/>
+      <c r="AC45" s="181"/>
+      <c r="AD45" s="181"/>
       <c r="AE45" s="26"/>
       <c r="AF45" s="118"/>
     </row>
     <row r="46" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B46" s="3"/>
-      <c r="C46" s="172" t="s">
+      <c r="C46" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="173"/>
-      <c r="E46" s="173"/>
-      <c r="F46" s="173"/>
-      <c r="G46" s="173"/>
-      <c r="H46" s="173"/>
-      <c r="I46" s="173"/>
-      <c r="J46" s="174"/>
-      <c r="K46" s="168"/>
-      <c r="L46" s="178"/>
+      <c r="D46" s="200"/>
+      <c r="E46" s="200"/>
+      <c r="F46" s="200"/>
+      <c r="G46" s="200"/>
+      <c r="H46" s="200"/>
+      <c r="I46" s="200"/>
+      <c r="J46" s="201"/>
+      <c r="K46" s="195" t="s">
+        <v>131</v>
+      </c>
+      <c r="L46" s="205"/>
       <c r="M46" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N46" s="193"/>
-      <c r="O46" s="213"/>
-      <c r="P46" s="213"/>
+      <c r="N46" s="160"/>
+      <c r="O46" s="179"/>
+      <c r="P46" s="179"/>
       <c r="Q46" s="154"/>
       <c r="R46" s="154"/>
       <c r="S46" s="22"/>
       <c r="T46" s="22"/>
       <c r="U46" s="22"/>
-      <c r="V46" s="213"/>
-      <c r="W46" s="213"/>
+      <c r="V46" s="179"/>
+      <c r="W46" s="179"/>
       <c r="X46" s="22"/>
       <c r="Y46" s="22"/>
       <c r="Z46" s="22"/>
       <c r="AA46" s="22"/>
       <c r="AB46" s="22"/>
-      <c r="AC46" s="213"/>
-      <c r="AD46" s="213"/>
+      <c r="AC46" s="179"/>
+      <c r="AD46" s="179"/>
       <c r="AE46" s="22"/>
       <c r="AF46" s="117"/>
     </row>
     <row r="47" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B47" s="3"/>
-      <c r="C47" s="175"/>
-      <c r="D47" s="176"/>
-      <c r="E47" s="176"/>
-      <c r="F47" s="176"/>
-      <c r="G47" s="176"/>
-      <c r="H47" s="176"/>
-      <c r="I47" s="176"/>
-      <c r="J47" s="177"/>
-      <c r="K47" s="169"/>
-      <c r="L47" s="169"/>
+      <c r="C47" s="202"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="203"/>
+      <c r="G47" s="203"/>
+      <c r="H47" s="203"/>
+      <c r="I47" s="203"/>
+      <c r="J47" s="204"/>
+      <c r="K47" s="196"/>
+      <c r="L47" s="196"/>
       <c r="M47" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N47" s="203"/>
-      <c r="O47" s="214"/>
-      <c r="P47" s="215"/>
+      <c r="N47" s="170"/>
+      <c r="O47" s="180"/>
+      <c r="P47" s="181"/>
       <c r="Q47" s="26"/>
       <c r="R47" s="26"/>
       <c r="S47" s="26"/>
       <c r="T47" s="26"/>
       <c r="U47" s="26"/>
-      <c r="V47" s="215"/>
-      <c r="W47" s="215"/>
+      <c r="V47" s="181"/>
+      <c r="W47" s="181"/>
       <c r="X47" s="26"/>
       <c r="Y47" s="26"/>
       <c r="Z47" s="26"/>
       <c r="AA47" s="26"/>
       <c r="AB47" s="26"/>
-      <c r="AC47" s="215"/>
-      <c r="AD47" s="215"/>
+      <c r="AC47" s="181"/>
+      <c r="AD47" s="181"/>
       <c r="AE47" s="26"/>
       <c r="AF47" s="118"/>
     </row>
     <row r="48" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B48" s="3"/>
-      <c r="C48" s="172" t="s">
+      <c r="C48" s="199" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="173"/>
-      <c r="E48" s="173"/>
-      <c r="F48" s="173"/>
-      <c r="G48" s="173"/>
-      <c r="H48" s="173"/>
-      <c r="I48" s="173"/>
-      <c r="J48" s="174"/>
-      <c r="K48" s="168"/>
-      <c r="L48" s="178"/>
+      <c r="D48" s="200"/>
+      <c r="E48" s="200"/>
+      <c r="F48" s="200"/>
+      <c r="G48" s="200"/>
+      <c r="H48" s="200"/>
+      <c r="I48" s="200"/>
+      <c r="J48" s="201"/>
+      <c r="K48" s="195" t="s">
+        <v>131</v>
+      </c>
+      <c r="L48" s="205"/>
       <c r="M48" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N48" s="193"/>
-      <c r="O48" s="213"/>
-      <c r="P48" s="213"/>
+      <c r="N48" s="160"/>
+      <c r="O48" s="179"/>
+      <c r="P48" s="179"/>
       <c r="Q48" s="154"/>
       <c r="R48" s="154"/>
       <c r="S48" s="22"/>
       <c r="T48" s="22"/>
       <c r="U48" s="22"/>
-      <c r="V48" s="213"/>
-      <c r="W48" s="213"/>
+      <c r="V48" s="179"/>
+      <c r="W48" s="179"/>
       <c r="X48" s="22"/>
       <c r="Y48" s="22"/>
       <c r="Z48" s="22"/>
       <c r="AA48" s="22"/>
       <c r="AB48" s="22"/>
-      <c r="AC48" s="213"/>
-      <c r="AD48" s="213"/>
+      <c r="AC48" s="179"/>
+      <c r="AD48" s="179"/>
       <c r="AE48" s="22"/>
       <c r="AF48" s="117"/>
     </row>
     <row r="49" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
-      <c r="C49" s="175"/>
-      <c r="D49" s="176"/>
-      <c r="E49" s="176"/>
-      <c r="F49" s="176"/>
-      <c r="G49" s="176"/>
-      <c r="H49" s="176"/>
-      <c r="I49" s="176"/>
-      <c r="J49" s="177"/>
-      <c r="K49" s="169"/>
-      <c r="L49" s="169"/>
+      <c r="C49" s="202"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="203"/>
+      <c r="F49" s="203"/>
+      <c r="G49" s="203"/>
+      <c r="H49" s="203"/>
+      <c r="I49" s="203"/>
+      <c r="J49" s="204"/>
+      <c r="K49" s="196"/>
+      <c r="L49" s="196"/>
       <c r="M49" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N49" s="203"/>
-      <c r="O49" s="214"/>
-      <c r="P49" s="215"/>
+      <c r="N49" s="170"/>
+      <c r="O49" s="180"/>
+      <c r="P49" s="181"/>
       <c r="Q49" s="26"/>
       <c r="R49" s="26"/>
       <c r="S49" s="26"/>
       <c r="T49" s="26"/>
       <c r="U49" s="26"/>
-      <c r="V49" s="215"/>
-      <c r="W49" s="215"/>
+      <c r="V49" s="181"/>
+      <c r="W49" s="181"/>
       <c r="X49" s="26"/>
       <c r="Y49" s="26"/>
       <c r="Z49" s="26"/>
       <c r="AA49" s="26"/>
       <c r="AB49" s="26"/>
-      <c r="AC49" s="215"/>
-      <c r="AD49" s="215"/>
+      <c r="AC49" s="181"/>
+      <c r="AD49" s="181"/>
       <c r="AE49" s="26"/>
       <c r="AF49" s="118"/>
     </row>
     <row r="50" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
-      <c r="C50" s="172" t="s">
+      <c r="C50" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="D50" s="173"/>
-      <c r="E50" s="173"/>
-      <c r="F50" s="173"/>
-      <c r="G50" s="173"/>
-      <c r="H50" s="173"/>
-      <c r="I50" s="173"/>
-      <c r="J50" s="174"/>
-      <c r="K50" s="168"/>
-      <c r="L50" s="178"/>
+      <c r="D50" s="200"/>
+      <c r="E50" s="200"/>
+      <c r="F50" s="200"/>
+      <c r="G50" s="200"/>
+      <c r="H50" s="200"/>
+      <c r="I50" s="200"/>
+      <c r="J50" s="201"/>
+      <c r="K50" s="195" t="s">
+        <v>132</v>
+      </c>
+      <c r="L50" s="205"/>
       <c r="M50" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N50" s="193"/>
-      <c r="O50" s="213"/>
-      <c r="P50" s="213"/>
+      <c r="N50" s="160"/>
+      <c r="O50" s="179"/>
+      <c r="P50" s="179"/>
       <c r="Q50" s="154"/>
       <c r="R50" s="154"/>
       <c r="S50" s="22"/>
       <c r="T50" s="22"/>
       <c r="U50" s="22"/>
-      <c r="V50" s="213"/>
-      <c r="W50" s="213"/>
+      <c r="V50" s="179"/>
+      <c r="W50" s="179"/>
       <c r="X50" s="22"/>
       <c r="Y50" s="22"/>
       <c r="Z50" s="22"/>
       <c r="AA50" s="22"/>
       <c r="AB50" s="22"/>
-      <c r="AC50" s="213"/>
-      <c r="AD50" s="213"/>
+      <c r="AC50" s="179"/>
+      <c r="AD50" s="179"/>
       <c r="AE50" s="22"/>
       <c r="AF50" s="117"/>
     </row>
     <row r="51" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
-      <c r="C51" s="175"/>
-      <c r="D51" s="176"/>
-      <c r="E51" s="176"/>
-      <c r="F51" s="176"/>
-      <c r="G51" s="176"/>
-      <c r="H51" s="176"/>
-      <c r="I51" s="176"/>
-      <c r="J51" s="177"/>
-      <c r="K51" s="169"/>
-      <c r="L51" s="169"/>
+      <c r="C51" s="202"/>
+      <c r="D51" s="203"/>
+      <c r="E51" s="203"/>
+      <c r="F51" s="203"/>
+      <c r="G51" s="203"/>
+      <c r="H51" s="203"/>
+      <c r="I51" s="203"/>
+      <c r="J51" s="204"/>
+      <c r="K51" s="196"/>
+      <c r="L51" s="196"/>
       <c r="M51" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N51" s="203"/>
-      <c r="O51" s="214"/>
-      <c r="P51" s="215"/>
+      <c r="N51" s="170"/>
+      <c r="O51" s="180"/>
+      <c r="P51" s="181"/>
       <c r="Q51" s="26"/>
       <c r="R51" s="26"/>
       <c r="S51" s="26"/>
       <c r="T51" s="26"/>
       <c r="U51" s="26"/>
-      <c r="V51" s="215"/>
-      <c r="W51" s="215"/>
+      <c r="V51" s="181"/>
+      <c r="W51" s="181"/>
       <c r="X51" s="26"/>
       <c r="Y51" s="26"/>
       <c r="Z51" s="26"/>
       <c r="AA51" s="26"/>
       <c r="AB51" s="26"/>
-      <c r="AC51" s="215"/>
-      <c r="AD51" s="215"/>
+      <c r="AC51" s="181"/>
+      <c r="AD51" s="181"/>
       <c r="AE51" s="26"/>
       <c r="AF51" s="118"/>
     </row>
     <row r="52" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B52" s="4"/>
-      <c r="C52" s="172" t="s">
+      <c r="C52" s="199" t="s">
         <v>119</v>
       </c>
-      <c r="D52" s="173"/>
-      <c r="E52" s="173"/>
-      <c r="F52" s="173"/>
-      <c r="G52" s="173"/>
-      <c r="H52" s="173"/>
-      <c r="I52" s="173"/>
-      <c r="J52" s="174"/>
-      <c r="K52" s="168"/>
-      <c r="L52" s="178"/>
+      <c r="D52" s="200"/>
+      <c r="E52" s="200"/>
+      <c r="F52" s="200"/>
+      <c r="G52" s="200"/>
+      <c r="H52" s="200"/>
+      <c r="I52" s="200"/>
+      <c r="J52" s="201"/>
+      <c r="K52" s="195" t="s">
+        <v>132</v>
+      </c>
+      <c r="L52" s="205"/>
       <c r="M52" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N52" s="193"/>
-      <c r="O52" s="213"/>
-      <c r="P52" s="213"/>
+      <c r="N52" s="160"/>
+      <c r="O52" s="179"/>
+      <c r="P52" s="179"/>
       <c r="Q52" s="154"/>
       <c r="R52" s="154"/>
       <c r="S52" s="22"/>
       <c r="T52" s="22"/>
       <c r="U52" s="22"/>
-      <c r="V52" s="213"/>
-      <c r="W52" s="213"/>
+      <c r="V52" s="179"/>
+      <c r="W52" s="179"/>
       <c r="X52" s="22"/>
       <c r="Y52" s="22"/>
       <c r="Z52" s="22"/>
       <c r="AA52" s="22"/>
       <c r="AB52" s="22"/>
-      <c r="AC52" s="213"/>
-      <c r="AD52" s="213"/>
+      <c r="AC52" s="179"/>
+      <c r="AD52" s="179"/>
       <c r="AE52" s="22"/>
       <c r="AF52" s="117"/>
     </row>
     <row r="53" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C53" s="175"/>
-      <c r="D53" s="176"/>
-      <c r="E53" s="176"/>
-      <c r="F53" s="176"/>
-      <c r="G53" s="176"/>
-      <c r="H53" s="176"/>
-      <c r="I53" s="176"/>
-      <c r="J53" s="177"/>
-      <c r="K53" s="169"/>
-      <c r="L53" s="169"/>
+      <c r="C53" s="202"/>
+      <c r="D53" s="203"/>
+      <c r="E53" s="203"/>
+      <c r="F53" s="203"/>
+      <c r="G53" s="203"/>
+      <c r="H53" s="203"/>
+      <c r="I53" s="203"/>
+      <c r="J53" s="204"/>
+      <c r="K53" s="196"/>
+      <c r="L53" s="196"/>
       <c r="M53" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N53" s="203"/>
-      <c r="O53" s="214"/>
-      <c r="P53" s="215"/>
+      <c r="N53" s="170"/>
+      <c r="O53" s="180"/>
+      <c r="P53" s="181"/>
       <c r="Q53" s="26"/>
       <c r="R53" s="26"/>
       <c r="S53" s="26"/>
       <c r="T53" s="26"/>
       <c r="U53" s="26"/>
-      <c r="V53" s="215"/>
-      <c r="W53" s="215"/>
+      <c r="V53" s="181"/>
+      <c r="W53" s="181"/>
       <c r="X53" s="26"/>
       <c r="Y53" s="26"/>
       <c r="Z53" s="26"/>
       <c r="AA53" s="26"/>
       <c r="AB53" s="26"/>
-      <c r="AC53" s="215"/>
-      <c r="AD53" s="215"/>
+      <c r="AC53" s="181"/>
+      <c r="AD53" s="181"/>
       <c r="AE53" s="26"/>
       <c r="AF53" s="118"/>
     </row>
     <row r="54" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C54" s="172" t="s">
+      <c r="C54" s="199" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="173"/>
-      <c r="E54" s="173"/>
-      <c r="F54" s="173"/>
-      <c r="G54" s="173"/>
-      <c r="H54" s="173"/>
-      <c r="I54" s="173"/>
-      <c r="J54" s="174"/>
-      <c r="K54" s="168"/>
-      <c r="L54" s="178"/>
+      <c r="D54" s="200"/>
+      <c r="E54" s="200"/>
+      <c r="F54" s="200"/>
+      <c r="G54" s="200"/>
+      <c r="H54" s="200"/>
+      <c r="I54" s="200"/>
+      <c r="J54" s="201"/>
+      <c r="K54" s="195" t="s">
+        <v>132</v>
+      </c>
+      <c r="L54" s="205"/>
       <c r="M54" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N54" s="193"/>
-      <c r="O54" s="213"/>
-      <c r="P54" s="213"/>
+      <c r="N54" s="160"/>
+      <c r="O54" s="179"/>
+      <c r="P54" s="179"/>
       <c r="Q54" s="154"/>
       <c r="R54" s="154"/>
       <c r="S54" s="22"/>
       <c r="T54" s="22"/>
       <c r="U54" s="22"/>
-      <c r="V54" s="213"/>
-      <c r="W54" s="213"/>
+      <c r="V54" s="179"/>
+      <c r="W54" s="179"/>
       <c r="X54" s="22"/>
       <c r="Y54" s="22"/>
       <c r="Z54" s="22"/>
       <c r="AA54" s="22"/>
       <c r="AB54" s="22"/>
-      <c r="AC54" s="213"/>
-      <c r="AD54" s="213"/>
+      <c r="AC54" s="179"/>
+      <c r="AD54" s="179"/>
       <c r="AE54" s="22"/>
       <c r="AF54" s="117"/>
     </row>
     <row r="55" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C55" s="175"/>
-      <c r="D55" s="176"/>
-      <c r="E55" s="176"/>
-      <c r="F55" s="176"/>
-      <c r="G55" s="176"/>
-      <c r="H55" s="176"/>
-      <c r="I55" s="176"/>
-      <c r="J55" s="177"/>
-      <c r="K55" s="169"/>
-      <c r="L55" s="169"/>
+      <c r="C55" s="202"/>
+      <c r="D55" s="203"/>
+      <c r="E55" s="203"/>
+      <c r="F55" s="203"/>
+      <c r="G55" s="203"/>
+      <c r="H55" s="203"/>
+      <c r="I55" s="203"/>
+      <c r="J55" s="204"/>
+      <c r="K55" s="196"/>
+      <c r="L55" s="196"/>
       <c r="M55" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N55" s="203"/>
-      <c r="O55" s="214"/>
-      <c r="P55" s="215"/>
+      <c r="N55" s="170"/>
+      <c r="O55" s="180"/>
+      <c r="P55" s="181"/>
       <c r="Q55" s="26"/>
       <c r="R55" s="26"/>
       <c r="S55" s="26"/>
       <c r="T55" s="26"/>
       <c r="U55" s="26"/>
-      <c r="V55" s="215"/>
-      <c r="W55" s="215"/>
+      <c r="V55" s="181"/>
+      <c r="W55" s="181"/>
       <c r="X55" s="26"/>
       <c r="Y55" s="26"/>
       <c r="Z55" s="26"/>
       <c r="AA55" s="26"/>
       <c r="AB55" s="26"/>
-      <c r="AC55" s="215"/>
-      <c r="AD55" s="215"/>
+      <c r="AC55" s="181"/>
+      <c r="AD55" s="181"/>
       <c r="AE55" s="26"/>
       <c r="AF55" s="118"/>
     </row>
     <row r="56" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C56" s="172" t="s">
+      <c r="C56" s="199" t="s">
         <v>121</v>
       </c>
-      <c r="D56" s="173"/>
-      <c r="E56" s="173"/>
-      <c r="F56" s="173"/>
-      <c r="G56" s="173"/>
-      <c r="H56" s="173"/>
-      <c r="I56" s="173"/>
-      <c r="J56" s="174"/>
-      <c r="K56" s="168"/>
-      <c r="L56" s="178"/>
+      <c r="D56" s="200"/>
+      <c r="E56" s="200"/>
+      <c r="F56" s="200"/>
+      <c r="G56" s="200"/>
+      <c r="H56" s="200"/>
+      <c r="I56" s="200"/>
+      <c r="J56" s="201"/>
+      <c r="K56" s="195" t="s">
+        <v>133</v>
+      </c>
+      <c r="L56" s="205"/>
       <c r="M56" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N56" s="193"/>
-      <c r="O56" s="213"/>
-      <c r="P56" s="213"/>
+      <c r="N56" s="160"/>
+      <c r="O56" s="179"/>
+      <c r="P56" s="179"/>
       <c r="Q56" s="154"/>
       <c r="R56" s="154"/>
       <c r="S56" s="22"/>
       <c r="T56" s="22"/>
       <c r="U56" s="22"/>
-      <c r="V56" s="213"/>
-      <c r="W56" s="213"/>
+      <c r="V56" s="179"/>
+      <c r="W56" s="179"/>
       <c r="X56" s="22"/>
       <c r="Y56" s="22"/>
       <c r="Z56" s="22"/>
       <c r="AA56" s="22"/>
       <c r="AB56" s="22"/>
-      <c r="AC56" s="213"/>
-      <c r="AD56" s="213"/>
+      <c r="AC56" s="179"/>
+      <c r="AD56" s="179"/>
       <c r="AE56" s="22"/>
       <c r="AF56" s="117"/>
     </row>
     <row r="57" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C57" s="175"/>
-      <c r="D57" s="176"/>
-      <c r="E57" s="176"/>
-      <c r="F57" s="176"/>
-      <c r="G57" s="176"/>
-      <c r="H57" s="176"/>
-      <c r="I57" s="176"/>
-      <c r="J57" s="177"/>
-      <c r="K57" s="169"/>
-      <c r="L57" s="169"/>
+      <c r="C57" s="202"/>
+      <c r="D57" s="203"/>
+      <c r="E57" s="203"/>
+      <c r="F57" s="203"/>
+      <c r="G57" s="203"/>
+      <c r="H57" s="203"/>
+      <c r="I57" s="203"/>
+      <c r="J57" s="204"/>
+      <c r="K57" s="196"/>
+      <c r="L57" s="196"/>
       <c r="M57" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N57" s="203"/>
-      <c r="O57" s="214"/>
-      <c r="P57" s="215"/>
+      <c r="N57" s="170"/>
+      <c r="O57" s="180"/>
+      <c r="P57" s="181"/>
       <c r="Q57" s="26"/>
       <c r="R57" s="26"/>
       <c r="S57" s="26"/>
       <c r="T57" s="26"/>
       <c r="U57" s="26"/>
-      <c r="V57" s="215"/>
-      <c r="W57" s="215"/>
+      <c r="V57" s="181"/>
+      <c r="W57" s="181"/>
       <c r="X57" s="26"/>
       <c r="Y57" s="26"/>
       <c r="Z57" s="26"/>
       <c r="AA57" s="26"/>
       <c r="AB57" s="26"/>
-      <c r="AC57" s="215"/>
-      <c r="AD57" s="215"/>
+      <c r="AC57" s="181"/>
+      <c r="AD57" s="181"/>
       <c r="AE57" s="26"/>
       <c r="AF57" s="118"/>
     </row>
     <row r="58" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C58" s="172" t="s">
-        <v>122</v>
-      </c>
-      <c r="D58" s="173"/>
-      <c r="E58" s="173"/>
-      <c r="F58" s="173"/>
-      <c r="G58" s="173"/>
-      <c r="H58" s="173"/>
-      <c r="I58" s="173"/>
-      <c r="J58" s="174"/>
-      <c r="K58" s="168"/>
-      <c r="L58" s="178"/>
+      <c r="C58" s="199" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="200"/>
+      <c r="E58" s="200"/>
+      <c r="F58" s="200"/>
+      <c r="G58" s="200"/>
+      <c r="H58" s="200"/>
+      <c r="I58" s="200"/>
+      <c r="J58" s="201"/>
+      <c r="K58" s="195" t="s">
+        <v>133</v>
+      </c>
+      <c r="L58" s="205"/>
       <c r="M58" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N58" s="193"/>
-      <c r="O58" s="213"/>
-      <c r="P58" s="213"/>
+      <c r="N58" s="160"/>
+      <c r="O58" s="179"/>
+      <c r="P58" s="179"/>
       <c r="Q58" s="154"/>
       <c r="R58" s="154"/>
       <c r="S58" s="22"/>
       <c r="T58" s="22"/>
       <c r="U58" s="22"/>
-      <c r="V58" s="213"/>
-      <c r="W58" s="213"/>
+      <c r="V58" s="179"/>
+      <c r="W58" s="179"/>
       <c r="X58" s="22"/>
       <c r="Y58" s="22"/>
       <c r="Z58" s="22"/>
       <c r="AA58" s="22"/>
       <c r="AB58" s="22"/>
-      <c r="AC58" s="213"/>
-      <c r="AD58" s="213"/>
+      <c r="AC58" s="179"/>
+      <c r="AD58" s="179"/>
       <c r="AE58" s="22"/>
       <c r="AF58" s="117"/>
     </row>
     <row r="59" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C59" s="175"/>
-      <c r="D59" s="176"/>
-      <c r="E59" s="176"/>
-      <c r="F59" s="176"/>
-      <c r="G59" s="176"/>
-      <c r="H59" s="176"/>
-      <c r="I59" s="176"/>
-      <c r="J59" s="177"/>
-      <c r="K59" s="169"/>
-      <c r="L59" s="169"/>
+      <c r="C59" s="202"/>
+      <c r="D59" s="203"/>
+      <c r="E59" s="203"/>
+      <c r="F59" s="203"/>
+      <c r="G59" s="203"/>
+      <c r="H59" s="203"/>
+      <c r="I59" s="203"/>
+      <c r="J59" s="204"/>
+      <c r="K59" s="196"/>
+      <c r="L59" s="196"/>
       <c r="M59" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N59" s="203"/>
-      <c r="O59" s="214"/>
-      <c r="P59" s="215"/>
+      <c r="N59" s="170"/>
+      <c r="O59" s="180"/>
+      <c r="P59" s="181"/>
       <c r="Q59" s="26"/>
       <c r="R59" s="26"/>
       <c r="S59" s="26"/>
       <c r="T59" s="26"/>
       <c r="U59" s="26"/>
-      <c r="V59" s="215"/>
-      <c r="W59" s="215"/>
+      <c r="V59" s="181"/>
+      <c r="W59" s="181"/>
       <c r="X59" s="26"/>
       <c r="Y59" s="26"/>
       <c r="Z59" s="26"/>
       <c r="AA59" s="26"/>
       <c r="AB59" s="26"/>
-      <c r="AC59" s="215"/>
-      <c r="AD59" s="215"/>
+      <c r="AC59" s="181"/>
+      <c r="AD59" s="181"/>
       <c r="AE59" s="26"/>
       <c r="AF59" s="118"/>
     </row>
     <row r="60" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C60" s="172" t="s">
-        <v>123</v>
-      </c>
-      <c r="D60" s="173"/>
-      <c r="E60" s="173"/>
-      <c r="F60" s="173"/>
-      <c r="G60" s="173"/>
-      <c r="H60" s="173"/>
-      <c r="I60" s="173"/>
-      <c r="J60" s="174"/>
-      <c r="K60" s="168"/>
-      <c r="L60" s="178"/>
+      <c r="C60" s="199" t="s">
+        <v>125</v>
+      </c>
+      <c r="D60" s="200"/>
+      <c r="E60" s="200"/>
+      <c r="F60" s="200"/>
+      <c r="G60" s="200"/>
+      <c r="H60" s="200"/>
+      <c r="I60" s="200"/>
+      <c r="J60" s="201"/>
+      <c r="K60" s="195" t="s">
+        <v>133</v>
+      </c>
+      <c r="L60" s="205"/>
       <c r="M60" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N60" s="193"/>
-      <c r="O60" s="213"/>
-      <c r="P60" s="213"/>
+      <c r="N60" s="160"/>
+      <c r="O60" s="179"/>
+      <c r="P60" s="179"/>
       <c r="Q60" s="154"/>
       <c r="R60" s="154"/>
       <c r="S60" s="22"/>
       <c r="T60" s="22"/>
       <c r="U60" s="22"/>
-      <c r="V60" s="213"/>
-      <c r="W60" s="213"/>
+      <c r="V60" s="179"/>
+      <c r="W60" s="179"/>
       <c r="X60" s="22"/>
       <c r="Y60" s="22"/>
       <c r="Z60" s="22"/>
       <c r="AA60" s="22"/>
       <c r="AB60" s="22"/>
-      <c r="AC60" s="213"/>
-      <c r="AD60" s="213"/>
+      <c r="AC60" s="179"/>
+      <c r="AD60" s="179"/>
       <c r="AE60" s="22"/>
       <c r="AF60" s="117"/>
     </row>
     <row r="61" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C61" s="175"/>
-      <c r="D61" s="176"/>
-      <c r="E61" s="176"/>
-      <c r="F61" s="176"/>
-      <c r="G61" s="176"/>
-      <c r="H61" s="176"/>
-      <c r="I61" s="176"/>
-      <c r="J61" s="177"/>
-      <c r="K61" s="169"/>
-      <c r="L61" s="169"/>
+      <c r="C61" s="202"/>
+      <c r="D61" s="203"/>
+      <c r="E61" s="203"/>
+      <c r="F61" s="203"/>
+      <c r="G61" s="203"/>
+      <c r="H61" s="203"/>
+      <c r="I61" s="203"/>
+      <c r="J61" s="204"/>
+      <c r="K61" s="196"/>
+      <c r="L61" s="196"/>
       <c r="M61" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N61" s="203"/>
-      <c r="O61" s="214"/>
-      <c r="P61" s="215"/>
+      <c r="N61" s="170"/>
+      <c r="O61" s="180"/>
+      <c r="P61" s="181"/>
       <c r="Q61" s="26"/>
       <c r="R61" s="26"/>
       <c r="S61" s="26"/>
       <c r="T61" s="26"/>
       <c r="U61" s="26"/>
-      <c r="V61" s="215"/>
-      <c r="W61" s="215"/>
+      <c r="V61" s="181"/>
+      <c r="W61" s="181"/>
       <c r="X61" s="26"/>
       <c r="Y61" s="26"/>
       <c r="Z61" s="26"/>
       <c r="AA61" s="26"/>
       <c r="AB61" s="26"/>
-      <c r="AC61" s="215"/>
-      <c r="AD61" s="215"/>
+      <c r="AC61" s="181"/>
+      <c r="AD61" s="181"/>
       <c r="AE61" s="26"/>
       <c r="AF61" s="118"/>
     </row>
     <row r="62" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C62" s="65"/>
-      <c r="D62" s="74"/>
-      <c r="E62" s="66"/>
-      <c r="F62" s="66"/>
-      <c r="G62" s="66"/>
-      <c r="H62" s="66"/>
-      <c r="I62" s="66"/>
-      <c r="J62" s="66"/>
-      <c r="K62" s="67"/>
-      <c r="L62" s="67"/>
-      <c r="M62" s="67"/>
-      <c r="N62" s="204"/>
-      <c r="O62" s="153"/>
-      <c r="P62" s="69"/>
-      <c r="Q62" s="69"/>
-      <c r="R62" s="69"/>
-      <c r="S62" s="69"/>
-      <c r="T62" s="69"/>
-      <c r="U62" s="69"/>
-      <c r="V62" s="69"/>
-      <c r="W62" s="69"/>
-      <c r="X62" s="69"/>
-      <c r="Y62" s="69"/>
-      <c r="Z62" s="69"/>
-      <c r="AA62" s="69"/>
-      <c r="AB62" s="69"/>
-      <c r="AC62" s="69"/>
-      <c r="AD62" s="69"/>
-      <c r="AE62" s="69"/>
-      <c r="AF62" s="205"/>
+      <c r="C62" s="199" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="200"/>
+      <c r="E62" s="200"/>
+      <c r="F62" s="200"/>
+      <c r="G62" s="200"/>
+      <c r="H62" s="200"/>
+      <c r="I62" s="200"/>
+      <c r="J62" s="201"/>
+      <c r="K62" s="195" t="s">
+        <v>134</v>
+      </c>
+      <c r="L62" s="205"/>
+      <c r="M62" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N62" s="160"/>
+      <c r="O62" s="179"/>
+      <c r="P62" s="179"/>
+      <c r="Q62" s="154"/>
+      <c r="R62" s="154"/>
+      <c r="S62" s="22"/>
+      <c r="T62" s="22"/>
+      <c r="U62" s="22"/>
+      <c r="V62" s="179"/>
+      <c r="W62" s="179"/>
+      <c r="X62" s="22"/>
+      <c r="Y62" s="22"/>
+      <c r="Z62" s="22"/>
+      <c r="AA62" s="22"/>
+      <c r="AB62" s="22"/>
+      <c r="AC62" s="179"/>
+      <c r="AD62" s="179"/>
+      <c r="AE62" s="22"/>
+      <c r="AF62" s="117"/>
     </row>
     <row r="63" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C63" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="D63" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66"/>
-      <c r="I63" s="66"/>
-      <c r="J63" s="66"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="204"/>
-      <c r="O63" s="153"/>
-      <c r="P63" s="69"/>
-      <c r="Q63" s="69"/>
-      <c r="R63" s="69"/>
-      <c r="S63" s="69"/>
-      <c r="T63" s="69"/>
-      <c r="U63" s="69"/>
-      <c r="V63" s="69"/>
-      <c r="W63" s="69"/>
-      <c r="X63" s="69"/>
-      <c r="Y63" s="69"/>
-      <c r="Z63" s="69"/>
-      <c r="AA63" s="69"/>
-      <c r="AB63" s="69"/>
-      <c r="AC63" s="69"/>
-      <c r="AD63" s="69"/>
-      <c r="AE63" s="69"/>
-      <c r="AF63" s="205"/>
+      <c r="C63" s="202"/>
+      <c r="D63" s="203"/>
+      <c r="E63" s="203"/>
+      <c r="F63" s="203"/>
+      <c r="G63" s="203"/>
+      <c r="H63" s="203"/>
+      <c r="I63" s="203"/>
+      <c r="J63" s="204"/>
+      <c r="K63" s="196"/>
+      <c r="L63" s="196"/>
+      <c r="M63" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="N63" s="170"/>
+      <c r="O63" s="180"/>
+      <c r="P63" s="181"/>
+      <c r="Q63" s="26"/>
+      <c r="R63" s="26"/>
+      <c r="S63" s="26"/>
+      <c r="T63" s="26"/>
+      <c r="U63" s="26"/>
+      <c r="V63" s="181"/>
+      <c r="W63" s="181"/>
+      <c r="X63" s="26"/>
+      <c r="Y63" s="26"/>
+      <c r="Z63" s="26"/>
+      <c r="AA63" s="26"/>
+      <c r="AB63" s="26"/>
+      <c r="AC63" s="181"/>
+      <c r="AD63" s="181"/>
+      <c r="AE63" s="26"/>
+      <c r="AF63" s="118"/>
     </row>
     <row r="64" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C64" s="172" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="173"/>
-      <c r="E64" s="173"/>
-      <c r="F64" s="173"/>
-      <c r="G64" s="173"/>
-      <c r="H64" s="173"/>
-      <c r="I64" s="173"/>
-      <c r="J64" s="174"/>
-      <c r="K64" s="168"/>
-      <c r="L64" s="178"/>
+      <c r="C64" s="199" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" s="200"/>
+      <c r="E64" s="200"/>
+      <c r="F64" s="200"/>
+      <c r="G64" s="200"/>
+      <c r="H64" s="200"/>
+      <c r="I64" s="200"/>
+      <c r="J64" s="201"/>
+      <c r="K64" s="195" t="s">
+        <v>134</v>
+      </c>
+      <c r="L64" s="205"/>
       <c r="M64" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N64" s="116"/>
-      <c r="O64" s="213"/>
-      <c r="P64" s="213"/>
-      <c r="Q64" s="22"/>
+      <c r="N64" s="160"/>
+      <c r="O64" s="179"/>
+      <c r="P64" s="179"/>
+      <c r="Q64" s="154"/>
       <c r="R64" s="154"/>
       <c r="S64" s="22"/>
       <c r="T64" s="22"/>
       <c r="U64" s="22"/>
-      <c r="V64" s="213"/>
-      <c r="W64" s="213"/>
+      <c r="V64" s="179"/>
+      <c r="W64" s="179"/>
       <c r="X64" s="22"/>
       <c r="Y64" s="22"/>
       <c r="Z64" s="22"/>
       <c r="AA64" s="22"/>
       <c r="AB64" s="22"/>
-      <c r="AC64" s="213"/>
-      <c r="AD64" s="213"/>
+      <c r="AC64" s="179"/>
+      <c r="AD64" s="179"/>
       <c r="AE64" s="22"/>
       <c r="AF64" s="117"/>
     </row>
     <row r="65" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C65" s="175"/>
-      <c r="D65" s="176"/>
-      <c r="E65" s="176"/>
-      <c r="F65" s="176"/>
-      <c r="G65" s="176"/>
-      <c r="H65" s="176"/>
-      <c r="I65" s="176"/>
-      <c r="J65" s="177"/>
-      <c r="K65" s="169"/>
-      <c r="L65" s="169"/>
+      <c r="C65" s="202"/>
+      <c r="D65" s="203"/>
+      <c r="E65" s="203"/>
+      <c r="F65" s="203"/>
+      <c r="G65" s="203"/>
+      <c r="H65" s="203"/>
+      <c r="I65" s="203"/>
+      <c r="J65" s="204"/>
+      <c r="K65" s="196"/>
+      <c r="L65" s="196"/>
       <c r="M65" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N65" s="115"/>
-      <c r="O65" s="215"/>
-      <c r="P65" s="215"/>
+      <c r="N65" s="170"/>
+      <c r="O65" s="180"/>
+      <c r="P65" s="181"/>
       <c r="Q65" s="26"/>
       <c r="R65" s="26"/>
       <c r="S65" s="26"/>
       <c r="T65" s="26"/>
       <c r="U65" s="26"/>
-      <c r="V65" s="215"/>
-      <c r="W65" s="215"/>
+      <c r="V65" s="181"/>
+      <c r="W65" s="181"/>
       <c r="X65" s="26"/>
       <c r="Y65" s="26"/>
       <c r="Z65" s="26"/>
       <c r="AA65" s="26"/>
       <c r="AB65" s="26"/>
-      <c r="AC65" s="215"/>
-      <c r="AD65" s="215"/>
+      <c r="AC65" s="181"/>
+      <c r="AD65" s="181"/>
       <c r="AE65" s="26"/>
       <c r="AF65" s="118"/>
     </row>
     <row r="66" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C66" s="172" t="s">
-        <v>77</v>
-      </c>
-      <c r="D66" s="173"/>
-      <c r="E66" s="173"/>
-      <c r="F66" s="173"/>
-      <c r="G66" s="173"/>
-      <c r="H66" s="173"/>
-      <c r="I66" s="173"/>
-      <c r="J66" s="174"/>
-      <c r="K66" s="168"/>
-      <c r="L66" s="178"/>
+      <c r="C66" s="199" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="200"/>
+      <c r="E66" s="200"/>
+      <c r="F66" s="200"/>
+      <c r="G66" s="200"/>
+      <c r="H66" s="200"/>
+      <c r="I66" s="200"/>
+      <c r="J66" s="201"/>
+      <c r="K66" s="195" t="s">
+        <v>134</v>
+      </c>
+      <c r="L66" s="205"/>
       <c r="M66" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N66" s="116"/>
-      <c r="O66" s="213"/>
-      <c r="P66" s="213"/>
-      <c r="Q66" s="22"/>
+      <c r="N66" s="160"/>
+      <c r="O66" s="179"/>
+      <c r="P66" s="179"/>
+      <c r="Q66" s="154"/>
       <c r="R66" s="154"/>
       <c r="S66" s="22"/>
       <c r="T66" s="22"/>
       <c r="U66" s="22"/>
-      <c r="V66" s="213"/>
-      <c r="W66" s="213"/>
+      <c r="V66" s="179"/>
+      <c r="W66" s="179"/>
       <c r="X66" s="22"/>
       <c r="Y66" s="22"/>
       <c r="Z66" s="22"/>
       <c r="AA66" s="22"/>
       <c r="AB66" s="22"/>
-      <c r="AC66" s="213"/>
-      <c r="AD66" s="213"/>
+      <c r="AC66" s="179"/>
+      <c r="AD66" s="179"/>
       <c r="AE66" s="22"/>
       <c r="AF66" s="117"/>
     </row>
     <row r="67" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C67" s="175"/>
-      <c r="D67" s="176"/>
-      <c r="E67" s="176"/>
-      <c r="F67" s="176"/>
-      <c r="G67" s="176"/>
-      <c r="H67" s="176"/>
-      <c r="I67" s="176"/>
-      <c r="J67" s="177"/>
-      <c r="K67" s="169"/>
-      <c r="L67" s="169"/>
+      <c r="C67" s="202"/>
+      <c r="D67" s="203"/>
+      <c r="E67" s="203"/>
+      <c r="F67" s="203"/>
+      <c r="G67" s="203"/>
+      <c r="H67" s="203"/>
+      <c r="I67" s="203"/>
+      <c r="J67" s="204"/>
+      <c r="K67" s="196"/>
+      <c r="L67" s="196"/>
       <c r="M67" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N67" s="115"/>
-      <c r="O67" s="215"/>
-      <c r="P67" s="215"/>
+      <c r="N67" s="170"/>
+      <c r="O67" s="180"/>
+      <c r="P67" s="181"/>
       <c r="Q67" s="26"/>
       <c r="R67" s="26"/>
       <c r="S67" s="26"/>
       <c r="T67" s="26"/>
       <c r="U67" s="26"/>
-      <c r="V67" s="215"/>
-      <c r="W67" s="215"/>
+      <c r="V67" s="181"/>
+      <c r="W67" s="181"/>
       <c r="X67" s="26"/>
       <c r="Y67" s="26"/>
       <c r="Z67" s="26"/>
       <c r="AA67" s="26"/>
       <c r="AB67" s="26"/>
-      <c r="AC67" s="215"/>
-      <c r="AD67" s="215"/>
+      <c r="AC67" s="181"/>
+      <c r="AD67" s="181"/>
       <c r="AE67" s="26"/>
       <c r="AF67" s="118"/>
     </row>
     <row r="68" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C68" s="172" t="s">
-        <v>78</v>
-      </c>
-      <c r="D68" s="173"/>
-      <c r="E68" s="173"/>
-      <c r="F68" s="173"/>
-      <c r="G68" s="173"/>
-      <c r="H68" s="173"/>
-      <c r="I68" s="173"/>
-      <c r="J68" s="174"/>
-      <c r="K68" s="168"/>
-      <c r="L68" s="168"/>
-      <c r="M68" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="N68" s="116"/>
-      <c r="O68" s="213"/>
-      <c r="P68" s="213"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="154"/>
-      <c r="S68" s="22"/>
-      <c r="T68" s="22"/>
-      <c r="U68" s="22"/>
-      <c r="V68" s="213"/>
-      <c r="W68" s="213"/>
-      <c r="X68" s="22"/>
-      <c r="Y68" s="22"/>
-      <c r="Z68" s="22"/>
-      <c r="AA68" s="22"/>
-      <c r="AB68" s="22"/>
-      <c r="AC68" s="213"/>
-      <c r="AD68" s="213"/>
-      <c r="AE68" s="22"/>
-      <c r="AF68" s="117"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="74"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="66"/>
+      <c r="H68" s="66"/>
+      <c r="I68" s="66"/>
+      <c r="J68" s="66"/>
+      <c r="K68" s="67"/>
+      <c r="L68" s="67"/>
+      <c r="M68" s="67"/>
+      <c r="N68" s="171"/>
+      <c r="O68" s="153"/>
+      <c r="P68" s="69"/>
+      <c r="Q68" s="69"/>
+      <c r="R68" s="69"/>
+      <c r="S68" s="69"/>
+      <c r="T68" s="69"/>
+      <c r="U68" s="69"/>
+      <c r="V68" s="69"/>
+      <c r="W68" s="69"/>
+      <c r="X68" s="69"/>
+      <c r="Y68" s="69"/>
+      <c r="Z68" s="69"/>
+      <c r="AA68" s="69"/>
+      <c r="AB68" s="69"/>
+      <c r="AC68" s="69"/>
+      <c r="AD68" s="69"/>
+      <c r="AE68" s="69"/>
+      <c r="AF68" s="172"/>
     </row>
     <row r="69" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C69" s="175"/>
-      <c r="D69" s="176"/>
-      <c r="E69" s="176"/>
-      <c r="F69" s="176"/>
-      <c r="G69" s="176"/>
-      <c r="H69" s="176"/>
-      <c r="I69" s="176"/>
-      <c r="J69" s="177"/>
-      <c r="K69" s="169"/>
-      <c r="L69" s="169"/>
-      <c r="M69" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="N69" s="115"/>
-      <c r="O69" s="215"/>
-      <c r="P69" s="215"/>
-      <c r="Q69" s="26"/>
-      <c r="R69" s="26"/>
-      <c r="S69" s="26"/>
-      <c r="T69" s="26"/>
-      <c r="U69" s="26"/>
-      <c r="V69" s="215"/>
-      <c r="W69" s="215"/>
-      <c r="X69" s="26"/>
-      <c r="Y69" s="26"/>
-      <c r="Z69" s="26"/>
-      <c r="AA69" s="26"/>
-      <c r="AB69" s="26"/>
-      <c r="AC69" s="215"/>
-      <c r="AD69" s="215"/>
-      <c r="AE69" s="26"/>
-      <c r="AF69" s="118"/>
+      <c r="C69" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D69" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="66"/>
+      <c r="I69" s="66"/>
+      <c r="J69" s="66"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="67"/>
+      <c r="M69" s="67"/>
+      <c r="N69" s="171"/>
+      <c r="O69" s="153"/>
+      <c r="P69" s="69"/>
+      <c r="Q69" s="69"/>
+      <c r="R69" s="69"/>
+      <c r="S69" s="69"/>
+      <c r="T69" s="69"/>
+      <c r="U69" s="69"/>
+      <c r="V69" s="69"/>
+      <c r="W69" s="69"/>
+      <c r="X69" s="69"/>
+      <c r="Y69" s="69"/>
+      <c r="Z69" s="69"/>
+      <c r="AA69" s="69"/>
+      <c r="AB69" s="69"/>
+      <c r="AC69" s="69"/>
+      <c r="AD69" s="69"/>
+      <c r="AE69" s="69"/>
+      <c r="AF69" s="172"/>
     </row>
     <row r="70" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C70" s="172" t="s">
-        <v>79</v>
-      </c>
-      <c r="D70" s="173"/>
-      <c r="E70" s="173"/>
-      <c r="F70" s="173"/>
-      <c r="G70" s="173"/>
-      <c r="H70" s="173"/>
-      <c r="I70" s="173"/>
-      <c r="J70" s="174"/>
-      <c r="K70" s="168"/>
-      <c r="L70" s="168"/>
+      <c r="C70" s="199" t="s">
+        <v>76</v>
+      </c>
+      <c r="D70" s="200"/>
+      <c r="E70" s="200"/>
+      <c r="F70" s="200"/>
+      <c r="G70" s="200"/>
+      <c r="H70" s="200"/>
+      <c r="I70" s="200"/>
+      <c r="J70" s="201"/>
+      <c r="K70" s="195"/>
+      <c r="L70" s="205"/>
       <c r="M70" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N70" s="193"/>
-      <c r="O70" s="213"/>
-      <c r="P70" s="213"/>
+      <c r="N70" s="116"/>
+      <c r="O70" s="179"/>
+      <c r="P70" s="179"/>
       <c r="Q70" s="22"/>
       <c r="R70" s="154"/>
       <c r="S70" s="22"/>
       <c r="T70" s="22"/>
       <c r="U70" s="22"/>
-      <c r="V70" s="213"/>
-      <c r="W70" s="213"/>
+      <c r="V70" s="179"/>
+      <c r="W70" s="179"/>
       <c r="X70" s="22"/>
       <c r="Y70" s="22"/>
       <c r="Z70" s="22"/>
       <c r="AA70" s="22"/>
       <c r="AB70" s="22"/>
-      <c r="AC70" s="213"/>
-      <c r="AD70" s="213"/>
+      <c r="AC70" s="179"/>
+      <c r="AD70" s="179"/>
       <c r="AE70" s="22"/>
       <c r="AF70" s="117"/>
     </row>
     <row r="71" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C71" s="175"/>
-      <c r="D71" s="176"/>
-      <c r="E71" s="176"/>
-      <c r="F71" s="176"/>
-      <c r="G71" s="176"/>
-      <c r="H71" s="176"/>
-      <c r="I71" s="176"/>
-      <c r="J71" s="177"/>
-      <c r="K71" s="169"/>
-      <c r="L71" s="169"/>
+      <c r="C71" s="202"/>
+      <c r="D71" s="203"/>
+      <c r="E71" s="203"/>
+      <c r="F71" s="203"/>
+      <c r="G71" s="203"/>
+      <c r="H71" s="203"/>
+      <c r="I71" s="203"/>
+      <c r="J71" s="204"/>
+      <c r="K71" s="196"/>
+      <c r="L71" s="196"/>
       <c r="M71" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N71" s="206"/>
-      <c r="O71" s="220"/>
-      <c r="P71" s="220"/>
-      <c r="Q71" s="207"/>
-      <c r="R71" s="207"/>
-      <c r="S71" s="207"/>
-      <c r="T71" s="207"/>
-      <c r="U71" s="207"/>
-      <c r="V71" s="220"/>
-      <c r="W71" s="220"/>
-      <c r="X71" s="207"/>
-      <c r="Y71" s="207"/>
-      <c r="Z71" s="207"/>
-      <c r="AA71" s="207"/>
-      <c r="AB71" s="207"/>
-      <c r="AC71" s="220"/>
-      <c r="AD71" s="220"/>
-      <c r="AE71" s="207"/>
-      <c r="AF71" s="208"/>
+      <c r="N71" s="115"/>
+      <c r="O71" s="181"/>
+      <c r="P71" s="181"/>
+      <c r="Q71" s="26"/>
+      <c r="R71" s="26"/>
+      <c r="S71" s="26"/>
+      <c r="T71" s="26"/>
+      <c r="U71" s="26"/>
+      <c r="V71" s="181"/>
+      <c r="W71" s="181"/>
+      <c r="X71" s="26"/>
+      <c r="Y71" s="26"/>
+      <c r="Z71" s="26"/>
+      <c r="AA71" s="26"/>
+      <c r="AB71" s="26"/>
+      <c r="AC71" s="181"/>
+      <c r="AD71" s="181"/>
+      <c r="AE71" s="26"/>
+      <c r="AF71" s="118"/>
     </row>
     <row r="72" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C72" s="59"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="61"/>
-      <c r="L72" s="76"/>
-      <c r="M72" s="61"/>
-      <c r="N72" s="62"/>
-      <c r="O72" s="39"/>
-      <c r="P72" s="39"/>
-      <c r="Q72" s="39"/>
-      <c r="R72" s="39"/>
-      <c r="S72" s="39"/>
-      <c r="T72" s="39"/>
-      <c r="U72" s="39"/>
-      <c r="V72" s="39"/>
-      <c r="W72" s="39"/>
-      <c r="X72" s="39"/>
-      <c r="Y72" s="39"/>
-      <c r="Z72" s="39"/>
-      <c r="AA72" s="39"/>
-      <c r="AB72" s="39"/>
-      <c r="AC72" s="39"/>
-      <c r="AD72" s="39"/>
-      <c r="AE72" s="39"/>
-      <c r="AF72" s="108"/>
+      <c r="C72" s="199" t="s">
+        <v>77</v>
+      </c>
+      <c r="D72" s="200"/>
+      <c r="E72" s="200"/>
+      <c r="F72" s="200"/>
+      <c r="G72" s="200"/>
+      <c r="H72" s="200"/>
+      <c r="I72" s="200"/>
+      <c r="J72" s="201"/>
+      <c r="K72" s="195"/>
+      <c r="L72" s="205"/>
+      <c r="M72" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N72" s="116"/>
+      <c r="O72" s="179"/>
+      <c r="P72" s="179"/>
+      <c r="Q72" s="22"/>
+      <c r="R72" s="154"/>
+      <c r="S72" s="22"/>
+      <c r="T72" s="22"/>
+      <c r="U72" s="22"/>
+      <c r="V72" s="179"/>
+      <c r="W72" s="179"/>
+      <c r="X72" s="22"/>
+      <c r="Y72" s="22"/>
+      <c r="Z72" s="22"/>
+      <c r="AA72" s="22"/>
+      <c r="AB72" s="22"/>
+      <c r="AC72" s="179"/>
+      <c r="AD72" s="179"/>
+      <c r="AE72" s="22"/>
+      <c r="AF72" s="117"/>
+    </row>
+    <row r="73" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C73" s="202"/>
+      <c r="D73" s="203"/>
+      <c r="E73" s="203"/>
+      <c r="F73" s="203"/>
+      <c r="G73" s="203"/>
+      <c r="H73" s="203"/>
+      <c r="I73" s="203"/>
+      <c r="J73" s="204"/>
+      <c r="K73" s="196"/>
+      <c r="L73" s="196"/>
+      <c r="M73" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="N73" s="115"/>
+      <c r="O73" s="181"/>
+      <c r="P73" s="181"/>
+      <c r="Q73" s="26"/>
+      <c r="R73" s="26"/>
+      <c r="S73" s="26"/>
+      <c r="T73" s="26"/>
+      <c r="U73" s="26"/>
+      <c r="V73" s="181"/>
+      <c r="W73" s="181"/>
+      <c r="X73" s="26"/>
+      <c r="Y73" s="26"/>
+      <c r="Z73" s="26"/>
+      <c r="AA73" s="26"/>
+      <c r="AB73" s="26"/>
+      <c r="AC73" s="181"/>
+      <c r="AD73" s="181"/>
+      <c r="AE73" s="26"/>
+      <c r="AF73" s="118"/>
+    </row>
+    <row r="74" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C74" s="199" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="200"/>
+      <c r="E74" s="200"/>
+      <c r="F74" s="200"/>
+      <c r="G74" s="200"/>
+      <c r="H74" s="200"/>
+      <c r="I74" s="200"/>
+      <c r="J74" s="201"/>
+      <c r="K74" s="195"/>
+      <c r="L74" s="195"/>
+      <c r="M74" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N74" s="116"/>
+      <c r="O74" s="179"/>
+      <c r="P74" s="179"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="154"/>
+      <c r="S74" s="22"/>
+      <c r="T74" s="22"/>
+      <c r="U74" s="22"/>
+      <c r="V74" s="179"/>
+      <c r="W74" s="179"/>
+      <c r="X74" s="22"/>
+      <c r="Y74" s="22"/>
+      <c r="Z74" s="22"/>
+      <c r="AA74" s="22"/>
+      <c r="AB74" s="22"/>
+      <c r="AC74" s="179"/>
+      <c r="AD74" s="179"/>
+      <c r="AE74" s="22"/>
+      <c r="AF74" s="117"/>
+    </row>
+    <row r="75" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C75" s="202"/>
+      <c r="D75" s="203"/>
+      <c r="E75" s="203"/>
+      <c r="F75" s="203"/>
+      <c r="G75" s="203"/>
+      <c r="H75" s="203"/>
+      <c r="I75" s="203"/>
+      <c r="J75" s="204"/>
+      <c r="K75" s="196"/>
+      <c r="L75" s="196"/>
+      <c r="M75" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="N75" s="115"/>
+      <c r="O75" s="181"/>
+      <c r="P75" s="181"/>
+      <c r="Q75" s="26"/>
+      <c r="R75" s="26"/>
+      <c r="S75" s="26"/>
+      <c r="T75" s="26"/>
+      <c r="U75" s="26"/>
+      <c r="V75" s="181"/>
+      <c r="W75" s="181"/>
+      <c r="X75" s="26"/>
+      <c r="Y75" s="26"/>
+      <c r="Z75" s="26"/>
+      <c r="AA75" s="26"/>
+      <c r="AB75" s="26"/>
+      <c r="AC75" s="181"/>
+      <c r="AD75" s="181"/>
+      <c r="AE75" s="26"/>
+      <c r="AF75" s="118"/>
+    </row>
+    <row r="76" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C76" s="199" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76" s="200"/>
+      <c r="E76" s="200"/>
+      <c r="F76" s="200"/>
+      <c r="G76" s="200"/>
+      <c r="H76" s="200"/>
+      <c r="I76" s="200"/>
+      <c r="J76" s="201"/>
+      <c r="K76" s="195"/>
+      <c r="L76" s="195"/>
+      <c r="M76" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N76" s="160"/>
+      <c r="O76" s="179"/>
+      <c r="P76" s="179"/>
+      <c r="Q76" s="22"/>
+      <c r="R76" s="154"/>
+      <c r="S76" s="22"/>
+      <c r="T76" s="22"/>
+      <c r="U76" s="22"/>
+      <c r="V76" s="179"/>
+      <c r="W76" s="179"/>
+      <c r="X76" s="22"/>
+      <c r="Y76" s="22"/>
+      <c r="Z76" s="22"/>
+      <c r="AA76" s="22"/>
+      <c r="AB76" s="22"/>
+      <c r="AC76" s="179"/>
+      <c r="AD76" s="179"/>
+      <c r="AE76" s="22"/>
+      <c r="AF76" s="117"/>
+    </row>
+    <row r="77" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C77" s="202"/>
+      <c r="D77" s="203"/>
+      <c r="E77" s="203"/>
+      <c r="F77" s="203"/>
+      <c r="G77" s="203"/>
+      <c r="H77" s="203"/>
+      <c r="I77" s="203"/>
+      <c r="J77" s="204"/>
+      <c r="K77" s="196"/>
+      <c r="L77" s="196"/>
+      <c r="M77" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="N77" s="173"/>
+      <c r="O77" s="186"/>
+      <c r="P77" s="186"/>
+      <c r="Q77" s="174"/>
+      <c r="R77" s="174"/>
+      <c r="S77" s="174"/>
+      <c r="T77" s="174"/>
+      <c r="U77" s="174"/>
+      <c r="V77" s="186"/>
+      <c r="W77" s="186"/>
+      <c r="X77" s="174"/>
+      <c r="Y77" s="174"/>
+      <c r="Z77" s="174"/>
+      <c r="AA77" s="174"/>
+      <c r="AB77" s="174"/>
+      <c r="AC77" s="186"/>
+      <c r="AD77" s="186"/>
+      <c r="AE77" s="174"/>
+      <c r="AF77" s="175"/>
+    </row>
+    <row r="78" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C78" s="59"/>
+      <c r="D78" s="60"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="60"/>
+      <c r="H78" s="60"/>
+      <c r="I78" s="60"/>
+      <c r="J78" s="60"/>
+      <c r="K78" s="61"/>
+      <c r="L78" s="76"/>
+      <c r="M78" s="61"/>
+      <c r="N78" s="62"/>
+      <c r="O78" s="39"/>
+      <c r="P78" s="39"/>
+      <c r="Q78" s="39"/>
+      <c r="R78" s="39"/>
+      <c r="S78" s="39"/>
+      <c r="T78" s="39"/>
+      <c r="U78" s="39"/>
+      <c r="V78" s="39"/>
+      <c r="W78" s="39"/>
+      <c r="X78" s="39"/>
+      <c r="Y78" s="39"/>
+      <c r="Z78" s="39"/>
+      <c r="AA78" s="39"/>
+      <c r="AB78" s="39"/>
+      <c r="AC78" s="39"/>
+      <c r="AD78" s="39"/>
+      <c r="AE78" s="39"/>
+      <c r="AF78" s="108"/>
     </row>
   </sheetData>
   <autoFilter ref="K27:L27" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <mergeCells count="60">
+  <mergeCells count="69">
     <mergeCell ref="K60:K61"/>
     <mergeCell ref="L60:L61"/>
     <mergeCell ref="C30:J31"/>
@@ -8905,9 +9262,9 @@
     <mergeCell ref="L36:L37"/>
     <mergeCell ref="C38:J39"/>
     <mergeCell ref="K38:K39"/>
-    <mergeCell ref="C64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="C70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
     <mergeCell ref="C40:J41"/>
     <mergeCell ref="K40:K41"/>
     <mergeCell ref="L40:L41"/>
@@ -8921,15 +9278,15 @@
     <mergeCell ref="K48:K49"/>
     <mergeCell ref="L48:L49"/>
     <mergeCell ref="C60:J61"/>
-    <mergeCell ref="C70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="C66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="C68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="C76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="C72:J73"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="C74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
     <mergeCell ref="L38:L39"/>
     <mergeCell ref="C46:J47"/>
     <mergeCell ref="K46:K47"/>
@@ -8949,6 +9306,15 @@
     <mergeCell ref="C58:J59"/>
     <mergeCell ref="K58:K59"/>
     <mergeCell ref="L58:L59"/>
+    <mergeCell ref="C66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="C62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="C64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -8957,9 +9323,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9085,61 +9451,61 @@
       <c r="K27" s="16"/>
       <c r="L27" s="15"/>
       <c r="M27" s="16"/>
-      <c r="N27" s="194">
+      <c r="N27" s="161">
         <v>12</v>
       </c>
-      <c r="O27" s="195">
+      <c r="O27" s="162">
         <v>13</v>
       </c>
-      <c r="P27" s="194">
+      <c r="P27" s="161">
         <v>14</v>
       </c>
-      <c r="Q27" s="195">
+      <c r="Q27" s="162">
         <v>15</v>
       </c>
-      <c r="R27" s="194">
+      <c r="R27" s="161">
         <v>16</v>
       </c>
-      <c r="S27" s="195">
+      <c r="S27" s="162">
         <v>17</v>
       </c>
-      <c r="T27" s="194">
+      <c r="T27" s="161">
         <v>18</v>
       </c>
-      <c r="U27" s="195">
+      <c r="U27" s="162">
         <v>19</v>
       </c>
-      <c r="V27" s="194">
+      <c r="V27" s="161">
         <v>20</v>
       </c>
-      <c r="W27" s="195">
+      <c r="W27" s="162">
         <v>21</v>
       </c>
-      <c r="X27" s="194">
+      <c r="X27" s="161">
         <v>22</v>
       </c>
-      <c r="Y27" s="195">
+      <c r="Y27" s="162">
         <v>23</v>
       </c>
-      <c r="Z27" s="194">
+      <c r="Z27" s="161">
         <v>24</v>
       </c>
-      <c r="AA27" s="195">
+      <c r="AA27" s="162">
         <v>25</v>
       </c>
-      <c r="AB27" s="196">
+      <c r="AB27" s="163">
         <v>26</v>
       </c>
-      <c r="AC27" s="197">
+      <c r="AC27" s="164">
         <v>27</v>
       </c>
-      <c r="AD27" s="195">
+      <c r="AD27" s="162">
         <v>28</v>
       </c>
-      <c r="AE27" s="194">
+      <c r="AE27" s="161">
         <v>29</v>
       </c>
-      <c r="AF27" s="198">
+      <c r="AF27" s="165">
         <v>30</v>
       </c>
     </row>
@@ -9161,382 +9527,382 @@
       <c r="L28" s="155"/>
       <c r="M28" s="155"/>
       <c r="N28" s="80"/>
-      <c r="O28" s="210"/>
-      <c r="P28" s="211"/>
+      <c r="O28" s="176"/>
+      <c r="P28" s="177"/>
       <c r="Q28" s="69"/>
       <c r="R28" s="69"/>
       <c r="S28" s="69"/>
       <c r="T28" s="69"/>
       <c r="U28" s="69"/>
-      <c r="V28" s="211"/>
-      <c r="W28" s="211"/>
+      <c r="V28" s="177"/>
+      <c r="W28" s="177"/>
       <c r="X28" s="69"/>
       <c r="Y28" s="69"/>
       <c r="Z28" s="69"/>
       <c r="AA28" s="69"/>
       <c r="AB28" s="69"/>
-      <c r="AC28" s="218"/>
-      <c r="AD28" s="211"/>
+      <c r="AC28" s="184"/>
+      <c r="AD28" s="177"/>
       <c r="AE28" s="69"/>
       <c r="AF28" s="69"/>
     </row>
     <row r="29" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="179" t="s">
+      <c r="C29" s="206" t="s">
         <v>80</v>
       </c>
-      <c r="D29" s="180"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="168"/>
-      <c r="L29" s="178"/>
+      <c r="D29" s="207"/>
+      <c r="E29" s="207"/>
+      <c r="F29" s="207"/>
+      <c r="G29" s="207"/>
+      <c r="H29" s="207"/>
+      <c r="I29" s="207"/>
+      <c r="J29" s="208"/>
+      <c r="K29" s="195"/>
+      <c r="L29" s="205"/>
       <c r="M29" s="45" t="s">
         <v>46</v>
       </c>
       <c r="N29" s="22"/>
-      <c r="O29" s="212"/>
-      <c r="P29" s="213"/>
+      <c r="O29" s="178"/>
+      <c r="P29" s="179"/>
       <c r="Q29" s="22"/>
       <c r="R29" s="154"/>
       <c r="S29" s="154"/>
       <c r="T29" s="22"/>
       <c r="U29" s="22"/>
-      <c r="V29" s="213"/>
-      <c r="W29" s="213"/>
+      <c r="V29" s="179"/>
+      <c r="W29" s="179"/>
       <c r="X29" s="22"/>
       <c r="Y29" s="22"/>
       <c r="Z29" s="22"/>
       <c r="AA29" s="22"/>
       <c r="AB29" s="22"/>
-      <c r="AC29" s="213"/>
-      <c r="AD29" s="213"/>
+      <c r="AC29" s="179"/>
+      <c r="AD29" s="179"/>
       <c r="AE29" s="22"/>
       <c r="AF29" s="22"/>
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="184"/>
-      <c r="K30" s="169"/>
-      <c r="L30" s="209"/>
+      <c r="C30" s="209"/>
+      <c r="D30" s="210"/>
+      <c r="E30" s="210"/>
+      <c r="F30" s="210"/>
+      <c r="G30" s="210"/>
+      <c r="H30" s="210"/>
+      <c r="I30" s="210"/>
+      <c r="J30" s="211"/>
+      <c r="K30" s="196"/>
+      <c r="L30" s="212"/>
       <c r="M30" s="44" t="s">
         <v>47</v>
       </c>
       <c r="N30" s="26"/>
-      <c r="O30" s="214"/>
-      <c r="P30" s="215"/>
+      <c r="O30" s="180"/>
+      <c r="P30" s="181"/>
       <c r="Q30" s="26"/>
       <c r="R30" s="26"/>
       <c r="S30" s="26"/>
       <c r="T30" s="26"/>
       <c r="U30" s="26"/>
-      <c r="V30" s="215"/>
-      <c r="W30" s="215"/>
+      <c r="V30" s="181"/>
+      <c r="W30" s="181"/>
       <c r="X30" s="26"/>
       <c r="Y30" s="26"/>
       <c r="Z30" s="26"/>
       <c r="AA30" s="26"/>
       <c r="AB30" s="26"/>
-      <c r="AC30" s="215"/>
-      <c r="AD30" s="215"/>
+      <c r="AC30" s="181"/>
+      <c r="AD30" s="181"/>
       <c r="AE30" s="26"/>
       <c r="AF30" s="26"/>
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="179" t="s">
+      <c r="C31" s="206" t="s">
         <v>70</v>
       </c>
-      <c r="D31" s="180"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="168"/>
-      <c r="L31" s="178"/>
+      <c r="D31" s="207"/>
+      <c r="E31" s="207"/>
+      <c r="F31" s="207"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="207"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="208"/>
+      <c r="K31" s="195"/>
+      <c r="L31" s="205"/>
       <c r="M31" s="45" t="s">
         <v>46</v>
       </c>
       <c r="N31" s="22"/>
-      <c r="O31" s="212"/>
-      <c r="P31" s="213"/>
+      <c r="O31" s="178"/>
+      <c r="P31" s="179"/>
       <c r="Q31" s="22"/>
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
       <c r="T31" s="22"/>
       <c r="U31" s="22"/>
-      <c r="V31" s="213"/>
-      <c r="W31" s="213"/>
+      <c r="V31" s="179"/>
+      <c r="W31" s="179"/>
       <c r="X31" s="22"/>
       <c r="Y31" s="22"/>
       <c r="Z31" s="22"/>
       <c r="AA31" s="22"/>
       <c r="AB31" s="22"/>
-      <c r="AC31" s="213"/>
-      <c r="AD31" s="213"/>
+      <c r="AC31" s="179"/>
+      <c r="AD31" s="179"/>
       <c r="AE31" s="22"/>
       <c r="AF31" s="22"/>
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="182"/>
-      <c r="D32" s="183"/>
-      <c r="E32" s="183"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="183"/>
-      <c r="J32" s="184"/>
-      <c r="K32" s="169"/>
-      <c r="L32" s="209"/>
+      <c r="C32" s="209"/>
+      <c r="D32" s="210"/>
+      <c r="E32" s="210"/>
+      <c r="F32" s="210"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="210"/>
+      <c r="I32" s="210"/>
+      <c r="J32" s="211"/>
+      <c r="K32" s="196"/>
+      <c r="L32" s="212"/>
       <c r="M32" s="44" t="s">
         <v>47</v>
       </c>
       <c r="N32" s="26"/>
-      <c r="O32" s="214"/>
-      <c r="P32" s="215"/>
+      <c r="O32" s="180"/>
+      <c r="P32" s="181"/>
       <c r="Q32" s="26"/>
       <c r="R32" s="26"/>
       <c r="S32" s="26"/>
       <c r="T32" s="26"/>
       <c r="U32" s="26"/>
-      <c r="V32" s="215"/>
-      <c r="W32" s="215"/>
+      <c r="V32" s="181"/>
+      <c r="W32" s="181"/>
       <c r="X32" s="26"/>
       <c r="Y32" s="26"/>
       <c r="Z32" s="26"/>
       <c r="AA32" s="26"/>
       <c r="AB32" s="26"/>
-      <c r="AC32" s="215"/>
-      <c r="AD32" s="215"/>
+      <c r="AC32" s="181"/>
+      <c r="AD32" s="181"/>
       <c r="AE32" s="26"/>
       <c r="AF32" s="26"/>
     </row>
     <row r="33" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="179" t="s">
+      <c r="C33" s="206" t="s">
         <v>81</v>
       </c>
-      <c r="D33" s="180"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="180"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="180"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="168"/>
-      <c r="L33" s="178"/>
+      <c r="D33" s="207"/>
+      <c r="E33" s="207"/>
+      <c r="F33" s="207"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="208"/>
+      <c r="K33" s="195"/>
+      <c r="L33" s="205"/>
       <c r="M33" s="45" t="s">
         <v>46</v>
       </c>
       <c r="N33" s="22"/>
-      <c r="O33" s="212"/>
-      <c r="P33" s="213"/>
+      <c r="O33" s="178"/>
+      <c r="P33" s="179"/>
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
       <c r="T33" s="22"/>
       <c r="U33" s="22"/>
-      <c r="V33" s="213"/>
-      <c r="W33" s="213"/>
+      <c r="V33" s="179"/>
+      <c r="W33" s="179"/>
       <c r="X33" s="22"/>
       <c r="Y33" s="22"/>
       <c r="Z33" s="22"/>
       <c r="AA33" s="22"/>
       <c r="AB33" s="22"/>
-      <c r="AC33" s="213"/>
-      <c r="AD33" s="213"/>
+      <c r="AC33" s="179"/>
+      <c r="AD33" s="179"/>
       <c r="AE33" s="22"/>
       <c r="AF33" s="22"/>
     </row>
     <row r="34" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="182"/>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="184"/>
-      <c r="K34" s="169"/>
-      <c r="L34" s="209"/>
+      <c r="C34" s="209"/>
+      <c r="D34" s="210"/>
+      <c r="E34" s="210"/>
+      <c r="F34" s="210"/>
+      <c r="G34" s="210"/>
+      <c r="H34" s="210"/>
+      <c r="I34" s="210"/>
+      <c r="J34" s="211"/>
+      <c r="K34" s="196"/>
+      <c r="L34" s="212"/>
       <c r="M34" s="44" t="s">
         <v>47</v>
       </c>
       <c r="N34" s="26"/>
-      <c r="O34" s="214"/>
-      <c r="P34" s="215"/>
+      <c r="O34" s="180"/>
+      <c r="P34" s="181"/>
       <c r="Q34" s="26"/>
       <c r="R34" s="26"/>
       <c r="S34" s="26"/>
       <c r="T34" s="26"/>
       <c r="U34" s="26"/>
-      <c r="V34" s="215"/>
-      <c r="W34" s="215"/>
+      <c r="V34" s="181"/>
+      <c r="W34" s="181"/>
       <c r="X34" s="26"/>
       <c r="Y34" s="26"/>
       <c r="Z34" s="26"/>
       <c r="AA34" s="26"/>
       <c r="AB34" s="26"/>
-      <c r="AC34" s="215"/>
-      <c r="AD34" s="215"/>
+      <c r="AC34" s="181"/>
+      <c r="AD34" s="181"/>
       <c r="AE34" s="26"/>
       <c r="AF34" s="26"/>
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="179" t="s">
+      <c r="C35" s="206" t="s">
         <v>82</v>
       </c>
-      <c r="D35" s="180"/>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="181"/>
-      <c r="K35" s="168"/>
-      <c r="L35" s="178"/>
+      <c r="D35" s="207"/>
+      <c r="E35" s="207"/>
+      <c r="F35" s="207"/>
+      <c r="G35" s="207"/>
+      <c r="H35" s="207"/>
+      <c r="I35" s="207"/>
+      <c r="J35" s="208"/>
+      <c r="K35" s="195"/>
+      <c r="L35" s="205"/>
       <c r="M35" s="45" t="s">
         <v>46</v>
       </c>
       <c r="N35" s="22"/>
-      <c r="O35" s="212"/>
-      <c r="P35" s="213"/>
+      <c r="O35" s="178"/>
+      <c r="P35" s="179"/>
       <c r="Q35" s="22"/>
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
       <c r="T35" s="22"/>
       <c r="U35" s="22"/>
-      <c r="V35" s="213"/>
-      <c r="W35" s="213"/>
+      <c r="V35" s="179"/>
+      <c r="W35" s="179"/>
       <c r="X35" s="22"/>
       <c r="Y35" s="22"/>
       <c r="Z35" s="22"/>
       <c r="AA35" s="22"/>
       <c r="AB35" s="22"/>
-      <c r="AC35" s="213"/>
-      <c r="AD35" s="213"/>
+      <c r="AC35" s="179"/>
+      <c r="AD35" s="179"/>
       <c r="AE35" s="22"/>
       <c r="AF35" s="22"/>
     </row>
     <row r="36" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="182"/>
-      <c r="D36" s="183"/>
-      <c r="E36" s="183"/>
-      <c r="F36" s="183"/>
-      <c r="G36" s="183"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="183"/>
-      <c r="J36" s="184"/>
-      <c r="K36" s="169"/>
-      <c r="L36" s="209"/>
+      <c r="C36" s="209"/>
+      <c r="D36" s="210"/>
+      <c r="E36" s="210"/>
+      <c r="F36" s="210"/>
+      <c r="G36" s="210"/>
+      <c r="H36" s="210"/>
+      <c r="I36" s="210"/>
+      <c r="J36" s="211"/>
+      <c r="K36" s="196"/>
+      <c r="L36" s="212"/>
       <c r="M36" s="44" t="s">
         <v>47</v>
       </c>
       <c r="N36" s="26"/>
-      <c r="O36" s="214"/>
-      <c r="P36" s="215"/>
+      <c r="O36" s="180"/>
+      <c r="P36" s="181"/>
       <c r="Q36" s="26"/>
       <c r="R36" s="26"/>
       <c r="S36" s="26"/>
       <c r="T36" s="26"/>
       <c r="U36" s="26"/>
-      <c r="V36" s="215"/>
-      <c r="W36" s="215"/>
+      <c r="V36" s="181"/>
+      <c r="W36" s="181"/>
       <c r="X36" s="26"/>
       <c r="Y36" s="26"/>
       <c r="Z36" s="26"/>
       <c r="AA36" s="26"/>
       <c r="AB36" s="26"/>
-      <c r="AC36" s="215"/>
-      <c r="AD36" s="215"/>
+      <c r="AC36" s="181"/>
+      <c r="AD36" s="181"/>
       <c r="AE36" s="26"/>
       <c r="AF36" s="26"/>
     </row>
     <row r="37" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="179" t="s">
+      <c r="C37" s="206" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="180"/>
-      <c r="E37" s="180"/>
-      <c r="F37" s="180"/>
-      <c r="G37" s="180"/>
-      <c r="H37" s="180"/>
-      <c r="I37" s="180"/>
-      <c r="J37" s="181"/>
-      <c r="K37" s="168"/>
-      <c r="L37" s="178"/>
+      <c r="D37" s="207"/>
+      <c r="E37" s="207"/>
+      <c r="F37" s="207"/>
+      <c r="G37" s="207"/>
+      <c r="H37" s="207"/>
+      <c r="I37" s="207"/>
+      <c r="J37" s="208"/>
+      <c r="K37" s="195"/>
+      <c r="L37" s="205"/>
       <c r="M37" s="45" t="s">
         <v>46</v>
       </c>
       <c r="N37" s="22"/>
-      <c r="O37" s="212"/>
-      <c r="P37" s="213"/>
+      <c r="O37" s="178"/>
+      <c r="P37" s="179"/>
       <c r="Q37" s="22"/>
       <c r="R37" s="22"/>
       <c r="S37" s="22"/>
       <c r="T37" s="22"/>
       <c r="U37" s="22"/>
-      <c r="V37" s="213"/>
-      <c r="W37" s="216"/>
+      <c r="V37" s="179"/>
+      <c r="W37" s="182"/>
       <c r="X37" s="22"/>
       <c r="Y37" s="22"/>
       <c r="Z37" s="22"/>
       <c r="AA37" s="22"/>
       <c r="AB37" s="22"/>
-      <c r="AC37" s="213"/>
-      <c r="AD37" s="213"/>
+      <c r="AC37" s="179"/>
+      <c r="AD37" s="179"/>
       <c r="AE37" s="22"/>
       <c r="AF37" s="22"/>
     </row>
     <row r="38" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="182"/>
-      <c r="D38" s="183"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="183"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="183"/>
-      <c r="J38" s="184"/>
-      <c r="K38" s="169"/>
-      <c r="L38" s="209"/>
+      <c r="C38" s="209"/>
+      <c r="D38" s="210"/>
+      <c r="E38" s="210"/>
+      <c r="F38" s="210"/>
+      <c r="G38" s="210"/>
+      <c r="H38" s="210"/>
+      <c r="I38" s="210"/>
+      <c r="J38" s="211"/>
+      <c r="K38" s="196"/>
+      <c r="L38" s="212"/>
       <c r="M38" s="44" t="s">
         <v>47</v>
       </c>
       <c r="N38" s="25"/>
-      <c r="O38" s="214"/>
-      <c r="P38" s="215"/>
+      <c r="O38" s="180"/>
+      <c r="P38" s="181"/>
       <c r="Q38" s="26"/>
       <c r="R38" s="26"/>
       <c r="S38" s="26"/>
       <c r="T38" s="26"/>
       <c r="U38" s="26"/>
-      <c r="V38" s="215"/>
-      <c r="W38" s="217"/>
+      <c r="V38" s="181"/>
+      <c r="W38" s="183"/>
       <c r="X38" s="26"/>
       <c r="Y38" s="26"/>
       <c r="Z38" s="26"/>
       <c r="AA38" s="26"/>
       <c r="AB38" s="26"/>
-      <c r="AC38" s="217"/>
-      <c r="AD38" s="215"/>
+      <c r="AC38" s="183"/>
+      <c r="AD38" s="181"/>
       <c r="AE38" s="26"/>
       <c r="AF38" s="26"/>
     </row>
@@ -9622,7 +9988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B23:CK72"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
@@ -9974,40 +10340,40 @@
       <c r="K27" s="16"/>
       <c r="L27" s="15"/>
       <c r="M27" s="16"/>
-      <c r="N27" s="194">
+      <c r="N27" s="161">
         <v>12</v>
       </c>
-      <c r="O27" s="195">
+      <c r="O27" s="162">
         <v>13</v>
       </c>
-      <c r="P27" s="194">
+      <c r="P27" s="161">
         <v>14</v>
       </c>
-      <c r="Q27" s="195">
+      <c r="Q27" s="162">
         <v>15</v>
       </c>
-      <c r="R27" s="194">
+      <c r="R27" s="161">
         <v>16</v>
       </c>
-      <c r="S27" s="195">
+      <c r="S27" s="162">
         <v>17</v>
       </c>
-      <c r="T27" s="194">
+      <c r="T27" s="161">
         <v>18</v>
       </c>
-      <c r="U27" s="195">
+      <c r="U27" s="162">
         <v>19</v>
       </c>
-      <c r="V27" s="194">
+      <c r="V27" s="161">
         <v>20</v>
       </c>
-      <c r="W27" s="195">
+      <c r="W27" s="162">
         <v>21</v>
       </c>
-      <c r="X27" s="194">
+      <c r="X27" s="161">
         <v>22</v>
       </c>
-      <c r="Y27" s="198">
+      <c r="Y27" s="165">
         <v>23</v>
       </c>
       <c r="Z27" s="99"/>
@@ -10244,33 +10610,33 @@
     </row>
     <row r="30" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="172" t="s">
+      <c r="C30" s="199" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="168"/>
-      <c r="L30" s="178"/>
+      <c r="D30" s="200"/>
+      <c r="E30" s="200"/>
+      <c r="F30" s="200"/>
+      <c r="G30" s="200"/>
+      <c r="H30" s="200"/>
+      <c r="I30" s="200"/>
+      <c r="J30" s="201"/>
+      <c r="K30" s="195"/>
+      <c r="L30" s="205"/>
       <c r="M30" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N30" s="199"/>
-      <c r="O30" s="219"/>
-      <c r="P30" s="219"/>
-      <c r="Q30" s="201"/>
-      <c r="R30" s="201"/>
-      <c r="S30" s="200"/>
-      <c r="T30" s="200"/>
-      <c r="U30" s="200"/>
-      <c r="V30" s="219"/>
-      <c r="W30" s="219"/>
-      <c r="X30" s="201"/>
-      <c r="Y30" s="202"/>
+      <c r="N30" s="166"/>
+      <c r="O30" s="185"/>
+      <c r="P30" s="185"/>
+      <c r="Q30" s="168"/>
+      <c r="R30" s="168"/>
+      <c r="S30" s="167"/>
+      <c r="T30" s="167"/>
+      <c r="U30" s="167"/>
+      <c r="V30" s="185"/>
+      <c r="W30" s="185"/>
+      <c r="X30" s="168"/>
+      <c r="Y30" s="169"/>
       <c r="Z30" s="100"/>
       <c r="AA30" s="100"/>
       <c r="AB30" s="100"/>
@@ -10331,29 +10697,29 @@
     </row>
     <row r="31" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="169"/>
-      <c r="L31" s="169"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="203"/>
+      <c r="G31" s="203"/>
+      <c r="H31" s="203"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="204"/>
+      <c r="K31" s="196"/>
+      <c r="L31" s="196"/>
       <c r="M31" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N31" s="203"/>
-      <c r="O31" s="214"/>
-      <c r="P31" s="215"/>
+      <c r="N31" s="170"/>
+      <c r="O31" s="180"/>
+      <c r="P31" s="181"/>
       <c r="Q31" s="26"/>
       <c r="R31" s="26"/>
       <c r="S31" s="26"/>
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
-      <c r="V31" s="215"/>
-      <c r="W31" s="215"/>
+      <c r="V31" s="181"/>
+      <c r="W31" s="181"/>
       <c r="X31" s="26"/>
       <c r="Y31" s="118"/>
       <c r="Z31" s="100"/>
@@ -10416,31 +10782,31 @@
     </row>
     <row r="32" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="172" t="s">
+      <c r="C32" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
-      <c r="F32" s="173"/>
-      <c r="G32" s="173"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="174"/>
-      <c r="K32" s="168"/>
-      <c r="L32" s="178"/>
+      <c r="D32" s="200"/>
+      <c r="E32" s="200"/>
+      <c r="F32" s="200"/>
+      <c r="G32" s="200"/>
+      <c r="H32" s="200"/>
+      <c r="I32" s="200"/>
+      <c r="J32" s="201"/>
+      <c r="K32" s="195"/>
+      <c r="L32" s="205"/>
       <c r="M32" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N32" s="193"/>
-      <c r="O32" s="213"/>
-      <c r="P32" s="213"/>
+      <c r="N32" s="160"/>
+      <c r="O32" s="179"/>
+      <c r="P32" s="179"/>
       <c r="Q32" s="22"/>
       <c r="R32" s="22"/>
       <c r="S32" s="154"/>
       <c r="T32" s="154"/>
       <c r="U32" s="154"/>
-      <c r="V32" s="213"/>
-      <c r="W32" s="213"/>
+      <c r="V32" s="179"/>
+      <c r="W32" s="179"/>
       <c r="X32" s="22"/>
       <c r="Y32" s="117"/>
       <c r="Z32" s="100"/>
@@ -10503,29 +10869,29 @@
     </row>
     <row r="33" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="169"/>
-      <c r="L33" s="169"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="203"/>
+      <c r="G33" s="203"/>
+      <c r="H33" s="203"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="204"/>
+      <c r="K33" s="196"/>
+      <c r="L33" s="196"/>
       <c r="M33" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N33" s="203"/>
-      <c r="O33" s="215"/>
-      <c r="P33" s="215"/>
+      <c r="N33" s="170"/>
+      <c r="O33" s="181"/>
+      <c r="P33" s="181"/>
       <c r="Q33" s="26"/>
       <c r="R33" s="26"/>
       <c r="S33" s="26"/>
       <c r="T33" s="26"/>
       <c r="U33" s="26"/>
-      <c r="V33" s="215"/>
-      <c r="W33" s="215"/>
+      <c r="V33" s="181"/>
+      <c r="W33" s="181"/>
       <c r="X33" s="26"/>
       <c r="Y33" s="118"/>
       <c r="Z33" s="100"/>
@@ -10588,31 +10954,31 @@
     </row>
     <row r="34" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="172" t="s">
+      <c r="C34" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173"/>
-      <c r="F34" s="173"/>
-      <c r="G34" s="173"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="174"/>
-      <c r="K34" s="168"/>
-      <c r="L34" s="178"/>
+      <c r="D34" s="200"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="200"/>
+      <c r="G34" s="200"/>
+      <c r="H34" s="200"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="201"/>
+      <c r="K34" s="195"/>
+      <c r="L34" s="205"/>
       <c r="M34" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N34" s="193"/>
-      <c r="O34" s="213"/>
-      <c r="P34" s="213"/>
+      <c r="N34" s="160"/>
+      <c r="O34" s="179"/>
+      <c r="P34" s="179"/>
       <c r="Q34" s="22"/>
       <c r="R34" s="22"/>
       <c r="S34" s="154"/>
       <c r="T34" s="154"/>
       <c r="U34" s="154"/>
-      <c r="V34" s="213"/>
-      <c r="W34" s="213"/>
+      <c r="V34" s="179"/>
+      <c r="W34" s="179"/>
       <c r="X34" s="22"/>
       <c r="Y34" s="117"/>
       <c r="Z34" s="100"/>
@@ -10675,29 +11041,29 @@
     </row>
     <row r="35" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="176"/>
-      <c r="F35" s="176"/>
-      <c r="G35" s="176"/>
-      <c r="H35" s="176"/>
-      <c r="I35" s="176"/>
-      <c r="J35" s="177"/>
-      <c r="K35" s="169"/>
-      <c r="L35" s="169"/>
+      <c r="C35" s="202"/>
+      <c r="D35" s="203"/>
+      <c r="E35" s="203"/>
+      <c r="F35" s="203"/>
+      <c r="G35" s="203"/>
+      <c r="H35" s="203"/>
+      <c r="I35" s="203"/>
+      <c r="J35" s="204"/>
+      <c r="K35" s="196"/>
+      <c r="L35" s="196"/>
       <c r="M35" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N35" s="203"/>
-      <c r="O35" s="215"/>
-      <c r="P35" s="215"/>
+      <c r="N35" s="170"/>
+      <c r="O35" s="181"/>
+      <c r="P35" s="181"/>
       <c r="Q35" s="26"/>
       <c r="R35" s="26"/>
       <c r="S35" s="26"/>
       <c r="T35" s="26"/>
       <c r="U35" s="26"/>
-      <c r="V35" s="215"/>
-      <c r="W35" s="215"/>
+      <c r="V35" s="181"/>
+      <c r="W35" s="181"/>
       <c r="X35" s="26"/>
       <c r="Y35" s="118"/>
       <c r="Z35" s="100"/>
@@ -10760,31 +11126,31 @@
     </row>
     <row r="36" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="172" t="s">
+      <c r="C36" s="199" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="173"/>
-      <c r="E36" s="173"/>
-      <c r="F36" s="173"/>
-      <c r="G36" s="173"/>
-      <c r="H36" s="173"/>
-      <c r="I36" s="173"/>
-      <c r="J36" s="174"/>
-      <c r="K36" s="168"/>
-      <c r="L36" s="178"/>
+      <c r="D36" s="200"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="200"/>
+      <c r="G36" s="200"/>
+      <c r="H36" s="200"/>
+      <c r="I36" s="200"/>
+      <c r="J36" s="201"/>
+      <c r="K36" s="195"/>
+      <c r="L36" s="205"/>
       <c r="M36" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N36" s="193"/>
-      <c r="O36" s="213"/>
-      <c r="P36" s="213"/>
+      <c r="N36" s="160"/>
+      <c r="O36" s="179"/>
+      <c r="P36" s="179"/>
       <c r="Q36" s="22"/>
       <c r="R36" s="22"/>
       <c r="S36" s="154"/>
       <c r="T36" s="154"/>
       <c r="U36" s="154"/>
-      <c r="V36" s="213"/>
-      <c r="W36" s="213"/>
+      <c r="V36" s="179"/>
+      <c r="W36" s="179"/>
       <c r="X36" s="22"/>
       <c r="Y36" s="117"/>
       <c r="Z36" s="100"/>
@@ -10847,29 +11213,29 @@
     </row>
     <row r="37" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="175"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="176"/>
-      <c r="F37" s="176"/>
-      <c r="G37" s="176"/>
-      <c r="H37" s="176"/>
-      <c r="I37" s="176"/>
-      <c r="J37" s="177"/>
-      <c r="K37" s="169"/>
-      <c r="L37" s="169"/>
+      <c r="C37" s="202"/>
+      <c r="D37" s="203"/>
+      <c r="E37" s="203"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="203"/>
+      <c r="H37" s="203"/>
+      <c r="I37" s="203"/>
+      <c r="J37" s="204"/>
+      <c r="K37" s="196"/>
+      <c r="L37" s="196"/>
       <c r="M37" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N37" s="203"/>
-      <c r="O37" s="215"/>
-      <c r="P37" s="215"/>
+      <c r="N37" s="170"/>
+      <c r="O37" s="181"/>
+      <c r="P37" s="181"/>
       <c r="Q37" s="26"/>
       <c r="R37" s="26"/>
       <c r="S37" s="26"/>
       <c r="T37" s="26"/>
       <c r="U37" s="26"/>
-      <c r="V37" s="215"/>
-      <c r="W37" s="215"/>
+      <c r="V37" s="181"/>
+      <c r="W37" s="181"/>
       <c r="X37" s="26"/>
       <c r="Y37" s="118"/>
       <c r="Z37" s="100"/>
@@ -10932,31 +11298,31 @@
     </row>
     <row r="38" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="172" t="s">
+      <c r="C38" s="199" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="173"/>
-      <c r="E38" s="173"/>
-      <c r="F38" s="173"/>
-      <c r="G38" s="173"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="173"/>
-      <c r="J38" s="174"/>
-      <c r="K38" s="168"/>
-      <c r="L38" s="178"/>
+      <c r="D38" s="200"/>
+      <c r="E38" s="200"/>
+      <c r="F38" s="200"/>
+      <c r="G38" s="200"/>
+      <c r="H38" s="200"/>
+      <c r="I38" s="200"/>
+      <c r="J38" s="201"/>
+      <c r="K38" s="195"/>
+      <c r="L38" s="205"/>
       <c r="M38" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N38" s="193"/>
-      <c r="O38" s="213"/>
-      <c r="P38" s="213"/>
+      <c r="N38" s="160"/>
+      <c r="O38" s="179"/>
+      <c r="P38" s="179"/>
       <c r="Q38" s="22"/>
       <c r="R38" s="22"/>
       <c r="S38" s="154"/>
       <c r="T38" s="154"/>
       <c r="U38" s="154"/>
-      <c r="V38" s="213"/>
-      <c r="W38" s="213"/>
+      <c r="V38" s="179"/>
+      <c r="W38" s="179"/>
       <c r="X38" s="22"/>
       <c r="Y38" s="117"/>
       <c r="Z38" s="100"/>
@@ -11019,29 +11385,29 @@
     </row>
     <row r="39" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="175"/>
-      <c r="D39" s="176"/>
-      <c r="E39" s="176"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
-      <c r="H39" s="176"/>
-      <c r="I39" s="176"/>
-      <c r="J39" s="177"/>
-      <c r="K39" s="169"/>
-      <c r="L39" s="169"/>
+      <c r="C39" s="202"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="203"/>
+      <c r="G39" s="203"/>
+      <c r="H39" s="203"/>
+      <c r="I39" s="203"/>
+      <c r="J39" s="204"/>
+      <c r="K39" s="196"/>
+      <c r="L39" s="196"/>
       <c r="M39" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N39" s="203"/>
-      <c r="O39" s="215"/>
-      <c r="P39" s="215"/>
+      <c r="N39" s="170"/>
+      <c r="O39" s="181"/>
+      <c r="P39" s="181"/>
       <c r="Q39" s="26"/>
       <c r="R39" s="26"/>
       <c r="S39" s="26"/>
       <c r="T39" s="26"/>
       <c r="U39" s="26"/>
-      <c r="V39" s="215"/>
-      <c r="W39" s="215"/>
+      <c r="V39" s="181"/>
+      <c r="W39" s="181"/>
       <c r="X39" s="26"/>
       <c r="Y39" s="118"/>
       <c r="Z39" s="100"/>
@@ -11104,31 +11470,31 @@
     </row>
     <row r="40" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="172" t="s">
+      <c r="C40" s="199" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="173"/>
-      <c r="E40" s="173"/>
-      <c r="F40" s="173"/>
-      <c r="G40" s="173"/>
-      <c r="H40" s="173"/>
-      <c r="I40" s="173"/>
-      <c r="J40" s="174"/>
-      <c r="K40" s="168"/>
-      <c r="L40" s="178"/>
+      <c r="D40" s="200"/>
+      <c r="E40" s="200"/>
+      <c r="F40" s="200"/>
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="201"/>
+      <c r="K40" s="195"/>
+      <c r="L40" s="205"/>
       <c r="M40" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N40" s="193"/>
-      <c r="O40" s="213"/>
-      <c r="P40" s="213"/>
+      <c r="N40" s="160"/>
+      <c r="O40" s="179"/>
+      <c r="P40" s="179"/>
       <c r="Q40" s="22"/>
       <c r="R40" s="22"/>
       <c r="S40" s="154"/>
       <c r="T40" s="154"/>
       <c r="U40" s="154"/>
-      <c r="V40" s="213"/>
-      <c r="W40" s="213"/>
+      <c r="V40" s="179"/>
+      <c r="W40" s="179"/>
       <c r="X40" s="22"/>
       <c r="Y40" s="117"/>
       <c r="Z40" s="100"/>
@@ -11191,29 +11557,29 @@
     </row>
     <row r="41" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="175"/>
-      <c r="D41" s="176"/>
-      <c r="E41" s="176"/>
-      <c r="F41" s="176"/>
-      <c r="G41" s="176"/>
-      <c r="H41" s="176"/>
-      <c r="I41" s="176"/>
-      <c r="J41" s="177"/>
-      <c r="K41" s="169"/>
-      <c r="L41" s="169"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="203"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="203"/>
+      <c r="G41" s="203"/>
+      <c r="H41" s="203"/>
+      <c r="I41" s="203"/>
+      <c r="J41" s="204"/>
+      <c r="K41" s="196"/>
+      <c r="L41" s="196"/>
       <c r="M41" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N41" s="203"/>
-      <c r="O41" s="215"/>
-      <c r="P41" s="215"/>
+      <c r="N41" s="170"/>
+      <c r="O41" s="181"/>
+      <c r="P41" s="181"/>
       <c r="Q41" s="26"/>
       <c r="R41" s="26"/>
       <c r="S41" s="26"/>
       <c r="T41" s="26"/>
       <c r="U41" s="26"/>
-      <c r="V41" s="215"/>
-      <c r="W41" s="215"/>
+      <c r="V41" s="181"/>
+      <c r="W41" s="181"/>
       <c r="X41" s="26"/>
       <c r="Y41" s="118"/>
       <c r="Z41" s="100"/>
@@ -11276,31 +11642,31 @@
     </row>
     <row r="42" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="172" t="s">
+      <c r="C42" s="199" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="173"/>
-      <c r="E42" s="173"/>
-      <c r="F42" s="173"/>
-      <c r="G42" s="173"/>
-      <c r="H42" s="173"/>
-      <c r="I42" s="173"/>
-      <c r="J42" s="174"/>
-      <c r="K42" s="168"/>
-      <c r="L42" s="178"/>
+      <c r="D42" s="200"/>
+      <c r="E42" s="200"/>
+      <c r="F42" s="200"/>
+      <c r="G42" s="200"/>
+      <c r="H42" s="200"/>
+      <c r="I42" s="200"/>
+      <c r="J42" s="201"/>
+      <c r="K42" s="195"/>
+      <c r="L42" s="205"/>
       <c r="M42" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N42" s="193"/>
-      <c r="O42" s="213"/>
-      <c r="P42" s="213"/>
+      <c r="N42" s="160"/>
+      <c r="O42" s="179"/>
+      <c r="P42" s="179"/>
       <c r="Q42" s="22"/>
       <c r="R42" s="22"/>
       <c r="S42" s="154"/>
       <c r="T42" s="154"/>
       <c r="U42" s="154"/>
-      <c r="V42" s="213"/>
-      <c r="W42" s="213"/>
+      <c r="V42" s="179"/>
+      <c r="W42" s="179"/>
       <c r="X42" s="22"/>
       <c r="Y42" s="117"/>
       <c r="Z42" s="100"/>
@@ -11363,29 +11729,29 @@
     </row>
     <row r="43" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
-      <c r="C43" s="175"/>
-      <c r="D43" s="176"/>
-      <c r="E43" s="176"/>
-      <c r="F43" s="176"/>
-      <c r="G43" s="176"/>
-      <c r="H43" s="176"/>
-      <c r="I43" s="176"/>
-      <c r="J43" s="177"/>
-      <c r="K43" s="169"/>
-      <c r="L43" s="169"/>
+      <c r="C43" s="202"/>
+      <c r="D43" s="203"/>
+      <c r="E43" s="203"/>
+      <c r="F43" s="203"/>
+      <c r="G43" s="203"/>
+      <c r="H43" s="203"/>
+      <c r="I43" s="203"/>
+      <c r="J43" s="204"/>
+      <c r="K43" s="196"/>
+      <c r="L43" s="196"/>
       <c r="M43" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N43" s="203"/>
-      <c r="O43" s="214"/>
-      <c r="P43" s="215"/>
+      <c r="N43" s="170"/>
+      <c r="O43" s="180"/>
+      <c r="P43" s="181"/>
       <c r="Q43" s="26"/>
       <c r="R43" s="26"/>
       <c r="S43" s="26"/>
       <c r="T43" s="26"/>
       <c r="U43" s="26"/>
-      <c r="V43" s="215"/>
-      <c r="W43" s="215"/>
+      <c r="V43" s="181"/>
+      <c r="W43" s="181"/>
       <c r="X43" s="26"/>
       <c r="Y43" s="118"/>
       <c r="Z43" s="100"/>
@@ -11448,31 +11814,31 @@
     </row>
     <row r="44" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
-      <c r="C44" s="172" t="s">
+      <c r="C44" s="199" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="173"/>
-      <c r="E44" s="173"/>
-      <c r="F44" s="173"/>
-      <c r="G44" s="173"/>
-      <c r="H44" s="173"/>
-      <c r="I44" s="173"/>
-      <c r="J44" s="174"/>
-      <c r="K44" s="168"/>
-      <c r="L44" s="178"/>
+      <c r="D44" s="200"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="200"/>
+      <c r="G44" s="200"/>
+      <c r="H44" s="200"/>
+      <c r="I44" s="200"/>
+      <c r="J44" s="201"/>
+      <c r="K44" s="195"/>
+      <c r="L44" s="205"/>
       <c r="M44" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N44" s="193"/>
-      <c r="O44" s="213"/>
-      <c r="P44" s="213"/>
+      <c r="N44" s="160"/>
+      <c r="O44" s="179"/>
+      <c r="P44" s="179"/>
       <c r="Q44" s="22"/>
       <c r="R44" s="22"/>
       <c r="S44" s="154"/>
       <c r="T44" s="154"/>
       <c r="U44" s="154"/>
-      <c r="V44" s="213"/>
-      <c r="W44" s="213"/>
+      <c r="V44" s="179"/>
+      <c r="W44" s="179"/>
       <c r="X44" s="22"/>
       <c r="Y44" s="117"/>
       <c r="Z44" s="100"/>
@@ -11535,29 +11901,29 @@
     </row>
     <row r="45" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="176"/>
-      <c r="E45" s="176"/>
-      <c r="F45" s="176"/>
-      <c r="G45" s="176"/>
-      <c r="H45" s="176"/>
-      <c r="I45" s="176"/>
-      <c r="J45" s="177"/>
-      <c r="K45" s="169"/>
-      <c r="L45" s="169"/>
+      <c r="C45" s="202"/>
+      <c r="D45" s="203"/>
+      <c r="E45" s="203"/>
+      <c r="F45" s="203"/>
+      <c r="G45" s="203"/>
+      <c r="H45" s="203"/>
+      <c r="I45" s="203"/>
+      <c r="J45" s="204"/>
+      <c r="K45" s="196"/>
+      <c r="L45" s="196"/>
       <c r="M45" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N45" s="203"/>
-      <c r="O45" s="214"/>
-      <c r="P45" s="215"/>
+      <c r="N45" s="170"/>
+      <c r="O45" s="180"/>
+      <c r="P45" s="181"/>
       <c r="Q45" s="26"/>
       <c r="R45" s="26"/>
       <c r="S45" s="26"/>
       <c r="T45" s="26"/>
       <c r="U45" s="26"/>
-      <c r="V45" s="215"/>
-      <c r="W45" s="215"/>
+      <c r="V45" s="181"/>
+      <c r="W45" s="181"/>
       <c r="X45" s="26"/>
       <c r="Y45" s="118"/>
       <c r="Z45" s="100"/>
@@ -11620,31 +11986,31 @@
     </row>
     <row r="46" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B46" s="3"/>
-      <c r="C46" s="172" t="s">
+      <c r="C46" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="173"/>
-      <c r="E46" s="173"/>
-      <c r="F46" s="173"/>
-      <c r="G46" s="173"/>
-      <c r="H46" s="173"/>
-      <c r="I46" s="173"/>
-      <c r="J46" s="174"/>
-      <c r="K46" s="168"/>
-      <c r="L46" s="178"/>
+      <c r="D46" s="200"/>
+      <c r="E46" s="200"/>
+      <c r="F46" s="200"/>
+      <c r="G46" s="200"/>
+      <c r="H46" s="200"/>
+      <c r="I46" s="200"/>
+      <c r="J46" s="201"/>
+      <c r="K46" s="195"/>
+      <c r="L46" s="205"/>
       <c r="M46" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N46" s="193"/>
-      <c r="O46" s="213"/>
-      <c r="P46" s="213"/>
+      <c r="N46" s="160"/>
+      <c r="O46" s="179"/>
+      <c r="P46" s="179"/>
       <c r="Q46" s="22"/>
       <c r="R46" s="22"/>
       <c r="S46" s="154"/>
       <c r="T46" s="154"/>
       <c r="U46" s="154"/>
-      <c r="V46" s="213"/>
-      <c r="W46" s="213"/>
+      <c r="V46" s="179"/>
+      <c r="W46" s="179"/>
       <c r="X46" s="22"/>
       <c r="Y46" s="117"/>
       <c r="Z46" s="100"/>
@@ -11707,29 +12073,29 @@
     </row>
     <row r="47" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B47" s="3"/>
-      <c r="C47" s="175"/>
-      <c r="D47" s="176"/>
-      <c r="E47" s="176"/>
-      <c r="F47" s="176"/>
-      <c r="G47" s="176"/>
-      <c r="H47" s="176"/>
-      <c r="I47" s="176"/>
-      <c r="J47" s="177"/>
-      <c r="K47" s="169"/>
-      <c r="L47" s="169"/>
+      <c r="C47" s="202"/>
+      <c r="D47" s="203"/>
+      <c r="E47" s="203"/>
+      <c r="F47" s="203"/>
+      <c r="G47" s="203"/>
+      <c r="H47" s="203"/>
+      <c r="I47" s="203"/>
+      <c r="J47" s="204"/>
+      <c r="K47" s="196"/>
+      <c r="L47" s="196"/>
       <c r="M47" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N47" s="203"/>
-      <c r="O47" s="214"/>
-      <c r="P47" s="215"/>
+      <c r="N47" s="170"/>
+      <c r="O47" s="180"/>
+      <c r="P47" s="181"/>
       <c r="Q47" s="26"/>
       <c r="R47" s="26"/>
       <c r="S47" s="26"/>
       <c r="T47" s="26"/>
       <c r="U47" s="26"/>
-      <c r="V47" s="215"/>
-      <c r="W47" s="215"/>
+      <c r="V47" s="181"/>
+      <c r="W47" s="181"/>
       <c r="X47" s="26"/>
       <c r="Y47" s="118"/>
       <c r="Z47" s="100"/>
@@ -11792,31 +12158,31 @@
     </row>
     <row r="48" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B48" s="3"/>
-      <c r="C48" s="172" t="s">
+      <c r="C48" s="199" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="173"/>
-      <c r="E48" s="173"/>
-      <c r="F48" s="173"/>
-      <c r="G48" s="173"/>
-      <c r="H48" s="173"/>
-      <c r="I48" s="173"/>
-      <c r="J48" s="174"/>
-      <c r="K48" s="168"/>
-      <c r="L48" s="178"/>
+      <c r="D48" s="200"/>
+      <c r="E48" s="200"/>
+      <c r="F48" s="200"/>
+      <c r="G48" s="200"/>
+      <c r="H48" s="200"/>
+      <c r="I48" s="200"/>
+      <c r="J48" s="201"/>
+      <c r="K48" s="195"/>
+      <c r="L48" s="205"/>
       <c r="M48" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N48" s="193"/>
-      <c r="O48" s="213"/>
-      <c r="P48" s="213"/>
+      <c r="N48" s="160"/>
+      <c r="O48" s="179"/>
+      <c r="P48" s="179"/>
       <c r="Q48" s="22"/>
       <c r="R48" s="22"/>
       <c r="S48" s="154"/>
       <c r="T48" s="154"/>
       <c r="U48" s="154"/>
-      <c r="V48" s="213"/>
-      <c r="W48" s="213"/>
+      <c r="V48" s="179"/>
+      <c r="W48" s="179"/>
       <c r="X48" s="22"/>
       <c r="Y48" s="117"/>
       <c r="Z48" s="100"/>
@@ -11879,29 +12245,29 @@
     </row>
     <row r="49" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
-      <c r="C49" s="175"/>
-      <c r="D49" s="176"/>
-      <c r="E49" s="176"/>
-      <c r="F49" s="176"/>
-      <c r="G49" s="176"/>
-      <c r="H49" s="176"/>
-      <c r="I49" s="176"/>
-      <c r="J49" s="177"/>
-      <c r="K49" s="169"/>
-      <c r="L49" s="169"/>
+      <c r="C49" s="202"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="203"/>
+      <c r="F49" s="203"/>
+      <c r="G49" s="203"/>
+      <c r="H49" s="203"/>
+      <c r="I49" s="203"/>
+      <c r="J49" s="204"/>
+      <c r="K49" s="196"/>
+      <c r="L49" s="196"/>
       <c r="M49" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N49" s="203"/>
-      <c r="O49" s="214"/>
-      <c r="P49" s="215"/>
+      <c r="N49" s="170"/>
+      <c r="O49" s="180"/>
+      <c r="P49" s="181"/>
       <c r="Q49" s="26"/>
       <c r="R49" s="26"/>
       <c r="S49" s="26"/>
       <c r="T49" s="26"/>
       <c r="U49" s="26"/>
-      <c r="V49" s="215"/>
-      <c r="W49" s="215"/>
+      <c r="V49" s="181"/>
+      <c r="W49" s="181"/>
       <c r="X49" s="26"/>
       <c r="Y49" s="118"/>
       <c r="Z49" s="100"/>
@@ -11964,31 +12330,31 @@
     </row>
     <row r="50" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
-      <c r="C50" s="172" t="s">
+      <c r="C50" s="199" t="s">
         <v>118</v>
       </c>
-      <c r="D50" s="173"/>
-      <c r="E50" s="173"/>
-      <c r="F50" s="173"/>
-      <c r="G50" s="173"/>
-      <c r="H50" s="173"/>
-      <c r="I50" s="173"/>
-      <c r="J50" s="174"/>
-      <c r="K50" s="168"/>
-      <c r="L50" s="178"/>
+      <c r="D50" s="200"/>
+      <c r="E50" s="200"/>
+      <c r="F50" s="200"/>
+      <c r="G50" s="200"/>
+      <c r="H50" s="200"/>
+      <c r="I50" s="200"/>
+      <c r="J50" s="201"/>
+      <c r="K50" s="195"/>
+      <c r="L50" s="205"/>
       <c r="M50" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N50" s="193"/>
-      <c r="O50" s="213"/>
-      <c r="P50" s="213"/>
+      <c r="N50" s="160"/>
+      <c r="O50" s="179"/>
+      <c r="P50" s="179"/>
       <c r="Q50" s="22"/>
       <c r="R50" s="22"/>
       <c r="S50" s="154"/>
       <c r="T50" s="154"/>
       <c r="U50" s="154"/>
-      <c r="V50" s="213"/>
-      <c r="W50" s="213"/>
+      <c r="V50" s="179"/>
+      <c r="W50" s="179"/>
       <c r="X50" s="22"/>
       <c r="Y50" s="117"/>
       <c r="Z50" s="100"/>
@@ -12051,310 +12417,310 @@
     </row>
     <row r="51" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
-      <c r="C51" s="175"/>
-      <c r="D51" s="176"/>
-      <c r="E51" s="176"/>
-      <c r="F51" s="176"/>
-      <c r="G51" s="176"/>
-      <c r="H51" s="176"/>
-      <c r="I51" s="176"/>
-      <c r="J51" s="177"/>
-      <c r="K51" s="169"/>
-      <c r="L51" s="169"/>
+      <c r="C51" s="202"/>
+      <c r="D51" s="203"/>
+      <c r="E51" s="203"/>
+      <c r="F51" s="203"/>
+      <c r="G51" s="203"/>
+      <c r="H51" s="203"/>
+      <c r="I51" s="203"/>
+      <c r="J51" s="204"/>
+      <c r="K51" s="196"/>
+      <c r="L51" s="196"/>
       <c r="M51" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N51" s="203"/>
-      <c r="O51" s="214"/>
-      <c r="P51" s="215"/>
+      <c r="N51" s="170"/>
+      <c r="O51" s="180"/>
+      <c r="P51" s="181"/>
       <c r="Q51" s="26"/>
       <c r="R51" s="26"/>
       <c r="S51" s="26"/>
       <c r="T51" s="26"/>
       <c r="U51" s="26"/>
-      <c r="V51" s="215"/>
-      <c r="W51" s="215"/>
+      <c r="V51" s="181"/>
+      <c r="W51" s="181"/>
       <c r="X51" s="26"/>
       <c r="Y51" s="118"/>
     </row>
     <row r="52" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B52" s="4"/>
-      <c r="C52" s="172" t="s">
+      <c r="C52" s="199" t="s">
         <v>119</v>
       </c>
-      <c r="D52" s="173"/>
-      <c r="E52" s="173"/>
-      <c r="F52" s="173"/>
-      <c r="G52" s="173"/>
-      <c r="H52" s="173"/>
-      <c r="I52" s="173"/>
-      <c r="J52" s="174"/>
-      <c r="K52" s="168"/>
-      <c r="L52" s="178"/>
+      <c r="D52" s="200"/>
+      <c r="E52" s="200"/>
+      <c r="F52" s="200"/>
+      <c r="G52" s="200"/>
+      <c r="H52" s="200"/>
+      <c r="I52" s="200"/>
+      <c r="J52" s="201"/>
+      <c r="K52" s="195"/>
+      <c r="L52" s="205"/>
       <c r="M52" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N52" s="193"/>
-      <c r="O52" s="213"/>
-      <c r="P52" s="213"/>
+      <c r="N52" s="160"/>
+      <c r="O52" s="179"/>
+      <c r="P52" s="179"/>
       <c r="Q52" s="22"/>
       <c r="R52" s="22"/>
       <c r="S52" s="154"/>
       <c r="T52" s="154"/>
       <c r="U52" s="154"/>
-      <c r="V52" s="213"/>
-      <c r="W52" s="213"/>
+      <c r="V52" s="179"/>
+      <c r="W52" s="179"/>
       <c r="X52" s="22"/>
       <c r="Y52" s="117"/>
     </row>
     <row r="53" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="C53" s="175"/>
-      <c r="D53" s="176"/>
-      <c r="E53" s="176"/>
-      <c r="F53" s="176"/>
-      <c r="G53" s="176"/>
-      <c r="H53" s="176"/>
-      <c r="I53" s="176"/>
-      <c r="J53" s="177"/>
-      <c r="K53" s="169"/>
-      <c r="L53" s="169"/>
+      <c r="C53" s="202"/>
+      <c r="D53" s="203"/>
+      <c r="E53" s="203"/>
+      <c r="F53" s="203"/>
+      <c r="G53" s="203"/>
+      <c r="H53" s="203"/>
+      <c r="I53" s="203"/>
+      <c r="J53" s="204"/>
+      <c r="K53" s="196"/>
+      <c r="L53" s="196"/>
       <c r="M53" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N53" s="203"/>
-      <c r="O53" s="214"/>
-      <c r="P53" s="215"/>
+      <c r="N53" s="170"/>
+      <c r="O53" s="180"/>
+      <c r="P53" s="181"/>
       <c r="Q53" s="26"/>
       <c r="R53" s="26"/>
       <c r="S53" s="26"/>
       <c r="T53" s="26"/>
       <c r="U53" s="26"/>
-      <c r="V53" s="215"/>
-      <c r="W53" s="215"/>
+      <c r="V53" s="181"/>
+      <c r="W53" s="181"/>
       <c r="X53" s="26"/>
       <c r="Y53" s="118"/>
     </row>
     <row r="54" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="C54" s="172" t="s">
+      <c r="C54" s="199" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="173"/>
-      <c r="E54" s="173"/>
-      <c r="F54" s="173"/>
-      <c r="G54" s="173"/>
-      <c r="H54" s="173"/>
-      <c r="I54" s="173"/>
-      <c r="J54" s="174"/>
-      <c r="K54" s="168"/>
-      <c r="L54" s="178"/>
+      <c r="D54" s="200"/>
+      <c r="E54" s="200"/>
+      <c r="F54" s="200"/>
+      <c r="G54" s="200"/>
+      <c r="H54" s="200"/>
+      <c r="I54" s="200"/>
+      <c r="J54" s="201"/>
+      <c r="K54" s="195"/>
+      <c r="L54" s="205"/>
       <c r="M54" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N54" s="193"/>
-      <c r="O54" s="213"/>
-      <c r="P54" s="213"/>
+      <c r="N54" s="160"/>
+      <c r="O54" s="179"/>
+      <c r="P54" s="179"/>
       <c r="Q54" s="22"/>
       <c r="R54" s="22"/>
       <c r="S54" s="154"/>
       <c r="T54" s="154"/>
       <c r="U54" s="154"/>
-      <c r="V54" s="213"/>
-      <c r="W54" s="213"/>
+      <c r="V54" s="179"/>
+      <c r="W54" s="179"/>
       <c r="X54" s="22"/>
       <c r="Y54" s="117"/>
     </row>
     <row r="55" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="C55" s="175"/>
-      <c r="D55" s="176"/>
-      <c r="E55" s="176"/>
-      <c r="F55" s="176"/>
-      <c r="G55" s="176"/>
-      <c r="H55" s="176"/>
-      <c r="I55" s="176"/>
-      <c r="J55" s="177"/>
-      <c r="K55" s="169"/>
-      <c r="L55" s="169"/>
+      <c r="C55" s="202"/>
+      <c r="D55" s="203"/>
+      <c r="E55" s="203"/>
+      <c r="F55" s="203"/>
+      <c r="G55" s="203"/>
+      <c r="H55" s="203"/>
+      <c r="I55" s="203"/>
+      <c r="J55" s="204"/>
+      <c r="K55" s="196"/>
+      <c r="L55" s="196"/>
       <c r="M55" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N55" s="203"/>
-      <c r="O55" s="214"/>
-      <c r="P55" s="215"/>
+      <c r="N55" s="170"/>
+      <c r="O55" s="180"/>
+      <c r="P55" s="181"/>
       <c r="Q55" s="26"/>
       <c r="R55" s="26"/>
       <c r="S55" s="26"/>
       <c r="T55" s="26"/>
       <c r="U55" s="26"/>
-      <c r="V55" s="215"/>
-      <c r="W55" s="215"/>
+      <c r="V55" s="181"/>
+      <c r="W55" s="181"/>
       <c r="X55" s="26"/>
       <c r="Y55" s="118"/>
     </row>
     <row r="56" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="C56" s="172" t="s">
+      <c r="C56" s="199" t="s">
         <v>121</v>
       </c>
-      <c r="D56" s="173"/>
-      <c r="E56" s="173"/>
-      <c r="F56" s="173"/>
-      <c r="G56" s="173"/>
-      <c r="H56" s="173"/>
-      <c r="I56" s="173"/>
-      <c r="J56" s="174"/>
-      <c r="K56" s="168"/>
-      <c r="L56" s="178"/>
+      <c r="D56" s="200"/>
+      <c r="E56" s="200"/>
+      <c r="F56" s="200"/>
+      <c r="G56" s="200"/>
+      <c r="H56" s="200"/>
+      <c r="I56" s="200"/>
+      <c r="J56" s="201"/>
+      <c r="K56" s="195"/>
+      <c r="L56" s="205"/>
       <c r="M56" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N56" s="193"/>
-      <c r="O56" s="213"/>
-      <c r="P56" s="213"/>
+      <c r="N56" s="160"/>
+      <c r="O56" s="179"/>
+      <c r="P56" s="179"/>
       <c r="Q56" s="22"/>
       <c r="R56" s="22"/>
       <c r="S56" s="154"/>
       <c r="T56" s="154"/>
       <c r="U56" s="154"/>
-      <c r="V56" s="213"/>
-      <c r="W56" s="213"/>
+      <c r="V56" s="179"/>
+      <c r="W56" s="179"/>
       <c r="X56" s="22"/>
       <c r="Y56" s="117"/>
     </row>
     <row r="57" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="C57" s="175"/>
-      <c r="D57" s="176"/>
-      <c r="E57" s="176"/>
-      <c r="F57" s="176"/>
-      <c r="G57" s="176"/>
-      <c r="H57" s="176"/>
-      <c r="I57" s="176"/>
-      <c r="J57" s="177"/>
-      <c r="K57" s="169"/>
-      <c r="L57" s="169"/>
+      <c r="C57" s="202"/>
+      <c r="D57" s="203"/>
+      <c r="E57" s="203"/>
+      <c r="F57" s="203"/>
+      <c r="G57" s="203"/>
+      <c r="H57" s="203"/>
+      <c r="I57" s="203"/>
+      <c r="J57" s="204"/>
+      <c r="K57" s="196"/>
+      <c r="L57" s="196"/>
       <c r="M57" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N57" s="203"/>
-      <c r="O57" s="214"/>
-      <c r="P57" s="215"/>
+      <c r="N57" s="170"/>
+      <c r="O57" s="180"/>
+      <c r="P57" s="181"/>
       <c r="Q57" s="26"/>
       <c r="R57" s="26"/>
       <c r="S57" s="26"/>
       <c r="T57" s="26"/>
       <c r="U57" s="26"/>
-      <c r="V57" s="215"/>
-      <c r="W57" s="215"/>
+      <c r="V57" s="181"/>
+      <c r="W57" s="181"/>
       <c r="X57" s="26"/>
       <c r="Y57" s="118"/>
     </row>
     <row r="58" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="C58" s="172" t="s">
+      <c r="C58" s="199" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="173"/>
-      <c r="E58" s="173"/>
-      <c r="F58" s="173"/>
-      <c r="G58" s="173"/>
-      <c r="H58" s="173"/>
-      <c r="I58" s="173"/>
-      <c r="J58" s="174"/>
-      <c r="K58" s="168"/>
-      <c r="L58" s="178"/>
+      <c r="D58" s="200"/>
+      <c r="E58" s="200"/>
+      <c r="F58" s="200"/>
+      <c r="G58" s="200"/>
+      <c r="H58" s="200"/>
+      <c r="I58" s="200"/>
+      <c r="J58" s="201"/>
+      <c r="K58" s="195"/>
+      <c r="L58" s="205"/>
       <c r="M58" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N58" s="193"/>
-      <c r="O58" s="213"/>
-      <c r="P58" s="213"/>
+      <c r="N58" s="160"/>
+      <c r="O58" s="179"/>
+      <c r="P58" s="179"/>
       <c r="Q58" s="22"/>
       <c r="R58" s="22"/>
       <c r="S58" s="154"/>
       <c r="T58" s="154"/>
       <c r="U58" s="154"/>
-      <c r="V58" s="213"/>
-      <c r="W58" s="213"/>
+      <c r="V58" s="179"/>
+      <c r="W58" s="179"/>
       <c r="X58" s="22"/>
       <c r="Y58" s="117"/>
     </row>
     <row r="59" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="C59" s="175"/>
-      <c r="D59" s="176"/>
-      <c r="E59" s="176"/>
-      <c r="F59" s="176"/>
-      <c r="G59" s="176"/>
-      <c r="H59" s="176"/>
-      <c r="I59" s="176"/>
-      <c r="J59" s="177"/>
-      <c r="K59" s="169"/>
-      <c r="L59" s="169"/>
+      <c r="C59" s="202"/>
+      <c r="D59" s="203"/>
+      <c r="E59" s="203"/>
+      <c r="F59" s="203"/>
+      <c r="G59" s="203"/>
+      <c r="H59" s="203"/>
+      <c r="I59" s="203"/>
+      <c r="J59" s="204"/>
+      <c r="K59" s="196"/>
+      <c r="L59" s="196"/>
       <c r="M59" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N59" s="203"/>
-      <c r="O59" s="214"/>
-      <c r="P59" s="215"/>
+      <c r="N59" s="170"/>
+      <c r="O59" s="180"/>
+      <c r="P59" s="181"/>
       <c r="Q59" s="26"/>
       <c r="R59" s="26"/>
       <c r="S59" s="26"/>
       <c r="T59" s="26"/>
       <c r="U59" s="26"/>
-      <c r="V59" s="215"/>
-      <c r="W59" s="215"/>
+      <c r="V59" s="181"/>
+      <c r="W59" s="181"/>
       <c r="X59" s="26"/>
       <c r="Y59" s="118"/>
     </row>
     <row r="60" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="C60" s="172" t="s">
+      <c r="C60" s="199" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="173"/>
-      <c r="E60" s="173"/>
-      <c r="F60" s="173"/>
-      <c r="G60" s="173"/>
-      <c r="H60" s="173"/>
-      <c r="I60" s="173"/>
-      <c r="J60" s="174"/>
-      <c r="K60" s="168"/>
-      <c r="L60" s="178"/>
+      <c r="D60" s="200"/>
+      <c r="E60" s="200"/>
+      <c r="F60" s="200"/>
+      <c r="G60" s="200"/>
+      <c r="H60" s="200"/>
+      <c r="I60" s="200"/>
+      <c r="J60" s="201"/>
+      <c r="K60" s="195"/>
+      <c r="L60" s="205"/>
       <c r="M60" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N60" s="193"/>
-      <c r="O60" s="213"/>
-      <c r="P60" s="213"/>
+      <c r="N60" s="160"/>
+      <c r="O60" s="179"/>
+      <c r="P60" s="179"/>
       <c r="Q60" s="22"/>
       <c r="R60" s="22"/>
       <c r="S60" s="154"/>
       <c r="T60" s="154"/>
       <c r="U60" s="154"/>
-      <c r="V60" s="213"/>
-      <c r="W60" s="213"/>
+      <c r="V60" s="179"/>
+      <c r="W60" s="179"/>
       <c r="X60" s="22"/>
       <c r="Y60" s="117"/>
     </row>
     <row r="61" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="C61" s="175"/>
-      <c r="D61" s="176"/>
-      <c r="E61" s="176"/>
-      <c r="F61" s="176"/>
-      <c r="G61" s="176"/>
-      <c r="H61" s="176"/>
-      <c r="I61" s="176"/>
-      <c r="J61" s="177"/>
-      <c r="K61" s="169"/>
-      <c r="L61" s="169"/>
+      <c r="C61" s="202"/>
+      <c r="D61" s="203"/>
+      <c r="E61" s="203"/>
+      <c r="F61" s="203"/>
+      <c r="G61" s="203"/>
+      <c r="H61" s="203"/>
+      <c r="I61" s="203"/>
+      <c r="J61" s="204"/>
+      <c r="K61" s="196"/>
+      <c r="L61" s="196"/>
       <c r="M61" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N61" s="203"/>
-      <c r="O61" s="214"/>
-      <c r="P61" s="215"/>
+      <c r="N61" s="170"/>
+      <c r="O61" s="180"/>
+      <c r="P61" s="181"/>
       <c r="Q61" s="26"/>
       <c r="R61" s="26"/>
       <c r="S61" s="26"/>
       <c r="T61" s="26"/>
       <c r="U61" s="26"/>
-      <c r="V61" s="215"/>
-      <c r="W61" s="215"/>
+      <c r="V61" s="181"/>
+      <c r="W61" s="181"/>
       <c r="X61" s="26"/>
       <c r="Y61" s="118"/>
     </row>
@@ -12370,7 +12736,7 @@
       <c r="K62" s="67"/>
       <c r="L62" s="67"/>
       <c r="M62" s="67"/>
-      <c r="N62" s="204"/>
+      <c r="N62" s="171"/>
       <c r="O62" s="153"/>
       <c r="P62" s="69"/>
       <c r="Q62" s="69"/>
@@ -12381,7 +12747,7 @@
       <c r="V62" s="69"/>
       <c r="W62" s="69"/>
       <c r="X62" s="69"/>
-      <c r="Y62" s="205"/>
+      <c r="Y62" s="172"/>
     </row>
     <row r="63" spans="2:82" x14ac:dyDescent="0.15">
       <c r="C63" s="65" t="s">
@@ -12399,7 +12765,7 @@
       <c r="K63" s="67"/>
       <c r="L63" s="67"/>
       <c r="M63" s="67"/>
-      <c r="N63" s="204"/>
+      <c r="N63" s="171"/>
       <c r="O63" s="153"/>
       <c r="P63" s="69"/>
       <c r="Q63" s="69"/>
@@ -12410,231 +12776,231 @@
       <c r="V63" s="69"/>
       <c r="W63" s="69"/>
       <c r="X63" s="69"/>
-      <c r="Y63" s="205"/>
+      <c r="Y63" s="172"/>
     </row>
     <row r="64" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="C64" s="172" t="s">
+      <c r="C64" s="199" t="s">
         <v>76</v>
       </c>
-      <c r="D64" s="173"/>
-      <c r="E64" s="173"/>
-      <c r="F64" s="173"/>
-      <c r="G64" s="173"/>
-      <c r="H64" s="173"/>
-      <c r="I64" s="173"/>
-      <c r="J64" s="174"/>
-      <c r="K64" s="168"/>
-      <c r="L64" s="178"/>
+      <c r="D64" s="200"/>
+      <c r="E64" s="200"/>
+      <c r="F64" s="200"/>
+      <c r="G64" s="200"/>
+      <c r="H64" s="200"/>
+      <c r="I64" s="200"/>
+      <c r="J64" s="201"/>
+      <c r="K64" s="195"/>
+      <c r="L64" s="205"/>
       <c r="M64" s="32" t="s">
         <v>46</v>
       </c>
       <c r="N64" s="116"/>
-      <c r="O64" s="213"/>
-      <c r="P64" s="213"/>
+      <c r="O64" s="179"/>
+      <c r="P64" s="179"/>
       <c r="Q64" s="22"/>
       <c r="R64" s="22"/>
       <c r="S64" s="22"/>
       <c r="T64" s="22"/>
       <c r="U64" s="154"/>
-      <c r="V64" s="213"/>
-      <c r="W64" s="213"/>
+      <c r="V64" s="179"/>
+      <c r="W64" s="179"/>
       <c r="X64" s="22"/>
       <c r="Y64" s="117"/>
     </row>
     <row r="65" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C65" s="175"/>
-      <c r="D65" s="176"/>
-      <c r="E65" s="176"/>
-      <c r="F65" s="176"/>
-      <c r="G65" s="176"/>
-      <c r="H65" s="176"/>
-      <c r="I65" s="176"/>
-      <c r="J65" s="177"/>
-      <c r="K65" s="169"/>
-      <c r="L65" s="169"/>
+      <c r="C65" s="202"/>
+      <c r="D65" s="203"/>
+      <c r="E65" s="203"/>
+      <c r="F65" s="203"/>
+      <c r="G65" s="203"/>
+      <c r="H65" s="203"/>
+      <c r="I65" s="203"/>
+      <c r="J65" s="204"/>
+      <c r="K65" s="196"/>
+      <c r="L65" s="196"/>
       <c r="M65" s="30" t="s">
         <v>47</v>
       </c>
       <c r="N65" s="115"/>
-      <c r="O65" s="215"/>
-      <c r="P65" s="215"/>
+      <c r="O65" s="181"/>
+      <c r="P65" s="181"/>
       <c r="Q65" s="26"/>
       <c r="R65" s="26"/>
       <c r="S65" s="26"/>
       <c r="T65" s="26"/>
       <c r="U65" s="26"/>
-      <c r="V65" s="215"/>
-      <c r="W65" s="215"/>
+      <c r="V65" s="181"/>
+      <c r="W65" s="181"/>
       <c r="X65" s="26"/>
       <c r="Y65" s="118"/>
     </row>
     <row r="66" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C66" s="172" t="s">
+      <c r="C66" s="199" t="s">
         <v>77</v>
       </c>
-      <c r="D66" s="173"/>
-      <c r="E66" s="173"/>
-      <c r="F66" s="173"/>
-      <c r="G66" s="173"/>
-      <c r="H66" s="173"/>
-      <c r="I66" s="173"/>
-      <c r="J66" s="174"/>
-      <c r="K66" s="168"/>
-      <c r="L66" s="178"/>
+      <c r="D66" s="200"/>
+      <c r="E66" s="200"/>
+      <c r="F66" s="200"/>
+      <c r="G66" s="200"/>
+      <c r="H66" s="200"/>
+      <c r="I66" s="200"/>
+      <c r="J66" s="201"/>
+      <c r="K66" s="195"/>
+      <c r="L66" s="205"/>
       <c r="M66" s="32" t="s">
         <v>46</v>
       </c>
       <c r="N66" s="116"/>
-      <c r="O66" s="213"/>
-      <c r="P66" s="213"/>
+      <c r="O66" s="179"/>
+      <c r="P66" s="179"/>
       <c r="Q66" s="22"/>
       <c r="R66" s="22"/>
       <c r="S66" s="22"/>
       <c r="T66" s="22"/>
       <c r="U66" s="154"/>
-      <c r="V66" s="213"/>
-      <c r="W66" s="213"/>
+      <c r="V66" s="179"/>
+      <c r="W66" s="179"/>
       <c r="X66" s="22"/>
       <c r="Y66" s="117"/>
     </row>
     <row r="67" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C67" s="175"/>
-      <c r="D67" s="176"/>
-      <c r="E67" s="176"/>
-      <c r="F67" s="176"/>
-      <c r="G67" s="176"/>
-      <c r="H67" s="176"/>
-      <c r="I67" s="176"/>
-      <c r="J67" s="177"/>
-      <c r="K67" s="169"/>
-      <c r="L67" s="169"/>
+      <c r="C67" s="202"/>
+      <c r="D67" s="203"/>
+      <c r="E67" s="203"/>
+      <c r="F67" s="203"/>
+      <c r="G67" s="203"/>
+      <c r="H67" s="203"/>
+      <c r="I67" s="203"/>
+      <c r="J67" s="204"/>
+      <c r="K67" s="196"/>
+      <c r="L67" s="196"/>
       <c r="M67" s="30" t="s">
         <v>47</v>
       </c>
       <c r="N67" s="115"/>
-      <c r="O67" s="215"/>
-      <c r="P67" s="215"/>
+      <c r="O67" s="181"/>
+      <c r="P67" s="181"/>
       <c r="Q67" s="26"/>
       <c r="R67" s="26"/>
       <c r="S67" s="26"/>
       <c r="T67" s="26"/>
       <c r="U67" s="26"/>
-      <c r="V67" s="215"/>
-      <c r="W67" s="215"/>
+      <c r="V67" s="181"/>
+      <c r="W67" s="181"/>
       <c r="X67" s="26"/>
       <c r="Y67" s="118"/>
     </row>
     <row r="68" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C68" s="172" t="s">
+      <c r="C68" s="199" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="173"/>
-      <c r="E68" s="173"/>
-      <c r="F68" s="173"/>
-      <c r="G68" s="173"/>
-      <c r="H68" s="173"/>
-      <c r="I68" s="173"/>
-      <c r="J68" s="174"/>
-      <c r="K68" s="168"/>
-      <c r="L68" s="168"/>
+      <c r="D68" s="200"/>
+      <c r="E68" s="200"/>
+      <c r="F68" s="200"/>
+      <c r="G68" s="200"/>
+      <c r="H68" s="200"/>
+      <c r="I68" s="200"/>
+      <c r="J68" s="201"/>
+      <c r="K68" s="195"/>
+      <c r="L68" s="195"/>
       <c r="M68" s="32" t="s">
         <v>46</v>
       </c>
       <c r="N68" s="116"/>
-      <c r="O68" s="213"/>
-      <c r="P68" s="213"/>
+      <c r="O68" s="179"/>
+      <c r="P68" s="179"/>
       <c r="Q68" s="22"/>
       <c r="R68" s="22"/>
       <c r="S68" s="22"/>
       <c r="T68" s="22"/>
       <c r="U68" s="154"/>
-      <c r="V68" s="213"/>
-      <c r="W68" s="213"/>
+      <c r="V68" s="179"/>
+      <c r="W68" s="179"/>
       <c r="X68" s="22"/>
       <c r="Y68" s="117"/>
     </row>
     <row r="69" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C69" s="175"/>
-      <c r="D69" s="176"/>
-      <c r="E69" s="176"/>
-      <c r="F69" s="176"/>
-      <c r="G69" s="176"/>
-      <c r="H69" s="176"/>
-      <c r="I69" s="176"/>
-      <c r="J69" s="177"/>
-      <c r="K69" s="169"/>
-      <c r="L69" s="169"/>
+      <c r="C69" s="202"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="203"/>
+      <c r="F69" s="203"/>
+      <c r="G69" s="203"/>
+      <c r="H69" s="203"/>
+      <c r="I69" s="203"/>
+      <c r="J69" s="204"/>
+      <c r="K69" s="196"/>
+      <c r="L69" s="196"/>
       <c r="M69" s="30" t="s">
         <v>47</v>
       </c>
       <c r="N69" s="115"/>
-      <c r="O69" s="215"/>
-      <c r="P69" s="215"/>
+      <c r="O69" s="181"/>
+      <c r="P69" s="181"/>
       <c r="Q69" s="26"/>
       <c r="R69" s="26"/>
       <c r="S69" s="26"/>
       <c r="T69" s="26"/>
       <c r="U69" s="26"/>
-      <c r="V69" s="215"/>
-      <c r="W69" s="215"/>
+      <c r="V69" s="181"/>
+      <c r="W69" s="181"/>
       <c r="X69" s="26"/>
       <c r="Y69" s="118"/>
     </row>
     <row r="70" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C70" s="172" t="s">
+      <c r="C70" s="199" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="173"/>
-      <c r="E70" s="173"/>
-      <c r="F70" s="173"/>
-      <c r="G70" s="173"/>
-      <c r="H70" s="173"/>
-      <c r="I70" s="173"/>
-      <c r="J70" s="174"/>
-      <c r="K70" s="168"/>
-      <c r="L70" s="168"/>
+      <c r="D70" s="200"/>
+      <c r="E70" s="200"/>
+      <c r="F70" s="200"/>
+      <c r="G70" s="200"/>
+      <c r="H70" s="200"/>
+      <c r="I70" s="200"/>
+      <c r="J70" s="201"/>
+      <c r="K70" s="195"/>
+      <c r="L70" s="195"/>
       <c r="M70" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N70" s="193"/>
-      <c r="O70" s="213"/>
-      <c r="P70" s="213"/>
+      <c r="N70" s="160"/>
+      <c r="O70" s="179"/>
+      <c r="P70" s="179"/>
       <c r="Q70" s="22"/>
       <c r="R70" s="22"/>
       <c r="S70" s="22"/>
       <c r="T70" s="22"/>
       <c r="U70" s="154"/>
-      <c r="V70" s="213"/>
-      <c r="W70" s="213"/>
+      <c r="V70" s="179"/>
+      <c r="W70" s="179"/>
       <c r="X70" s="22"/>
       <c r="Y70" s="117"/>
     </row>
     <row r="71" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C71" s="175"/>
-      <c r="D71" s="176"/>
-      <c r="E71" s="176"/>
-      <c r="F71" s="176"/>
-      <c r="G71" s="176"/>
-      <c r="H71" s="176"/>
-      <c r="I71" s="176"/>
-      <c r="J71" s="177"/>
-      <c r="K71" s="169"/>
-      <c r="L71" s="169"/>
+      <c r="C71" s="202"/>
+      <c r="D71" s="203"/>
+      <c r="E71" s="203"/>
+      <c r="F71" s="203"/>
+      <c r="G71" s="203"/>
+      <c r="H71" s="203"/>
+      <c r="I71" s="203"/>
+      <c r="J71" s="204"/>
+      <c r="K71" s="196"/>
+      <c r="L71" s="196"/>
       <c r="M71" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N71" s="206"/>
-      <c r="O71" s="220"/>
-      <c r="P71" s="220"/>
-      <c r="Q71" s="207"/>
-      <c r="R71" s="207"/>
-      <c r="S71" s="207"/>
-      <c r="T71" s="207"/>
-      <c r="U71" s="207"/>
-      <c r="V71" s="220"/>
-      <c r="W71" s="220"/>
-      <c r="X71" s="207"/>
-      <c r="Y71" s="208"/>
+      <c r="N71" s="173"/>
+      <c r="O71" s="186"/>
+      <c r="P71" s="186"/>
+      <c r="Q71" s="174"/>
+      <c r="R71" s="174"/>
+      <c r="S71" s="174"/>
+      <c r="T71" s="174"/>
+      <c r="U71" s="174"/>
+      <c r="V71" s="186"/>
+      <c r="W71" s="186"/>
+      <c r="X71" s="174"/>
+      <c r="Y71" s="175"/>
     </row>
     <row r="72" spans="3:25" x14ac:dyDescent="0.15">
       <c r="C72" s="59"/>
@@ -12690,11 +13056,6 @@
     <mergeCell ref="C54:J55"/>
     <mergeCell ref="K54:K55"/>
     <mergeCell ref="L54:L55"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="C46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
     <mergeCell ref="C30:J31"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="L30:L31"/>
@@ -12713,6 +13074,9 @@
     <mergeCell ref="C40:J41"/>
     <mergeCell ref="K40:K41"/>
     <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
     <mergeCell ref="C42:J43"/>
     <mergeCell ref="K42:K43"/>
     <mergeCell ref="L42:L43"/>
@@ -12720,9 +13084,11 @@
     <mergeCell ref="C48:J49"/>
     <mergeCell ref="K48:K49"/>
     <mergeCell ref="L48:L49"/>
-    <mergeCell ref="C50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="C46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -12911,13 +13277,13 @@
       <c r="H25" s="103"/>
       <c r="I25" s="103"/>
       <c r="J25" s="103"/>
-      <c r="K25" s="186" t="s">
+      <c r="K25" s="219" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="188" t="s">
+      <c r="L25" s="221" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="188" t="s">
+      <c r="M25" s="221" t="s">
         <v>45</v>
       </c>
       <c r="N25" s="104">
@@ -13009,9 +13375,9 @@
       <c r="H26" s="91"/>
       <c r="I26" s="91"/>
       <c r="J26" s="91"/>
-      <c r="K26" s="187"/>
-      <c r="L26" s="189"/>
-      <c r="M26" s="189"/>
+      <c r="K26" s="220"/>
+      <c r="L26" s="222"/>
+      <c r="M26" s="222"/>
       <c r="N26" s="98">
         <v>43875</v>
       </c>
@@ -13203,20 +13569,20 @@
     </row>
     <row r="28" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
-      <c r="C28" s="190" t="s">
+      <c r="C28" s="213" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="185"/>
-      <c r="E28" s="185"/>
-      <c r="F28" s="185"/>
-      <c r="G28" s="185"/>
-      <c r="H28" s="185"/>
-      <c r="I28" s="185"/>
-      <c r="J28" s="221"/>
-      <c r="K28" s="168" t="s">
+      <c r="D28" s="214"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="214"/>
+      <c r="H28" s="214"/>
+      <c r="I28" s="214"/>
+      <c r="J28" s="215"/>
+      <c r="K28" s="195" t="s">
         <v>56</v>
       </c>
-      <c r="L28" s="178">
+      <c r="L28" s="205">
         <v>1</v>
       </c>
       <c r="M28" s="81" t="s">
@@ -13301,16 +13667,16 @@
     </row>
     <row r="29" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="222"/>
-      <c r="D29" s="223"/>
-      <c r="E29" s="223"/>
-      <c r="F29" s="223"/>
-      <c r="G29" s="223"/>
-      <c r="H29" s="223"/>
-      <c r="I29" s="223"/>
-      <c r="J29" s="224"/>
-      <c r="K29" s="169"/>
-      <c r="L29" s="209"/>
+      <c r="C29" s="216"/>
+      <c r="D29" s="217"/>
+      <c r="E29" s="217"/>
+      <c r="F29" s="217"/>
+      <c r="G29" s="217"/>
+      <c r="H29" s="217"/>
+      <c r="I29" s="217"/>
+      <c r="J29" s="218"/>
+      <c r="K29" s="196"/>
+      <c r="L29" s="212"/>
       <c r="M29" s="82" t="s">
         <v>47</v>
       </c>
@@ -13393,17 +13759,17 @@
     </row>
     <row r="30" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="190" t="s">
+      <c r="C30" s="213" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="185"/>
-      <c r="E30" s="185"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="185"/>
-      <c r="H30" s="185"/>
-      <c r="I30" s="185"/>
-      <c r="J30" s="221"/>
-      <c r="K30" s="168" t="s">
+      <c r="D30" s="214"/>
+      <c r="E30" s="214"/>
+      <c r="F30" s="214"/>
+      <c r="G30" s="214"/>
+      <c r="H30" s="214"/>
+      <c r="I30" s="214"/>
+      <c r="J30" s="215"/>
+      <c r="K30" s="195" t="s">
         <v>56</v>
       </c>
       <c r="L30" s="159">
@@ -13491,15 +13857,15 @@
     </row>
     <row r="31" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="222"/>
-      <c r="D31" s="223"/>
-      <c r="E31" s="223"/>
-      <c r="F31" s="223"/>
-      <c r="G31" s="223"/>
-      <c r="H31" s="223"/>
-      <c r="I31" s="223"/>
-      <c r="J31" s="224"/>
-      <c r="K31" s="169"/>
+      <c r="C31" s="216"/>
+      <c r="D31" s="217"/>
+      <c r="E31" s="217"/>
+      <c r="F31" s="217"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="217"/>
+      <c r="I31" s="217"/>
+      <c r="J31" s="218"/>
+      <c r="K31" s="196"/>
       <c r="L31" s="157" t="s">
         <v>38</v>
       </c>
@@ -13585,17 +13951,17 @@
     </row>
     <row r="32" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="190" t="s">
+      <c r="C32" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="185"/>
-      <c r="E32" s="185"/>
-      <c r="F32" s="185"/>
-      <c r="G32" s="185"/>
-      <c r="H32" s="185"/>
-      <c r="I32" s="185"/>
-      <c r="J32" s="221"/>
-      <c r="K32" s="168" t="s">
+      <c r="D32" s="214"/>
+      <c r="E32" s="214"/>
+      <c r="F32" s="214"/>
+      <c r="G32" s="214"/>
+      <c r="H32" s="214"/>
+      <c r="I32" s="214"/>
+      <c r="J32" s="215"/>
+      <c r="K32" s="195" t="s">
         <v>56</v>
       </c>
       <c r="L32" s="159">
@@ -13683,15 +14049,15 @@
     </row>
     <row r="33" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="222"/>
-      <c r="D33" s="223"/>
-      <c r="E33" s="223"/>
-      <c r="F33" s="223"/>
-      <c r="G33" s="223"/>
-      <c r="H33" s="223"/>
-      <c r="I33" s="223"/>
-      <c r="J33" s="224"/>
-      <c r="K33" s="169"/>
+      <c r="C33" s="216"/>
+      <c r="D33" s="217"/>
+      <c r="E33" s="217"/>
+      <c r="F33" s="217"/>
+      <c r="G33" s="217"/>
+      <c r="H33" s="217"/>
+      <c r="I33" s="217"/>
+      <c r="J33" s="218"/>
+      <c r="K33" s="196"/>
       <c r="L33" s="157" t="s">
         <v>38</v>
       </c>
@@ -13777,17 +14143,17 @@
     </row>
     <row r="34" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="190" t="s">
+      <c r="C34" s="213" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185"/>
-      <c r="F34" s="185"/>
-      <c r="G34" s="185"/>
-      <c r="H34" s="185"/>
-      <c r="I34" s="185"/>
-      <c r="J34" s="221"/>
-      <c r="K34" s="168" t="s">
+      <c r="D34" s="214"/>
+      <c r="E34" s="214"/>
+      <c r="F34" s="214"/>
+      <c r="G34" s="214"/>
+      <c r="H34" s="214"/>
+      <c r="I34" s="214"/>
+      <c r="J34" s="215"/>
+      <c r="K34" s="195" t="s">
         <v>56</v>
       </c>
       <c r="L34" s="159">
@@ -13875,15 +14241,15 @@
     </row>
     <row r="35" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="222"/>
-      <c r="D35" s="223"/>
-      <c r="E35" s="223"/>
-      <c r="F35" s="223"/>
-      <c r="G35" s="223"/>
-      <c r="H35" s="223"/>
-      <c r="I35" s="223"/>
-      <c r="J35" s="224"/>
-      <c r="K35" s="169"/>
+      <c r="C35" s="216"/>
+      <c r="D35" s="217"/>
+      <c r="E35" s="217"/>
+      <c r="F35" s="217"/>
+      <c r="G35" s="217"/>
+      <c r="H35" s="217"/>
+      <c r="I35" s="217"/>
+      <c r="J35" s="218"/>
+      <c r="K35" s="196"/>
       <c r="L35" s="157" t="s">
         <v>38</v>
       </c>
@@ -13969,20 +14335,20 @@
     </row>
     <row r="36" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="190" t="s">
+      <c r="C36" s="213" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="185"/>
-      <c r="E36" s="185"/>
-      <c r="F36" s="185"/>
-      <c r="G36" s="185"/>
-      <c r="H36" s="185"/>
-      <c r="I36" s="185"/>
-      <c r="J36" s="221"/>
-      <c r="K36" s="168" t="s">
+      <c r="D36" s="214"/>
+      <c r="E36" s="214"/>
+      <c r="F36" s="214"/>
+      <c r="G36" s="214"/>
+      <c r="H36" s="214"/>
+      <c r="I36" s="214"/>
+      <c r="J36" s="215"/>
+      <c r="K36" s="195" t="s">
         <v>57</v>
       </c>
-      <c r="L36" s="178">
+      <c r="L36" s="205">
         <v>0.7</v>
       </c>
       <c r="M36" s="81" t="s">
@@ -14067,18 +14433,18 @@
     </row>
     <row r="37" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="222"/>
-      <c r="D37" s="223"/>
-      <c r="E37" s="223"/>
-      <c r="F37" s="223"/>
-      <c r="G37" s="223"/>
-      <c r="H37" s="223"/>
-      <c r="I37" s="223"/>
-      <c r="J37" s="224"/>
-      <c r="K37" s="169" t="s">
+      <c r="C37" s="216"/>
+      <c r="D37" s="217"/>
+      <c r="E37" s="217"/>
+      <c r="F37" s="217"/>
+      <c r="G37" s="217"/>
+      <c r="H37" s="217"/>
+      <c r="I37" s="217"/>
+      <c r="J37" s="218"/>
+      <c r="K37" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="L37" s="209" t="s">
+      <c r="L37" s="212" t="s">
         <v>38</v>
       </c>
       <c r="M37" s="82" t="s">
@@ -14163,20 +14529,20 @@
     </row>
     <row r="38" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="190" t="s">
+      <c r="C38" s="213" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="185"/>
-      <c r="E38" s="185"/>
-      <c r="F38" s="185"/>
-      <c r="G38" s="185"/>
-      <c r="H38" s="185"/>
-      <c r="I38" s="185"/>
-      <c r="J38" s="221"/>
-      <c r="K38" s="168" t="s">
+      <c r="D38" s="214"/>
+      <c r="E38" s="214"/>
+      <c r="F38" s="214"/>
+      <c r="G38" s="214"/>
+      <c r="H38" s="214"/>
+      <c r="I38" s="214"/>
+      <c r="J38" s="215"/>
+      <c r="K38" s="195" t="s">
         <v>57</v>
       </c>
-      <c r="L38" s="178">
+      <c r="L38" s="205">
         <v>1</v>
       </c>
       <c r="M38" s="81" t="s">
@@ -14261,18 +14627,18 @@
     </row>
     <row r="39" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="222"/>
-      <c r="D39" s="223"/>
-      <c r="E39" s="223"/>
-      <c r="F39" s="223"/>
-      <c r="G39" s="223"/>
-      <c r="H39" s="223"/>
-      <c r="I39" s="223"/>
-      <c r="J39" s="224"/>
-      <c r="K39" s="169" t="s">
+      <c r="C39" s="216"/>
+      <c r="D39" s="217"/>
+      <c r="E39" s="217"/>
+      <c r="F39" s="217"/>
+      <c r="G39" s="217"/>
+      <c r="H39" s="217"/>
+      <c r="I39" s="217"/>
+      <c r="J39" s="218"/>
+      <c r="K39" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="L39" s="209" t="s">
+      <c r="L39" s="212" t="s">
         <v>38</v>
       </c>
       <c r="M39" s="82" t="s">
@@ -14357,16 +14723,16 @@
     </row>
     <row r="40" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="190" t="s">
+      <c r="C40" s="213" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="185"/>
-      <c r="E40" s="185"/>
-      <c r="F40" s="185"/>
-      <c r="G40" s="185"/>
-      <c r="H40" s="185"/>
-      <c r="I40" s="185"/>
-      <c r="J40" s="221"/>
+      <c r="D40" s="214"/>
+      <c r="E40" s="214"/>
+      <c r="F40" s="214"/>
+      <c r="G40" s="214"/>
+      <c r="H40" s="214"/>
+      <c r="I40" s="214"/>
+      <c r="J40" s="215"/>
       <c r="K40" s="156" t="s">
         <v>57</v>
       </c>
@@ -14455,14 +14821,14 @@
     </row>
     <row r="41" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="222"/>
-      <c r="D41" s="223"/>
-      <c r="E41" s="223"/>
-      <c r="F41" s="223"/>
-      <c r="G41" s="223"/>
-      <c r="H41" s="223"/>
-      <c r="I41" s="223"/>
-      <c r="J41" s="224"/>
+      <c r="C41" s="216"/>
+      <c r="D41" s="217"/>
+      <c r="E41" s="217"/>
+      <c r="F41" s="217"/>
+      <c r="G41" s="217"/>
+      <c r="H41" s="217"/>
+      <c r="I41" s="217"/>
+      <c r="J41" s="218"/>
       <c r="K41" s="157" t="s">
         <v>14</v>
       </c>
@@ -14551,20 +14917,20 @@
     </row>
     <row r="42" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="190" t="s">
+      <c r="C42" s="213" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="185"/>
-      <c r="E42" s="185"/>
-      <c r="F42" s="185"/>
-      <c r="G42" s="185"/>
-      <c r="H42" s="185"/>
-      <c r="I42" s="185"/>
-      <c r="J42" s="221"/>
-      <c r="K42" s="168" t="s">
+      <c r="D42" s="214"/>
+      <c r="E42" s="214"/>
+      <c r="F42" s="214"/>
+      <c r="G42" s="214"/>
+      <c r="H42" s="214"/>
+      <c r="I42" s="214"/>
+      <c r="J42" s="215"/>
+      <c r="K42" s="195" t="s">
         <v>57</v>
       </c>
-      <c r="L42" s="178">
+      <c r="L42" s="205">
         <v>1</v>
       </c>
       <c r="M42" s="81" t="s">
@@ -14649,18 +15015,18 @@
     </row>
     <row r="43" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
-      <c r="C43" s="222"/>
-      <c r="D43" s="223"/>
-      <c r="E43" s="223"/>
-      <c r="F43" s="223"/>
-      <c r="G43" s="223"/>
-      <c r="H43" s="223"/>
-      <c r="I43" s="223"/>
-      <c r="J43" s="224"/>
-      <c r="K43" s="169" t="s">
+      <c r="C43" s="216"/>
+      <c r="D43" s="217"/>
+      <c r="E43" s="217"/>
+      <c r="F43" s="217"/>
+      <c r="G43" s="217"/>
+      <c r="H43" s="217"/>
+      <c r="I43" s="217"/>
+      <c r="J43" s="218"/>
+      <c r="K43" s="196" t="s">
         <v>14</v>
       </c>
-      <c r="L43" s="209" t="s">
+      <c r="L43" s="212" t="s">
         <v>38</v>
       </c>
       <c r="M43" s="82" t="s">
@@ -15228,24 +15594,24 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="172" t="s">
+      <c r="C30" s="199" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173" t="s">
+      <c r="D30" s="200"/>
+      <c r="E30" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="173" t="s">
+      <c r="F30" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="168" t="s">
+      <c r="G30" s="200"/>
+      <c r="H30" s="200"/>
+      <c r="I30" s="200"/>
+      <c r="J30" s="201"/>
+      <c r="K30" s="195" t="s">
         <v>10</v>
       </c>
-      <c r="L30" s="170">
+      <c r="L30" s="197">
         <v>0</v>
       </c>
       <c r="M30" s="45" t="s">
@@ -15269,16 +15635,16 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="169"/>
-      <c r="L31" s="171"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="203"/>
+      <c r="G31" s="203"/>
+      <c r="H31" s="203"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="204"/>
+      <c r="K31" s="196"/>
+      <c r="L31" s="198"/>
       <c r="M31" s="44" t="s">
         <v>47</v>
       </c>
@@ -15300,24 +15666,24 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="172" t="s">
+      <c r="C32" s="199" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173" t="s">
+      <c r="D32" s="200"/>
+      <c r="E32" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="173" t="s">
+      <c r="F32" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="173"/>
-      <c r="H32" s="173"/>
-      <c r="I32" s="173"/>
-      <c r="J32" s="174"/>
-      <c r="K32" s="168" t="s">
+      <c r="G32" s="200"/>
+      <c r="H32" s="200"/>
+      <c r="I32" s="200"/>
+      <c r="J32" s="201"/>
+      <c r="K32" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="L32" s="170">
+      <c r="L32" s="197">
         <v>0</v>
       </c>
       <c r="M32" s="45" t="s">
@@ -15341,16 +15707,16 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="175"/>
-      <c r="D33" s="176"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="176"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="176"/>
-      <c r="I33" s="176"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="169"/>
-      <c r="L33" s="171"/>
+      <c r="C33" s="202"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="203"/>
+      <c r="G33" s="203"/>
+      <c r="H33" s="203"/>
+      <c r="I33" s="203"/>
+      <c r="J33" s="204"/>
+      <c r="K33" s="196"/>
+      <c r="L33" s="198"/>
       <c r="M33" s="44" t="s">
         <v>47</v>
       </c>
@@ -15372,24 +15738,24 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="172" t="s">
+      <c r="C34" s="199" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="173"/>
-      <c r="E34" s="173" t="s">
+      <c r="D34" s="200"/>
+      <c r="E34" s="200" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="173" t="s">
+      <c r="F34" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="173"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="173"/>
-      <c r="J34" s="174"/>
-      <c r="K34" s="168" t="s">
+      <c r="G34" s="200"/>
+      <c r="H34" s="200"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="201"/>
+      <c r="K34" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="L34" s="170">
+      <c r="L34" s="197">
         <v>0</v>
       </c>
       <c r="M34" s="45" t="s">
@@ -15413,16 +15779,16 @@
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="176"/>
-      <c r="E35" s="176"/>
-      <c r="F35" s="176"/>
-      <c r="G35" s="176"/>
-      <c r="H35" s="176"/>
-      <c r="I35" s="176"/>
-      <c r="J35" s="177"/>
-      <c r="K35" s="169"/>
-      <c r="L35" s="171"/>
+      <c r="C35" s="202"/>
+      <c r="D35" s="203"/>
+      <c r="E35" s="203"/>
+      <c r="F35" s="203"/>
+      <c r="G35" s="203"/>
+      <c r="H35" s="203"/>
+      <c r="I35" s="203"/>
+      <c r="J35" s="204"/>
+      <c r="K35" s="196"/>
+      <c r="L35" s="198"/>
       <c r="M35" s="44" t="s">
         <v>47</v>
       </c>
@@ -15444,24 +15810,24 @@
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="191" t="s">
+      <c r="C36" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="173"/>
-      <c r="E36" s="173" t="s">
+      <c r="D36" s="200"/>
+      <c r="E36" s="200" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="173" t="s">
+      <c r="F36" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="173"/>
-      <c r="H36" s="173"/>
-      <c r="I36" s="173"/>
-      <c r="J36" s="174"/>
-      <c r="K36" s="168" t="s">
+      <c r="G36" s="200"/>
+      <c r="H36" s="200"/>
+      <c r="I36" s="200"/>
+      <c r="J36" s="201"/>
+      <c r="K36" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="L36" s="170">
+      <c r="L36" s="197">
         <v>0</v>
       </c>
       <c r="M36" s="45" t="s">
@@ -15485,16 +15851,16 @@
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="175"/>
-      <c r="D37" s="176"/>
-      <c r="E37" s="176"/>
-      <c r="F37" s="176"/>
-      <c r="G37" s="176"/>
-      <c r="H37" s="176"/>
-      <c r="I37" s="176"/>
-      <c r="J37" s="177"/>
-      <c r="K37" s="169"/>
-      <c r="L37" s="171"/>
+      <c r="C37" s="202"/>
+      <c r="D37" s="203"/>
+      <c r="E37" s="203"/>
+      <c r="F37" s="203"/>
+      <c r="G37" s="203"/>
+      <c r="H37" s="203"/>
+      <c r="I37" s="203"/>
+      <c r="J37" s="204"/>
+      <c r="K37" s="196"/>
+      <c r="L37" s="198"/>
       <c r="M37" s="44" t="s">
         <v>47</v>
       </c>
@@ -15516,24 +15882,24 @@
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="172" t="s">
+      <c r="C38" s="199" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="173"/>
-      <c r="E38" s="173" t="s">
+      <c r="D38" s="200"/>
+      <c r="E38" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="173" t="s">
+      <c r="F38" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="173"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="173"/>
-      <c r="J38" s="174"/>
-      <c r="K38" s="168" t="s">
+      <c r="G38" s="200"/>
+      <c r="H38" s="200"/>
+      <c r="I38" s="200"/>
+      <c r="J38" s="201"/>
+      <c r="K38" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="L38" s="170">
+      <c r="L38" s="197">
         <v>0</v>
       </c>
       <c r="M38" s="45" t="s">
@@ -15557,16 +15923,16 @@
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="175"/>
-      <c r="D39" s="176"/>
-      <c r="E39" s="176"/>
-      <c r="F39" s="176"/>
-      <c r="G39" s="176"/>
-      <c r="H39" s="176"/>
-      <c r="I39" s="176"/>
-      <c r="J39" s="177"/>
-      <c r="K39" s="169"/>
-      <c r="L39" s="171"/>
+      <c r="C39" s="202"/>
+      <c r="D39" s="203"/>
+      <c r="E39" s="203"/>
+      <c r="F39" s="203"/>
+      <c r="G39" s="203"/>
+      <c r="H39" s="203"/>
+      <c r="I39" s="203"/>
+      <c r="J39" s="204"/>
+      <c r="K39" s="196"/>
+      <c r="L39" s="198"/>
       <c r="M39" s="44" t="s">
         <v>47</v>
       </c>
@@ -15588,24 +15954,24 @@
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="172" t="s">
+      <c r="C40" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="173"/>
-      <c r="E40" s="173" t="s">
+      <c r="D40" s="200"/>
+      <c r="E40" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="173" t="s">
+      <c r="F40" s="200" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="173"/>
-      <c r="H40" s="173"/>
-      <c r="I40" s="173"/>
-      <c r="J40" s="174"/>
-      <c r="K40" s="168" t="s">
+      <c r="G40" s="200"/>
+      <c r="H40" s="200"/>
+      <c r="I40" s="200"/>
+      <c r="J40" s="201"/>
+      <c r="K40" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="L40" s="170">
+      <c r="L40" s="197">
         <v>0</v>
       </c>
       <c r="M40" s="45" t="s">
@@ -15629,16 +15995,16 @@
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="175"/>
-      <c r="D41" s="176"/>
-      <c r="E41" s="176"/>
-      <c r="F41" s="176"/>
-      <c r="G41" s="176"/>
-      <c r="H41" s="176"/>
-      <c r="I41" s="176"/>
-      <c r="J41" s="177"/>
-      <c r="K41" s="169"/>
-      <c r="L41" s="171"/>
+      <c r="C41" s="202"/>
+      <c r="D41" s="203"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="203"/>
+      <c r="G41" s="203"/>
+      <c r="H41" s="203"/>
+      <c r="I41" s="203"/>
+      <c r="J41" s="204"/>
+      <c r="K41" s="196"/>
+      <c r="L41" s="198"/>
       <c r="M41" s="44" t="s">
         <v>47</v>
       </c>
@@ -15660,24 +16026,24 @@
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="172" t="s">
+      <c r="C42" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="173"/>
-      <c r="E42" s="173" t="s">
+      <c r="D42" s="200"/>
+      <c r="E42" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="173" t="s">
+      <c r="F42" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="G42" s="173"/>
-      <c r="H42" s="173"/>
-      <c r="I42" s="173"/>
-      <c r="J42" s="174"/>
-      <c r="K42" s="168" t="s">
+      <c r="G42" s="200"/>
+      <c r="H42" s="200"/>
+      <c r="I42" s="200"/>
+      <c r="J42" s="201"/>
+      <c r="K42" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="170">
+      <c r="L42" s="197">
         <v>0</v>
       </c>
       <c r="M42" s="45" t="s">
@@ -15701,16 +16067,16 @@
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
-      <c r="C43" s="175"/>
-      <c r="D43" s="176"/>
-      <c r="E43" s="176"/>
-      <c r="F43" s="176"/>
-      <c r="G43" s="176"/>
-      <c r="H43" s="176"/>
-      <c r="I43" s="176"/>
-      <c r="J43" s="177"/>
-      <c r="K43" s="169"/>
-      <c r="L43" s="171"/>
+      <c r="C43" s="202"/>
+      <c r="D43" s="203"/>
+      <c r="E43" s="203"/>
+      <c r="F43" s="203"/>
+      <c r="G43" s="203"/>
+      <c r="H43" s="203"/>
+      <c r="I43" s="203"/>
+      <c r="J43" s="204"/>
+      <c r="K43" s="196"/>
+      <c r="L43" s="198"/>
       <c r="M43" s="44" t="s">
         <v>47</v>
       </c>
@@ -15732,24 +16098,24 @@
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
-      <c r="C44" s="172" t="s">
+      <c r="C44" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="173"/>
-      <c r="E44" s="173" t="s">
+      <c r="D44" s="200"/>
+      <c r="E44" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="173" t="s">
+      <c r="F44" s="200" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="173"/>
-      <c r="H44" s="173"/>
-      <c r="I44" s="173"/>
-      <c r="J44" s="174"/>
-      <c r="K44" s="168" t="s">
+      <c r="G44" s="200"/>
+      <c r="H44" s="200"/>
+      <c r="I44" s="200"/>
+      <c r="J44" s="201"/>
+      <c r="K44" s="195" t="s">
         <v>21</v>
       </c>
-      <c r="L44" s="170">
+      <c r="L44" s="197">
         <v>0</v>
       </c>
       <c r="M44" s="45" t="s">
@@ -15773,16 +16139,16 @@
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
-      <c r="C45" s="175"/>
-      <c r="D45" s="176"/>
-      <c r="E45" s="176"/>
-      <c r="F45" s="176"/>
-      <c r="G45" s="176"/>
-      <c r="H45" s="176"/>
-      <c r="I45" s="176"/>
-      <c r="J45" s="177"/>
-      <c r="K45" s="169"/>
-      <c r="L45" s="171"/>
+      <c r="C45" s="202"/>
+      <c r="D45" s="203"/>
+      <c r="E45" s="203"/>
+      <c r="F45" s="203"/>
+      <c r="G45" s="203"/>
+      <c r="H45" s="203"/>
+      <c r="I45" s="203"/>
+      <c r="J45" s="204"/>
+      <c r="K45" s="196"/>
+      <c r="L45" s="198"/>
       <c r="M45" s="44" t="s">
         <v>47</v>
       </c>
@@ -15837,24 +16203,24 @@
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B47" s="3"/>
-      <c r="C47" s="172" t="s">
+      <c r="C47" s="199" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="173"/>
-      <c r="E47" s="173" t="s">
+      <c r="D47" s="200"/>
+      <c r="E47" s="200" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="173" t="s">
+      <c r="F47" s="200" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="173"/>
-      <c r="H47" s="173"/>
-      <c r="I47" s="173"/>
-      <c r="J47" s="174"/>
-      <c r="K47" s="168" t="s">
+      <c r="G47" s="200"/>
+      <c r="H47" s="200"/>
+      <c r="I47" s="200"/>
+      <c r="J47" s="201"/>
+      <c r="K47" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="L47" s="170">
+      <c r="L47" s="197">
         <v>0</v>
       </c>
       <c r="M47" s="45" t="s">
@@ -15878,16 +16244,16 @@
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B48" s="3"/>
-      <c r="C48" s="175"/>
-      <c r="D48" s="176"/>
-      <c r="E48" s="176"/>
-      <c r="F48" s="176"/>
-      <c r="G48" s="176"/>
-      <c r="H48" s="176"/>
-      <c r="I48" s="176"/>
-      <c r="J48" s="177"/>
-      <c r="K48" s="169"/>
-      <c r="L48" s="171"/>
+      <c r="C48" s="202"/>
+      <c r="D48" s="203"/>
+      <c r="E48" s="203"/>
+      <c r="F48" s="203"/>
+      <c r="G48" s="203"/>
+      <c r="H48" s="203"/>
+      <c r="I48" s="203"/>
+      <c r="J48" s="204"/>
+      <c r="K48" s="196"/>
+      <c r="L48" s="198"/>
       <c r="M48" s="44" t="s">
         <v>47</v>
       </c>
@@ -15909,24 +16275,24 @@
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
-      <c r="C49" s="172" t="s">
+      <c r="C49" s="199" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="173"/>
-      <c r="E49" s="173" t="s">
+      <c r="D49" s="200"/>
+      <c r="E49" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="173" t="s">
+      <c r="F49" s="200" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="173"/>
-      <c r="H49" s="173"/>
-      <c r="I49" s="173"/>
-      <c r="J49" s="174"/>
-      <c r="K49" s="168" t="s">
+      <c r="G49" s="200"/>
+      <c r="H49" s="200"/>
+      <c r="I49" s="200"/>
+      <c r="J49" s="201"/>
+      <c r="K49" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="L49" s="170">
+      <c r="L49" s="197">
         <v>0</v>
       </c>
       <c r="M49" s="45" t="s">
@@ -15950,16 +16316,16 @@
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
-      <c r="C50" s="175"/>
-      <c r="D50" s="176"/>
-      <c r="E50" s="176"/>
-      <c r="F50" s="176"/>
-      <c r="G50" s="176"/>
-      <c r="H50" s="176"/>
-      <c r="I50" s="176"/>
-      <c r="J50" s="177"/>
-      <c r="K50" s="169"/>
-      <c r="L50" s="171"/>
+      <c r="C50" s="202"/>
+      <c r="D50" s="203"/>
+      <c r="E50" s="203"/>
+      <c r="F50" s="203"/>
+      <c r="G50" s="203"/>
+      <c r="H50" s="203"/>
+      <c r="I50" s="203"/>
+      <c r="J50" s="204"/>
+      <c r="K50" s="196"/>
+      <c r="L50" s="198"/>
       <c r="M50" s="44" t="s">
         <v>47</v>
       </c>
@@ -15981,24 +16347,24 @@
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
-      <c r="C51" s="172" t="s">
+      <c r="C51" s="199" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="173"/>
-      <c r="E51" s="173" t="s">
+      <c r="D51" s="200"/>
+      <c r="E51" s="200" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="173" t="s">
+      <c r="F51" s="200" t="s">
         <v>18</v>
       </c>
-      <c r="G51" s="173"/>
-      <c r="H51" s="173"/>
-      <c r="I51" s="173"/>
-      <c r="J51" s="174"/>
-      <c r="K51" s="168" t="s">
+      <c r="G51" s="200"/>
+      <c r="H51" s="200"/>
+      <c r="I51" s="200"/>
+      <c r="J51" s="201"/>
+      <c r="K51" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="L51" s="170">
+      <c r="L51" s="197">
         <v>0</v>
       </c>
       <c r="M51" s="45" t="s">
@@ -16022,16 +16388,16 @@
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
-      <c r="C52" s="175"/>
-      <c r="D52" s="176"/>
-      <c r="E52" s="176"/>
-      <c r="F52" s="176"/>
-      <c r="G52" s="176"/>
-      <c r="H52" s="176"/>
-      <c r="I52" s="176"/>
-      <c r="J52" s="177"/>
-      <c r="K52" s="169"/>
-      <c r="L52" s="171"/>
+      <c r="C52" s="202"/>
+      <c r="D52" s="203"/>
+      <c r="E52" s="203"/>
+      <c r="F52" s="203"/>
+      <c r="G52" s="203"/>
+      <c r="H52" s="203"/>
+      <c r="I52" s="203"/>
+      <c r="J52" s="204"/>
+      <c r="K52" s="196"/>
+      <c r="L52" s="198"/>
       <c r="M52" s="44" t="s">
         <v>47</v>
       </c>
@@ -16053,24 +16419,24 @@
     </row>
     <row r="53" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B53" s="3"/>
-      <c r="C53" s="191" t="s">
+      <c r="C53" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="173"/>
-      <c r="E53" s="173" t="s">
+      <c r="D53" s="200"/>
+      <c r="E53" s="200" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="173" t="s">
+      <c r="F53" s="200" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="173"/>
-      <c r="H53" s="173"/>
-      <c r="I53" s="173"/>
-      <c r="J53" s="174"/>
-      <c r="K53" s="168" t="s">
+      <c r="G53" s="200"/>
+      <c r="H53" s="200"/>
+      <c r="I53" s="200"/>
+      <c r="J53" s="201"/>
+      <c r="K53" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="L53" s="170">
+      <c r="L53" s="197">
         <v>0</v>
       </c>
       <c r="M53" s="45" t="s">
@@ -16094,16 +16460,16 @@
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B54" s="3"/>
-      <c r="C54" s="175"/>
-      <c r="D54" s="176"/>
-      <c r="E54" s="176"/>
-      <c r="F54" s="176"/>
-      <c r="G54" s="176"/>
-      <c r="H54" s="176"/>
-      <c r="I54" s="176"/>
-      <c r="J54" s="177"/>
-      <c r="K54" s="169"/>
-      <c r="L54" s="171"/>
+      <c r="C54" s="202"/>
+      <c r="D54" s="203"/>
+      <c r="E54" s="203"/>
+      <c r="F54" s="203"/>
+      <c r="G54" s="203"/>
+      <c r="H54" s="203"/>
+      <c r="I54" s="203"/>
+      <c r="J54" s="204"/>
+      <c r="K54" s="196"/>
+      <c r="L54" s="198"/>
       <c r="M54" s="44" t="s">
         <v>47</v>
       </c>
@@ -16125,24 +16491,24 @@
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B55" s="3"/>
-      <c r="C55" s="172" t="s">
+      <c r="C55" s="199" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="173"/>
-      <c r="E55" s="173" t="s">
+      <c r="D55" s="200"/>
+      <c r="E55" s="200" t="s">
         <v>33</v>
       </c>
-      <c r="F55" s="173" t="s">
+      <c r="F55" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="G55" s="173"/>
-      <c r="H55" s="173"/>
-      <c r="I55" s="173"/>
-      <c r="J55" s="174"/>
-      <c r="K55" s="168" t="s">
+      <c r="G55" s="200"/>
+      <c r="H55" s="200"/>
+      <c r="I55" s="200"/>
+      <c r="J55" s="201"/>
+      <c r="K55" s="195" t="s">
         <v>21</v>
       </c>
-      <c r="L55" s="170">
+      <c r="L55" s="197">
         <v>0</v>
       </c>
       <c r="M55" s="45" t="s">
@@ -16166,16 +16532,16 @@
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B56" s="3"/>
-      <c r="C56" s="175"/>
-      <c r="D56" s="176"/>
-      <c r="E56" s="176"/>
-      <c r="F56" s="176"/>
-      <c r="G56" s="176"/>
-      <c r="H56" s="176"/>
-      <c r="I56" s="176"/>
-      <c r="J56" s="177"/>
-      <c r="K56" s="169"/>
-      <c r="L56" s="171"/>
+      <c r="C56" s="202"/>
+      <c r="D56" s="203"/>
+      <c r="E56" s="203"/>
+      <c r="F56" s="203"/>
+      <c r="G56" s="203"/>
+      <c r="H56" s="203"/>
+      <c r="I56" s="203"/>
+      <c r="J56" s="204"/>
+      <c r="K56" s="196"/>
+      <c r="L56" s="198"/>
       <c r="M56" s="44" t="s">
         <v>47</v>
       </c>
@@ -16197,24 +16563,24 @@
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B57" s="3"/>
-      <c r="C57" s="172" t="s">
+      <c r="C57" s="199" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="173"/>
-      <c r="E57" s="173" t="s">
+      <c r="D57" s="200"/>
+      <c r="E57" s="200" t="s">
         <v>34</v>
       </c>
-      <c r="F57" s="173" t="s">
+      <c r="F57" s="200" t="s">
         <v>24</v>
       </c>
-      <c r="G57" s="173"/>
-      <c r="H57" s="173"/>
-      <c r="I57" s="173"/>
-      <c r="J57" s="174"/>
-      <c r="K57" s="168" t="s">
+      <c r="G57" s="200"/>
+      <c r="H57" s="200"/>
+      <c r="I57" s="200"/>
+      <c r="J57" s="201"/>
+      <c r="K57" s="195" t="s">
         <v>21</v>
       </c>
-      <c r="L57" s="170">
+      <c r="L57" s="197">
         <v>0</v>
       </c>
       <c r="M57" s="45" t="s">
@@ -16238,16 +16604,16 @@
     </row>
     <row r="58" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B58" s="3"/>
-      <c r="C58" s="175"/>
-      <c r="D58" s="176"/>
-      <c r="E58" s="176"/>
-      <c r="F58" s="176"/>
-      <c r="G58" s="176"/>
-      <c r="H58" s="176"/>
-      <c r="I58" s="176"/>
-      <c r="J58" s="177"/>
-      <c r="K58" s="169"/>
-      <c r="L58" s="171"/>
+      <c r="C58" s="202"/>
+      <c r="D58" s="203"/>
+      <c r="E58" s="203"/>
+      <c r="F58" s="203"/>
+      <c r="G58" s="203"/>
+      <c r="H58" s="203"/>
+      <c r="I58" s="203"/>
+      <c r="J58" s="204"/>
+      <c r="K58" s="196"/>
+      <c r="L58" s="198"/>
       <c r="M58" s="44" t="s">
         <v>47</v>
       </c>
@@ -16269,24 +16635,24 @@
     </row>
     <row r="59" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B59" s="3"/>
-      <c r="C59" s="172" t="s">
+      <c r="C59" s="199" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="173"/>
-      <c r="E59" s="173" t="s">
+      <c r="D59" s="200"/>
+      <c r="E59" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="F59" s="173" t="s">
+      <c r="F59" s="200" t="s">
         <v>25</v>
       </c>
-      <c r="G59" s="173"/>
-      <c r="H59" s="173"/>
-      <c r="I59" s="173"/>
-      <c r="J59" s="174"/>
-      <c r="K59" s="168" t="s">
+      <c r="G59" s="200"/>
+      <c r="H59" s="200"/>
+      <c r="I59" s="200"/>
+      <c r="J59" s="201"/>
+      <c r="K59" s="195" t="s">
         <v>21</v>
       </c>
-      <c r="L59" s="170">
+      <c r="L59" s="197">
         <v>0</v>
       </c>
       <c r="M59" s="45" t="s">
@@ -16310,16 +16676,16 @@
     </row>
     <row r="60" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B60" s="3"/>
-      <c r="C60" s="175"/>
-      <c r="D60" s="176"/>
-      <c r="E60" s="176"/>
-      <c r="F60" s="176"/>
-      <c r="G60" s="176"/>
-      <c r="H60" s="176"/>
-      <c r="I60" s="176"/>
-      <c r="J60" s="177"/>
-      <c r="K60" s="169"/>
-      <c r="L60" s="171"/>
+      <c r="C60" s="202"/>
+      <c r="D60" s="203"/>
+      <c r="E60" s="203"/>
+      <c r="F60" s="203"/>
+      <c r="G60" s="203"/>
+      <c r="H60" s="203"/>
+      <c r="I60" s="203"/>
+      <c r="J60" s="204"/>
+      <c r="K60" s="196"/>
+      <c r="L60" s="198"/>
       <c r="M60" s="44" t="s">
         <v>47</v>
       </c>
@@ -16341,24 +16707,24 @@
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B61" s="3"/>
-      <c r="C61" s="172" t="s">
+      <c r="C61" s="199" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="173"/>
-      <c r="E61" s="173" t="s">
+      <c r="D61" s="200"/>
+      <c r="E61" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="F61" s="173" t="s">
+      <c r="F61" s="200" t="s">
         <v>26</v>
       </c>
-      <c r="G61" s="173"/>
-      <c r="H61" s="173"/>
-      <c r="I61" s="173"/>
-      <c r="J61" s="174"/>
-      <c r="K61" s="168" t="s">
+      <c r="G61" s="200"/>
+      <c r="H61" s="200"/>
+      <c r="I61" s="200"/>
+      <c r="J61" s="201"/>
+      <c r="K61" s="195" t="s">
         <v>22</v>
       </c>
-      <c r="L61" s="170">
+      <c r="L61" s="197">
         <v>0</v>
       </c>
       <c r="M61" s="45" t="s">
@@ -16382,16 +16748,16 @@
     </row>
     <row r="62" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B62" s="3"/>
-      <c r="C62" s="175"/>
-      <c r="D62" s="176"/>
-      <c r="E62" s="176"/>
-      <c r="F62" s="176"/>
-      <c r="G62" s="176"/>
-      <c r="H62" s="176"/>
-      <c r="I62" s="176"/>
-      <c r="J62" s="177"/>
-      <c r="K62" s="169"/>
-      <c r="L62" s="171"/>
+      <c r="C62" s="202"/>
+      <c r="D62" s="203"/>
+      <c r="E62" s="203"/>
+      <c r="F62" s="203"/>
+      <c r="G62" s="203"/>
+      <c r="H62" s="203"/>
+      <c r="I62" s="203"/>
+      <c r="J62" s="204"/>
+      <c r="K62" s="196"/>
+      <c r="L62" s="198"/>
       <c r="M62" s="44" t="s">
         <v>47</v>
       </c>
@@ -16718,20 +17084,20 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="191" t="s">
+      <c r="C30" s="223" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="173"/>
-      <c r="E30" s="173"/>
-      <c r="F30" s="173"/>
-      <c r="G30" s="173"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="173"/>
-      <c r="J30" s="174"/>
-      <c r="K30" s="168" t="s">
+      <c r="D30" s="200"/>
+      <c r="E30" s="200"/>
+      <c r="F30" s="200"/>
+      <c r="G30" s="200"/>
+      <c r="H30" s="200"/>
+      <c r="I30" s="200"/>
+      <c r="J30" s="201"/>
+      <c r="K30" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="178">
+      <c r="L30" s="205">
         <v>0</v>
       </c>
       <c r="M30" s="45" t="s">
@@ -16755,16 +17121,16 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="175"/>
-      <c r="D31" s="176"/>
-      <c r="E31" s="176"/>
-      <c r="F31" s="176"/>
-      <c r="G31" s="176"/>
-      <c r="H31" s="176"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="177"/>
-      <c r="K31" s="169"/>
-      <c r="L31" s="169"/>
+      <c r="C31" s="202"/>
+      <c r="D31" s="203"/>
+      <c r="E31" s="203"/>
+      <c r="F31" s="203"/>
+      <c r="G31" s="203"/>
+      <c r="H31" s="203"/>
+      <c r="I31" s="203"/>
+      <c r="J31" s="204"/>
+      <c r="K31" s="196"/>
+      <c r="L31" s="196"/>
       <c r="M31" s="44" t="s">
         <v>47</v>
       </c>
@@ -16819,20 +17185,20 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="191" t="s">
+      <c r="C33" s="223" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="173"/>
-      <c r="E33" s="173"/>
-      <c r="F33" s="173"/>
-      <c r="G33" s="173"/>
-      <c r="H33" s="173"/>
-      <c r="I33" s="173"/>
-      <c r="J33" s="174"/>
-      <c r="K33" s="168" t="s">
+      <c r="D33" s="200"/>
+      <c r="E33" s="200"/>
+      <c r="F33" s="200"/>
+      <c r="G33" s="200"/>
+      <c r="H33" s="200"/>
+      <c r="I33" s="200"/>
+      <c r="J33" s="201"/>
+      <c r="K33" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="178">
+      <c r="L33" s="205">
         <v>0</v>
       </c>
       <c r="M33" s="45" t="s">
@@ -16856,16 +17222,16 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="176"/>
-      <c r="E34" s="176"/>
-      <c r="F34" s="176"/>
-      <c r="G34" s="176"/>
-      <c r="H34" s="176"/>
-      <c r="I34" s="176"/>
-      <c r="J34" s="177"/>
-      <c r="K34" s="169"/>
-      <c r="L34" s="169"/>
+      <c r="C34" s="202"/>
+      <c r="D34" s="203"/>
+      <c r="E34" s="203"/>
+      <c r="F34" s="203"/>
+      <c r="G34" s="203"/>
+      <c r="H34" s="203"/>
+      <c r="I34" s="203"/>
+      <c r="J34" s="204"/>
+      <c r="K34" s="196"/>
+      <c r="L34" s="196"/>
       <c r="M34" s="44" t="s">
         <v>47</v>
       </c>
@@ -16887,20 +17253,20 @@
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="172" t="s">
+      <c r="C35" s="199" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="173"/>
-      <c r="E35" s="173"/>
-      <c r="F35" s="173"/>
-      <c r="G35" s="173"/>
-      <c r="H35" s="173"/>
-      <c r="I35" s="173"/>
-      <c r="J35" s="174"/>
-      <c r="K35" s="168" t="s">
+      <c r="D35" s="200"/>
+      <c r="E35" s="200"/>
+      <c r="F35" s="200"/>
+      <c r="G35" s="200"/>
+      <c r="H35" s="200"/>
+      <c r="I35" s="200"/>
+      <c r="J35" s="201"/>
+      <c r="K35" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="L35" s="178">
+      <c r="L35" s="205">
         <v>0</v>
       </c>
       <c r="M35" s="45" t="s">
@@ -16924,16 +17290,16 @@
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="175"/>
-      <c r="D36" s="176"/>
-      <c r="E36" s="176"/>
-      <c r="F36" s="176"/>
-      <c r="G36" s="176"/>
-      <c r="H36" s="176"/>
-      <c r="I36" s="176"/>
-      <c r="J36" s="177"/>
-      <c r="K36" s="169"/>
-      <c r="L36" s="169"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="203"/>
+      <c r="E36" s="203"/>
+      <c r="F36" s="203"/>
+      <c r="G36" s="203"/>
+      <c r="H36" s="203"/>
+      <c r="I36" s="203"/>
+      <c r="J36" s="204"/>
+      <c r="K36" s="196"/>
+      <c r="L36" s="196"/>
       <c r="M36" s="44" t="s">
         <v>47</v>
       </c>
@@ -17193,20 +17559,20 @@
     </row>
     <row r="29" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="192" t="s">
+      <c r="C29" s="224" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="180"/>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="181"/>
-      <c r="K29" s="168" t="s">
+      <c r="D29" s="207"/>
+      <c r="E29" s="207"/>
+      <c r="F29" s="207"/>
+      <c r="G29" s="207"/>
+      <c r="H29" s="207"/>
+      <c r="I29" s="207"/>
+      <c r="J29" s="208"/>
+      <c r="K29" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="178">
+      <c r="L29" s="205">
         <v>0</v>
       </c>
       <c r="M29" s="45" t="s">
@@ -17230,16 +17596,16 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="182"/>
-      <c r="D30" s="183"/>
-      <c r="E30" s="183"/>
-      <c r="F30" s="183"/>
-      <c r="G30" s="183"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="183"/>
-      <c r="J30" s="184"/>
-      <c r="K30" s="169"/>
-      <c r="L30" s="169"/>
+      <c r="C30" s="209"/>
+      <c r="D30" s="210"/>
+      <c r="E30" s="210"/>
+      <c r="F30" s="210"/>
+      <c r="G30" s="210"/>
+      <c r="H30" s="210"/>
+      <c r="I30" s="210"/>
+      <c r="J30" s="211"/>
+      <c r="K30" s="196"/>
+      <c r="L30" s="196"/>
       <c r="M30" s="44" t="s">
         <v>47</v>
       </c>
@@ -17261,20 +17627,20 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="179" t="s">
+      <c r="C31" s="206" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="180"/>
-      <c r="E31" s="180"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="181"/>
-      <c r="K31" s="168" t="s">
+      <c r="D31" s="207"/>
+      <c r="E31" s="207"/>
+      <c r="F31" s="207"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="207"/>
+      <c r="I31" s="207"/>
+      <c r="J31" s="208"/>
+      <c r="K31" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="L31" s="178">
+      <c r="L31" s="205">
         <v>0</v>
       </c>
       <c r="M31" s="45" t="s">
@@ -17298,16 +17664,16 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="182"/>
-      <c r="D32" s="183"/>
-      <c r="E32" s="183"/>
-      <c r="F32" s="183"/>
-      <c r="G32" s="183"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="183"/>
-      <c r="J32" s="184"/>
-      <c r="K32" s="169"/>
-      <c r="L32" s="169"/>
+      <c r="C32" s="209"/>
+      <c r="D32" s="210"/>
+      <c r="E32" s="210"/>
+      <c r="F32" s="210"/>
+      <c r="G32" s="210"/>
+      <c r="H32" s="210"/>
+      <c r="I32" s="210"/>
+      <c r="J32" s="211"/>
+      <c r="K32" s="196"/>
+      <c r="L32" s="196"/>
       <c r="M32" s="44" t="s">
         <v>47</v>
       </c>
@@ -17329,20 +17695,20 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="179" t="s">
+      <c r="C33" s="206" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="180"/>
-      <c r="E33" s="180"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="180"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="180"/>
-      <c r="J33" s="181"/>
-      <c r="K33" s="168" t="s">
+      <c r="D33" s="207"/>
+      <c r="E33" s="207"/>
+      <c r="F33" s="207"/>
+      <c r="G33" s="207"/>
+      <c r="H33" s="207"/>
+      <c r="I33" s="207"/>
+      <c r="J33" s="208"/>
+      <c r="K33" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="178">
+      <c r="L33" s="205">
         <v>0</v>
       </c>
       <c r="M33" s="45" t="s">
@@ -17366,16 +17732,16 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="182"/>
-      <c r="D34" s="183"/>
-      <c r="E34" s="183"/>
-      <c r="F34" s="183"/>
-      <c r="G34" s="183"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="183"/>
-      <c r="J34" s="184"/>
-      <c r="K34" s="169"/>
-      <c r="L34" s="169"/>
+      <c r="C34" s="209"/>
+      <c r="D34" s="210"/>
+      <c r="E34" s="210"/>
+      <c r="F34" s="210"/>
+      <c r="G34" s="210"/>
+      <c r="H34" s="210"/>
+      <c r="I34" s="210"/>
+      <c r="J34" s="211"/>
+      <c r="K34" s="196"/>
+      <c r="L34" s="196"/>
       <c r="M34" s="44" t="s">
         <v>47</v>
       </c>

--- a/グループ開発スケジュール.xlsx
+++ b/グループ開発スケジュール.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\グループ開発ローカルリポジトリー\groupA_master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FC5DB6-3B64-45EE-B249-FA70BA989CB8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C76E3709-16D6-4660-B581-957DCF0E3F90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3675" yWindow="855" windowWidth="14940" windowHeight="10410" tabRatio="560" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="137">
   <si>
     <t>No.</t>
   </si>
@@ -679,71 +679,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15.通知画面</t>
-    <rPh sb="3" eb="5">
-      <t>つうち</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>がめん</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16.ユーザー情報修正入力画面</t>
-    <rPh sb="7" eb="9">
-      <t>じょうほう</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>しゅうせい</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>にゅうりょく</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>がめん</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>17.ユーザー情報修正確認画面</t>
-    <rPh sb="7" eb="9">
-      <t>じょうほう</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>しゅうせい</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>かくにん</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>がめん</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18ユーザー.削除画面</t>
-    <rPh sb="7" eb="9">
-      <t>さくじょ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>がめん</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19.ユーザー削除確認画面</t>
-    <rPh sb="7" eb="9">
-      <t>さくじょ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>かくにん</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>がめん</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>山本</t>
     <rPh sb="0" eb="2">
       <t>やまもと</t>
@@ -782,6 +717,109 @@
     <t>金城</t>
     <rPh sb="0" eb="2">
       <t>きんじょう</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.ユーザー情報修正入力画面</t>
+    <rPh sb="7" eb="9">
+      <t>じょうほう</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>しゅうせい</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>にゅうりょく</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>がめん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.ユーザー情報修正確認画面</t>
+    <rPh sb="7" eb="9">
+      <t>じょうほう</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>しゅうせい</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>かくにん</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>がめん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17ユーザー.削除画面</t>
+    <rPh sb="7" eb="9">
+      <t>さくじょ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>がめん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.ユーザー削除確認画面</t>
+    <rPh sb="7" eb="9">
+      <t>さくじょ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>かくにん</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>がめん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.忘れ防止通知画面</t>
+    <rPh sb="3" eb="4">
+      <t>わす</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ぼうし</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>つうち</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>がめん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.支払い通知画面</t>
+    <rPh sb="3" eb="5">
+      <t>しはら</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>つうち</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>がめん</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.日毎のデータ削除確認画面</t>
+    <rPh sb="3" eb="4">
+      <t>ひ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ごと</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>さくじょ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>かくにん</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>がめん</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -870,7 +908,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -946,6 +984,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1940,7 +1984,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="225">
+  <cellXfs count="226">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2538,6 +2582,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
@@ -2556,9 +2603,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2580,6 +2624,18 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -2598,23 +2654,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3446,7 +3493,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s2275"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s2306"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -3968,7 +4015,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s4329"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s4360"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4294,7 +4341,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s5337"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s5368"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4944,7 +4991,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s7459"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s7490"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5322,7 +5369,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s9468"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s9499"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5700,7 +5747,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s10445"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s10476"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -7220,10 +7267,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="B23:AF78"/>
+  <dimension ref="B23:AF82"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AH42" sqref="AH42"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70:J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -7474,20 +7521,22 @@
     </row>
     <row r="30" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="199" t="s">
+      <c r="C30" s="200" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="200"/>
-      <c r="E30" s="200"/>
-      <c r="F30" s="200"/>
-      <c r="G30" s="200"/>
-      <c r="H30" s="200"/>
-      <c r="I30" s="200"/>
-      <c r="J30" s="201"/>
+      <c r="D30" s="201"/>
+      <c r="E30" s="201"/>
+      <c r="F30" s="201"/>
+      <c r="G30" s="201"/>
+      <c r="H30" s="201"/>
+      <c r="I30" s="201"/>
+      <c r="J30" s="202"/>
       <c r="K30" s="195" t="s">
-        <v>129</v>
-      </c>
-      <c r="L30" s="205"/>
+        <v>124</v>
+      </c>
+      <c r="L30" s="199">
+        <v>0.7</v>
+      </c>
       <c r="M30" s="32" t="s">
         <v>46</v>
       </c>
@@ -7513,14 +7562,14 @@
     </row>
     <row r="31" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="203"/>
-      <c r="E31" s="203"/>
-      <c r="F31" s="203"/>
-      <c r="G31" s="203"/>
-      <c r="H31" s="203"/>
-      <c r="I31" s="203"/>
-      <c r="J31" s="204"/>
+      <c r="C31" s="203"/>
+      <c r="D31" s="204"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="204"/>
+      <c r="I31" s="204"/>
+      <c r="J31" s="205"/>
       <c r="K31" s="196"/>
       <c r="L31" s="196"/>
       <c r="M31" s="30" t="s">
@@ -7529,7 +7578,7 @@
       <c r="N31" s="170"/>
       <c r="O31" s="180"/>
       <c r="P31" s="181"/>
-      <c r="Q31" s="26"/>
+      <c r="Q31" s="225"/>
       <c r="R31" s="26"/>
       <c r="S31" s="26"/>
       <c r="T31" s="26"/>
@@ -7548,20 +7597,22 @@
     </row>
     <row r="32" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="199" t="s">
+      <c r="C32" s="200" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="200"/>
-      <c r="E32" s="200"/>
-      <c r="F32" s="200"/>
-      <c r="G32" s="200"/>
-      <c r="H32" s="200"/>
-      <c r="I32" s="200"/>
-      <c r="J32" s="201"/>
+      <c r="D32" s="201"/>
+      <c r="E32" s="201"/>
+      <c r="F32" s="201"/>
+      <c r="G32" s="201"/>
+      <c r="H32" s="201"/>
+      <c r="I32" s="201"/>
+      <c r="J32" s="202"/>
       <c r="K32" s="195" t="s">
-        <v>129</v>
-      </c>
-      <c r="L32" s="205"/>
+        <v>124</v>
+      </c>
+      <c r="L32" s="199">
+        <v>0.7</v>
+      </c>
       <c r="M32" s="32" t="s">
         <v>46</v>
       </c>
@@ -7587,14 +7638,14 @@
     </row>
     <row r="33" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="203"/>
-      <c r="E33" s="203"/>
-      <c r="F33" s="203"/>
-      <c r="G33" s="203"/>
-      <c r="H33" s="203"/>
-      <c r="I33" s="203"/>
-      <c r="J33" s="204"/>
+      <c r="C33" s="203"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="204"/>
+      <c r="H33" s="204"/>
+      <c r="I33" s="204"/>
+      <c r="J33" s="205"/>
       <c r="K33" s="196"/>
       <c r="L33" s="196"/>
       <c r="M33" s="30" t="s">
@@ -7603,7 +7654,7 @@
       <c r="N33" s="170"/>
       <c r="O33" s="181"/>
       <c r="P33" s="181"/>
-      <c r="Q33" s="26"/>
+      <c r="Q33" s="225"/>
       <c r="R33" s="26"/>
       <c r="S33" s="26"/>
       <c r="T33" s="26"/>
@@ -7622,20 +7673,22 @@
     </row>
     <row r="34" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="199" t="s">
+      <c r="C34" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="200"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="200"/>
-      <c r="G34" s="200"/>
-      <c r="H34" s="200"/>
-      <c r="I34" s="200"/>
-      <c r="J34" s="201"/>
+      <c r="D34" s="201"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="202"/>
       <c r="K34" s="195" t="s">
-        <v>129</v>
-      </c>
-      <c r="L34" s="205"/>
+        <v>124</v>
+      </c>
+      <c r="L34" s="199">
+        <v>0.7</v>
+      </c>
       <c r="M34" s="32" t="s">
         <v>46</v>
       </c>
@@ -7661,14 +7714,14 @@
     </row>
     <row r="35" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="202"/>
-      <c r="D35" s="203"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="203"/>
-      <c r="G35" s="203"/>
-      <c r="H35" s="203"/>
-      <c r="I35" s="203"/>
-      <c r="J35" s="204"/>
+      <c r="C35" s="203"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="204"/>
+      <c r="G35" s="204"/>
+      <c r="H35" s="204"/>
+      <c r="I35" s="204"/>
+      <c r="J35" s="205"/>
       <c r="K35" s="196"/>
       <c r="L35" s="196"/>
       <c r="M35" s="30" t="s">
@@ -7677,7 +7730,7 @@
       <c r="N35" s="170"/>
       <c r="O35" s="181"/>
       <c r="P35" s="181"/>
-      <c r="Q35" s="26"/>
+      <c r="Q35" s="225"/>
       <c r="R35" s="26"/>
       <c r="S35" s="26"/>
       <c r="T35" s="26"/>
@@ -7696,20 +7749,22 @@
     </row>
     <row r="36" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="199" t="s">
+      <c r="C36" s="200" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="200"/>
-      <c r="E36" s="200"/>
-      <c r="F36" s="200"/>
-      <c r="G36" s="200"/>
-      <c r="H36" s="200"/>
-      <c r="I36" s="200"/>
-      <c r="J36" s="201"/>
+      <c r="D36" s="201"/>
+      <c r="E36" s="201"/>
+      <c r="F36" s="201"/>
+      <c r="G36" s="201"/>
+      <c r="H36" s="201"/>
+      <c r="I36" s="201"/>
+      <c r="J36" s="202"/>
       <c r="K36" s="195" t="s">
-        <v>129</v>
-      </c>
-      <c r="L36" s="205"/>
+        <v>124</v>
+      </c>
+      <c r="L36" s="199">
+        <v>0.7</v>
+      </c>
       <c r="M36" s="32" t="s">
         <v>46</v>
       </c>
@@ -7735,14 +7790,14 @@
     </row>
     <row r="37" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="203"/>
-      <c r="F37" s="203"/>
-      <c r="G37" s="203"/>
-      <c r="H37" s="203"/>
-      <c r="I37" s="203"/>
-      <c r="J37" s="204"/>
+      <c r="C37" s="203"/>
+      <c r="D37" s="204"/>
+      <c r="E37" s="204"/>
+      <c r="F37" s="204"/>
+      <c r="G37" s="204"/>
+      <c r="H37" s="204"/>
+      <c r="I37" s="204"/>
+      <c r="J37" s="205"/>
       <c r="K37" s="196"/>
       <c r="L37" s="196"/>
       <c r="M37" s="30" t="s">
@@ -7751,7 +7806,7 @@
       <c r="N37" s="170"/>
       <c r="O37" s="181"/>
       <c r="P37" s="181"/>
-      <c r="Q37" s="26"/>
+      <c r="Q37" s="225"/>
       <c r="R37" s="26"/>
       <c r="S37" s="26"/>
       <c r="T37" s="26"/>
@@ -7770,20 +7825,22 @@
     </row>
     <row r="38" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="199" t="s">
+      <c r="C38" s="200" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="200"/>
-      <c r="E38" s="200"/>
-      <c r="F38" s="200"/>
-      <c r="G38" s="200"/>
-      <c r="H38" s="200"/>
-      <c r="I38" s="200"/>
-      <c r="J38" s="201"/>
+      <c r="D38" s="201"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="201"/>
+      <c r="G38" s="201"/>
+      <c r="H38" s="201"/>
+      <c r="I38" s="201"/>
+      <c r="J38" s="202"/>
       <c r="K38" s="195" t="s">
-        <v>130</v>
-      </c>
-      <c r="L38" s="205"/>
+        <v>125</v>
+      </c>
+      <c r="L38" s="199">
+        <v>0.7</v>
+      </c>
       <c r="M38" s="32" t="s">
         <v>46</v>
       </c>
@@ -7809,14 +7866,14 @@
     </row>
     <row r="39" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="203"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="203"/>
-      <c r="G39" s="203"/>
-      <c r="H39" s="203"/>
-      <c r="I39" s="203"/>
-      <c r="J39" s="204"/>
+      <c r="C39" s="203"/>
+      <c r="D39" s="204"/>
+      <c r="E39" s="204"/>
+      <c r="F39" s="204"/>
+      <c r="G39" s="204"/>
+      <c r="H39" s="204"/>
+      <c r="I39" s="204"/>
+      <c r="J39" s="205"/>
       <c r="K39" s="196"/>
       <c r="L39" s="196"/>
       <c r="M39" s="30" t="s">
@@ -7825,7 +7882,7 @@
       <c r="N39" s="170"/>
       <c r="O39" s="181"/>
       <c r="P39" s="181"/>
-      <c r="Q39" s="26"/>
+      <c r="Q39" s="225"/>
       <c r="R39" s="26"/>
       <c r="S39" s="26"/>
       <c r="T39" s="26"/>
@@ -7844,20 +7901,22 @@
     </row>
     <row r="40" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="199" t="s">
+      <c r="C40" s="200" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="200"/>
-      <c r="E40" s="200"/>
-      <c r="F40" s="200"/>
-      <c r="G40" s="200"/>
-      <c r="H40" s="200"/>
-      <c r="I40" s="200"/>
-      <c r="J40" s="201"/>
+      <c r="D40" s="201"/>
+      <c r="E40" s="201"/>
+      <c r="F40" s="201"/>
+      <c r="G40" s="201"/>
+      <c r="H40" s="201"/>
+      <c r="I40" s="201"/>
+      <c r="J40" s="202"/>
       <c r="K40" s="195" t="s">
-        <v>130</v>
-      </c>
-      <c r="L40" s="205"/>
+        <v>125</v>
+      </c>
+      <c r="L40" s="199">
+        <v>0.7</v>
+      </c>
       <c r="M40" s="32" t="s">
         <v>46</v>
       </c>
@@ -7883,14 +7942,14 @@
     </row>
     <row r="41" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="203"/>
-      <c r="G41" s="203"/>
-      <c r="H41" s="203"/>
-      <c r="I41" s="203"/>
-      <c r="J41" s="204"/>
+      <c r="C41" s="203"/>
+      <c r="D41" s="204"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="204"/>
+      <c r="G41" s="204"/>
+      <c r="H41" s="204"/>
+      <c r="I41" s="204"/>
+      <c r="J41" s="205"/>
       <c r="K41" s="196"/>
       <c r="L41" s="196"/>
       <c r="M41" s="30" t="s">
@@ -7899,7 +7958,7 @@
       <c r="N41" s="170"/>
       <c r="O41" s="181"/>
       <c r="P41" s="181"/>
-      <c r="Q41" s="26"/>
+      <c r="Q41" s="225"/>
       <c r="R41" s="26"/>
       <c r="S41" s="26"/>
       <c r="T41" s="26"/>
@@ -7918,20 +7977,22 @@
     </row>
     <row r="42" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="199" t="s">
+      <c r="C42" s="200" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="200"/>
-      <c r="E42" s="200"/>
-      <c r="F42" s="200"/>
-      <c r="G42" s="200"/>
-      <c r="H42" s="200"/>
-      <c r="I42" s="200"/>
-      <c r="J42" s="201"/>
+      <c r="D42" s="201"/>
+      <c r="E42" s="201"/>
+      <c r="F42" s="201"/>
+      <c r="G42" s="201"/>
+      <c r="H42" s="201"/>
+      <c r="I42" s="201"/>
+      <c r="J42" s="202"/>
       <c r="K42" s="195" t="s">
-        <v>130</v>
-      </c>
-      <c r="L42" s="205"/>
+        <v>125</v>
+      </c>
+      <c r="L42" s="199">
+        <v>0.7</v>
+      </c>
       <c r="M42" s="32" t="s">
         <v>46</v>
       </c>
@@ -7957,14 +8018,14 @@
     </row>
     <row r="43" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
-      <c r="C43" s="202"/>
-      <c r="D43" s="203"/>
-      <c r="E43" s="203"/>
-      <c r="F43" s="203"/>
-      <c r="G43" s="203"/>
-      <c r="H43" s="203"/>
-      <c r="I43" s="203"/>
-      <c r="J43" s="204"/>
+      <c r="C43" s="203"/>
+      <c r="D43" s="204"/>
+      <c r="E43" s="204"/>
+      <c r="F43" s="204"/>
+      <c r="G43" s="204"/>
+      <c r="H43" s="204"/>
+      <c r="I43" s="204"/>
+      <c r="J43" s="205"/>
       <c r="K43" s="196"/>
       <c r="L43" s="196"/>
       <c r="M43" s="30" t="s">
@@ -7973,7 +8034,7 @@
       <c r="N43" s="170"/>
       <c r="O43" s="180"/>
       <c r="P43" s="181"/>
-      <c r="Q43" s="26"/>
+      <c r="Q43" s="225"/>
       <c r="R43" s="26"/>
       <c r="S43" s="26"/>
       <c r="T43" s="26"/>
@@ -7992,20 +8053,22 @@
     </row>
     <row r="44" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
-      <c r="C44" s="199" t="s">
+      <c r="C44" s="200" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="200"/>
-      <c r="E44" s="200"/>
-      <c r="F44" s="200"/>
-      <c r="G44" s="200"/>
-      <c r="H44" s="200"/>
-      <c r="I44" s="200"/>
-      <c r="J44" s="201"/>
+      <c r="D44" s="201"/>
+      <c r="E44" s="201"/>
+      <c r="F44" s="201"/>
+      <c r="G44" s="201"/>
+      <c r="H44" s="201"/>
+      <c r="I44" s="201"/>
+      <c r="J44" s="202"/>
       <c r="K44" s="195" t="s">
-        <v>131</v>
-      </c>
-      <c r="L44" s="205"/>
+        <v>126</v>
+      </c>
+      <c r="L44" s="199">
+        <v>1</v>
+      </c>
       <c r="M44" s="32" t="s">
         <v>46</v>
       </c>
@@ -8031,14 +8094,14 @@
     </row>
     <row r="45" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
-      <c r="C45" s="202"/>
-      <c r="D45" s="203"/>
-      <c r="E45" s="203"/>
-      <c r="F45" s="203"/>
-      <c r="G45" s="203"/>
-      <c r="H45" s="203"/>
-      <c r="I45" s="203"/>
-      <c r="J45" s="204"/>
+      <c r="C45" s="203"/>
+      <c r="D45" s="204"/>
+      <c r="E45" s="204"/>
+      <c r="F45" s="204"/>
+      <c r="G45" s="204"/>
+      <c r="H45" s="204"/>
+      <c r="I45" s="204"/>
+      <c r="J45" s="205"/>
       <c r="K45" s="196"/>
       <c r="L45" s="196"/>
       <c r="M45" s="30" t="s">
@@ -8047,7 +8110,7 @@
       <c r="N45" s="170"/>
       <c r="O45" s="180"/>
       <c r="P45" s="181"/>
-      <c r="Q45" s="26"/>
+      <c r="Q45" s="225"/>
       <c r="R45" s="26"/>
       <c r="S45" s="26"/>
       <c r="T45" s="26"/>
@@ -8066,20 +8129,22 @@
     </row>
     <row r="46" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B46" s="3"/>
-      <c r="C46" s="199" t="s">
+      <c r="C46" s="200" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="200"/>
-      <c r="E46" s="200"/>
-      <c r="F46" s="200"/>
-      <c r="G46" s="200"/>
-      <c r="H46" s="200"/>
-      <c r="I46" s="200"/>
-      <c r="J46" s="201"/>
+      <c r="D46" s="201"/>
+      <c r="E46" s="201"/>
+      <c r="F46" s="201"/>
+      <c r="G46" s="201"/>
+      <c r="H46" s="201"/>
+      <c r="I46" s="201"/>
+      <c r="J46" s="202"/>
       <c r="K46" s="195" t="s">
-        <v>131</v>
-      </c>
-      <c r="L46" s="205"/>
+        <v>126</v>
+      </c>
+      <c r="L46" s="199">
+        <v>0.8</v>
+      </c>
       <c r="M46" s="32" t="s">
         <v>46</v>
       </c>
@@ -8105,14 +8170,14 @@
     </row>
     <row r="47" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B47" s="3"/>
-      <c r="C47" s="202"/>
-      <c r="D47" s="203"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="203"/>
-      <c r="G47" s="203"/>
-      <c r="H47" s="203"/>
-      <c r="I47" s="203"/>
-      <c r="J47" s="204"/>
+      <c r="C47" s="203"/>
+      <c r="D47" s="204"/>
+      <c r="E47" s="204"/>
+      <c r="F47" s="204"/>
+      <c r="G47" s="204"/>
+      <c r="H47" s="204"/>
+      <c r="I47" s="204"/>
+      <c r="J47" s="205"/>
       <c r="K47" s="196"/>
       <c r="L47" s="196"/>
       <c r="M47" s="30" t="s">
@@ -8121,7 +8186,7 @@
       <c r="N47" s="170"/>
       <c r="O47" s="180"/>
       <c r="P47" s="181"/>
-      <c r="Q47" s="26"/>
+      <c r="Q47" s="225"/>
       <c r="R47" s="26"/>
       <c r="S47" s="26"/>
       <c r="T47" s="26"/>
@@ -8140,20 +8205,22 @@
     </row>
     <row r="48" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B48" s="3"/>
-      <c r="C48" s="199" t="s">
+      <c r="C48" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="200"/>
-      <c r="E48" s="200"/>
-      <c r="F48" s="200"/>
-      <c r="G48" s="200"/>
-      <c r="H48" s="200"/>
-      <c r="I48" s="200"/>
-      <c r="J48" s="201"/>
+      <c r="D48" s="201"/>
+      <c r="E48" s="201"/>
+      <c r="F48" s="201"/>
+      <c r="G48" s="201"/>
+      <c r="H48" s="201"/>
+      <c r="I48" s="201"/>
+      <c r="J48" s="202"/>
       <c r="K48" s="195" t="s">
-        <v>131</v>
-      </c>
-      <c r="L48" s="205"/>
+        <v>126</v>
+      </c>
+      <c r="L48" s="199">
+        <v>0.8</v>
+      </c>
       <c r="M48" s="32" t="s">
         <v>46</v>
       </c>
@@ -8179,14 +8246,14 @@
     </row>
     <row r="49" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="203"/>
-      <c r="E49" s="203"/>
-      <c r="F49" s="203"/>
-      <c r="G49" s="203"/>
-      <c r="H49" s="203"/>
-      <c r="I49" s="203"/>
-      <c r="J49" s="204"/>
+      <c r="C49" s="203"/>
+      <c r="D49" s="204"/>
+      <c r="E49" s="204"/>
+      <c r="F49" s="204"/>
+      <c r="G49" s="204"/>
+      <c r="H49" s="204"/>
+      <c r="I49" s="204"/>
+      <c r="J49" s="205"/>
       <c r="K49" s="196"/>
       <c r="L49" s="196"/>
       <c r="M49" s="30" t="s">
@@ -8195,7 +8262,7 @@
       <c r="N49" s="170"/>
       <c r="O49" s="180"/>
       <c r="P49" s="181"/>
-      <c r="Q49" s="26"/>
+      <c r="Q49" s="225"/>
       <c r="R49" s="26"/>
       <c r="S49" s="26"/>
       <c r="T49" s="26"/>
@@ -8214,20 +8281,22 @@
     </row>
     <row r="50" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
-      <c r="C50" s="199" t="s">
+      <c r="C50" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="D50" s="200"/>
-      <c r="E50" s="200"/>
-      <c r="F50" s="200"/>
-      <c r="G50" s="200"/>
-      <c r="H50" s="200"/>
-      <c r="I50" s="200"/>
-      <c r="J50" s="201"/>
+      <c r="D50" s="201"/>
+      <c r="E50" s="201"/>
+      <c r="F50" s="201"/>
+      <c r="G50" s="201"/>
+      <c r="H50" s="201"/>
+      <c r="I50" s="201"/>
+      <c r="J50" s="202"/>
       <c r="K50" s="195" t="s">
-        <v>132</v>
-      </c>
-      <c r="L50" s="205"/>
+        <v>127</v>
+      </c>
+      <c r="L50" s="199">
+        <v>0.7</v>
+      </c>
       <c r="M50" s="32" t="s">
         <v>46</v>
       </c>
@@ -8253,14 +8322,14 @@
     </row>
     <row r="51" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
-      <c r="C51" s="202"/>
-      <c r="D51" s="203"/>
-      <c r="E51" s="203"/>
-      <c r="F51" s="203"/>
-      <c r="G51" s="203"/>
-      <c r="H51" s="203"/>
-      <c r="I51" s="203"/>
-      <c r="J51" s="204"/>
+      <c r="C51" s="203"/>
+      <c r="D51" s="204"/>
+      <c r="E51" s="204"/>
+      <c r="F51" s="204"/>
+      <c r="G51" s="204"/>
+      <c r="H51" s="204"/>
+      <c r="I51" s="204"/>
+      <c r="J51" s="205"/>
       <c r="K51" s="196"/>
       <c r="L51" s="196"/>
       <c r="M51" s="30" t="s">
@@ -8269,7 +8338,7 @@
       <c r="N51" s="170"/>
       <c r="O51" s="180"/>
       <c r="P51" s="181"/>
-      <c r="Q51" s="26"/>
+      <c r="Q51" s="225"/>
       <c r="R51" s="26"/>
       <c r="S51" s="26"/>
       <c r="T51" s="26"/>
@@ -8288,20 +8357,22 @@
     </row>
     <row r="52" spans="2:32" x14ac:dyDescent="0.15">
       <c r="B52" s="4"/>
-      <c r="C52" s="199" t="s">
+      <c r="C52" s="200" t="s">
         <v>119</v>
       </c>
-      <c r="D52" s="200"/>
-      <c r="E52" s="200"/>
-      <c r="F52" s="200"/>
-      <c r="G52" s="200"/>
-      <c r="H52" s="200"/>
-      <c r="I52" s="200"/>
-      <c r="J52" s="201"/>
+      <c r="D52" s="201"/>
+      <c r="E52" s="201"/>
+      <c r="F52" s="201"/>
+      <c r="G52" s="201"/>
+      <c r="H52" s="201"/>
+      <c r="I52" s="201"/>
+      <c r="J52" s="202"/>
       <c r="K52" s="195" t="s">
-        <v>132</v>
-      </c>
-      <c r="L52" s="205"/>
+        <v>127</v>
+      </c>
+      <c r="L52" s="199">
+        <v>0.5</v>
+      </c>
       <c r="M52" s="32" t="s">
         <v>46</v>
       </c>
@@ -8326,14 +8397,14 @@
       <c r="AF52" s="117"/>
     </row>
     <row r="53" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C53" s="202"/>
-      <c r="D53" s="203"/>
-      <c r="E53" s="203"/>
-      <c r="F53" s="203"/>
-      <c r="G53" s="203"/>
-      <c r="H53" s="203"/>
-      <c r="I53" s="203"/>
-      <c r="J53" s="204"/>
+      <c r="C53" s="203"/>
+      <c r="D53" s="204"/>
+      <c r="E53" s="204"/>
+      <c r="F53" s="204"/>
+      <c r="G53" s="204"/>
+      <c r="H53" s="204"/>
+      <c r="I53" s="204"/>
+      <c r="J53" s="205"/>
       <c r="K53" s="196"/>
       <c r="L53" s="196"/>
       <c r="M53" s="30" t="s">
@@ -8342,7 +8413,7 @@
       <c r="N53" s="170"/>
       <c r="O53" s="180"/>
       <c r="P53" s="181"/>
-      <c r="Q53" s="26"/>
+      <c r="Q53" s="225"/>
       <c r="R53" s="26"/>
       <c r="S53" s="26"/>
       <c r="T53" s="26"/>
@@ -8360,20 +8431,22 @@
       <c r="AF53" s="118"/>
     </row>
     <row r="54" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C54" s="199" t="s">
+      <c r="C54" s="200" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="200"/>
-      <c r="E54" s="200"/>
-      <c r="F54" s="200"/>
-      <c r="G54" s="200"/>
-      <c r="H54" s="200"/>
-      <c r="I54" s="200"/>
-      <c r="J54" s="201"/>
+      <c r="D54" s="201"/>
+      <c r="E54" s="201"/>
+      <c r="F54" s="201"/>
+      <c r="G54" s="201"/>
+      <c r="H54" s="201"/>
+      <c r="I54" s="201"/>
+      <c r="J54" s="202"/>
       <c r="K54" s="195" t="s">
-        <v>132</v>
-      </c>
-      <c r="L54" s="205"/>
+        <v>126</v>
+      </c>
+      <c r="L54" s="199">
+        <v>0.8</v>
+      </c>
       <c r="M54" s="32" t="s">
         <v>46</v>
       </c>
@@ -8398,14 +8471,14 @@
       <c r="AF54" s="117"/>
     </row>
     <row r="55" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C55" s="202"/>
-      <c r="D55" s="203"/>
-      <c r="E55" s="203"/>
-      <c r="F55" s="203"/>
-      <c r="G55" s="203"/>
-      <c r="H55" s="203"/>
-      <c r="I55" s="203"/>
-      <c r="J55" s="204"/>
+      <c r="C55" s="203"/>
+      <c r="D55" s="204"/>
+      <c r="E55" s="204"/>
+      <c r="F55" s="204"/>
+      <c r="G55" s="204"/>
+      <c r="H55" s="204"/>
+      <c r="I55" s="204"/>
+      <c r="J55" s="205"/>
       <c r="K55" s="196"/>
       <c r="L55" s="196"/>
       <c r="M55" s="30" t="s">
@@ -8414,7 +8487,7 @@
       <c r="N55" s="170"/>
       <c r="O55" s="180"/>
       <c r="P55" s="181"/>
-      <c r="Q55" s="26"/>
+      <c r="Q55" s="225"/>
       <c r="R55" s="26"/>
       <c r="S55" s="26"/>
       <c r="T55" s="26"/>
@@ -8432,20 +8505,22 @@
       <c r="AF55" s="118"/>
     </row>
     <row r="56" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C56" s="199" t="s">
+      <c r="C56" s="200" t="s">
         <v>121</v>
       </c>
-      <c r="D56" s="200"/>
-      <c r="E56" s="200"/>
-      <c r="F56" s="200"/>
-      <c r="G56" s="200"/>
-      <c r="H56" s="200"/>
-      <c r="I56" s="200"/>
-      <c r="J56" s="201"/>
+      <c r="D56" s="201"/>
+      <c r="E56" s="201"/>
+      <c r="F56" s="201"/>
+      <c r="G56" s="201"/>
+      <c r="H56" s="201"/>
+      <c r="I56" s="201"/>
+      <c r="J56" s="202"/>
       <c r="K56" s="195" t="s">
-        <v>133</v>
-      </c>
-      <c r="L56" s="205"/>
+        <v>128</v>
+      </c>
+      <c r="L56" s="199">
+        <v>0.8</v>
+      </c>
       <c r="M56" s="32" t="s">
         <v>46</v>
       </c>
@@ -8470,14 +8545,14 @@
       <c r="AF56" s="117"/>
     </row>
     <row r="57" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C57" s="202"/>
-      <c r="D57" s="203"/>
-      <c r="E57" s="203"/>
-      <c r="F57" s="203"/>
-      <c r="G57" s="203"/>
-      <c r="H57" s="203"/>
-      <c r="I57" s="203"/>
-      <c r="J57" s="204"/>
+      <c r="C57" s="203"/>
+      <c r="D57" s="204"/>
+      <c r="E57" s="204"/>
+      <c r="F57" s="204"/>
+      <c r="G57" s="204"/>
+      <c r="H57" s="204"/>
+      <c r="I57" s="204"/>
+      <c r="J57" s="205"/>
       <c r="K57" s="196"/>
       <c r="L57" s="196"/>
       <c r="M57" s="30" t="s">
@@ -8486,7 +8561,7 @@
       <c r="N57" s="170"/>
       <c r="O57" s="180"/>
       <c r="P57" s="181"/>
-      <c r="Q57" s="26"/>
+      <c r="Q57" s="225"/>
       <c r="R57" s="26"/>
       <c r="S57" s="26"/>
       <c r="T57" s="26"/>
@@ -8504,20 +8579,22 @@
       <c r="AF57" s="118"/>
     </row>
     <row r="58" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C58" s="199" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" s="200"/>
-      <c r="E58" s="200"/>
-      <c r="F58" s="200"/>
-      <c r="G58" s="200"/>
-      <c r="H58" s="200"/>
-      <c r="I58" s="200"/>
-      <c r="J58" s="201"/>
+      <c r="C58" s="200" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="201"/>
+      <c r="E58" s="201"/>
+      <c r="F58" s="201"/>
+      <c r="G58" s="201"/>
+      <c r="H58" s="201"/>
+      <c r="I58" s="201"/>
+      <c r="J58" s="202"/>
       <c r="K58" s="195" t="s">
-        <v>133</v>
-      </c>
-      <c r="L58" s="205"/>
+        <v>128</v>
+      </c>
+      <c r="L58" s="199">
+        <v>0.8</v>
+      </c>
       <c r="M58" s="32" t="s">
         <v>46</v>
       </c>
@@ -8542,14 +8619,14 @@
       <c r="AF58" s="117"/>
     </row>
     <row r="59" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C59" s="202"/>
-      <c r="D59" s="203"/>
-      <c r="E59" s="203"/>
-      <c r="F59" s="203"/>
-      <c r="G59" s="203"/>
-      <c r="H59" s="203"/>
-      <c r="I59" s="203"/>
-      <c r="J59" s="204"/>
+      <c r="C59" s="203"/>
+      <c r="D59" s="204"/>
+      <c r="E59" s="204"/>
+      <c r="F59" s="204"/>
+      <c r="G59" s="204"/>
+      <c r="H59" s="204"/>
+      <c r="I59" s="204"/>
+      <c r="J59" s="205"/>
       <c r="K59" s="196"/>
       <c r="L59" s="196"/>
       <c r="M59" s="30" t="s">
@@ -8558,7 +8635,7 @@
       <c r="N59" s="170"/>
       <c r="O59" s="180"/>
       <c r="P59" s="181"/>
-      <c r="Q59" s="26"/>
+      <c r="Q59" s="225"/>
       <c r="R59" s="26"/>
       <c r="S59" s="26"/>
       <c r="T59" s="26"/>
@@ -8576,20 +8653,20 @@
       <c r="AF59" s="118"/>
     </row>
     <row r="60" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C60" s="199" t="s">
-        <v>125</v>
-      </c>
-      <c r="D60" s="200"/>
-      <c r="E60" s="200"/>
-      <c r="F60" s="200"/>
-      <c r="G60" s="200"/>
-      <c r="H60" s="200"/>
-      <c r="I60" s="200"/>
-      <c r="J60" s="201"/>
+      <c r="C60" s="200" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60" s="201"/>
+      <c r="E60" s="201"/>
+      <c r="F60" s="201"/>
+      <c r="G60" s="201"/>
+      <c r="H60" s="201"/>
+      <c r="I60" s="201"/>
+      <c r="J60" s="202"/>
       <c r="K60" s="195" t="s">
-        <v>133</v>
-      </c>
-      <c r="L60" s="205"/>
+        <v>129</v>
+      </c>
+      <c r="L60" s="199"/>
       <c r="M60" s="32" t="s">
         <v>46</v>
       </c>
@@ -8614,14 +8691,14 @@
       <c r="AF60" s="117"/>
     </row>
     <row r="61" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C61" s="202"/>
-      <c r="D61" s="203"/>
-      <c r="E61" s="203"/>
-      <c r="F61" s="203"/>
-      <c r="G61" s="203"/>
-      <c r="H61" s="203"/>
-      <c r="I61" s="203"/>
-      <c r="J61" s="204"/>
+      <c r="C61" s="203"/>
+      <c r="D61" s="204"/>
+      <c r="E61" s="204"/>
+      <c r="F61" s="204"/>
+      <c r="G61" s="204"/>
+      <c r="H61" s="204"/>
+      <c r="I61" s="204"/>
+      <c r="J61" s="205"/>
       <c r="K61" s="196"/>
       <c r="L61" s="196"/>
       <c r="M61" s="30" t="s">
@@ -8630,7 +8707,7 @@
       <c r="N61" s="170"/>
       <c r="O61" s="180"/>
       <c r="P61" s="181"/>
-      <c r="Q61" s="26"/>
+      <c r="Q61" s="225"/>
       <c r="R61" s="26"/>
       <c r="S61" s="26"/>
       <c r="T61" s="26"/>
@@ -8648,20 +8725,20 @@
       <c r="AF61" s="118"/>
     </row>
     <row r="62" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C62" s="199" t="s">
-        <v>126</v>
-      </c>
-      <c r="D62" s="200"/>
-      <c r="E62" s="200"/>
-      <c r="F62" s="200"/>
-      <c r="G62" s="200"/>
-      <c r="H62" s="200"/>
-      <c r="I62" s="200"/>
-      <c r="J62" s="201"/>
+      <c r="C62" s="200" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="201"/>
+      <c r="E62" s="201"/>
+      <c r="F62" s="201"/>
+      <c r="G62" s="201"/>
+      <c r="H62" s="201"/>
+      <c r="I62" s="201"/>
+      <c r="J62" s="202"/>
       <c r="K62" s="195" t="s">
-        <v>134</v>
-      </c>
-      <c r="L62" s="205"/>
+        <v>129</v>
+      </c>
+      <c r="L62" s="199"/>
       <c r="M62" s="32" t="s">
         <v>46</v>
       </c>
@@ -8686,14 +8763,14 @@
       <c r="AF62" s="117"/>
     </row>
     <row r="63" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C63" s="202"/>
-      <c r="D63" s="203"/>
-      <c r="E63" s="203"/>
-      <c r="F63" s="203"/>
-      <c r="G63" s="203"/>
-      <c r="H63" s="203"/>
-      <c r="I63" s="203"/>
-      <c r="J63" s="204"/>
+      <c r="C63" s="203"/>
+      <c r="D63" s="204"/>
+      <c r="E63" s="204"/>
+      <c r="F63" s="204"/>
+      <c r="G63" s="204"/>
+      <c r="H63" s="204"/>
+      <c r="I63" s="204"/>
+      <c r="J63" s="205"/>
       <c r="K63" s="196"/>
       <c r="L63" s="196"/>
       <c r="M63" s="30" t="s">
@@ -8702,7 +8779,7 @@
       <c r="N63" s="170"/>
       <c r="O63" s="180"/>
       <c r="P63" s="181"/>
-      <c r="Q63" s="26"/>
+      <c r="Q63" s="225"/>
       <c r="R63" s="26"/>
       <c r="S63" s="26"/>
       <c r="T63" s="26"/>
@@ -8720,20 +8797,20 @@
       <c r="AF63" s="118"/>
     </row>
     <row r="64" spans="2:32" x14ac:dyDescent="0.15">
-      <c r="C64" s="199" t="s">
-        <v>127</v>
-      </c>
-      <c r="D64" s="200"/>
-      <c r="E64" s="200"/>
-      <c r="F64" s="200"/>
-      <c r="G64" s="200"/>
-      <c r="H64" s="200"/>
-      <c r="I64" s="200"/>
-      <c r="J64" s="201"/>
+      <c r="C64" s="200" t="s">
+        <v>133</v>
+      </c>
+      <c r="D64" s="201"/>
+      <c r="E64" s="201"/>
+      <c r="F64" s="201"/>
+      <c r="G64" s="201"/>
+      <c r="H64" s="201"/>
+      <c r="I64" s="201"/>
+      <c r="J64" s="202"/>
       <c r="K64" s="195" t="s">
-        <v>134</v>
-      </c>
-      <c r="L64" s="205"/>
+        <v>129</v>
+      </c>
+      <c r="L64" s="199"/>
       <c r="M64" s="32" t="s">
         <v>46</v>
       </c>
@@ -8758,14 +8835,14 @@
       <c r="AF64" s="117"/>
     </row>
     <row r="65" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C65" s="202"/>
-      <c r="D65" s="203"/>
-      <c r="E65" s="203"/>
-      <c r="F65" s="203"/>
-      <c r="G65" s="203"/>
-      <c r="H65" s="203"/>
-      <c r="I65" s="203"/>
-      <c r="J65" s="204"/>
+      <c r="C65" s="203"/>
+      <c r="D65" s="204"/>
+      <c r="E65" s="204"/>
+      <c r="F65" s="204"/>
+      <c r="G65" s="204"/>
+      <c r="H65" s="204"/>
+      <c r="I65" s="204"/>
+      <c r="J65" s="205"/>
       <c r="K65" s="196"/>
       <c r="L65" s="196"/>
       <c r="M65" s="30" t="s">
@@ -8774,7 +8851,7 @@
       <c r="N65" s="170"/>
       <c r="O65" s="180"/>
       <c r="P65" s="181"/>
-      <c r="Q65" s="26"/>
+      <c r="Q65" s="225"/>
       <c r="R65" s="26"/>
       <c r="S65" s="26"/>
       <c r="T65" s="26"/>
@@ -8792,20 +8869,22 @@
       <c r="AF65" s="118"/>
     </row>
     <row r="66" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C66" s="199" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" s="200"/>
-      <c r="E66" s="200"/>
-      <c r="F66" s="200"/>
-      <c r="G66" s="200"/>
-      <c r="H66" s="200"/>
-      <c r="I66" s="200"/>
-      <c r="J66" s="201"/>
+      <c r="C66" s="200" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="201"/>
+      <c r="E66" s="201"/>
+      <c r="F66" s="201"/>
+      <c r="G66" s="201"/>
+      <c r="H66" s="201"/>
+      <c r="I66" s="201"/>
+      <c r="J66" s="202"/>
       <c r="K66" s="195" t="s">
-        <v>134</v>
-      </c>
-      <c r="L66" s="205"/>
+        <v>124</v>
+      </c>
+      <c r="L66" s="199">
+        <v>0.7</v>
+      </c>
       <c r="M66" s="32" t="s">
         <v>46</v>
       </c>
@@ -8830,23 +8909,23 @@
       <c r="AF66" s="117"/>
     </row>
     <row r="67" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C67" s="202"/>
-      <c r="D67" s="203"/>
-      <c r="E67" s="203"/>
-      <c r="F67" s="203"/>
-      <c r="G67" s="203"/>
-      <c r="H67" s="203"/>
-      <c r="I67" s="203"/>
-      <c r="J67" s="204"/>
+      <c r="C67" s="203"/>
+      <c r="D67" s="204"/>
+      <c r="E67" s="204"/>
+      <c r="F67" s="204"/>
+      <c r="G67" s="204"/>
+      <c r="H67" s="204"/>
+      <c r="I67" s="204"/>
+      <c r="J67" s="205"/>
       <c r="K67" s="196"/>
       <c r="L67" s="196"/>
       <c r="M67" s="30" t="s">
         <v>47</v>
       </c>
       <c r="N67" s="170"/>
-      <c r="O67" s="180"/>
+      <c r="O67" s="181"/>
       <c r="P67" s="181"/>
-      <c r="Q67" s="26"/>
+      <c r="Q67" s="225"/>
       <c r="R67" s="26"/>
       <c r="S67" s="26"/>
       <c r="T67" s="26"/>
@@ -8864,93 +8943,103 @@
       <c r="AF67" s="118"/>
     </row>
     <row r="68" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C68" s="65"/>
-      <c r="D68" s="74"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="66"/>
-      <c r="H68" s="66"/>
-      <c r="I68" s="66"/>
-      <c r="J68" s="66"/>
-      <c r="K68" s="67"/>
-      <c r="L68" s="67"/>
-      <c r="M68" s="67"/>
-      <c r="N68" s="171"/>
-      <c r="O68" s="153"/>
-      <c r="P68" s="69"/>
-      <c r="Q68" s="69"/>
-      <c r="R68" s="69"/>
-      <c r="S68" s="69"/>
-      <c r="T68" s="69"/>
-      <c r="U68" s="69"/>
-      <c r="V68" s="69"/>
-      <c r="W68" s="69"/>
-      <c r="X68" s="69"/>
-      <c r="Y68" s="69"/>
-      <c r="Z68" s="69"/>
-      <c r="AA68" s="69"/>
-      <c r="AB68" s="69"/>
-      <c r="AC68" s="69"/>
-      <c r="AD68" s="69"/>
-      <c r="AE68" s="69"/>
-      <c r="AF68" s="172"/>
+      <c r="C68" s="200" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" s="201"/>
+      <c r="E68" s="201"/>
+      <c r="F68" s="201"/>
+      <c r="G68" s="201"/>
+      <c r="H68" s="201"/>
+      <c r="I68" s="201"/>
+      <c r="J68" s="202"/>
+      <c r="K68" s="195" t="s">
+        <v>124</v>
+      </c>
+      <c r="L68" s="199">
+        <v>0.7</v>
+      </c>
+      <c r="M68" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N68" s="160"/>
+      <c r="O68" s="179"/>
+      <c r="P68" s="179"/>
+      <c r="Q68" s="154"/>
+      <c r="R68" s="154"/>
+      <c r="S68" s="22"/>
+      <c r="T68" s="22"/>
+      <c r="U68" s="22"/>
+      <c r="V68" s="179"/>
+      <c r="W68" s="179"/>
+      <c r="X68" s="22"/>
+      <c r="Y68" s="22"/>
+      <c r="Z68" s="22"/>
+      <c r="AA68" s="22"/>
+      <c r="AB68" s="22"/>
+      <c r="AC68" s="179"/>
+      <c r="AD68" s="179"/>
+      <c r="AE68" s="22"/>
+      <c r="AF68" s="117"/>
     </row>
     <row r="69" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C69" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="D69" s="75" t="s">
-        <v>41</v>
-      </c>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
-      <c r="I69" s="66"/>
-      <c r="J69" s="66"/>
-      <c r="K69" s="67"/>
-      <c r="L69" s="67"/>
-      <c r="M69" s="67"/>
-      <c r="N69" s="171"/>
-      <c r="O69" s="153"/>
-      <c r="P69" s="69"/>
-      <c r="Q69" s="69"/>
-      <c r="R69" s="69"/>
-      <c r="S69" s="69"/>
-      <c r="T69" s="69"/>
-      <c r="U69" s="69"/>
-      <c r="V69" s="69"/>
-      <c r="W69" s="69"/>
-      <c r="X69" s="69"/>
-      <c r="Y69" s="69"/>
-      <c r="Z69" s="69"/>
-      <c r="AA69" s="69"/>
-      <c r="AB69" s="69"/>
-      <c r="AC69" s="69"/>
-      <c r="AD69" s="69"/>
-      <c r="AE69" s="69"/>
-      <c r="AF69" s="172"/>
+      <c r="C69" s="203"/>
+      <c r="D69" s="204"/>
+      <c r="E69" s="204"/>
+      <c r="F69" s="204"/>
+      <c r="G69" s="204"/>
+      <c r="H69" s="204"/>
+      <c r="I69" s="204"/>
+      <c r="J69" s="205"/>
+      <c r="K69" s="196"/>
+      <c r="L69" s="196"/>
+      <c r="M69" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="N69" s="170"/>
+      <c r="O69" s="181"/>
+      <c r="P69" s="181"/>
+      <c r="Q69" s="225"/>
+      <c r="R69" s="26"/>
+      <c r="S69" s="26"/>
+      <c r="T69" s="26"/>
+      <c r="U69" s="26"/>
+      <c r="V69" s="181"/>
+      <c r="W69" s="181"/>
+      <c r="X69" s="26"/>
+      <c r="Y69" s="26"/>
+      <c r="Z69" s="26"/>
+      <c r="AA69" s="26"/>
+      <c r="AB69" s="26"/>
+      <c r="AC69" s="181"/>
+      <c r="AD69" s="181"/>
+      <c r="AE69" s="26"/>
+      <c r="AF69" s="118"/>
     </row>
     <row r="70" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C70" s="199" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70" s="200"/>
-      <c r="E70" s="200"/>
-      <c r="F70" s="200"/>
-      <c r="G70" s="200"/>
-      <c r="H70" s="200"/>
-      <c r="I70" s="200"/>
-      <c r="J70" s="201"/>
-      <c r="K70" s="195"/>
-      <c r="L70" s="205"/>
+      <c r="C70" s="200" t="s">
+        <v>136</v>
+      </c>
+      <c r="D70" s="201"/>
+      <c r="E70" s="201"/>
+      <c r="F70" s="201"/>
+      <c r="G70" s="201"/>
+      <c r="H70" s="201"/>
+      <c r="I70" s="201"/>
+      <c r="J70" s="202"/>
+      <c r="K70" s="195" t="s">
+        <v>124</v>
+      </c>
+      <c r="L70" s="199">
+        <v>0.7</v>
+      </c>
       <c r="M70" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N70" s="116"/>
+      <c r="N70" s="160"/>
       <c r="O70" s="179"/>
       <c r="P70" s="179"/>
-      <c r="Q70" s="22"/>
+      <c r="Q70" s="154"/>
       <c r="R70" s="154"/>
       <c r="S70" s="22"/>
       <c r="T70" s="22"/>
@@ -8968,23 +9057,23 @@
       <c r="AF70" s="117"/>
     </row>
     <row r="71" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C71" s="202"/>
-      <c r="D71" s="203"/>
-      <c r="E71" s="203"/>
-      <c r="F71" s="203"/>
-      <c r="G71" s="203"/>
-      <c r="H71" s="203"/>
-      <c r="I71" s="203"/>
-      <c r="J71" s="204"/>
+      <c r="C71" s="203"/>
+      <c r="D71" s="204"/>
+      <c r="E71" s="204"/>
+      <c r="F71" s="204"/>
+      <c r="G71" s="204"/>
+      <c r="H71" s="204"/>
+      <c r="I71" s="204"/>
+      <c r="J71" s="205"/>
       <c r="K71" s="196"/>
       <c r="L71" s="196"/>
       <c r="M71" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N71" s="115"/>
-      <c r="O71" s="181"/>
+      <c r="N71" s="170"/>
+      <c r="O71" s="180"/>
       <c r="P71" s="181"/>
-      <c r="Q71" s="26"/>
+      <c r="Q71" s="225"/>
       <c r="R71" s="26"/>
       <c r="S71" s="26"/>
       <c r="T71" s="26"/>
@@ -9002,88 +9091,86 @@
       <c r="AF71" s="118"/>
     </row>
     <row r="72" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C72" s="199" t="s">
-        <v>77</v>
-      </c>
-      <c r="D72" s="200"/>
-      <c r="E72" s="200"/>
-      <c r="F72" s="200"/>
-      <c r="G72" s="200"/>
-      <c r="H72" s="200"/>
-      <c r="I72" s="200"/>
-      <c r="J72" s="201"/>
-      <c r="K72" s="195"/>
-      <c r="L72" s="205"/>
-      <c r="M72" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="N72" s="116"/>
-      <c r="O72" s="179"/>
-      <c r="P72" s="179"/>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="154"/>
-      <c r="S72" s="22"/>
-      <c r="T72" s="22"/>
-      <c r="U72" s="22"/>
-      <c r="V72" s="179"/>
-      <c r="W72" s="179"/>
-      <c r="X72" s="22"/>
-      <c r="Y72" s="22"/>
-      <c r="Z72" s="22"/>
-      <c r="AA72" s="22"/>
-      <c r="AB72" s="22"/>
-      <c r="AC72" s="179"/>
-      <c r="AD72" s="179"/>
-      <c r="AE72" s="22"/>
-      <c r="AF72" s="117"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="66"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="66"/>
+      <c r="I72" s="66"/>
+      <c r="J72" s="66"/>
+      <c r="K72" s="67"/>
+      <c r="L72" s="67"/>
+      <c r="M72" s="67"/>
+      <c r="N72" s="171"/>
+      <c r="O72" s="153"/>
+      <c r="P72" s="69"/>
+      <c r="Q72" s="69"/>
+      <c r="R72" s="69"/>
+      <c r="S72" s="69"/>
+      <c r="T72" s="69"/>
+      <c r="U72" s="69"/>
+      <c r="V72" s="69"/>
+      <c r="W72" s="69"/>
+      <c r="X72" s="69"/>
+      <c r="Y72" s="69"/>
+      <c r="Z72" s="69"/>
+      <c r="AA72" s="69"/>
+      <c r="AB72" s="69"/>
+      <c r="AC72" s="69"/>
+      <c r="AD72" s="69"/>
+      <c r="AE72" s="69"/>
+      <c r="AF72" s="172"/>
     </row>
     <row r="73" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C73" s="202"/>
-      <c r="D73" s="203"/>
-      <c r="E73" s="203"/>
-      <c r="F73" s="203"/>
-      <c r="G73" s="203"/>
-      <c r="H73" s="203"/>
-      <c r="I73" s="203"/>
-      <c r="J73" s="204"/>
-      <c r="K73" s="196"/>
-      <c r="L73" s="196"/>
-      <c r="M73" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="N73" s="115"/>
-      <c r="O73" s="181"/>
-      <c r="P73" s="181"/>
-      <c r="Q73" s="26"/>
-      <c r="R73" s="26"/>
-      <c r="S73" s="26"/>
-      <c r="T73" s="26"/>
-      <c r="U73" s="26"/>
-      <c r="V73" s="181"/>
-      <c r="W73" s="181"/>
-      <c r="X73" s="26"/>
-      <c r="Y73" s="26"/>
-      <c r="Z73" s="26"/>
-      <c r="AA73" s="26"/>
-      <c r="AB73" s="26"/>
-      <c r="AC73" s="181"/>
-      <c r="AD73" s="181"/>
-      <c r="AE73" s="26"/>
-      <c r="AF73" s="118"/>
+      <c r="C73" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="D73" s="75" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+      <c r="I73" s="66"/>
+      <c r="J73" s="66"/>
+      <c r="K73" s="67"/>
+      <c r="L73" s="67"/>
+      <c r="M73" s="67"/>
+      <c r="N73" s="171"/>
+      <c r="O73" s="153"/>
+      <c r="P73" s="69"/>
+      <c r="Q73" s="69"/>
+      <c r="R73" s="69"/>
+      <c r="S73" s="69"/>
+      <c r="T73" s="69"/>
+      <c r="U73" s="69"/>
+      <c r="V73" s="69"/>
+      <c r="W73" s="69"/>
+      <c r="X73" s="69"/>
+      <c r="Y73" s="69"/>
+      <c r="Z73" s="69"/>
+      <c r="AA73" s="69"/>
+      <c r="AB73" s="69"/>
+      <c r="AC73" s="69"/>
+      <c r="AD73" s="69"/>
+      <c r="AE73" s="69"/>
+      <c r="AF73" s="172"/>
     </row>
     <row r="74" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C74" s="199" t="s">
-        <v>78</v>
-      </c>
-      <c r="D74" s="200"/>
-      <c r="E74" s="200"/>
-      <c r="F74" s="200"/>
-      <c r="G74" s="200"/>
-      <c r="H74" s="200"/>
-      <c r="I74" s="200"/>
-      <c r="J74" s="201"/>
+      <c r="C74" s="200" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74" s="201"/>
+      <c r="E74" s="201"/>
+      <c r="F74" s="201"/>
+      <c r="G74" s="201"/>
+      <c r="H74" s="201"/>
+      <c r="I74" s="201"/>
+      <c r="J74" s="202"/>
       <c r="K74" s="195"/>
-      <c r="L74" s="195"/>
+      <c r="L74" s="199"/>
       <c r="M74" s="32" t="s">
         <v>46</v>
       </c>
@@ -9108,14 +9195,14 @@
       <c r="AF74" s="117"/>
     </row>
     <row r="75" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C75" s="202"/>
-      <c r="D75" s="203"/>
-      <c r="E75" s="203"/>
-      <c r="F75" s="203"/>
-      <c r="G75" s="203"/>
-      <c r="H75" s="203"/>
-      <c r="I75" s="203"/>
-      <c r="J75" s="204"/>
+      <c r="C75" s="203"/>
+      <c r="D75" s="204"/>
+      <c r="E75" s="204"/>
+      <c r="F75" s="204"/>
+      <c r="G75" s="204"/>
+      <c r="H75" s="204"/>
+      <c r="I75" s="204"/>
+      <c r="J75" s="205"/>
       <c r="K75" s="196"/>
       <c r="L75" s="196"/>
       <c r="M75" s="30" t="s">
@@ -9142,22 +9229,22 @@
       <c r="AF75" s="118"/>
     </row>
     <row r="76" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C76" s="199" t="s">
-        <v>79</v>
-      </c>
-      <c r="D76" s="200"/>
-      <c r="E76" s="200"/>
-      <c r="F76" s="200"/>
-      <c r="G76" s="200"/>
-      <c r="H76" s="200"/>
-      <c r="I76" s="200"/>
-      <c r="J76" s="201"/>
+      <c r="C76" s="200" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76" s="201"/>
+      <c r="E76" s="201"/>
+      <c r="F76" s="201"/>
+      <c r="G76" s="201"/>
+      <c r="H76" s="201"/>
+      <c r="I76" s="201"/>
+      <c r="J76" s="202"/>
       <c r="K76" s="195"/>
-      <c r="L76" s="195"/>
+      <c r="L76" s="199"/>
       <c r="M76" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="N76" s="160"/>
+      <c r="N76" s="116"/>
       <c r="O76" s="179"/>
       <c r="P76" s="179"/>
       <c r="Q76" s="22"/>
@@ -9178,76 +9265,275 @@
       <c r="AF76" s="117"/>
     </row>
     <row r="77" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C77" s="202"/>
-      <c r="D77" s="203"/>
-      <c r="E77" s="203"/>
-      <c r="F77" s="203"/>
-      <c r="G77" s="203"/>
-      <c r="H77" s="203"/>
-      <c r="I77" s="203"/>
-      <c r="J77" s="204"/>
+      <c r="C77" s="203"/>
+      <c r="D77" s="204"/>
+      <c r="E77" s="204"/>
+      <c r="F77" s="204"/>
+      <c r="G77" s="204"/>
+      <c r="H77" s="204"/>
+      <c r="I77" s="204"/>
+      <c r="J77" s="205"/>
       <c r="K77" s="196"/>
       <c r="L77" s="196"/>
       <c r="M77" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="N77" s="173"/>
-      <c r="O77" s="186"/>
-      <c r="P77" s="186"/>
-      <c r="Q77" s="174"/>
-      <c r="R77" s="174"/>
-      <c r="S77" s="174"/>
-      <c r="T77" s="174"/>
-      <c r="U77" s="174"/>
-      <c r="V77" s="186"/>
-      <c r="W77" s="186"/>
-      <c r="X77" s="174"/>
-      <c r="Y77" s="174"/>
-      <c r="Z77" s="174"/>
-      <c r="AA77" s="174"/>
-      <c r="AB77" s="174"/>
-      <c r="AC77" s="186"/>
-      <c r="AD77" s="186"/>
-      <c r="AE77" s="174"/>
-      <c r="AF77" s="175"/>
+      <c r="N77" s="115"/>
+      <c r="O77" s="181"/>
+      <c r="P77" s="181"/>
+      <c r="Q77" s="26"/>
+      <c r="R77" s="26"/>
+      <c r="S77" s="26"/>
+      <c r="T77" s="26"/>
+      <c r="U77" s="26"/>
+      <c r="V77" s="181"/>
+      <c r="W77" s="181"/>
+      <c r="X77" s="26"/>
+      <c r="Y77" s="26"/>
+      <c r="Z77" s="26"/>
+      <c r="AA77" s="26"/>
+      <c r="AB77" s="26"/>
+      <c r="AC77" s="181"/>
+      <c r="AD77" s="181"/>
+      <c r="AE77" s="26"/>
+      <c r="AF77" s="118"/>
     </row>
     <row r="78" spans="3:32" x14ac:dyDescent="0.15">
-      <c r="C78" s="59"/>
-      <c r="D78" s="60"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="60"/>
-      <c r="H78" s="60"/>
-      <c r="I78" s="60"/>
-      <c r="J78" s="60"/>
-      <c r="K78" s="61"/>
-      <c r="L78" s="76"/>
-      <c r="M78" s="61"/>
-      <c r="N78" s="62"/>
-      <c r="O78" s="39"/>
-      <c r="P78" s="39"/>
-      <c r="Q78" s="39"/>
-      <c r="R78" s="39"/>
-      <c r="S78" s="39"/>
-      <c r="T78" s="39"/>
-      <c r="U78" s="39"/>
-      <c r="V78" s="39"/>
-      <c r="W78" s="39"/>
-      <c r="X78" s="39"/>
-      <c r="Y78" s="39"/>
-      <c r="Z78" s="39"/>
-      <c r="AA78" s="39"/>
-      <c r="AB78" s="39"/>
-      <c r="AC78" s="39"/>
-      <c r="AD78" s="39"/>
-      <c r="AE78" s="39"/>
-      <c r="AF78" s="108"/>
+      <c r="C78" s="200" t="s">
+        <v>78</v>
+      </c>
+      <c r="D78" s="201"/>
+      <c r="E78" s="201"/>
+      <c r="F78" s="201"/>
+      <c r="G78" s="201"/>
+      <c r="H78" s="201"/>
+      <c r="I78" s="201"/>
+      <c r="J78" s="202"/>
+      <c r="K78" s="195"/>
+      <c r="L78" s="195"/>
+      <c r="M78" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N78" s="116"/>
+      <c r="O78" s="179"/>
+      <c r="P78" s="179"/>
+      <c r="Q78" s="22"/>
+      <c r="R78" s="154"/>
+      <c r="S78" s="22"/>
+      <c r="T78" s="22"/>
+      <c r="U78" s="22"/>
+      <c r="V78" s="179"/>
+      <c r="W78" s="179"/>
+      <c r="X78" s="22"/>
+      <c r="Y78" s="22"/>
+      <c r="Z78" s="22"/>
+      <c r="AA78" s="22"/>
+      <c r="AB78" s="22"/>
+      <c r="AC78" s="179"/>
+      <c r="AD78" s="179"/>
+      <c r="AE78" s="22"/>
+      <c r="AF78" s="117"/>
+    </row>
+    <row r="79" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C79" s="203"/>
+      <c r="D79" s="204"/>
+      <c r="E79" s="204"/>
+      <c r="F79" s="204"/>
+      <c r="G79" s="204"/>
+      <c r="H79" s="204"/>
+      <c r="I79" s="204"/>
+      <c r="J79" s="205"/>
+      <c r="K79" s="196"/>
+      <c r="L79" s="196"/>
+      <c r="M79" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="N79" s="115"/>
+      <c r="O79" s="181"/>
+      <c r="P79" s="181"/>
+      <c r="Q79" s="26"/>
+      <c r="R79" s="26"/>
+      <c r="S79" s="26"/>
+      <c r="T79" s="26"/>
+      <c r="U79" s="26"/>
+      <c r="V79" s="181"/>
+      <c r="W79" s="181"/>
+      <c r="X79" s="26"/>
+      <c r="Y79" s="26"/>
+      <c r="Z79" s="26"/>
+      <c r="AA79" s="26"/>
+      <c r="AB79" s="26"/>
+      <c r="AC79" s="181"/>
+      <c r="AD79" s="181"/>
+      <c r="AE79" s="26"/>
+      <c r="AF79" s="118"/>
+    </row>
+    <row r="80" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C80" s="200" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80" s="201"/>
+      <c r="E80" s="201"/>
+      <c r="F80" s="201"/>
+      <c r="G80" s="201"/>
+      <c r="H80" s="201"/>
+      <c r="I80" s="201"/>
+      <c r="J80" s="202"/>
+      <c r="K80" s="195"/>
+      <c r="L80" s="195"/>
+      <c r="M80" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="N80" s="160"/>
+      <c r="O80" s="179"/>
+      <c r="P80" s="179"/>
+      <c r="Q80" s="22"/>
+      <c r="R80" s="154"/>
+      <c r="S80" s="22"/>
+      <c r="T80" s="22"/>
+      <c r="U80" s="22"/>
+      <c r="V80" s="179"/>
+      <c r="W80" s="179"/>
+      <c r="X80" s="22"/>
+      <c r="Y80" s="22"/>
+      <c r="Z80" s="22"/>
+      <c r="AA80" s="22"/>
+      <c r="AB80" s="22"/>
+      <c r="AC80" s="179"/>
+      <c r="AD80" s="179"/>
+      <c r="AE80" s="22"/>
+      <c r="AF80" s="117"/>
+    </row>
+    <row r="81" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C81" s="203"/>
+      <c r="D81" s="204"/>
+      <c r="E81" s="204"/>
+      <c r="F81" s="204"/>
+      <c r="G81" s="204"/>
+      <c r="H81" s="204"/>
+      <c r="I81" s="204"/>
+      <c r="J81" s="205"/>
+      <c r="K81" s="196"/>
+      <c r="L81" s="196"/>
+      <c r="M81" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="N81" s="173"/>
+      <c r="O81" s="186"/>
+      <c r="P81" s="186"/>
+      <c r="Q81" s="174"/>
+      <c r="R81" s="174"/>
+      <c r="S81" s="174"/>
+      <c r="T81" s="174"/>
+      <c r="U81" s="174"/>
+      <c r="V81" s="186"/>
+      <c r="W81" s="186"/>
+      <c r="X81" s="174"/>
+      <c r="Y81" s="174"/>
+      <c r="Z81" s="174"/>
+      <c r="AA81" s="174"/>
+      <c r="AB81" s="174"/>
+      <c r="AC81" s="186"/>
+      <c r="AD81" s="186"/>
+      <c r="AE81" s="174"/>
+      <c r="AF81" s="175"/>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.15">
+      <c r="C82" s="59"/>
+      <c r="D82" s="60"/>
+      <c r="E82" s="60"/>
+      <c r="F82" s="60"/>
+      <c r="G82" s="60"/>
+      <c r="H82" s="60"/>
+      <c r="I82" s="60"/>
+      <c r="J82" s="60"/>
+      <c r="K82" s="61"/>
+      <c r="L82" s="76"/>
+      <c r="M82" s="61"/>
+      <c r="N82" s="62"/>
+      <c r="O82" s="39"/>
+      <c r="P82" s="39"/>
+      <c r="Q82" s="39"/>
+      <c r="R82" s="39"/>
+      <c r="S82" s="39"/>
+      <c r="T82" s="39"/>
+      <c r="U82" s="39"/>
+      <c r="V82" s="39"/>
+      <c r="W82" s="39"/>
+      <c r="X82" s="39"/>
+      <c r="Y82" s="39"/>
+      <c r="Z82" s="39"/>
+      <c r="AA82" s="39"/>
+      <c r="AB82" s="39"/>
+      <c r="AC82" s="39"/>
+      <c r="AD82" s="39"/>
+      <c r="AE82" s="39"/>
+      <c r="AF82" s="108"/>
     </row>
   </sheetData>
   <autoFilter ref="K27:L27" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
-  <mergeCells count="69">
+  <mergeCells count="75">
+    <mergeCell ref="C70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="C66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="C68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="C64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="C60:J61"/>
     <mergeCell ref="K60:K61"/>
     <mergeCell ref="L60:L61"/>
+    <mergeCell ref="C62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="C56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="C52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="C54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="C46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="C50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="C80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="C76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="C78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="C74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="C40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="C44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="C48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="C58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
     <mergeCell ref="C30:J31"/>
     <mergeCell ref="K30:K31"/>
     <mergeCell ref="L30:L31"/>
@@ -9262,59 +9548,6 @@
     <mergeCell ref="L36:L37"/>
     <mergeCell ref="C38:J39"/>
     <mergeCell ref="K38:K39"/>
-    <mergeCell ref="C70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="C40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="C42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="C44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="C48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="C60:J61"/>
-    <mergeCell ref="C76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="C72:J73"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="C74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="C46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="C50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="C52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="C54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="C56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="C58:J59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="C66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="C62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="C64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -9333,7 +9566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B23:AF40"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
@@ -9559,7 +9792,7 @@
       <c r="I29" s="207"/>
       <c r="J29" s="208"/>
       <c r="K29" s="195"/>
-      <c r="L29" s="205"/>
+      <c r="L29" s="199"/>
       <c r="M29" s="45" t="s">
         <v>46</v>
       </c>
@@ -9631,7 +9864,7 @@
       <c r="I31" s="207"/>
       <c r="J31" s="208"/>
       <c r="K31" s="195"/>
-      <c r="L31" s="205"/>
+      <c r="L31" s="199"/>
       <c r="M31" s="45" t="s">
         <v>46</v>
       </c>
@@ -9703,7 +9936,7 @@
       <c r="I33" s="207"/>
       <c r="J33" s="208"/>
       <c r="K33" s="195"/>
-      <c r="L33" s="205"/>
+      <c r="L33" s="199"/>
       <c r="M33" s="45" t="s">
         <v>46</v>
       </c>
@@ -9775,7 +10008,7 @@
       <c r="I35" s="207"/>
       <c r="J35" s="208"/>
       <c r="K35" s="195"/>
-      <c r="L35" s="205"/>
+      <c r="L35" s="199"/>
       <c r="M35" s="45" t="s">
         <v>46</v>
       </c>
@@ -9847,7 +10080,7 @@
       <c r="I37" s="207"/>
       <c r="J37" s="208"/>
       <c r="K37" s="195"/>
-      <c r="L37" s="205"/>
+      <c r="L37" s="199"/>
       <c r="M37" s="45" t="s">
         <v>46</v>
       </c>
@@ -9955,12 +10188,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
     <mergeCell ref="C37:J38"/>
     <mergeCell ref="K37:K38"/>
     <mergeCell ref="L37:L38"/>
@@ -9970,6 +10197,12 @@
     <mergeCell ref="C35:J36"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:L36"/>
+    <mergeCell ref="C29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -10610,18 +10843,18 @@
     </row>
     <row r="30" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="199" t="s">
+      <c r="C30" s="200" t="s">
         <v>110</v>
       </c>
-      <c r="D30" s="200"/>
-      <c r="E30" s="200"/>
-      <c r="F30" s="200"/>
-      <c r="G30" s="200"/>
-      <c r="H30" s="200"/>
-      <c r="I30" s="200"/>
-      <c r="J30" s="201"/>
+      <c r="D30" s="201"/>
+      <c r="E30" s="201"/>
+      <c r="F30" s="201"/>
+      <c r="G30" s="201"/>
+      <c r="H30" s="201"/>
+      <c r="I30" s="201"/>
+      <c r="J30" s="202"/>
       <c r="K30" s="195"/>
-      <c r="L30" s="205"/>
+      <c r="L30" s="199"/>
       <c r="M30" s="32" t="s">
         <v>46</v>
       </c>
@@ -10697,14 +10930,14 @@
     </row>
     <row r="31" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="203"/>
-      <c r="E31" s="203"/>
-      <c r="F31" s="203"/>
-      <c r="G31" s="203"/>
-      <c r="H31" s="203"/>
-      <c r="I31" s="203"/>
-      <c r="J31" s="204"/>
+      <c r="C31" s="203"/>
+      <c r="D31" s="204"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="204"/>
+      <c r="I31" s="204"/>
+      <c r="J31" s="205"/>
       <c r="K31" s="196"/>
       <c r="L31" s="196"/>
       <c r="M31" s="30" t="s">
@@ -10782,18 +11015,18 @@
     </row>
     <row r="32" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="199" t="s">
+      <c r="C32" s="200" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="200"/>
-      <c r="E32" s="200"/>
-      <c r="F32" s="200"/>
-      <c r="G32" s="200"/>
-      <c r="H32" s="200"/>
-      <c r="I32" s="200"/>
-      <c r="J32" s="201"/>
+      <c r="D32" s="201"/>
+      <c r="E32" s="201"/>
+      <c r="F32" s="201"/>
+      <c r="G32" s="201"/>
+      <c r="H32" s="201"/>
+      <c r="I32" s="201"/>
+      <c r="J32" s="202"/>
       <c r="K32" s="195"/>
-      <c r="L32" s="205"/>
+      <c r="L32" s="199"/>
       <c r="M32" s="32" t="s">
         <v>46</v>
       </c>
@@ -10869,14 +11102,14 @@
     </row>
     <row r="33" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="203"/>
-      <c r="E33" s="203"/>
-      <c r="F33" s="203"/>
-      <c r="G33" s="203"/>
-      <c r="H33" s="203"/>
-      <c r="I33" s="203"/>
-      <c r="J33" s="204"/>
+      <c r="C33" s="203"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="204"/>
+      <c r="H33" s="204"/>
+      <c r="I33" s="204"/>
+      <c r="J33" s="205"/>
       <c r="K33" s="196"/>
       <c r="L33" s="196"/>
       <c r="M33" s="30" t="s">
@@ -10954,18 +11187,18 @@
     </row>
     <row r="34" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="199" t="s">
+      <c r="C34" s="200" t="s">
         <v>74</v>
       </c>
-      <c r="D34" s="200"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="200"/>
-      <c r="G34" s="200"/>
-      <c r="H34" s="200"/>
-      <c r="I34" s="200"/>
-      <c r="J34" s="201"/>
+      <c r="D34" s="201"/>
+      <c r="E34" s="201"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="202"/>
       <c r="K34" s="195"/>
-      <c r="L34" s="205"/>
+      <c r="L34" s="199"/>
       <c r="M34" s="32" t="s">
         <v>46</v>
       </c>
@@ -11041,14 +11274,14 @@
     </row>
     <row r="35" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="202"/>
-      <c r="D35" s="203"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="203"/>
-      <c r="G35" s="203"/>
-      <c r="H35" s="203"/>
-      <c r="I35" s="203"/>
-      <c r="J35" s="204"/>
+      <c r="C35" s="203"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="204"/>
+      <c r="G35" s="204"/>
+      <c r="H35" s="204"/>
+      <c r="I35" s="204"/>
+      <c r="J35" s="205"/>
       <c r="K35" s="196"/>
       <c r="L35" s="196"/>
       <c r="M35" s="30" t="s">
@@ -11126,18 +11359,18 @@
     </row>
     <row r="36" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="199" t="s">
+      <c r="C36" s="200" t="s">
         <v>111</v>
       </c>
-      <c r="D36" s="200"/>
-      <c r="E36" s="200"/>
-      <c r="F36" s="200"/>
-      <c r="G36" s="200"/>
-      <c r="H36" s="200"/>
-      <c r="I36" s="200"/>
-      <c r="J36" s="201"/>
+      <c r="D36" s="201"/>
+      <c r="E36" s="201"/>
+      <c r="F36" s="201"/>
+      <c r="G36" s="201"/>
+      <c r="H36" s="201"/>
+      <c r="I36" s="201"/>
+      <c r="J36" s="202"/>
       <c r="K36" s="195"/>
-      <c r="L36" s="205"/>
+      <c r="L36" s="199"/>
       <c r="M36" s="32" t="s">
         <v>46</v>
       </c>
@@ -11213,14 +11446,14 @@
     </row>
     <row r="37" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="203"/>
-      <c r="F37" s="203"/>
-      <c r="G37" s="203"/>
-      <c r="H37" s="203"/>
-      <c r="I37" s="203"/>
-      <c r="J37" s="204"/>
+      <c r="C37" s="203"/>
+      <c r="D37" s="204"/>
+      <c r="E37" s="204"/>
+      <c r="F37" s="204"/>
+      <c r="G37" s="204"/>
+      <c r="H37" s="204"/>
+      <c r="I37" s="204"/>
+      <c r="J37" s="205"/>
       <c r="K37" s="196"/>
       <c r="L37" s="196"/>
       <c r="M37" s="30" t="s">
@@ -11298,18 +11531,18 @@
     </row>
     <row r="38" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="199" t="s">
+      <c r="C38" s="200" t="s">
         <v>112</v>
       </c>
-      <c r="D38" s="200"/>
-      <c r="E38" s="200"/>
-      <c r="F38" s="200"/>
-      <c r="G38" s="200"/>
-      <c r="H38" s="200"/>
-      <c r="I38" s="200"/>
-      <c r="J38" s="201"/>
+      <c r="D38" s="201"/>
+      <c r="E38" s="201"/>
+      <c r="F38" s="201"/>
+      <c r="G38" s="201"/>
+      <c r="H38" s="201"/>
+      <c r="I38" s="201"/>
+      <c r="J38" s="202"/>
       <c r="K38" s="195"/>
-      <c r="L38" s="205"/>
+      <c r="L38" s="199"/>
       <c r="M38" s="32" t="s">
         <v>46</v>
       </c>
@@ -11385,14 +11618,14 @@
     </row>
     <row r="39" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="203"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="203"/>
-      <c r="G39" s="203"/>
-      <c r="H39" s="203"/>
-      <c r="I39" s="203"/>
-      <c r="J39" s="204"/>
+      <c r="C39" s="203"/>
+      <c r="D39" s="204"/>
+      <c r="E39" s="204"/>
+      <c r="F39" s="204"/>
+      <c r="G39" s="204"/>
+      <c r="H39" s="204"/>
+      <c r="I39" s="204"/>
+      <c r="J39" s="205"/>
       <c r="K39" s="196"/>
       <c r="L39" s="196"/>
       <c r="M39" s="30" t="s">
@@ -11470,18 +11703,18 @@
     </row>
     <row r="40" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="199" t="s">
+      <c r="C40" s="200" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="200"/>
-      <c r="E40" s="200"/>
-      <c r="F40" s="200"/>
-      <c r="G40" s="200"/>
-      <c r="H40" s="200"/>
-      <c r="I40" s="200"/>
-      <c r="J40" s="201"/>
+      <c r="D40" s="201"/>
+      <c r="E40" s="201"/>
+      <c r="F40" s="201"/>
+      <c r="G40" s="201"/>
+      <c r="H40" s="201"/>
+      <c r="I40" s="201"/>
+      <c r="J40" s="202"/>
       <c r="K40" s="195"/>
-      <c r="L40" s="205"/>
+      <c r="L40" s="199"/>
       <c r="M40" s="32" t="s">
         <v>46</v>
       </c>
@@ -11557,14 +11790,14 @@
     </row>
     <row r="41" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="203"/>
-      <c r="G41" s="203"/>
-      <c r="H41" s="203"/>
-      <c r="I41" s="203"/>
-      <c r="J41" s="204"/>
+      <c r="C41" s="203"/>
+      <c r="D41" s="204"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="204"/>
+      <c r="G41" s="204"/>
+      <c r="H41" s="204"/>
+      <c r="I41" s="204"/>
+      <c r="J41" s="205"/>
       <c r="K41" s="196"/>
       <c r="L41" s="196"/>
       <c r="M41" s="30" t="s">
@@ -11642,18 +11875,18 @@
     </row>
     <row r="42" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="199" t="s">
+      <c r="C42" s="200" t="s">
         <v>114</v>
       </c>
-      <c r="D42" s="200"/>
-      <c r="E42" s="200"/>
-      <c r="F42" s="200"/>
-      <c r="G42" s="200"/>
-      <c r="H42" s="200"/>
-      <c r="I42" s="200"/>
-      <c r="J42" s="201"/>
+      <c r="D42" s="201"/>
+      <c r="E42" s="201"/>
+      <c r="F42" s="201"/>
+      <c r="G42" s="201"/>
+      <c r="H42" s="201"/>
+      <c r="I42" s="201"/>
+      <c r="J42" s="202"/>
       <c r="K42" s="195"/>
-      <c r="L42" s="205"/>
+      <c r="L42" s="199"/>
       <c r="M42" s="32" t="s">
         <v>46</v>
       </c>
@@ -11729,14 +11962,14 @@
     </row>
     <row r="43" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
-      <c r="C43" s="202"/>
-      <c r="D43" s="203"/>
-      <c r="E43" s="203"/>
-      <c r="F43" s="203"/>
-      <c r="G43" s="203"/>
-      <c r="H43" s="203"/>
-      <c r="I43" s="203"/>
-      <c r="J43" s="204"/>
+      <c r="C43" s="203"/>
+      <c r="D43" s="204"/>
+      <c r="E43" s="204"/>
+      <c r="F43" s="204"/>
+      <c r="G43" s="204"/>
+      <c r="H43" s="204"/>
+      <c r="I43" s="204"/>
+      <c r="J43" s="205"/>
       <c r="K43" s="196"/>
       <c r="L43" s="196"/>
       <c r="M43" s="30" t="s">
@@ -11814,18 +12047,18 @@
     </row>
     <row r="44" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
-      <c r="C44" s="199" t="s">
+      <c r="C44" s="200" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="200"/>
-      <c r="E44" s="200"/>
-      <c r="F44" s="200"/>
-      <c r="G44" s="200"/>
-      <c r="H44" s="200"/>
-      <c r="I44" s="200"/>
-      <c r="J44" s="201"/>
+      <c r="D44" s="201"/>
+      <c r="E44" s="201"/>
+      <c r="F44" s="201"/>
+      <c r="G44" s="201"/>
+      <c r="H44" s="201"/>
+      <c r="I44" s="201"/>
+      <c r="J44" s="202"/>
       <c r="K44" s="195"/>
-      <c r="L44" s="205"/>
+      <c r="L44" s="199"/>
       <c r="M44" s="32" t="s">
         <v>46</v>
       </c>
@@ -11901,14 +12134,14 @@
     </row>
     <row r="45" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
-      <c r="C45" s="202"/>
-      <c r="D45" s="203"/>
-      <c r="E45" s="203"/>
-      <c r="F45" s="203"/>
-      <c r="G45" s="203"/>
-      <c r="H45" s="203"/>
-      <c r="I45" s="203"/>
-      <c r="J45" s="204"/>
+      <c r="C45" s="203"/>
+      <c r="D45" s="204"/>
+      <c r="E45" s="204"/>
+      <c r="F45" s="204"/>
+      <c r="G45" s="204"/>
+      <c r="H45" s="204"/>
+      <c r="I45" s="204"/>
+      <c r="J45" s="205"/>
       <c r="K45" s="196"/>
       <c r="L45" s="196"/>
       <c r="M45" s="30" t="s">
@@ -11986,18 +12219,18 @@
     </row>
     <row r="46" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B46" s="3"/>
-      <c r="C46" s="199" t="s">
+      <c r="C46" s="200" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="200"/>
-      <c r="E46" s="200"/>
-      <c r="F46" s="200"/>
-      <c r="G46" s="200"/>
-      <c r="H46" s="200"/>
-      <c r="I46" s="200"/>
-      <c r="J46" s="201"/>
+      <c r="D46" s="201"/>
+      <c r="E46" s="201"/>
+      <c r="F46" s="201"/>
+      <c r="G46" s="201"/>
+      <c r="H46" s="201"/>
+      <c r="I46" s="201"/>
+      <c r="J46" s="202"/>
       <c r="K46" s="195"/>
-      <c r="L46" s="205"/>
+      <c r="L46" s="199"/>
       <c r="M46" s="32" t="s">
         <v>46</v>
       </c>
@@ -12073,14 +12306,14 @@
     </row>
     <row r="47" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B47" s="3"/>
-      <c r="C47" s="202"/>
-      <c r="D47" s="203"/>
-      <c r="E47" s="203"/>
-      <c r="F47" s="203"/>
-      <c r="G47" s="203"/>
-      <c r="H47" s="203"/>
-      <c r="I47" s="203"/>
-      <c r="J47" s="204"/>
+      <c r="C47" s="203"/>
+      <c r="D47" s="204"/>
+      <c r="E47" s="204"/>
+      <c r="F47" s="204"/>
+      <c r="G47" s="204"/>
+      <c r="H47" s="204"/>
+      <c r="I47" s="204"/>
+      <c r="J47" s="205"/>
       <c r="K47" s="196"/>
       <c r="L47" s="196"/>
       <c r="M47" s="30" t="s">
@@ -12158,18 +12391,18 @@
     </row>
     <row r="48" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B48" s="3"/>
-      <c r="C48" s="199" t="s">
+      <c r="C48" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="200"/>
-      <c r="E48" s="200"/>
-      <c r="F48" s="200"/>
-      <c r="G48" s="200"/>
-      <c r="H48" s="200"/>
-      <c r="I48" s="200"/>
-      <c r="J48" s="201"/>
+      <c r="D48" s="201"/>
+      <c r="E48" s="201"/>
+      <c r="F48" s="201"/>
+      <c r="G48" s="201"/>
+      <c r="H48" s="201"/>
+      <c r="I48" s="201"/>
+      <c r="J48" s="202"/>
       <c r="K48" s="195"/>
-      <c r="L48" s="205"/>
+      <c r="L48" s="199"/>
       <c r="M48" s="32" t="s">
         <v>46</v>
       </c>
@@ -12245,14 +12478,14 @@
     </row>
     <row r="49" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
-      <c r="C49" s="202"/>
-      <c r="D49" s="203"/>
-      <c r="E49" s="203"/>
-      <c r="F49" s="203"/>
-      <c r="G49" s="203"/>
-      <c r="H49" s="203"/>
-      <c r="I49" s="203"/>
-      <c r="J49" s="204"/>
+      <c r="C49" s="203"/>
+      <c r="D49" s="204"/>
+      <c r="E49" s="204"/>
+      <c r="F49" s="204"/>
+      <c r="G49" s="204"/>
+      <c r="H49" s="204"/>
+      <c r="I49" s="204"/>
+      <c r="J49" s="205"/>
       <c r="K49" s="196"/>
       <c r="L49" s="196"/>
       <c r="M49" s="30" t="s">
@@ -12330,18 +12563,18 @@
     </row>
     <row r="50" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
-      <c r="C50" s="199" t="s">
+      <c r="C50" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="D50" s="200"/>
-      <c r="E50" s="200"/>
-      <c r="F50" s="200"/>
-      <c r="G50" s="200"/>
-      <c r="H50" s="200"/>
-      <c r="I50" s="200"/>
-      <c r="J50" s="201"/>
+      <c r="D50" s="201"/>
+      <c r="E50" s="201"/>
+      <c r="F50" s="201"/>
+      <c r="G50" s="201"/>
+      <c r="H50" s="201"/>
+      <c r="I50" s="201"/>
+      <c r="J50" s="202"/>
       <c r="K50" s="195"/>
-      <c r="L50" s="205"/>
+      <c r="L50" s="199"/>
       <c r="M50" s="32" t="s">
         <v>46</v>
       </c>
@@ -12417,14 +12650,14 @@
     </row>
     <row r="51" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
-      <c r="C51" s="202"/>
-      <c r="D51" s="203"/>
-      <c r="E51" s="203"/>
-      <c r="F51" s="203"/>
-      <c r="G51" s="203"/>
-      <c r="H51" s="203"/>
-      <c r="I51" s="203"/>
-      <c r="J51" s="204"/>
+      <c r="C51" s="203"/>
+      <c r="D51" s="204"/>
+      <c r="E51" s="204"/>
+      <c r="F51" s="204"/>
+      <c r="G51" s="204"/>
+      <c r="H51" s="204"/>
+      <c r="I51" s="204"/>
+      <c r="J51" s="205"/>
       <c r="K51" s="196"/>
       <c r="L51" s="196"/>
       <c r="M51" s="30" t="s">
@@ -12445,18 +12678,18 @@
     </row>
     <row r="52" spans="2:82" x14ac:dyDescent="0.15">
       <c r="B52" s="4"/>
-      <c r="C52" s="199" t="s">
+      <c r="C52" s="200" t="s">
         <v>119</v>
       </c>
-      <c r="D52" s="200"/>
-      <c r="E52" s="200"/>
-      <c r="F52" s="200"/>
-      <c r="G52" s="200"/>
-      <c r="H52" s="200"/>
-      <c r="I52" s="200"/>
-      <c r="J52" s="201"/>
+      <c r="D52" s="201"/>
+      <c r="E52" s="201"/>
+      <c r="F52" s="201"/>
+      <c r="G52" s="201"/>
+      <c r="H52" s="201"/>
+      <c r="I52" s="201"/>
+      <c r="J52" s="202"/>
       <c r="K52" s="195"/>
-      <c r="L52" s="205"/>
+      <c r="L52" s="199"/>
       <c r="M52" s="32" t="s">
         <v>46</v>
       </c>
@@ -12474,14 +12707,14 @@
       <c r="Y52" s="117"/>
     </row>
     <row r="53" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="C53" s="202"/>
-      <c r="D53" s="203"/>
-      <c r="E53" s="203"/>
-      <c r="F53" s="203"/>
-      <c r="G53" s="203"/>
-      <c r="H53" s="203"/>
-      <c r="I53" s="203"/>
-      <c r="J53" s="204"/>
+      <c r="C53" s="203"/>
+      <c r="D53" s="204"/>
+      <c r="E53" s="204"/>
+      <c r="F53" s="204"/>
+      <c r="G53" s="204"/>
+      <c r="H53" s="204"/>
+      <c r="I53" s="204"/>
+      <c r="J53" s="205"/>
       <c r="K53" s="196"/>
       <c r="L53" s="196"/>
       <c r="M53" s="30" t="s">
@@ -12501,18 +12734,18 @@
       <c r="Y53" s="118"/>
     </row>
     <row r="54" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="C54" s="199" t="s">
+      <c r="C54" s="200" t="s">
         <v>120</v>
       </c>
-      <c r="D54" s="200"/>
-      <c r="E54" s="200"/>
-      <c r="F54" s="200"/>
-      <c r="G54" s="200"/>
-      <c r="H54" s="200"/>
-      <c r="I54" s="200"/>
-      <c r="J54" s="201"/>
+      <c r="D54" s="201"/>
+      <c r="E54" s="201"/>
+      <c r="F54" s="201"/>
+      <c r="G54" s="201"/>
+      <c r="H54" s="201"/>
+      <c r="I54" s="201"/>
+      <c r="J54" s="202"/>
       <c r="K54" s="195"/>
-      <c r="L54" s="205"/>
+      <c r="L54" s="199"/>
       <c r="M54" s="32" t="s">
         <v>46</v>
       </c>
@@ -12530,14 +12763,14 @@
       <c r="Y54" s="117"/>
     </row>
     <row r="55" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="C55" s="202"/>
-      <c r="D55" s="203"/>
-      <c r="E55" s="203"/>
-      <c r="F55" s="203"/>
-      <c r="G55" s="203"/>
-      <c r="H55" s="203"/>
-      <c r="I55" s="203"/>
-      <c r="J55" s="204"/>
+      <c r="C55" s="203"/>
+      <c r="D55" s="204"/>
+      <c r="E55" s="204"/>
+      <c r="F55" s="204"/>
+      <c r="G55" s="204"/>
+      <c r="H55" s="204"/>
+      <c r="I55" s="204"/>
+      <c r="J55" s="205"/>
       <c r="K55" s="196"/>
       <c r="L55" s="196"/>
       <c r="M55" s="30" t="s">
@@ -12557,18 +12790,18 @@
       <c r="Y55" s="118"/>
     </row>
     <row r="56" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="C56" s="199" t="s">
+      <c r="C56" s="200" t="s">
         <v>121</v>
       </c>
-      <c r="D56" s="200"/>
-      <c r="E56" s="200"/>
-      <c r="F56" s="200"/>
-      <c r="G56" s="200"/>
-      <c r="H56" s="200"/>
-      <c r="I56" s="200"/>
-      <c r="J56" s="201"/>
+      <c r="D56" s="201"/>
+      <c r="E56" s="201"/>
+      <c r="F56" s="201"/>
+      <c r="G56" s="201"/>
+      <c r="H56" s="201"/>
+      <c r="I56" s="201"/>
+      <c r="J56" s="202"/>
       <c r="K56" s="195"/>
-      <c r="L56" s="205"/>
+      <c r="L56" s="199"/>
       <c r="M56" s="32" t="s">
         <v>46</v>
       </c>
@@ -12586,14 +12819,14 @@
       <c r="Y56" s="117"/>
     </row>
     <row r="57" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="C57" s="202"/>
-      <c r="D57" s="203"/>
-      <c r="E57" s="203"/>
-      <c r="F57" s="203"/>
-      <c r="G57" s="203"/>
-      <c r="H57" s="203"/>
-      <c r="I57" s="203"/>
-      <c r="J57" s="204"/>
+      <c r="C57" s="203"/>
+      <c r="D57" s="204"/>
+      <c r="E57" s="204"/>
+      <c r="F57" s="204"/>
+      <c r="G57" s="204"/>
+      <c r="H57" s="204"/>
+      <c r="I57" s="204"/>
+      <c r="J57" s="205"/>
       <c r="K57" s="196"/>
       <c r="L57" s="196"/>
       <c r="M57" s="30" t="s">
@@ -12613,18 +12846,18 @@
       <c r="Y57" s="118"/>
     </row>
     <row r="58" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="C58" s="199" t="s">
+      <c r="C58" s="200" t="s">
         <v>122</v>
       </c>
-      <c r="D58" s="200"/>
-      <c r="E58" s="200"/>
-      <c r="F58" s="200"/>
-      <c r="G58" s="200"/>
-      <c r="H58" s="200"/>
-      <c r="I58" s="200"/>
-      <c r="J58" s="201"/>
+      <c r="D58" s="201"/>
+      <c r="E58" s="201"/>
+      <c r="F58" s="201"/>
+      <c r="G58" s="201"/>
+      <c r="H58" s="201"/>
+      <c r="I58" s="201"/>
+      <c r="J58" s="202"/>
       <c r="K58" s="195"/>
-      <c r="L58" s="205"/>
+      <c r="L58" s="199"/>
       <c r="M58" s="32" t="s">
         <v>46</v>
       </c>
@@ -12642,14 +12875,14 @@
       <c r="Y58" s="117"/>
     </row>
     <row r="59" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="C59" s="202"/>
-      <c r="D59" s="203"/>
-      <c r="E59" s="203"/>
-      <c r="F59" s="203"/>
-      <c r="G59" s="203"/>
-      <c r="H59" s="203"/>
-      <c r="I59" s="203"/>
-      <c r="J59" s="204"/>
+      <c r="C59" s="203"/>
+      <c r="D59" s="204"/>
+      <c r="E59" s="204"/>
+      <c r="F59" s="204"/>
+      <c r="G59" s="204"/>
+      <c r="H59" s="204"/>
+      <c r="I59" s="204"/>
+      <c r="J59" s="205"/>
       <c r="K59" s="196"/>
       <c r="L59" s="196"/>
       <c r="M59" s="30" t="s">
@@ -12669,18 +12902,18 @@
       <c r="Y59" s="118"/>
     </row>
     <row r="60" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="C60" s="199" t="s">
+      <c r="C60" s="200" t="s">
         <v>123</v>
       </c>
-      <c r="D60" s="200"/>
-      <c r="E60" s="200"/>
-      <c r="F60" s="200"/>
-      <c r="G60" s="200"/>
-      <c r="H60" s="200"/>
-      <c r="I60" s="200"/>
-      <c r="J60" s="201"/>
+      <c r="D60" s="201"/>
+      <c r="E60" s="201"/>
+      <c r="F60" s="201"/>
+      <c r="G60" s="201"/>
+      <c r="H60" s="201"/>
+      <c r="I60" s="201"/>
+      <c r="J60" s="202"/>
       <c r="K60" s="195"/>
-      <c r="L60" s="205"/>
+      <c r="L60" s="199"/>
       <c r="M60" s="32" t="s">
         <v>46</v>
       </c>
@@ -12698,14 +12931,14 @@
       <c r="Y60" s="117"/>
     </row>
     <row r="61" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="C61" s="202"/>
-      <c r="D61" s="203"/>
-      <c r="E61" s="203"/>
-      <c r="F61" s="203"/>
-      <c r="G61" s="203"/>
-      <c r="H61" s="203"/>
-      <c r="I61" s="203"/>
-      <c r="J61" s="204"/>
+      <c r="C61" s="203"/>
+      <c r="D61" s="204"/>
+      <c r="E61" s="204"/>
+      <c r="F61" s="204"/>
+      <c r="G61" s="204"/>
+      <c r="H61" s="204"/>
+      <c r="I61" s="204"/>
+      <c r="J61" s="205"/>
       <c r="K61" s="196"/>
       <c r="L61" s="196"/>
       <c r="M61" s="30" t="s">
@@ -12779,18 +13012,18 @@
       <c r="Y63" s="172"/>
     </row>
     <row r="64" spans="2:82" x14ac:dyDescent="0.15">
-      <c r="C64" s="199" t="s">
+      <c r="C64" s="200" t="s">
         <v>76</v>
       </c>
-      <c r="D64" s="200"/>
-      <c r="E64" s="200"/>
-      <c r="F64" s="200"/>
-      <c r="G64" s="200"/>
-      <c r="H64" s="200"/>
-      <c r="I64" s="200"/>
-      <c r="J64" s="201"/>
+      <c r="D64" s="201"/>
+      <c r="E64" s="201"/>
+      <c r="F64" s="201"/>
+      <c r="G64" s="201"/>
+      <c r="H64" s="201"/>
+      <c r="I64" s="201"/>
+      <c r="J64" s="202"/>
       <c r="K64" s="195"/>
-      <c r="L64" s="205"/>
+      <c r="L64" s="199"/>
       <c r="M64" s="32" t="s">
         <v>46</v>
       </c>
@@ -12808,14 +13041,14 @@
       <c r="Y64" s="117"/>
     </row>
     <row r="65" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C65" s="202"/>
-      <c r="D65" s="203"/>
-      <c r="E65" s="203"/>
-      <c r="F65" s="203"/>
-      <c r="G65" s="203"/>
-      <c r="H65" s="203"/>
-      <c r="I65" s="203"/>
-      <c r="J65" s="204"/>
+      <c r="C65" s="203"/>
+      <c r="D65" s="204"/>
+      <c r="E65" s="204"/>
+      <c r="F65" s="204"/>
+      <c r="G65" s="204"/>
+      <c r="H65" s="204"/>
+      <c r="I65" s="204"/>
+      <c r="J65" s="205"/>
       <c r="K65" s="196"/>
       <c r="L65" s="196"/>
       <c r="M65" s="30" t="s">
@@ -12835,18 +13068,18 @@
       <c r="Y65" s="118"/>
     </row>
     <row r="66" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C66" s="199" t="s">
+      <c r="C66" s="200" t="s">
         <v>77</v>
       </c>
-      <c r="D66" s="200"/>
-      <c r="E66" s="200"/>
-      <c r="F66" s="200"/>
-      <c r="G66" s="200"/>
-      <c r="H66" s="200"/>
-      <c r="I66" s="200"/>
-      <c r="J66" s="201"/>
+      <c r="D66" s="201"/>
+      <c r="E66" s="201"/>
+      <c r="F66" s="201"/>
+      <c r="G66" s="201"/>
+      <c r="H66" s="201"/>
+      <c r="I66" s="201"/>
+      <c r="J66" s="202"/>
       <c r="K66" s="195"/>
-      <c r="L66" s="205"/>
+      <c r="L66" s="199"/>
       <c r="M66" s="32" t="s">
         <v>46</v>
       </c>
@@ -12864,14 +13097,14 @@
       <c r="Y66" s="117"/>
     </row>
     <row r="67" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C67" s="202"/>
-      <c r="D67" s="203"/>
-      <c r="E67" s="203"/>
-      <c r="F67" s="203"/>
-      <c r="G67" s="203"/>
-      <c r="H67" s="203"/>
-      <c r="I67" s="203"/>
-      <c r="J67" s="204"/>
+      <c r="C67" s="203"/>
+      <c r="D67" s="204"/>
+      <c r="E67" s="204"/>
+      <c r="F67" s="204"/>
+      <c r="G67" s="204"/>
+      <c r="H67" s="204"/>
+      <c r="I67" s="204"/>
+      <c r="J67" s="205"/>
       <c r="K67" s="196"/>
       <c r="L67" s="196"/>
       <c r="M67" s="30" t="s">
@@ -12891,16 +13124,16 @@
       <c r="Y67" s="118"/>
     </row>
     <row r="68" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C68" s="199" t="s">
+      <c r="C68" s="200" t="s">
         <v>78</v>
       </c>
-      <c r="D68" s="200"/>
-      <c r="E68" s="200"/>
-      <c r="F68" s="200"/>
-      <c r="G68" s="200"/>
-      <c r="H68" s="200"/>
-      <c r="I68" s="200"/>
-      <c r="J68" s="201"/>
+      <c r="D68" s="201"/>
+      <c r="E68" s="201"/>
+      <c r="F68" s="201"/>
+      <c r="G68" s="201"/>
+      <c r="H68" s="201"/>
+      <c r="I68" s="201"/>
+      <c r="J68" s="202"/>
       <c r="K68" s="195"/>
       <c r="L68" s="195"/>
       <c r="M68" s="32" t="s">
@@ -12920,14 +13153,14 @@
       <c r="Y68" s="117"/>
     </row>
     <row r="69" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C69" s="202"/>
-      <c r="D69" s="203"/>
-      <c r="E69" s="203"/>
-      <c r="F69" s="203"/>
-      <c r="G69" s="203"/>
-      <c r="H69" s="203"/>
-      <c r="I69" s="203"/>
-      <c r="J69" s="204"/>
+      <c r="C69" s="203"/>
+      <c r="D69" s="204"/>
+      <c r="E69" s="204"/>
+      <c r="F69" s="204"/>
+      <c r="G69" s="204"/>
+      <c r="H69" s="204"/>
+      <c r="I69" s="204"/>
+      <c r="J69" s="205"/>
       <c r="K69" s="196"/>
       <c r="L69" s="196"/>
       <c r="M69" s="30" t="s">
@@ -12947,16 +13180,16 @@
       <c r="Y69" s="118"/>
     </row>
     <row r="70" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C70" s="199" t="s">
+      <c r="C70" s="200" t="s">
         <v>79</v>
       </c>
-      <c r="D70" s="200"/>
-      <c r="E70" s="200"/>
-      <c r="F70" s="200"/>
-      <c r="G70" s="200"/>
-      <c r="H70" s="200"/>
-      <c r="I70" s="200"/>
-      <c r="J70" s="201"/>
+      <c r="D70" s="201"/>
+      <c r="E70" s="201"/>
+      <c r="F70" s="201"/>
+      <c r="G70" s="201"/>
+      <c r="H70" s="201"/>
+      <c r="I70" s="201"/>
+      <c r="J70" s="202"/>
       <c r="K70" s="195"/>
       <c r="L70" s="195"/>
       <c r="M70" s="32" t="s">
@@ -12976,14 +13209,14 @@
       <c r="Y70" s="117"/>
     </row>
     <row r="71" spans="3:25" x14ac:dyDescent="0.15">
-      <c r="C71" s="202"/>
-      <c r="D71" s="203"/>
-      <c r="E71" s="203"/>
-      <c r="F71" s="203"/>
-      <c r="G71" s="203"/>
-      <c r="H71" s="203"/>
-      <c r="I71" s="203"/>
-      <c r="J71" s="204"/>
+      <c r="C71" s="203"/>
+      <c r="D71" s="204"/>
+      <c r="E71" s="204"/>
+      <c r="F71" s="204"/>
+      <c r="G71" s="204"/>
+      <c r="H71" s="204"/>
+      <c r="I71" s="204"/>
+      <c r="J71" s="205"/>
       <c r="K71" s="196"/>
       <c r="L71" s="196"/>
       <c r="M71" s="30" t="s">
@@ -13029,51 +13262,6 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="C66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="C68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="C60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="C64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="C56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="C58:J59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="C52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="C54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="C34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="C36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="C38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="C40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
     <mergeCell ref="C50:J51"/>
     <mergeCell ref="K50:K51"/>
     <mergeCell ref="L50:L51"/>
@@ -13089,6 +13277,51 @@
     <mergeCell ref="C46:J47"/>
     <mergeCell ref="K46:K47"/>
     <mergeCell ref="L46:L47"/>
+    <mergeCell ref="C38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="C40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="C36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="C52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="C54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="C56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="C58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="C60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="C64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="C70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="C66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="C68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -13277,13 +13510,13 @@
       <c r="H25" s="103"/>
       <c r="I25" s="103"/>
       <c r="J25" s="103"/>
-      <c r="K25" s="219" t="s">
+      <c r="K25" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="221" t="s">
+      <c r="L25" s="215" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="221" t="s">
+      <c r="M25" s="215" t="s">
         <v>45</v>
       </c>
       <c r="N25" s="104">
@@ -13375,9 +13608,9 @@
       <c r="H26" s="91"/>
       <c r="I26" s="91"/>
       <c r="J26" s="91"/>
-      <c r="K26" s="220"/>
-      <c r="L26" s="222"/>
-      <c r="M26" s="222"/>
+      <c r="K26" s="214"/>
+      <c r="L26" s="216"/>
+      <c r="M26" s="216"/>
       <c r="N26" s="98">
         <v>43875</v>
       </c>
@@ -13569,20 +13802,20 @@
     </row>
     <row r="28" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B28" s="3"/>
-      <c r="C28" s="213" t="s">
+      <c r="C28" s="217" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="214"/>
-      <c r="E28" s="214"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="214"/>
-      <c r="H28" s="214"/>
-      <c r="I28" s="214"/>
-      <c r="J28" s="215"/>
+      <c r="D28" s="218"/>
+      <c r="E28" s="218"/>
+      <c r="F28" s="218"/>
+      <c r="G28" s="218"/>
+      <c r="H28" s="218"/>
+      <c r="I28" s="218"/>
+      <c r="J28" s="219"/>
       <c r="K28" s="195" t="s">
         <v>56</v>
       </c>
-      <c r="L28" s="205">
+      <c r="L28" s="199">
         <v>1</v>
       </c>
       <c r="M28" s="81" t="s">
@@ -13667,14 +13900,14 @@
     </row>
     <row r="29" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B29" s="3"/>
-      <c r="C29" s="216"/>
-      <c r="D29" s="217"/>
-      <c r="E29" s="217"/>
-      <c r="F29" s="217"/>
-      <c r="G29" s="217"/>
-      <c r="H29" s="217"/>
-      <c r="I29" s="217"/>
-      <c r="J29" s="218"/>
+      <c r="C29" s="220"/>
+      <c r="D29" s="221"/>
+      <c r="E29" s="221"/>
+      <c r="F29" s="221"/>
+      <c r="G29" s="221"/>
+      <c r="H29" s="221"/>
+      <c r="I29" s="221"/>
+      <c r="J29" s="222"/>
       <c r="K29" s="196"/>
       <c r="L29" s="212"/>
       <c r="M29" s="82" t="s">
@@ -13759,16 +13992,16 @@
     </row>
     <row r="30" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="213" t="s">
+      <c r="C30" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="214"/>
-      <c r="E30" s="214"/>
-      <c r="F30" s="214"/>
-      <c r="G30" s="214"/>
-      <c r="H30" s="214"/>
-      <c r="I30" s="214"/>
-      <c r="J30" s="215"/>
+      <c r="D30" s="218"/>
+      <c r="E30" s="218"/>
+      <c r="F30" s="218"/>
+      <c r="G30" s="218"/>
+      <c r="H30" s="218"/>
+      <c r="I30" s="218"/>
+      <c r="J30" s="219"/>
       <c r="K30" s="195" t="s">
         <v>56</v>
       </c>
@@ -13857,14 +14090,14 @@
     </row>
     <row r="31" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="216"/>
-      <c r="D31" s="217"/>
-      <c r="E31" s="217"/>
-      <c r="F31" s="217"/>
-      <c r="G31" s="217"/>
-      <c r="H31" s="217"/>
-      <c r="I31" s="217"/>
-      <c r="J31" s="218"/>
+      <c r="C31" s="220"/>
+      <c r="D31" s="221"/>
+      <c r="E31" s="221"/>
+      <c r="F31" s="221"/>
+      <c r="G31" s="221"/>
+      <c r="H31" s="221"/>
+      <c r="I31" s="221"/>
+      <c r="J31" s="222"/>
       <c r="K31" s="196"/>
       <c r="L31" s="157" t="s">
         <v>38</v>
@@ -13951,16 +14184,16 @@
     </row>
     <row r="32" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="213" t="s">
+      <c r="C32" s="217" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="214"/>
-      <c r="E32" s="214"/>
-      <c r="F32" s="214"/>
-      <c r="G32" s="214"/>
-      <c r="H32" s="214"/>
-      <c r="I32" s="214"/>
-      <c r="J32" s="215"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="218"/>
+      <c r="F32" s="218"/>
+      <c r="G32" s="218"/>
+      <c r="H32" s="218"/>
+      <c r="I32" s="218"/>
+      <c r="J32" s="219"/>
       <c r="K32" s="195" t="s">
         <v>56</v>
       </c>
@@ -14049,14 +14282,14 @@
     </row>
     <row r="33" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="216"/>
-      <c r="D33" s="217"/>
-      <c r="E33" s="217"/>
-      <c r="F33" s="217"/>
-      <c r="G33" s="217"/>
-      <c r="H33" s="217"/>
-      <c r="I33" s="217"/>
-      <c r="J33" s="218"/>
+      <c r="C33" s="220"/>
+      <c r="D33" s="221"/>
+      <c r="E33" s="221"/>
+      <c r="F33" s="221"/>
+      <c r="G33" s="221"/>
+      <c r="H33" s="221"/>
+      <c r="I33" s="221"/>
+      <c r="J33" s="222"/>
       <c r="K33" s="196"/>
       <c r="L33" s="157" t="s">
         <v>38</v>
@@ -14143,16 +14376,16 @@
     </row>
     <row r="34" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="213" t="s">
+      <c r="C34" s="217" t="s">
         <v>88</v>
       </c>
-      <c r="D34" s="214"/>
-      <c r="E34" s="214"/>
-      <c r="F34" s="214"/>
-      <c r="G34" s="214"/>
-      <c r="H34" s="214"/>
-      <c r="I34" s="214"/>
-      <c r="J34" s="215"/>
+      <c r="D34" s="218"/>
+      <c r="E34" s="218"/>
+      <c r="F34" s="218"/>
+      <c r="G34" s="218"/>
+      <c r="H34" s="218"/>
+      <c r="I34" s="218"/>
+      <c r="J34" s="219"/>
       <c r="K34" s="195" t="s">
         <v>56</v>
       </c>
@@ -14241,14 +14474,14 @@
     </row>
     <row r="35" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="216"/>
-      <c r="D35" s="217"/>
-      <c r="E35" s="217"/>
-      <c r="F35" s="217"/>
-      <c r="G35" s="217"/>
-      <c r="H35" s="217"/>
-      <c r="I35" s="217"/>
-      <c r="J35" s="218"/>
+      <c r="C35" s="220"/>
+      <c r="D35" s="221"/>
+      <c r="E35" s="221"/>
+      <c r="F35" s="221"/>
+      <c r="G35" s="221"/>
+      <c r="H35" s="221"/>
+      <c r="I35" s="221"/>
+      <c r="J35" s="222"/>
       <c r="K35" s="196"/>
       <c r="L35" s="157" t="s">
         <v>38</v>
@@ -14335,20 +14568,20 @@
     </row>
     <row r="36" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="213" t="s">
+      <c r="C36" s="217" t="s">
         <v>89</v>
       </c>
-      <c r="D36" s="214"/>
-      <c r="E36" s="214"/>
-      <c r="F36" s="214"/>
-      <c r="G36" s="214"/>
-      <c r="H36" s="214"/>
-      <c r="I36" s="214"/>
-      <c r="J36" s="215"/>
+      <c r="D36" s="218"/>
+      <c r="E36" s="218"/>
+      <c r="F36" s="218"/>
+      <c r="G36" s="218"/>
+      <c r="H36" s="218"/>
+      <c r="I36" s="218"/>
+      <c r="J36" s="219"/>
       <c r="K36" s="195" t="s">
         <v>57</v>
       </c>
-      <c r="L36" s="205">
+      <c r="L36" s="199">
         <v>0.7</v>
       </c>
       <c r="M36" s="81" t="s">
@@ -14433,14 +14666,14 @@
     </row>
     <row r="37" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="216"/>
-      <c r="D37" s="217"/>
-      <c r="E37" s="217"/>
-      <c r="F37" s="217"/>
-      <c r="G37" s="217"/>
-      <c r="H37" s="217"/>
-      <c r="I37" s="217"/>
-      <c r="J37" s="218"/>
+      <c r="C37" s="220"/>
+      <c r="D37" s="221"/>
+      <c r="E37" s="221"/>
+      <c r="F37" s="221"/>
+      <c r="G37" s="221"/>
+      <c r="H37" s="221"/>
+      <c r="I37" s="221"/>
+      <c r="J37" s="222"/>
       <c r="K37" s="196" t="s">
         <v>14</v>
       </c>
@@ -14529,20 +14762,20 @@
     </row>
     <row r="38" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="213" t="s">
+      <c r="C38" s="217" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="214"/>
-      <c r="E38" s="214"/>
-      <c r="F38" s="214"/>
-      <c r="G38" s="214"/>
-      <c r="H38" s="214"/>
-      <c r="I38" s="214"/>
-      <c r="J38" s="215"/>
+      <c r="D38" s="218"/>
+      <c r="E38" s="218"/>
+      <c r="F38" s="218"/>
+      <c r="G38" s="218"/>
+      <c r="H38" s="218"/>
+      <c r="I38" s="218"/>
+      <c r="J38" s="219"/>
       <c r="K38" s="195" t="s">
         <v>57</v>
       </c>
-      <c r="L38" s="205">
+      <c r="L38" s="199">
         <v>1</v>
       </c>
       <c r="M38" s="81" t="s">
@@ -14627,14 +14860,14 @@
     </row>
     <row r="39" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="216"/>
-      <c r="D39" s="217"/>
-      <c r="E39" s="217"/>
-      <c r="F39" s="217"/>
-      <c r="G39" s="217"/>
-      <c r="H39" s="217"/>
-      <c r="I39" s="217"/>
-      <c r="J39" s="218"/>
+      <c r="C39" s="220"/>
+      <c r="D39" s="221"/>
+      <c r="E39" s="221"/>
+      <c r="F39" s="221"/>
+      <c r="G39" s="221"/>
+      <c r="H39" s="221"/>
+      <c r="I39" s="221"/>
+      <c r="J39" s="222"/>
       <c r="K39" s="196" t="s">
         <v>14</v>
       </c>
@@ -14723,16 +14956,16 @@
     </row>
     <row r="40" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="213" t="s">
+      <c r="C40" s="217" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="214"/>
-      <c r="E40" s="214"/>
-      <c r="F40" s="214"/>
-      <c r="G40" s="214"/>
-      <c r="H40" s="214"/>
-      <c r="I40" s="214"/>
-      <c r="J40" s="215"/>
+      <c r="D40" s="218"/>
+      <c r="E40" s="218"/>
+      <c r="F40" s="218"/>
+      <c r="G40" s="218"/>
+      <c r="H40" s="218"/>
+      <c r="I40" s="218"/>
+      <c r="J40" s="219"/>
       <c r="K40" s="156" t="s">
         <v>57</v>
       </c>
@@ -14821,14 +15054,14 @@
     </row>
     <row r="41" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="216"/>
-      <c r="D41" s="217"/>
-      <c r="E41" s="217"/>
-      <c r="F41" s="217"/>
-      <c r="G41" s="217"/>
-      <c r="H41" s="217"/>
-      <c r="I41" s="217"/>
-      <c r="J41" s="218"/>
+      <c r="C41" s="220"/>
+      <c r="D41" s="221"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="221"/>
+      <c r="G41" s="221"/>
+      <c r="H41" s="221"/>
+      <c r="I41" s="221"/>
+      <c r="J41" s="222"/>
       <c r="K41" s="157" t="s">
         <v>14</v>
       </c>
@@ -14917,20 +15150,20 @@
     </row>
     <row r="42" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="213" t="s">
+      <c r="C42" s="217" t="s">
         <v>92</v>
       </c>
-      <c r="D42" s="214"/>
-      <c r="E42" s="214"/>
-      <c r="F42" s="214"/>
-      <c r="G42" s="214"/>
-      <c r="H42" s="214"/>
-      <c r="I42" s="214"/>
-      <c r="J42" s="215"/>
+      <c r="D42" s="218"/>
+      <c r="E42" s="218"/>
+      <c r="F42" s="218"/>
+      <c r="G42" s="218"/>
+      <c r="H42" s="218"/>
+      <c r="I42" s="218"/>
+      <c r="J42" s="219"/>
       <c r="K42" s="195" t="s">
         <v>57</v>
       </c>
-      <c r="L42" s="205">
+      <c r="L42" s="199">
         <v>1</v>
       </c>
       <c r="M42" s="81" t="s">
@@ -15015,14 +15248,14 @@
     </row>
     <row r="43" spans="2:89" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
-      <c r="C43" s="216"/>
-      <c r="D43" s="217"/>
-      <c r="E43" s="217"/>
-      <c r="F43" s="217"/>
-      <c r="G43" s="217"/>
-      <c r="H43" s="217"/>
-      <c r="I43" s="217"/>
-      <c r="J43" s="218"/>
+      <c r="C43" s="220"/>
+      <c r="D43" s="221"/>
+      <c r="E43" s="221"/>
+      <c r="F43" s="221"/>
+      <c r="G43" s="221"/>
+      <c r="H43" s="221"/>
+      <c r="I43" s="221"/>
+      <c r="J43" s="222"/>
       <c r="K43" s="196" t="s">
         <v>14</v>
       </c>
@@ -15339,18 +15572,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="C28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="C34:J35"/>
-    <mergeCell ref="K34:K35"/>
     <mergeCell ref="C36:J37"/>
     <mergeCell ref="K36:K37"/>
     <mergeCell ref="L36:L37"/>
@@ -15361,6 +15582,18 @@
     <mergeCell ref="K38:K39"/>
     <mergeCell ref="L38:L39"/>
     <mergeCell ref="C40:J41"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="C34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="C28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -15594,20 +15827,20 @@
     </row>
     <row r="30" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B30" s="3"/>
-      <c r="C30" s="199" t="s">
+      <c r="C30" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="D30" s="200"/>
-      <c r="E30" s="200" t="s">
+      <c r="D30" s="201"/>
+      <c r="E30" s="201" t="s">
         <v>29</v>
       </c>
-      <c r="F30" s="200" t="s">
+      <c r="F30" s="201" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="200"/>
-      <c r="H30" s="200"/>
-      <c r="I30" s="200"/>
-      <c r="J30" s="201"/>
+      <c r="G30" s="201"/>
+      <c r="H30" s="201"/>
+      <c r="I30" s="201"/>
+      <c r="J30" s="202"/>
       <c r="K30" s="195" t="s">
         <v>10</v>
       </c>
@@ -15635,14 +15868,14 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="203"/>
-      <c r="E31" s="203"/>
-      <c r="F31" s="203"/>
-      <c r="G31" s="203"/>
-      <c r="H31" s="203"/>
-      <c r="I31" s="203"/>
-      <c r="J31" s="204"/>
+      <c r="C31" s="203"/>
+      <c r="D31" s="204"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="204"/>
+      <c r="I31" s="204"/>
+      <c r="J31" s="205"/>
       <c r="K31" s="196"/>
       <c r="L31" s="198"/>
       <c r="M31" s="44" t="s">
@@ -15666,20 +15899,20 @@
     </row>
     <row r="32" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B32" s="3"/>
-      <c r="C32" s="199" t="s">
+      <c r="C32" s="200" t="s">
         <v>99</v>
       </c>
-      <c r="D32" s="200"/>
-      <c r="E32" s="200" t="s">
+      <c r="D32" s="201"/>
+      <c r="E32" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="F32" s="200" t="s">
+      <c r="F32" s="201" t="s">
         <v>17</v>
       </c>
-      <c r="G32" s="200"/>
-      <c r="H32" s="200"/>
-      <c r="I32" s="200"/>
-      <c r="J32" s="201"/>
+      <c r="G32" s="201"/>
+      <c r="H32" s="201"/>
+      <c r="I32" s="201"/>
+      <c r="J32" s="202"/>
       <c r="K32" s="195" t="s">
         <v>14</v>
       </c>
@@ -15707,14 +15940,14 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B33" s="3"/>
-      <c r="C33" s="202"/>
-      <c r="D33" s="203"/>
-      <c r="E33" s="203"/>
-      <c r="F33" s="203"/>
-      <c r="G33" s="203"/>
-      <c r="H33" s="203"/>
-      <c r="I33" s="203"/>
-      <c r="J33" s="204"/>
+      <c r="C33" s="203"/>
+      <c r="D33" s="204"/>
+      <c r="E33" s="204"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="204"/>
+      <c r="H33" s="204"/>
+      <c r="I33" s="204"/>
+      <c r="J33" s="205"/>
       <c r="K33" s="196"/>
       <c r="L33" s="198"/>
       <c r="M33" s="44" t="s">
@@ -15738,20 +15971,20 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="199" t="s">
+      <c r="C34" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="200"/>
-      <c r="E34" s="200" t="s">
+      <c r="D34" s="201"/>
+      <c r="E34" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="F34" s="200" t="s">
+      <c r="F34" s="201" t="s">
         <v>18</v>
       </c>
-      <c r="G34" s="200"/>
-      <c r="H34" s="200"/>
-      <c r="I34" s="200"/>
-      <c r="J34" s="201"/>
+      <c r="G34" s="201"/>
+      <c r="H34" s="201"/>
+      <c r="I34" s="201"/>
+      <c r="J34" s="202"/>
       <c r="K34" s="195" t="s">
         <v>14</v>
       </c>
@@ -15779,14 +16012,14 @@
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="202"/>
-      <c r="D35" s="203"/>
-      <c r="E35" s="203"/>
-      <c r="F35" s="203"/>
-      <c r="G35" s="203"/>
-      <c r="H35" s="203"/>
-      <c r="I35" s="203"/>
-      <c r="J35" s="204"/>
+      <c r="C35" s="203"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="204"/>
+      <c r="G35" s="204"/>
+      <c r="H35" s="204"/>
+      <c r="I35" s="204"/>
+      <c r="J35" s="205"/>
       <c r="K35" s="196"/>
       <c r="L35" s="198"/>
       <c r="M35" s="44" t="s">
@@ -15813,17 +16046,17 @@
       <c r="C36" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="D36" s="200"/>
-      <c r="E36" s="200" t="s">
+      <c r="D36" s="201"/>
+      <c r="E36" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="F36" s="200" t="s">
+      <c r="F36" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="200"/>
-      <c r="H36" s="200"/>
-      <c r="I36" s="200"/>
-      <c r="J36" s="201"/>
+      <c r="G36" s="201"/>
+      <c r="H36" s="201"/>
+      <c r="I36" s="201"/>
+      <c r="J36" s="202"/>
       <c r="K36" s="195" t="s">
         <v>14</v>
       </c>
@@ -15851,14 +16084,14 @@
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B37" s="3"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="203"/>
-      <c r="E37" s="203"/>
-      <c r="F37" s="203"/>
-      <c r="G37" s="203"/>
-      <c r="H37" s="203"/>
-      <c r="I37" s="203"/>
-      <c r="J37" s="204"/>
+      <c r="C37" s="203"/>
+      <c r="D37" s="204"/>
+      <c r="E37" s="204"/>
+      <c r="F37" s="204"/>
+      <c r="G37" s="204"/>
+      <c r="H37" s="204"/>
+      <c r="I37" s="204"/>
+      <c r="J37" s="205"/>
       <c r="K37" s="196"/>
       <c r="L37" s="198"/>
       <c r="M37" s="44" t="s">
@@ -15882,20 +16115,20 @@
     </row>
     <row r="38" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B38" s="3"/>
-      <c r="C38" s="199" t="s">
+      <c r="C38" s="200" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="200"/>
-      <c r="E38" s="200" t="s">
+      <c r="D38" s="201"/>
+      <c r="E38" s="201" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="200" t="s">
+      <c r="F38" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="G38" s="200"/>
-      <c r="H38" s="200"/>
-      <c r="I38" s="200"/>
-      <c r="J38" s="201"/>
+      <c r="G38" s="201"/>
+      <c r="H38" s="201"/>
+      <c r="I38" s="201"/>
+      <c r="J38" s="202"/>
       <c r="K38" s="195" t="s">
         <v>15</v>
       </c>
@@ -15923,14 +16156,14 @@
     </row>
     <row r="39" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B39" s="3"/>
-      <c r="C39" s="202"/>
-      <c r="D39" s="203"/>
-      <c r="E39" s="203"/>
-      <c r="F39" s="203"/>
-      <c r="G39" s="203"/>
-      <c r="H39" s="203"/>
-      <c r="I39" s="203"/>
-      <c r="J39" s="204"/>
+      <c r="C39" s="203"/>
+      <c r="D39" s="204"/>
+      <c r="E39" s="204"/>
+      <c r="F39" s="204"/>
+      <c r="G39" s="204"/>
+      <c r="H39" s="204"/>
+      <c r="I39" s="204"/>
+      <c r="J39" s="205"/>
       <c r="K39" s="196"/>
       <c r="L39" s="198"/>
       <c r="M39" s="44" t="s">
@@ -15954,20 +16187,20 @@
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B40" s="3"/>
-      <c r="C40" s="199" t="s">
+      <c r="C40" s="200" t="s">
         <v>95</v>
       </c>
-      <c r="D40" s="200"/>
-      <c r="E40" s="200" t="s">
+      <c r="D40" s="201"/>
+      <c r="E40" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="F40" s="200" t="s">
+      <c r="F40" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="G40" s="200"/>
-      <c r="H40" s="200"/>
-      <c r="I40" s="200"/>
-      <c r="J40" s="201"/>
+      <c r="G40" s="201"/>
+      <c r="H40" s="201"/>
+      <c r="I40" s="201"/>
+      <c r="J40" s="202"/>
       <c r="K40" s="195" t="s">
         <v>15</v>
       </c>
@@ -15995,14 +16228,14 @@
     </row>
     <row r="41" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B41" s="3"/>
-      <c r="C41" s="202"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="203"/>
-      <c r="G41" s="203"/>
-      <c r="H41" s="203"/>
-      <c r="I41" s="203"/>
-      <c r="J41" s="204"/>
+      <c r="C41" s="203"/>
+      <c r="D41" s="204"/>
+      <c r="E41" s="204"/>
+      <c r="F41" s="204"/>
+      <c r="G41" s="204"/>
+      <c r="H41" s="204"/>
+      <c r="I41" s="204"/>
+      <c r="J41" s="205"/>
       <c r="K41" s="196"/>
       <c r="L41" s="198"/>
       <c r="M41" s="44" t="s">
@@ -16026,20 +16259,20 @@
     </row>
     <row r="42" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B42" s="3"/>
-      <c r="C42" s="199" t="s">
+      <c r="C42" s="200" t="s">
         <v>94</v>
       </c>
-      <c r="D42" s="200"/>
-      <c r="E42" s="200" t="s">
+      <c r="D42" s="201"/>
+      <c r="E42" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="F42" s="200" t="s">
+      <c r="F42" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="G42" s="200"/>
-      <c r="H42" s="200"/>
-      <c r="I42" s="200"/>
-      <c r="J42" s="201"/>
+      <c r="G42" s="201"/>
+      <c r="H42" s="201"/>
+      <c r="I42" s="201"/>
+      <c r="J42" s="202"/>
       <c r="K42" s="195" t="s">
         <v>15</v>
       </c>
@@ -16067,14 +16300,14 @@
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B43" s="3"/>
-      <c r="C43" s="202"/>
-      <c r="D43" s="203"/>
-      <c r="E43" s="203"/>
-      <c r="F43" s="203"/>
-      <c r="G43" s="203"/>
-      <c r="H43" s="203"/>
-      <c r="I43" s="203"/>
-      <c r="J43" s="204"/>
+      <c r="C43" s="203"/>
+      <c r="D43" s="204"/>
+      <c r="E43" s="204"/>
+      <c r="F43" s="204"/>
+      <c r="G43" s="204"/>
+      <c r="H43" s="204"/>
+      <c r="I43" s="204"/>
+      <c r="J43" s="205"/>
       <c r="K43" s="196"/>
       <c r="L43" s="198"/>
       <c r="M43" s="44" t="s">
@@ -16098,20 +16331,20 @@
     </row>
     <row r="44" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B44" s="3"/>
-      <c r="C44" s="199" t="s">
+      <c r="C44" s="200" t="s">
         <v>93</v>
       </c>
-      <c r="D44" s="200"/>
-      <c r="E44" s="200" t="s">
+      <c r="D44" s="201"/>
+      <c r="E44" s="201" t="s">
         <v>36</v>
       </c>
-      <c r="F44" s="200" t="s">
+      <c r="F44" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="G44" s="200"/>
-      <c r="H44" s="200"/>
-      <c r="I44" s="200"/>
-      <c r="J44" s="201"/>
+      <c r="G44" s="201"/>
+      <c r="H44" s="201"/>
+      <c r="I44" s="201"/>
+      <c r="J44" s="202"/>
       <c r="K44" s="195" t="s">
         <v>21</v>
       </c>
@@ -16139,14 +16372,14 @@
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B45" s="3"/>
-      <c r="C45" s="202"/>
-      <c r="D45" s="203"/>
-      <c r="E45" s="203"/>
-      <c r="F45" s="203"/>
-      <c r="G45" s="203"/>
-      <c r="H45" s="203"/>
-      <c r="I45" s="203"/>
-      <c r="J45" s="204"/>
+      <c r="C45" s="203"/>
+      <c r="D45" s="204"/>
+      <c r="E45" s="204"/>
+      <c r="F45" s="204"/>
+      <c r="G45" s="204"/>
+      <c r="H45" s="204"/>
+      <c r="I45" s="204"/>
+      <c r="J45" s="205"/>
       <c r="K45" s="196"/>
       <c r="L45" s="198"/>
       <c r="M45" s="44" t="s">
@@ -16203,20 +16436,20 @@
     </row>
     <row r="47" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B47" s="3"/>
-      <c r="C47" s="199" t="s">
+      <c r="C47" s="200" t="s">
         <v>84</v>
       </c>
-      <c r="D47" s="200"/>
-      <c r="E47" s="200" t="s">
+      <c r="D47" s="201"/>
+      <c r="E47" s="201" t="s">
         <v>29</v>
       </c>
-      <c r="F47" s="200" t="s">
+      <c r="F47" s="201" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="200"/>
-      <c r="H47" s="200"/>
-      <c r="I47" s="200"/>
-      <c r="J47" s="201"/>
+      <c r="G47" s="201"/>
+      <c r="H47" s="201"/>
+      <c r="I47" s="201"/>
+      <c r="J47" s="202"/>
       <c r="K47" s="195" t="s">
         <v>14</v>
       </c>
@@ -16244,14 +16477,14 @@
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B48" s="3"/>
-      <c r="C48" s="202"/>
-      <c r="D48" s="203"/>
-      <c r="E48" s="203"/>
-      <c r="F48" s="203"/>
-      <c r="G48" s="203"/>
-      <c r="H48" s="203"/>
-      <c r="I48" s="203"/>
-      <c r="J48" s="204"/>
+      <c r="C48" s="203"/>
+      <c r="D48" s="204"/>
+      <c r="E48" s="204"/>
+      <c r="F48" s="204"/>
+      <c r="G48" s="204"/>
+      <c r="H48" s="204"/>
+      <c r="I48" s="204"/>
+      <c r="J48" s="205"/>
       <c r="K48" s="196"/>
       <c r="L48" s="198"/>
       <c r="M48" s="44" t="s">
@@ -16275,20 +16508,20 @@
     </row>
     <row r="49" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B49" s="3"/>
-      <c r="C49" s="199" t="s">
+      <c r="C49" s="200" t="s">
         <v>99</v>
       </c>
-      <c r="D49" s="200"/>
-      <c r="E49" s="200" t="s">
+      <c r="D49" s="201"/>
+      <c r="E49" s="201" t="s">
         <v>30</v>
       </c>
-      <c r="F49" s="200" t="s">
+      <c r="F49" s="201" t="s">
         <v>17</v>
       </c>
-      <c r="G49" s="200"/>
-      <c r="H49" s="200"/>
-      <c r="I49" s="200"/>
-      <c r="J49" s="201"/>
+      <c r="G49" s="201"/>
+      <c r="H49" s="201"/>
+      <c r="I49" s="201"/>
+      <c r="J49" s="202"/>
       <c r="K49" s="195" t="s">
         <v>15</v>
       </c>
@@ -16316,14 +16549,14 @@
     </row>
     <row r="50" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B50" s="3"/>
-      <c r="C50" s="202"/>
-      <c r="D50" s="203"/>
-      <c r="E50" s="203"/>
-      <c r="F50" s="203"/>
-      <c r="G50" s="203"/>
-      <c r="H50" s="203"/>
-      <c r="I50" s="203"/>
-      <c r="J50" s="204"/>
+      <c r="C50" s="203"/>
+      <c r="D50" s="204"/>
+      <c r="E50" s="204"/>
+      <c r="F50" s="204"/>
+      <c r="G50" s="204"/>
+      <c r="H50" s="204"/>
+      <c r="I50" s="204"/>
+      <c r="J50" s="205"/>
       <c r="K50" s="196"/>
       <c r="L50" s="198"/>
       <c r="M50" s="44" t="s">
@@ -16347,20 +16580,20 @@
     </row>
     <row r="51" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B51" s="3"/>
-      <c r="C51" s="199" t="s">
+      <c r="C51" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="D51" s="200"/>
-      <c r="E51" s="200" t="s">
+      <c r="D51" s="201"/>
+      <c r="E51" s="201" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="200" t="s">
+      <c r="F51" s="201" t="s">
         <v>18</v>
       </c>
-      <c r="G51" s="200"/>
-      <c r="H51" s="200"/>
-      <c r="I51" s="200"/>
-      <c r="J51" s="201"/>
+      <c r="G51" s="201"/>
+      <c r="H51" s="201"/>
+      <c r="I51" s="201"/>
+      <c r="J51" s="202"/>
       <c r="K51" s="195" t="s">
         <v>15</v>
       </c>
@@ -16388,14 +16621,14 @@
     </row>
     <row r="52" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B52" s="3"/>
-      <c r="C52" s="202"/>
-      <c r="D52" s="203"/>
-      <c r="E52" s="203"/>
-      <c r="F52" s="203"/>
-      <c r="G52" s="203"/>
-      <c r="H52" s="203"/>
-      <c r="I52" s="203"/>
-      <c r="J52" s="204"/>
+      <c r="C52" s="203"/>
+      <c r="D52" s="204"/>
+      <c r="E52" s="204"/>
+      <c r="F52" s="204"/>
+      <c r="G52" s="204"/>
+      <c r="H52" s="204"/>
+      <c r="I52" s="204"/>
+      <c r="J52" s="205"/>
       <c r="K52" s="196"/>
       <c r="L52" s="198"/>
       <c r="M52" s="44" t="s">
@@ -16422,17 +16655,17 @@
       <c r="C53" s="223" t="s">
         <v>97</v>
       </c>
-      <c r="D53" s="200"/>
-      <c r="E53" s="200" t="s">
+      <c r="D53" s="201"/>
+      <c r="E53" s="201" t="s">
         <v>32</v>
       </c>
-      <c r="F53" s="200" t="s">
+      <c r="F53" s="201" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="200"/>
-      <c r="H53" s="200"/>
-      <c r="I53" s="200"/>
-      <c r="J53" s="201"/>
+      <c r="G53" s="201"/>
+      <c r="H53" s="201"/>
+      <c r="I53" s="201"/>
+      <c r="J53" s="202"/>
       <c r="K53" s="195" t="s">
         <v>15</v>
       </c>
@@ -16460,14 +16693,14 @@
     </row>
     <row r="54" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B54" s="3"/>
-      <c r="C54" s="202"/>
-      <c r="D54" s="203"/>
-      <c r="E54" s="203"/>
-      <c r="F54" s="203"/>
-      <c r="G54" s="203"/>
-      <c r="H54" s="203"/>
-      <c r="I54" s="203"/>
-      <c r="J54" s="204"/>
+      <c r="C54" s="203"/>
+      <c r="D54" s="204"/>
+      <c r="E54" s="204"/>
+      <c r="F54" s="204"/>
+      <c r="G54" s="204"/>
+      <c r="H54" s="204"/>
+      <c r="I54" s="204"/>
+      <c r="J54" s="205"/>
       <c r="K54" s="196"/>
       <c r="L54" s="198"/>
       <c r="M54" s="44" t="s">
@@ -16491,20 +16724,20 @@
     </row>
     <row r="55" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B55" s="3"/>
-      <c r="C55" s="199" t="s">
+      <c r="C55" s="200" t="s">
         <v>96</v>
       </c>
-      <c r="D55" s="200"/>
-      <c r="E55" s="200" t="s">
+      <c r="D55" s="201"/>
+      <c r="E55" s="201" t="s">
         <v>33</v>
       </c>
-      <c r="F55" s="200" t="s">
+      <c r="F55" s="201" t="s">
         <v>23</v>
       </c>
-      <c r="G55" s="200"/>
-      <c r="H55" s="200"/>
-      <c r="I55" s="200"/>
-      <c r="J55" s="201"/>
+      <c r="G55" s="201"/>
+      <c r="H55" s="201"/>
+      <c r="I55" s="201"/>
+      <c r="J55" s="202"/>
       <c r="K55" s="195" t="s">
         <v>21</v>
       </c>
@@ -16532,14 +16765,14 @@
     </row>
     <row r="56" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B56" s="3"/>
-      <c r="C56" s="202"/>
-      <c r="D56" s="203"/>
-      <c r="E56" s="203"/>
-      <c r="F56" s="203"/>
-      <c r="G56" s="203"/>
-      <c r="H56" s="203"/>
-      <c r="I56" s="203"/>
-      <c r="J56" s="204"/>
+      <c r="C56" s="203"/>
+      <c r="D56" s="204"/>
+      <c r="E56" s="204"/>
+      <c r="F56" s="204"/>
+      <c r="G56" s="204"/>
+      <c r="H56" s="204"/>
+      <c r="I56" s="204"/>
+      <c r="J56" s="205"/>
       <c r="K56" s="196"/>
       <c r="L56" s="198"/>
       <c r="M56" s="44" t="s">
@@ -16563,20 +16796,20 @@
     </row>
     <row r="57" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B57" s="3"/>
-      <c r="C57" s="199" t="s">
+      <c r="C57" s="200" t="s">
         <v>95</v>
       </c>
-      <c r="D57" s="200"/>
-      <c r="E57" s="200" t="s">
+      <c r="D57" s="201"/>
+      <c r="E57" s="201" t="s">
         <v>34</v>
       </c>
-      <c r="F57" s="200" t="s">
+      <c r="F57" s="201" t="s">
         <v>24</v>
       </c>
-      <c r="G57" s="200"/>
-      <c r="H57" s="200"/>
-      <c r="I57" s="200"/>
-      <c r="J57" s="201"/>
+      <c r="G57" s="201"/>
+      <c r="H57" s="201"/>
+      <c r="I57" s="201"/>
+      <c r="J57" s="202"/>
       <c r="K57" s="195" t="s">
         <v>21</v>
       </c>
@@ -16604,14 +16837,14 @@
     </row>
     <row r="58" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B58" s="3"/>
-      <c r="C58" s="202"/>
-      <c r="D58" s="203"/>
-      <c r="E58" s="203"/>
-      <c r="F58" s="203"/>
-      <c r="G58" s="203"/>
-      <c r="H58" s="203"/>
-      <c r="I58" s="203"/>
-      <c r="J58" s="204"/>
+      <c r="C58" s="203"/>
+      <c r="D58" s="204"/>
+      <c r="E58" s="204"/>
+      <c r="F58" s="204"/>
+      <c r="G58" s="204"/>
+      <c r="H58" s="204"/>
+      <c r="I58" s="204"/>
+      <c r="J58" s="205"/>
       <c r="K58" s="196"/>
       <c r="L58" s="198"/>
       <c r="M58" s="44" t="s">
@@ -16635,20 +16868,20 @@
     </row>
     <row r="59" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B59" s="3"/>
-      <c r="C59" s="199" t="s">
+      <c r="C59" s="200" t="s">
         <v>94</v>
       </c>
-      <c r="D59" s="200"/>
-      <c r="E59" s="200" t="s">
+      <c r="D59" s="201"/>
+      <c r="E59" s="201" t="s">
         <v>35</v>
       </c>
-      <c r="F59" s="200" t="s">
+      <c r="F59" s="201" t="s">
         <v>25</v>
       </c>
-      <c r="G59" s="200"/>
-      <c r="H59" s="200"/>
-      <c r="I59" s="200"/>
-      <c r="J59" s="201"/>
+      <c r="G59" s="201"/>
+      <c r="H59" s="201"/>
+      <c r="I59" s="201"/>
+      <c r="J59" s="202"/>
       <c r="K59" s="195" t="s">
         <v>21</v>
       </c>
@@ -16676,14 +16909,14 @@
     </row>
     <row r="60" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B60" s="3"/>
-      <c r="C60" s="202"/>
-      <c r="D60" s="203"/>
-      <c r="E60" s="203"/>
-      <c r="F60" s="203"/>
-      <c r="G60" s="203"/>
-      <c r="H60" s="203"/>
-      <c r="I60" s="203"/>
-      <c r="J60" s="204"/>
+      <c r="C60" s="203"/>
+      <c r="D60" s="204"/>
+      <c r="E60" s="204"/>
+      <c r="F60" s="204"/>
+      <c r="G60" s="204"/>
+      <c r="H60" s="204"/>
+      <c r="I60" s="204"/>
+      <c r="J60" s="205"/>
       <c r="K60" s="196"/>
       <c r="L60" s="198"/>
       <c r="M60" s="44" t="s">
@@ -16707,20 +16940,20 @@
     </row>
     <row r="61" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B61" s="3"/>
-      <c r="C61" s="199" t="s">
+      <c r="C61" s="200" t="s">
         <v>93</v>
       </c>
-      <c r="D61" s="200"/>
-      <c r="E61" s="200" t="s">
+      <c r="D61" s="201"/>
+      <c r="E61" s="201" t="s">
         <v>36</v>
       </c>
-      <c r="F61" s="200" t="s">
+      <c r="F61" s="201" t="s">
         <v>26</v>
       </c>
-      <c r="G61" s="200"/>
-      <c r="H61" s="200"/>
-      <c r="I61" s="200"/>
-      <c r="J61" s="201"/>
+      <c r="G61" s="201"/>
+      <c r="H61" s="201"/>
+      <c r="I61" s="201"/>
+      <c r="J61" s="202"/>
       <c r="K61" s="195" t="s">
         <v>22</v>
       </c>
@@ -16748,14 +16981,14 @@
     </row>
     <row r="62" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B62" s="3"/>
-      <c r="C62" s="202"/>
-      <c r="D62" s="203"/>
-      <c r="E62" s="203"/>
-      <c r="F62" s="203"/>
-      <c r="G62" s="203"/>
-      <c r="H62" s="203"/>
-      <c r="I62" s="203"/>
-      <c r="J62" s="204"/>
+      <c r="C62" s="203"/>
+      <c r="D62" s="204"/>
+      <c r="E62" s="204"/>
+      <c r="F62" s="204"/>
+      <c r="G62" s="204"/>
+      <c r="H62" s="204"/>
+      <c r="I62" s="204"/>
+      <c r="J62" s="205"/>
       <c r="K62" s="196"/>
       <c r="L62" s="198"/>
       <c r="M62" s="44" t="s">
@@ -16808,38 +17041,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="C34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="C40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="C36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="C38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="C44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="C61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="C55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="C57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
     <mergeCell ref="L42:L43"/>
     <mergeCell ref="K42:K43"/>
     <mergeCell ref="C42:J43"/>
@@ -16856,6 +17057,38 @@
     <mergeCell ref="K47:K48"/>
     <mergeCell ref="L47:L48"/>
     <mergeCell ref="C49:J50"/>
+    <mergeCell ref="C61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="C55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="C57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="C44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="C34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="C40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="C38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -17087,17 +17320,17 @@
       <c r="C30" s="223" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="200"/>
-      <c r="E30" s="200"/>
-      <c r="F30" s="200"/>
-      <c r="G30" s="200"/>
-      <c r="H30" s="200"/>
-      <c r="I30" s="200"/>
-      <c r="J30" s="201"/>
+      <c r="D30" s="201"/>
+      <c r="E30" s="201"/>
+      <c r="F30" s="201"/>
+      <c r="G30" s="201"/>
+      <c r="H30" s="201"/>
+      <c r="I30" s="201"/>
+      <c r="J30" s="202"/>
       <c r="K30" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="L30" s="205">
+      <c r="L30" s="199">
         <v>0</v>
       </c>
       <c r="M30" s="45" t="s">
@@ -17121,14 +17354,14 @@
     </row>
     <row r="31" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B31" s="3"/>
-      <c r="C31" s="202"/>
-      <c r="D31" s="203"/>
-      <c r="E31" s="203"/>
-      <c r="F31" s="203"/>
-      <c r="G31" s="203"/>
-      <c r="H31" s="203"/>
-      <c r="I31" s="203"/>
-      <c r="J31" s="204"/>
+      <c r="C31" s="203"/>
+      <c r="D31" s="204"/>
+      <c r="E31" s="204"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="204"/>
+      <c r="H31" s="204"/>
+      <c r="I31" s="204"/>
+      <c r="J31" s="205"/>
       <c r="K31" s="196"/>
       <c r="L31" s="196"/>
       <c r="M31" s="44" t="s">
@@ -17188,17 +17421,17 @@
       <c r="C33" s="223" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="200"/>
-      <c r="E33" s="200"/>
-      <c r="F33" s="200"/>
-      <c r="G33" s="200"/>
-      <c r="H33" s="200"/>
-      <c r="I33" s="200"/>
-      <c r="J33" s="201"/>
+      <c r="D33" s="201"/>
+      <c r="E33" s="201"/>
+      <c r="F33" s="201"/>
+      <c r="G33" s="201"/>
+      <c r="H33" s="201"/>
+      <c r="I33" s="201"/>
+      <c r="J33" s="202"/>
       <c r="K33" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="L33" s="205">
+      <c r="L33" s="199">
         <v>0</v>
       </c>
       <c r="M33" s="45" t="s">
@@ -17222,14 +17455,14 @@
     </row>
     <row r="34" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B34" s="3"/>
-      <c r="C34" s="202"/>
-      <c r="D34" s="203"/>
-      <c r="E34" s="203"/>
-      <c r="F34" s="203"/>
-      <c r="G34" s="203"/>
-      <c r="H34" s="203"/>
-      <c r="I34" s="203"/>
-      <c r="J34" s="204"/>
+      <c r="C34" s="203"/>
+      <c r="D34" s="204"/>
+      <c r="E34" s="204"/>
+      <c r="F34" s="204"/>
+      <c r="G34" s="204"/>
+      <c r="H34" s="204"/>
+      <c r="I34" s="204"/>
+      <c r="J34" s="205"/>
       <c r="K34" s="196"/>
       <c r="L34" s="196"/>
       <c r="M34" s="44" t="s">
@@ -17253,20 +17486,20 @@
     </row>
     <row r="35" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B35" s="3"/>
-      <c r="C35" s="199" t="s">
+      <c r="C35" s="200" t="s">
         <v>103</v>
       </c>
-      <c r="D35" s="200"/>
-      <c r="E35" s="200"/>
-      <c r="F35" s="200"/>
-      <c r="G35" s="200"/>
-      <c r="H35" s="200"/>
-      <c r="I35" s="200"/>
-      <c r="J35" s="201"/>
+      <c r="D35" s="201"/>
+      <c r="E35" s="201"/>
+      <c r="F35" s="201"/>
+      <c r="G35" s="201"/>
+      <c r="H35" s="201"/>
+      <c r="I35" s="201"/>
+      <c r="J35" s="202"/>
       <c r="K35" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="L35" s="205">
+      <c r="L35" s="199">
         <v>0</v>
       </c>
       <c r="M35" s="45" t="s">
@@ -17290,14 +17523,14 @@
     </row>
     <row r="36" spans="2:28" x14ac:dyDescent="0.15">
       <c r="B36" s="3"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="203"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="203"/>
-      <c r="G36" s="203"/>
-      <c r="H36" s="203"/>
-      <c r="I36" s="203"/>
-      <c r="J36" s="204"/>
+      <c r="C36" s="203"/>
+      <c r="D36" s="204"/>
+      <c r="E36" s="204"/>
+      <c r="F36" s="204"/>
+      <c r="G36" s="204"/>
+      <c r="H36" s="204"/>
+      <c r="I36" s="204"/>
+      <c r="J36" s="205"/>
       <c r="K36" s="196"/>
       <c r="L36" s="196"/>
       <c r="M36" s="44" t="s">
@@ -17572,7 +17805,7 @@
       <c r="K29" s="195" t="s">
         <v>14</v>
       </c>
-      <c r="L29" s="205">
+      <c r="L29" s="199">
         <v>0</v>
       </c>
       <c r="M29" s="45" t="s">
@@ -17640,7 +17873,7 @@
       <c r="K31" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="L31" s="205">
+      <c r="L31" s="199">
         <v>0</v>
       </c>
       <c r="M31" s="45" t="s">
@@ -17708,7 +17941,7 @@
       <c r="K33" s="195" t="s">
         <v>20</v>
       </c>
-      <c r="L33" s="205">
+      <c r="L33" s="199">
         <v>0</v>
       </c>
       <c r="M33" s="45" t="s">

--- a/グループ開発スケジュール.xlsx
+++ b/グループ開発スケジュール.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\グループ開発ローカルリポジトリー\groupA_master1\groupA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\グループ開発ローカルリポジトリー\groupA_master\groupA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F7DA56-3C07-4759-B9A1-425CF24B0A1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3636CD20-6F25-4627-A86C-8907F404AA08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="560" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -813,29 +813,29 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. トップ</t>
+    <t>1. トップ index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2. ログイン</t>
+    <t>2. ログイン loginPage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3. アカウント作成</t>
+    <t>3. アカウント作成 createAccount</t>
     <rPh sb="8" eb="10">
       <t>さくせい</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4. アカウント登録</t>
+    <t>4. アカウント登録 confirmAccount</t>
     <rPh sb="8" eb="10">
       <t>とうろく</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5. アカウント登録完了</t>
+    <t>5. アカウント登録完了 completeAccount</t>
     <rPh sb="8" eb="10">
       <t>とうろく</t>
     </rPh>
@@ -845,18 +845,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6. メニュー</t>
+    <t>6. メニュー menu</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7. 記入</t>
+    <t>7. 記入 inputMoney</t>
     <rPh sb="3" eb="5">
       <t>きにゅう</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8. 記入確認</t>
+    <t>8. 記入確認 confirmInputMoney</t>
     <rPh sb="3" eb="5">
       <t>きにゅう</t>
     </rPh>
@@ -866,7 +866,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9. 記入完了</t>
+    <t>9. 記入完了 completeInputMoney</t>
     <rPh sb="3" eb="5">
       <t>きにゅう</t>
     </rPh>
@@ -876,7 +876,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10.項目編集</t>
+    <t>10.項目編集 updateItem</t>
     <rPh sb="3" eb="5">
       <t>こうもく</t>
     </rPh>
@@ -886,7 +886,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11. 項目削除確認</t>
+    <t>12. 年表示 displayYear</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13. 月表示 displayMonth</t>
+    <rPh sb="4" eb="5">
+      <t>つき</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ひょうじ</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14. カレンダー calendar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11. 項目削除確認 confirmdeleteItem</t>
     <rPh sb="4" eb="6">
       <t>こうもく</t>
     </rPh>
@@ -899,29 +917,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>12. 年表示</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13. 月表示</t>
-    <rPh sb="4" eb="5">
-      <t>つき</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ひょうじ</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>14. カレンダー</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15. 日データ閲覧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16. 日データ修正</t>
+    <t>16. 日データ修正 FixDairyData</t>
     <rPh sb="4" eb="5">
       <t>ひ</t>
     </rPh>
@@ -931,7 +927,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>17. 日データ削除確認</t>
+    <t>15. 日データ閲覧 dairyData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17. 日データ削除確認 comfirmDeleteDairyData</t>
     <rPh sb="4" eb="5">
       <t>にち</t>
     </rPh>
@@ -944,14 +944,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>18. 設定</t>
+    <t>18. 設定 setting</t>
     <rPh sb="4" eb="6">
       <t>せってい</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>19. 忘れ防止通知設定</t>
+    <t>19. 忘れ防止通知設定 LineNotice</t>
     <rPh sb="4" eb="5">
       <t>わす</t>
     </rPh>
@@ -967,7 +967,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20. 支払い通知設定</t>
+    <t>20. 支払い通知設定 NoticeMonth</t>
     <rPh sb="4" eb="6">
       <t>しはら</t>
     </rPh>
@@ -980,7 +980,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>21. ユーザー情報修正入力</t>
+    <t>21. ユーザー情報修正入力 inputUpdateUser</t>
     <rPh sb="8" eb="10">
       <t>じょうほう</t>
     </rPh>
@@ -993,7 +993,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22. ユーザー情報修正確認</t>
+    <t>22. ユーザー情報修正確認 confirmUpdateUser</t>
     <rPh sb="8" eb="10">
       <t>じょうほう</t>
     </rPh>
@@ -1006,7 +1006,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>23. ユーザー削除確認</t>
+    <t>23. ユーザー削除確認 deleteUser</t>
     <rPh sb="8" eb="10">
       <t>さくじょ</t>
     </rPh>
@@ -1016,7 +1016,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24. ユーザー削除完了</t>
+    <t>24. ユーザー削除完了 confirmDeleteUser</t>
     <rPh sb="8" eb="10">
       <t>さくじょ</t>
     </rPh>
@@ -2803,16 +2803,16 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
@@ -3650,7 +3650,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s2315"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s2323"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4172,7 +4172,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s5377"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s5385"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -4498,7 +4498,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s4369"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s4377"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5148,7 +5148,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s7499"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s7507"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5526,7 +5526,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s9508"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s9516"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -5904,7 +5904,7 @@
               <a:picLocks noChangeAspect="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s10485"/>
+                  <a14:cameraTool cellRange="マイルストーン!A1:AC19" spid="_x0000_s10493"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8048,12 +8048,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="C31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
     <mergeCell ref="C37:J38"/>
     <mergeCell ref="K37:K38"/>
     <mergeCell ref="L37:L38"/>
@@ -8063,6 +8057,12 @@
     <mergeCell ref="C35:J36"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:L36"/>
+    <mergeCell ref="C29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="C31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -10299,6 +10299,65 @@
   </sheetData>
   <autoFilter ref="K27:L27" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="75">
+    <mergeCell ref="C70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="C66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="C68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="C64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="C60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="C62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="C56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="C52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="C54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="C46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="C50:J51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="C80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="L80:L81"/>
+    <mergeCell ref="C76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="C78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="C74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="C40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="C44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="C48:J49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="C58:J59"/>
     <mergeCell ref="K58:K59"/>
     <mergeCell ref="L58:L59"/>
     <mergeCell ref="C30:J31"/>
@@ -10315,65 +10374,6 @@
     <mergeCell ref="L36:L37"/>
     <mergeCell ref="C38:J39"/>
     <mergeCell ref="K38:K39"/>
-    <mergeCell ref="C74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="C40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="C42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="C44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="C48:J49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="C58:J59"/>
-    <mergeCell ref="C80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="C76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="C78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="C46:J47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="C50:J51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="C56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="C52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="C54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="C64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="C60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="C62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="C70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="C66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="C68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -14043,66 +14043,6 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="C78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="C80:J81"/>
-    <mergeCell ref="K80:K81"/>
-    <mergeCell ref="L80:L81"/>
-    <mergeCell ref="C74:J75"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="C76:J77"/>
-    <mergeCell ref="K76:K77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="C70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="L70:L71"/>
-    <mergeCell ref="C66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="L66:L67"/>
-    <mergeCell ref="C68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="L68:L69"/>
-    <mergeCell ref="C60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="C64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="C62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="C56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="C58:J59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="C52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="C54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="C34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="C36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="C38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="C40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
     <mergeCell ref="C50:J51"/>
     <mergeCell ref="K50:K51"/>
     <mergeCell ref="L50:L51"/>
@@ -14118,6 +14058,66 @@
     <mergeCell ref="C46:J47"/>
     <mergeCell ref="K46:K47"/>
     <mergeCell ref="L46:L47"/>
+    <mergeCell ref="C38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="C40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="C36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="C52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="C54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="C56:J57"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="C58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="C60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="C64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="C62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="C70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="L70:L71"/>
+    <mergeCell ref="C66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="L66:L67"/>
+    <mergeCell ref="C68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="L68:L69"/>
+    <mergeCell ref="C74:J75"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="C76:J77"/>
+    <mergeCell ref="K76:K77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="C78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="C80:J81"/>
+    <mergeCell ref="K80:K81"/>
+    <mergeCell ref="L80:L81"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -14135,8 +14135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B23:CK76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58:L59"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AI32" sqref="AI32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.75" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -14306,13 +14306,13 @@
       <c r="H25" s="97"/>
       <c r="I25" s="97"/>
       <c r="J25" s="97"/>
-      <c r="K25" s="215" t="s">
+      <c r="K25" s="213" t="s">
         <v>3</v>
       </c>
-      <c r="L25" s="213" t="s">
+      <c r="L25" s="215" t="s">
         <v>50</v>
       </c>
-      <c r="M25" s="213" t="s">
+      <c r="M25" s="215" t="s">
         <v>45</v>
       </c>
       <c r="N25" s="8">
@@ -14404,9 +14404,9 @@
       <c r="H26" s="89"/>
       <c r="I26" s="89"/>
       <c r="J26" s="89"/>
-      <c r="K26" s="216"/>
-      <c r="L26" s="214"/>
-      <c r="M26" s="214"/>
+      <c r="K26" s="214"/>
+      <c r="L26" s="216"/>
+      <c r="M26" s="216"/>
       <c r="N26" s="36" t="s">
         <v>97</v>
       </c>
@@ -16442,7 +16442,7 @@
     </row>
     <row r="48" spans="2:89" x14ac:dyDescent="0.15">
       <c r="C48" s="207" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D48" s="208"/>
       <c r="E48" s="208"/>
@@ -16514,7 +16514,7 @@
     </row>
     <row r="50" spans="3:32" x14ac:dyDescent="0.15">
       <c r="C50" s="207" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D50" s="208"/>
       <c r="E50" s="208"/>
@@ -16586,7 +16586,7 @@
     </row>
     <row r="52" spans="3:32" x14ac:dyDescent="0.15">
       <c r="C52" s="207" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D52" s="208"/>
       <c r="E52" s="208"/>
@@ -16658,7 +16658,7 @@
     </row>
     <row r="54" spans="3:32" x14ac:dyDescent="0.15">
       <c r="C54" s="207" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D54" s="208"/>
       <c r="E54" s="208"/>
@@ -16730,7 +16730,7 @@
     </row>
     <row r="56" spans="3:32" x14ac:dyDescent="0.15">
       <c r="C56" s="207" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D56" s="208"/>
       <c r="E56" s="208"/>
@@ -16802,7 +16802,7 @@
     </row>
     <row r="58" spans="3:32" x14ac:dyDescent="0.15">
       <c r="C58" s="207" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D58" s="208"/>
       <c r="E58" s="208"/>
@@ -17482,6 +17482,64 @@
     </row>
   </sheetData>
   <mergeCells count="74">
+    <mergeCell ref="C42:J43"/>
+    <mergeCell ref="M25:M26"/>
+    <mergeCell ref="C28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="C46:J47"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="L25:L26"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="C34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="C36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="C44:J45"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="C38:J39"/>
+    <mergeCell ref="C48:J49"/>
+    <mergeCell ref="C50:J51"/>
+    <mergeCell ref="L48:L49"/>
+    <mergeCell ref="C52:J53"/>
+    <mergeCell ref="L50:L51"/>
+    <mergeCell ref="K50:K51"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="C64:J65"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="C54:J55"/>
+    <mergeCell ref="C56:J57"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="C58:J59"/>
+    <mergeCell ref="L56:L57"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="C74:J75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="K72:K73"/>
+    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="C70:J71"/>
     <mergeCell ref="K44:K45"/>
     <mergeCell ref="K46:K47"/>
     <mergeCell ref="K48:K49"/>
@@ -17498,64 +17556,6 @@
     <mergeCell ref="C60:J61"/>
     <mergeCell ref="C62:J63"/>
     <mergeCell ref="L60:L61"/>
-    <mergeCell ref="C74:J75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="K72:K73"/>
-    <mergeCell ref="K74:K75"/>
-    <mergeCell ref="C70:J71"/>
-    <mergeCell ref="C64:J65"/>
-    <mergeCell ref="L62:L63"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="C54:J55"/>
-    <mergeCell ref="C56:J57"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="C58:J59"/>
-    <mergeCell ref="L56:L57"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="C48:J49"/>
-    <mergeCell ref="C50:J51"/>
-    <mergeCell ref="L48:L49"/>
-    <mergeCell ref="C52:J53"/>
-    <mergeCell ref="L50:L51"/>
-    <mergeCell ref="K50:K51"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="C46:J47"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="K25:K26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="C34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="C36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="C44:J45"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="C38:J39"/>
-    <mergeCell ref="C42:J43"/>
-    <mergeCell ref="M25:M26"/>
-    <mergeCell ref="C28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="C40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations disablePrompts="1" count="1">
@@ -19003,38 +19003,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="C30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="C32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="C34:J35"/>
-    <mergeCell ref="K34:K35"/>
-    <mergeCell ref="L34:L35"/>
-    <mergeCell ref="C40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="C36:J37"/>
-    <mergeCell ref="K36:K37"/>
-    <mergeCell ref="L36:L37"/>
-    <mergeCell ref="C38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="L49:L50"/>
-    <mergeCell ref="C44:J45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="L44:L45"/>
-    <mergeCell ref="C61:J62"/>
-    <mergeCell ref="K61:K62"/>
-    <mergeCell ref="L61:L62"/>
-    <mergeCell ref="C55:J56"/>
-    <mergeCell ref="K55:K56"/>
-    <mergeCell ref="L55:L56"/>
-    <mergeCell ref="C57:J58"/>
-    <mergeCell ref="K57:K58"/>
-    <mergeCell ref="L57:L58"/>
     <mergeCell ref="L42:L43"/>
     <mergeCell ref="K42:K43"/>
     <mergeCell ref="C42:J43"/>
@@ -19051,6 +19019,38 @@
     <mergeCell ref="K47:K48"/>
     <mergeCell ref="L47:L48"/>
     <mergeCell ref="C49:J50"/>
+    <mergeCell ref="C61:J62"/>
+    <mergeCell ref="K61:K62"/>
+    <mergeCell ref="L61:L62"/>
+    <mergeCell ref="C55:J56"/>
+    <mergeCell ref="K55:K56"/>
+    <mergeCell ref="L55:L56"/>
+    <mergeCell ref="C57:J58"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="L57:L58"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="L49:L50"/>
+    <mergeCell ref="C44:J45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="L44:L45"/>
+    <mergeCell ref="C34:J35"/>
+    <mergeCell ref="K34:K35"/>
+    <mergeCell ref="L34:L35"/>
+    <mergeCell ref="C40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="C36:J37"/>
+    <mergeCell ref="K36:K37"/>
+    <mergeCell ref="L36:L37"/>
+    <mergeCell ref="C38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="C30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="L32:L33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
